--- a/Output.xlsx
+++ b/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1018,6 +1018,9546 @@
         <v>4.847389558232932</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>blackassign0006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/the-rise-of-the-ott-platform-and-its-impact-on-the-entertainment-industry-by-2040/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>The rise of the OTT platform and its impact on the entertainment industry by 2040.
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+“Entertainment is giving people what they want.” – Howard Hawks
+Entertainment,in its essence, is the art of captivating and delighting people, whisking them away from the mundane and into a world of imagination and emotion. It comes in various forms, from the tales told around ancient campfires to the dazzling spectacles of modern cinema. Traditionally, we relied on television, radio, and theatres to satiate our thirst for entertainment. However, a new dawn has emerged with the advent ofOver-The-Top (OTT) platforms, which deliver a wide array of digital content directly to consumers over the internet,transformingthe way we consume content. These platforms, accessible at the tap of a screen, are redefining the entertainment landscape, and their impact is both revolutionary and intriguing. As we project into the future, it is evident that the impact of OTT platforms on the entertainment industry will be profound by 2040.
+This essay explores the factors contributing to the rise of OTT platforms, their current significance, and the potential implications they may have on content creation, distribution, consumption, and the traditional media landscape.
+The Rise of OTT Platforms: A Historical Context
+The landscape of entertainment underwent a remarkable transformation with the rise of Over-The-Top (OTT) platforms, a shift that can be traced back to the early 2000s. This period marked the inception of a new era in content consumption, led by pioneering companies likeNetflix, which dared to venture into uncharted territories of streaming content over the internet.
+In their initial stages, these OTT platforms focused on a rather modest goal – providing a digital reservoir of older movies andtelevision shows.This innovative approach offered a departure from conventional entertainment delivery methods, introducing the concept of on-demand viewing. No longer were audiences tethered to rigid schedules dictated by traditional television broadcasts or cinema showtimes. Instead, viewers could now delve into a treasure trove of content at their convenience, ushering in anew era of viewer empowerment.
+The convenience ofon-demand viewingwas the first ripple in the pond, setting the stage for an even more profound transformation. As internet infrastructure and connectivity improved, a fertile ground was created for OTT platforms to flourish. With thesteady march of technology, consumer preferences began to shift, demanding not only convenience but also diversity and originality in content offerings.
+Recognizing this demand, OTT platforms embarked on a journey to reinvent themselves. They swiftly evolved from being mere repositories of nostalgic classics to becomingcreators and distributors of original programming. This strategic pivot marked a turning point, shaking the very foundations oftraditional broadcast and cable TV models.
+Original programming injected fresh life into the realm of entertainment, captivating audiences with narratives that were previously unheard of.As OTT platforms unleashed their creative prowess, they embraced storytelling in all its diverse forms – from gripping dramas and thrilling mysteries to heartwarming comedies and eye-opening documentaries. This creative renaissance shattered the monopoly that traditional media had held for decades, offering a level playing field for both established and emerging storytellers.
+The expansion of OTT offerings wasn’t merely a quantitative growth; it represented a qualitative leap. Audiences were no longer limited to a predetermined menu of content; they were handed the reins to an expansive universe where choice and personalization reigned supreme. This revolution ignited a ripple effect across the entertainment industry, influencing content creators, and production studios, and even influencing the very way stories were conceived and told.
+Factors Driving the Rise of OTT Platforms
+1.Convenience and Personalization:OTT platforms offer unparalleled convenience and personalization. Viewers can access content whenever and wherever they want, catering to their schedules and preferences. The ability to create personalized profiles, curated recommendations, and watchlists has created a more tailored and engaging viewing experience.
+2.Content Variety and Original Programming: OTT platforms have invested heavily in producing high-quality original content, ranging from TV series and movies to documentaries and stand-up specials. This commitment to diverse and compelling content has attracted a broader audience and positioned OTT platforms as formidable competitors in the entertainment industry.
+3.Global Reach and Accessibility:The global accessibility of OTT platforms has broken down geographical barriers, enabling content creators to reach audiences worldwide without the limitations of traditional distribution channels. This has fostered cross-cultural exchange and enriched content diversity.
+4.Technological Advancements:Advancements in streaming technology, including improved video compression algorithms and faster internet speeds, have facilitated seamless content delivery. This has reduced buffering issues and enhanced the overall user experience, further incentivizing consumers to adopt OTT platforms.
+5.Disruption of Traditional Models:OTT platforms have disrupted traditional media models by offering subscription-based and ad-supported options that challenge the conventional pay-TV model. This disruption has prompted traditional media companies to adapt and create their streaming services, intensifying competition within the industry.
+The Current Significance of OTT Platforms
+As of the present day, OTT platforms have already significantly transformed the entertainment landscape. Major players like Netflix, Amazon Prime Video, Disney+, and Hulu have amassed massive subscriber bases, challenging the dominance of cable and broadcast television. The ability of these platforms to produce critically acclaimed and culturally impactful original content, such as Stranger Things, The Mandalorian” and “The Crown” has further solidified their place in popular culture.
+OTT platforms have also revolutionized content consumption habits. Binge-watching, or consuming multiple episodes of a TV series in rapid succession, has become a cultural phenomenon enabled by the release of entire seasons at once. This shift in viewing behaviour has influenced storytelling techniques and narrative structures, as content creators aim to engage audiences over extended periods.
+Impact on Content Creation and Distribution
+Looking ahead to 2040, the impact of OTT platforms on content creation and distribution will likely be even more pronounced. The ability of these platforms to gather vast amounts of user data and insights will enable content creators to make more informed decisions about the type of content that resonates with audiences. This data-driven approach may lead to more targeted and innovative storytelling, resulting in a diverse range of content that caters to various tastes and preferences.
+Additionally, the direct-to-consumer model of OTT platforms eliminates the need for traditional distribution channels, reducing intermediaries and production costs. This may empower independent filmmakers and creators to showcase their work to a global audience, democratizing the content creation process and fostering creativity and diversity.
+However, the dominance of OTT platforms could also pose challenges to content diversity. While these platforms have expanded the range of stories being told, there is a risk that certain niche genres or perspectives may be overshadowed by the pursuit of mass appeal. Content algorithms that prioritize popular genres could limit exposure to lesser-known content, potentially hindering the discovery of unique voices.
+Changing Consumer Behavior and Expectations
+The rise of OTT platforms has fundamentally shifted consumer behaviour and expectations, and this trend is likely to continue. The demand for instant gratification, personalized recommendations, and a seamless viewing experience has set a high standard for the industry. By 2040, we can expect consumers to expect even more immersive and interactive experiences, driven by advancements in virtual reality (VR) and augmented reality (AR) technologies.
+Furthermore, the concept of “cord-cutting” – the act of cancelling traditional cable or satellite TV subscriptions in favour of OTT platforms – is projected to become the norm by 2040. As more households transition to streaming services, the traditional TV ecosystem could undergo a profound transformation, leading to changes in advertising models, revenue streams, and the overall content landscape.
+Diversified and Tailored Content Creation:
+By 2040, OTT platforms will have catalyzed a revolution in content creation. The democratization of production tools and distribution channels will empower a diverse range of creators to showcase their talents on a global stage. The boundaries of storytelling will be pushed, giving rise to narratives that reflect a spectrum of cultures, perspectives, and experiences. Personalization algorithms will refine content recommendations, ensuring that each individual’s entertainment journey is a unique and engaging one.
+The Erosion of Traditional Broadcast and Cable TV:
+The traditional broadcast and cable TV models, once the stalwarts of entertainment, will be shadows of their former selves. The dominance of OTT platforms will relegate scheduled programming to nostalgia, as audiences demand the freedom to curate their viewing schedules. Live streaming and real-time interaction will bridge the gap between virtual and reality, providing immersive experiences that redefine the concept of “appointment viewing.”
+Globalization of Content:
+The boundaries of geography will blur as OTT platforms transcend borders. By 2040, audiences around the world will effortlessly access content from diverse cultures, languages, and genres. The exchange of stories and ideas will foster cross-cultural understanding and appreciation, contributing to a more interconnected global society.
+Interactive and Immersive Experiences:
+The integration of emerging technologies, such as virtual reality (VR) and augmented reality (AR), will elevate entertainment to new heights. Viewers will step into the worlds of their favourite shows and movies, becoming active participants in the storytelling process. Immersive narratives and interactive elements will blur the line between fiction and reality, engaging audiences in ways never before imagined.
+Monetization and Industry Dynamics:
+The monetization landscape will undergo a profound transformation. Advertising models will evolve as targeted, non-intrusive ads replace traditional commercial breaks. Subscription-based and pay-per-view models will flourish, providing viewers with a plethora of options tailored to their preferences. The traditional “box office” concept will extend beyond theatres, as online premieres and exclusive releases become the norm.
+Challenges and Considerations
+While the rise of OTT platforms presents numerous opportunities, it also raises important considerations and challenges for the entertainment industry. The proliferation of streaming services could lead to subscription fatigue, where consumers are overwhelmed by the sheer number of available platforms. This may drive some users to piracy or result in a decline in overall revenue for the industry.
+Additionally, issues related to data privacy and content moderation will continue to be significant concerns. The collection of user data to improve recommendations and advertising targeting raises questions about the ethical use of personal information. Furthermore, the open nature of online platforms can make it difficult to regulate inappropriate or harmful content, requiring industry stakeholders and policymakers to collaborate on effective solutions.
+Conclusion
+In conclusion, the rise of OTT platforms has already made a substantial impact on the entertainment industry, and their influence is likely to be even more profound by 2040. The convenience, personalization, and global accessibility of these platforms have transformed content consumption habits and disrupted traditional media models. As we project into the future, we can anticipate further advancements in technology, changes in content creation and distribution, and evolving consumer behaviour and expectations.
+While the challenges posed by the rise of OTT platforms should not be overlooked, their potential to democratize content creation, offer diverse narratives, and provide innovative viewing experiences is undeniable. Industry stakeholders, content creators, and policymakers must collaborate to navigate these challenges and harness the full potential of OTT platforms for the benefit of both creators and consumers in the evolving entertainment landscape of 2040.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>rise platform impact entertainment industry 2040 Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Entertainment giving people Entertainment essence captivating delighting people whisking mundane world imagination emotion forms tales told ancient campfires dazzling spectacles modern cinema Traditionally relied television radio theatres satiate thirst entertainment emerged advent platforms deliver wide array digital content directly consumers internet transformingthe consume content platforms accessible tap screen redefining entertainment landscape impact revolutionary intriguing project future evident impact platforms entertainment industry profound 2040 essay explores factors contributing rise platforms current significance potential implications content creation distribution consumption traditional media landscape Rise Platforms Historical Context landscape entertainment underwent remarkable transformation rise platforms shift traced 2000s period marked inception content consumption led pioneering companies likeNetflix dared venture uncharted territories streaming content internet initial stages platforms focused modest goal providing digital reservoir older movies andtelevision innovative approach offered departure conventional entertainment delivery methods introducing concept viewing longer audiences tethered rigid schedules dictated traditional television broadcasts cinema showtimes viewers delve treasure trove content convenience ushering anew viewer empowerment convenience viewingwas ripple setting stage profound transformation internet infrastructure connectivity improved fertile ground created platforms flourish thesteady technology consumer preferences began shift demanding convenience diversity originality content offerings Recognizing demand platforms embarked journey reinvent swiftly evolved mere repositories nostalgic classics becomingcreators distributors original programming strategic pivot marked turning point shaking foundations oftraditional broadcast TV models Original programming injected fresh life realm entertainment captivating audiences narratives previously unheard platforms unleashed creative prowess embraced storytelling diverse forms gripping dramas thrilling mysteries heartwarming comedies documentaries creative renaissance shattered monopoly traditional media decades offering level playing established emerging storytellers expansion offerings quantitative growth represented qualitative leap Audiences longer limited predetermined menu content handed reins expansive universe choice personalization reigned supreme revolution ignited ripple effect entertainment industry influencing content creators production studios influencing stories conceived told Factors Driving Rise Platforms Personalization platforms offer unparalleled convenience personalization Viewers access content catering schedules preferences ability create personalized profiles curated recommendations watchlists created tailored engaging viewing experience Variety Original Programming platforms invested heavily producing original content ranging TV series movies documentaries specials commitment diverse compelling content attracted broader audience positioned platforms formidable competitors entertainment industry Reach Accessibility global accessibility platforms broken geographical barriers enabling content creators reach audiences worldwide limitations traditional distribution channels fostered exchange enriched content diversity Advancements Advancements streaming technology including improved video compression algorithms faster internet speeds facilitated seamless content delivery reduced buffering issues enhanced user experience incentivizing consumers adopt platforms Traditional Models platforms disrupted traditional media models offering options challenge conventional model disruption prompted traditional media companies adapt create streaming services intensifying competition industry Current Significance Platforms present platforms significantly transformed entertainment landscape players Netflix Amazon Prime Video Hulu amassed massive subscriber bases challenging dominance broadcast television ability platforms produce critically acclaimed culturally impactful original content Stranger Things Mandalorian Crown solidified popular culture platforms revolutionized content consumption habits consuming multiple episodes TV series rapid succession cultural phenomenon enabled release entire seasons shift viewing behaviour influenced storytelling techniques narrative structures content creators aim engage audiences extended periods Impact Content Creation Distribution ahead 2040 impact platforms content creation distribution pronounced ability platforms gather vast amounts user data insights enable content creators make informed decisions type content resonates audiences approach lead targeted innovative storytelling resulting diverse content caters tastes preferences Additionally model platforms eliminates traditional distribution channels reducing intermediaries production costs empower independent filmmakers creators showcase work global audience democratizing content creation process fostering creativity diversity dominance platforms pose challenges content diversity platforms expanded stories told risk niche genres perspectives overshadowed pursuit mass appeal Content algorithms prioritize popular genres limit exposure content potentially hindering discovery unique voices Changing Consumer Behavior Expectations rise platforms fundamentally shifted consumer behaviour expectations trend continue demand instant gratification personalized recommendations seamless viewing experience set standard industry 2040 expect consumers expect immersive interactive experiences driven advancements virtual reality VR augmented reality AR technologies concept act cancelling traditional satellite TV subscriptions favour platforms projected norm 2040 households transition streaming services traditional TV ecosystem undergo profound transformation leading advertising models revenue streams content landscape Diversified Tailored Content Creation 2040 platforms catalyzed revolution content creation democratization production tools distribution channels empower diverse creators showcase talents global stage boundaries storytelling pushed giving rise narratives reflect spectrum cultures perspectives experiences Personalization algorithms refine content recommendations ensuring individual entertainment journey unique engaging Erosion Traditional Broadcast TV traditional broadcast TV models stalwarts entertainment shadows dominance platforms relegate scheduled programming nostalgia audiences demand freedom curate viewing schedules Live streaming interaction gap virtual reality providing immersive experiences redefine concept appointment Globalization Content boundaries geography blur platforms transcend 2040 audiences world effortlessly access content diverse cultures languages genres exchange stories ideas understanding appreciation contributing interconnected global society Interactive Immersive Experiences integration emerging technologies virtual reality VR augmented reality AR elevate entertainment heights Viewers step worlds favourite shows movies active participants storytelling process Immersive narratives interactive elements blur line fiction reality engaging audiences ways imagined Monetization Industry Dynamics monetization landscape undergo profound transformation Advertising models evolve targeted ads replace traditional commercial breaks models flourish providing viewers plethora options tailored preferences traditional office concept extend theatres online premieres exclusive releases norm Challenges Considerations rise platforms presents numerous opportunities raises important considerations challenges entertainment industry proliferation streaming services lead subscription fatigue consumers overwhelmed sheer number platforms drive users piracy result decline revenue industry Additionally issues related data privacy content moderation continue significant concerns collection user data improve recommendations advertising targeting raises questions ethical personal information open nature online platforms make difficult regulate inappropriate harmful content requiring industry stakeholders policymakers collaborate effective solutions Conclusion conclusion rise platforms made substantial impact entertainment industry influence profound 2040 convenience personalization global accessibility platforms transformed content consumption habits disrupted traditional media models project future anticipate advancements technology content creation distribution evolving consumer behaviour expectations challenges posed rise platforms overlooked potential democratize content creation offer diverse narratives provide innovative viewing experiences undeniable Industry stakeholders content creators policymakers collaborate navigate challenges full potential platforms benefit creators consumers evolving entertainment landscape 2040 provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>90</v>
+      </c>
+      <c r="G7" t="n">
+        <v>26</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.551724133174792</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1044104409501256</v>
+      </c>
+      <c r="J7" t="n">
+        <v>23.04651162790698</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.2926337033299697</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9.335658132494778</v>
+      </c>
+      <c r="M7" t="n">
+        <v>26.61627906976744</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1248</v>
+      </c>
+      <c r="O7" t="n">
+        <v>580</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4138</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>7</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5.165133596145423</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>blackassign0007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/rise-of-cyber-crime-and-its-effects/</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Rise of Cyber Crime and its Effects
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Cybercrime is the most discussed problem in the twenty-first century. The usage of cell phones and the internet is increasing dramatically over the world, which is generating questions about consumers’ security and privacy. Because of this, all users must understand cybercrime and security. Cybercrime is defined as organised criminal conduct carried out by attackers online. Cybercrime comes in numerous forms, such as fraud, computer viruses, cyberstalking, and others. Due to these, businesses and government organisations are spending more on maintaining and employing professionals in cybercrime.
+7 Cyber security keywords: –
+1- Artificial Intelligence
+AI has been around for quite a while now and one of its most memorable advancements was the Go game between ‘AlphaGo’, a computer Go program developed by Google DeepMind, and the world champion Lee Se-dol. AlphaGo was able to use its collected data to achieve its goal. The so-called ‘weak AI’ used on AlphaGo is also applied to various fields within cyber security.
+2. Ransomware
+Over the past years, ransomware has been aiming at innumerable targets. However, its new method of attack now aims at specific targets, where companies, communities, and public institutions are at risk. Companies with strong financial powers are most likely to be their targets as the attackers will be rewarded huge sums of money for their success. Those providing Infra and Database storage, local government and healthcare organizations, are listed as the main targets of ransomware attacks.
+3. Supply Chain Attack
+A supply chain attack is a cyber-attack that affects the organization by targeting less-secure elements in the supply network. Supply Chain attacks were already on the list of the 7 Cybersecurity keywords last year, and still manage to maintain their place. Such attacks will continue to infiltrate the supply chain through third-party systems and services. Therefore, due to its weak security systems, those purchasing third-party vendor products and services must take extra caution.
+4. Cloud
+The interest in Cloud Security is on the rise. However, it is pointed out that Cloud computing’s largest vulnerability is the operator’s configuration error. More complex and flexible Cloud systems will eventually lead to a greater number of errors and reveal itself as a target for many cyber attackers.
+5. Malicious emails
+Receiving emails containing malware is not a new thing anymore. The Financial Security Institute warns us how malware email attacks are becoming more cunning and harder to block. Spear Phishing, a traditional method of attack that uses HWP and DOC documents, will not stop this year.
+6. Internet of Things (IoT)
+Building castles in the air was the perfect phrase to describe how IoT was perceived. However, IoT has now become a part of our lives. People can now watch YouTube on their refrigerators and gas valves can be closed by using Smartphone applications. Many are experiencing an easier lifestyle but are also suffering from many cyber threats.
+7. Darkweb
+Due to several incidents, Darkweb, which was only known to cyber attackers and security professionals, is now well-known to the public. For example, Warez and Webhard are the two programs in which Netizens in Korea can improve their networking skills but also leads them to be involved in distributing illegal programs and even in cybercrime.
+There are millions and billions of users and websites in the vast community known as cyberspace. People utilise it for a variety of activities including e-commerce, transactions, shopping, movies, music, and video games. Anyone can simply access anything online in the current technological era owing to an accessible internet connection. As a result, crime in general and cybercrime, in particular, have surged dramatically. Additionally, the faster internet connection has greatly boosted the rate of data circulation. All of these problems are responsible for why cyber security has grown to be a significant issue for society.
+The government has created several cybercrime-related laws to curb the spread of crime and to protect people’s interests. These laws also provide a defence against cybercrime. Aside from that, the government has established cyber cells in police stations to combat cybercrime as quickly as possible.
+Cybercrime is an attack that can be harmful to both an individual and a business. There have been several instances where a Cyber Attack led to a data leak that caused a significant loss for a business or a person. These cyber-attacks could have negative effects on the country and the business. The countless instances of cyberattacks that have taken place in India and other nations have necessitated increased security measures. There are four main categories of cybercrime, according to a popular definition—hacking, money, privacy, and cyber-terrorism.
+Cybercrime is a type of crime in which illegal activities are carried out online or using computers. Cybercrime comes in a variety of forms which involves harassing online users. Cybercrime is the most serious and rapidly expanding type of crime in this day and age. Any person’s life may be negatively impacted for a very long time by becoming a cyber victim. Cybercrimes have a wide range of repercussions on financial and investment activity in digital organisations.
+One typical tactic used by criminals is to lure online users in by creating attractive websites and sending phoney emails purporting to be from banks or other organisations and asking for personal information. It makes it easier for criminals to access a person’s bank account and personal data. Due to viruses, mail fraud, account hacking, and software piracy, people have been victims of cybercrimes. They also run into problems with unauthorised access mailing, threats from pornographic emails, and video transmission.
+Types of Cyber Crime
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Rise Cyber Crime Effects Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Cybercrime discussed problem century usage cell phones internet increasing dramatically world generating questions consumers security privacy users understand cybercrime security Cybercrime defined organised criminal conduct carried attackers online Cybercrime numerous forms fraud computer viruses cyberstalking Due businesses government organisations spending maintaining employing professionals cybercrime 7 Cyber security keywords Artificial Intelligence memorable advancements game AlphaGo computer program developed Google DeepMind world AlphaGo collected data achieve goal weak AlphaGo applied cyber security 2 Ransomware past years ransomware aiming innumerable targets method attack aims specific targets companies communities public institutions risk Companies financial targets attackers rewarded huge sums success providing Infra Database storage local government healthcare organizations listed targets ransomware attacks 3 Supply Chain Attack supply chain attack affects organization targeting elements supply network Supply Chain attacks list 7 Cybersecurity keywords manage maintain attacks continue infiltrate supply chain systems services due weak security systems purchasing vendor products services extra caution 4 interest Security rise pointed computing largest vulnerability operator configuration error complex flexible systems eventually lead greater number errors reveal target cyber attackers 5 Malicious emails Receiving emails malware thing anymore Financial Security Institute warns malware email attacks cunning Phishing traditional method attack HWP DOC documents stop 6 Internet Things IoT Building castles air perfect phrase describe IoT perceived IoT part lives People watch YouTube refrigerators gas valves closed Smartphone applications experiencing easier lifestyle suffering cyber threats 7 Darkweb Due incidents Darkweb cyber attackers security professionals public Warez Webhard programs Netizens improve networking skills leads involved distributing illegal programs cybercrime millions billions users websites vast community cyberspace People utilise variety activities including transactions shopping movies video games simply access online current technological owing accessible internet connection result crime general cybercrime surged dramatically Additionally faster internet connection greatly boosted rate data circulation problems responsible cyber security grown significant issue society government created curb spread crime protect people interests provide defence cybercrime government established cyber cells police stations combat cybercrime quickly Cybercrime attack harmful individual business instances Cyber Attack led data caused significant loss business negative effects business countless instances cyberattacks necessitated increased security measures categories cybercrime popular privacy Cybercrime type crime illegal activities carried online computers Cybercrime variety forms involves harassing online users Cybercrime rapidly expanding type crime age life negatively impacted time cyber victim Cybercrimes wide repercussions financial investment activity digital organisations typical tactic criminals lure online users creating attractive websites sending phoney emails purporting organisations personal information makes easier criminals access bank account personal data Due viruses mail fraud account hacking software piracy people victims cybercrimes run problems unauthorised access mailing threats pornographic emails video transmission Types Cyber Crime provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>28</v>
+      </c>
+      <c r="G8" t="n">
+        <v>40</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.1764705856401385</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1205673756727529</v>
+      </c>
+      <c r="J8" t="n">
+        <v>17.6031746031746</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2560865644724977</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.143704467058841</v>
+      </c>
+      <c r="M8" t="n">
+        <v>20.34920634920635</v>
+      </c>
+      <c r="N8" t="n">
+        <v>670</v>
+      </c>
+      <c r="O8" t="n">
+        <v>284</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2197</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4.647843137254902</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>blackassign0008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/rise-of-internet-demand-and-its-impact-on-communications-and-alternatives-by-the-year-2035-2/</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Rise of Internet Demand and Its Impact on Communications and Alternatives by the Year 2035
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Introduction:
+The year 2035 is anticipated to witness an unprecedented surge in internet demand, catalysed by rapid technological advancements and the proliferation of connected devices. This growth in internet consumption will have far-reaching implications for global communications and will reshape the way individuals, businesses, and societies interact with each other. In this article, we explore Internet Demand2035, its impact on communications, and the alternative technologies that will play crucial roles in shaping the digital landscape of the future.
+1. The Exponential Rise in Internet Demand:
+By 2035, the global population will become increasingly reliant on the Internet for various aspects of daily life. The proliferation of smartphones, tablets, smart home devices, and IoT-enabled appliances will significantly contribute to the exponential rise in internet demand. Emerging economies, with their increasing access to affordable internet services, will become significant drivers of this trend, further accelerating the demand for online connectivity.
+2. Evolution of Communications:
+The surge in internet demand will revolutionize traditional communication methods. Voice and video calling will be more seamless and high-quality due to the widespread implementation of 5G networks. Real-time communication will become more immersive and interactive, enabling virtual meetings and conferences to rival in-person interactions. This will result in increased productivity and reduced travel costs for businesses and individuals alike.
+3. The Role of AI in Communications:
+By 2035, Artificial Intelligence (AI) will play a pivotal role in optimizing communication experiences. AI-driven chatbots and virtual assistants will become ubiquitous, streamlining customer support and enhancing the overall user experience. AI-powered language translation services will break down language barriers, facilitating cross-cultural communication and fostering global connections.
+4. Internet of Things (IoT) Revolution:
+The Internet of Things (IoT) will reach its full potential by 2035, with myriad interconnected devices shaping how we communicate and interact with our surroundings. Smart cities will utilize IoT to optimize traffic flow, reduce energy consumption, and enhance public safety. IoT-enabled healthcare devices will revolutionize telemedicine, enabling remote patient monitoring and personalized healthcare services.
+5. 5G Networks and Enhanced Connectivity:
+The deployment of 5G networks will be integral to meeting the escalating internet demand. By 2035, 5G infrastructure will be widely available, offering unparalleled speed and ultra-low latency. This advancement will revolutionize mobile communication, enabling real-time data transfer, augmented reality (AR), and virtual reality (VR) experiences on the go.
+6. Virtual Reality (VR) Communication:
+VR communication will become a mainstream mode of interaction by 2035. Virtual meetings, social gatherings, and immersive collaboration spaces will redefine the concept of presence, enabling individuals from different corners of the world to engage as if they were physically together. VR will have a significant impact on industries such as education, entertainment, and professional training.
+7. The Challenge of Cybersecurity:
+The rise in internet demand will also amplify the risks posed by cyber threats. By 2035, cybercriminals will employ more sophisticated techniques to exploit vulnerabilities in the digital infrastructure. Governments and organizations must invest heavily in cybersecurity measures to safeguard critical data and protect the privacy of individuals.
+8. Technological Advancements Driving Communication Alternatives:
+Beyond the internet, advancements in communication alternatives will provide viable options for specific use cases. Quantum communication promises unparalleled security and unbreakable encryption for sensitive data transmission, making it ideal for critical communications in the defence and finance sectors.
+9. Satellite Internet and Global Connectivity:
+Satellite internet will play a pivotal role in bridging the digital divide by 2035. Low Earth Orbit (LEO) satellite constellations will offer high-speed internet access to remote and underserved regions, unlocking economic opportunities and enhancing educational resources for marginalized communities.
+10. Blockchain for Decentralized Communication:
+The rise of blockchain technology will empower individuals to take control of their communications and data. Decentralized communication platforms built on blockchain will provide enhanced privacy, eliminating the need for centralized intermediaries. This shift towards user-centric communication will gain traction as concerns about data breaches and surveillance grow.
+Conclusion:
+The rise of internet demand by 2035 will be a transformative force, impacting communications and shaping the global digital landscape. The proliferation of interconnected devices, the deployment of 5G networks, and the integration of AI and VR will revolutionize the way we interact and conduct business. However, this growth in connectivity also comes with challenges, particularly in the realm of cybersecurity. Embracing alternative technologies like quantum communication, satellite internet, and blockchain-based communication platforms will be essential to addressing these challenges while unlocking the full potential of a digitally connected world. As the future unfolds, a balance between technological advancement and safeguarding user privacy will be crucial in realizing the true potential of the Internet revolution.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Rise Internet Demand Impact Communications Alternatives 2035 Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Introduction 2035 anticipated witness unprecedented surge internet demand catalysed rapid technological advancements proliferation connected devices growth internet consumption implications global communications reshape individuals businesses societies interact article explore Internet Demand2035 impact communications alternative technologies play crucial roles shaping digital landscape future 1 Exponential Rise Internet Demand 2035 global population increasingly reliant Internet aspects life proliferation smartphones tablets home devices appliances significantly contribute exponential rise internet demand Emerging economies increasing access affordable internet services significant drivers trend accelerating demand online connectivity 2 Evolution Communications surge internet demand revolutionize traditional communication methods Voice video calling seamless due widespread implementation 5G networks communication immersive interactive enabling virtual meetings conferences rival interactions result increased productivity reduced travel costs businesses individuals alike 3 Role Communications 2035 Artificial Intelligence play pivotal role optimizing communication experiences chatbots virtual assistants ubiquitous streamlining customer support enhancing user experience language translation services break language barriers facilitating communication fostering global connections 4 Internet Things IoT Revolution Internet Things IoT reach full potential 2035 myriad interconnected devices shaping communicate interact surroundings cities utilize IoT optimize traffic flow reduce energy consumption enhance public safety healthcare devices revolutionize telemedicine enabling remote patient monitoring personalized healthcare services 5 5G Networks Enhanced Connectivity deployment 5G networks integral meeting escalating internet demand 2035 5G infrastructure widely offering unparalleled latency advancement revolutionize mobile communication enabling data transfer augmented reality AR virtual reality VR experiences 6 Virtual Reality VR Communication VR communication mainstream mode interaction 2035 Virtual meetings social gatherings immersive collaboration spaces redefine concept presence enabling individuals corners world engage physically VR significant impact industries education entertainment professional training 7 Challenge Cybersecurity rise internet demand amplify risks posed cyber threats 2035 cybercriminals employ sophisticated techniques exploit vulnerabilities digital infrastructure Governments organizations invest heavily cybersecurity measures safeguard critical data protect privacy individuals 8 Technological Advancements Driving Communication Alternatives internet advancements communication alternatives provide viable options specific cases Quantum communication promises unparalleled security unbreakable encryption sensitive data transmission making ideal critical communications defence finance sectors 9 Satellite Internet Global Connectivity Satellite internet play pivotal role bridging digital divide 2035 Earth Orbit satellite constellations offer internet access remote underserved regions unlocking economic opportunities enhancing educational resources marginalized communities 10 Blockchain Decentralized Communication rise blockchain technology empower individuals control communications data Decentralized communication platforms built blockchain provide enhanced privacy eliminating centralized intermediaries shift communication gain traction concerns data breaches surveillance Conclusion rise internet demand 2035 transformative force impacting communications shaping global digital landscape proliferation interconnected devices deployment 5G networks integration VR revolutionize interact conduct business growth connectivity challenges realm cybersecurity Embracing alternative technologies quantum communication satellite internet communication platforms essential addressing challenges unlocking full potential digitally connected world future unfolds balance technological advancement safeguarding user privacy crucial realizing potential Internet revolution provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>34</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5454545330578515</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.07470288612104774</v>
+      </c>
+      <c r="J9" t="n">
+        <v>18.26923076923077</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3652631578947368</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7.453797570850203</v>
+      </c>
+      <c r="M9" t="n">
+        <v>21.55769230769231</v>
+      </c>
+      <c r="N9" t="n">
+        <v>626</v>
+      </c>
+      <c r="O9" t="n">
+        <v>347</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2144</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5.305680793507665</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>blackassign0009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/rise-of-cybercrime-and-its-effect-by-the-year-2040-2/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Rise of Cybercrime and its Effect by the Year 2040.
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+As technology continues to advance, the world becomes more reliant on the internet for various aspects of our lives. While this connectivity brings numerous benefits, it has also opened the door to cybercrime, posing genuine concerns for the future. Over the years, cybercriminals have evolved their techniques, making them more sophisticated and challenging to combat. By the year 2040, cybercrime is expected to rise significantly, impacting individuals, businesses, and society as a whole.
+Since the advent of the internet, cybercrime has grown exponentially in scale and complexity. Initially, cybercrime activities revolved around basic hacking attempts and online scams. However, as technology advanced, so did the methods used by cybercriminals. By 2040, cybercrime is expected to employ advanced artificial intelligence, quantum computing, and other emerging technologies, posing significant challenges for law enforcement and cybersecurity professionals.
+The rise of cybercrime will inevitably result in severe financial consequences for individuals and organizations alike. As technology becomes more integrated into our daily lives, so do the potential threats to our financial assets. By 2040, cybercriminals may have developed advanced techniques to compromise financial institutions, infiltrate cryptocurrencies, and exploit weaknesses in global financial systems.
+We can expect a surge in ransomware attacks, where cybercriminals encrypt critical data and demand large ransoms for its release. Additionally, identity theft and credit card fraud will become more common, leading to substantial financial losses for individuals and businesses worldwide.
+2. Data Privacy and Security Concerns  :
+In the future, protecting our data will be a paramount concern. With cybercriminals becoming more sophisticated, large-scale data breaches are likely to increase, affecting both the public and private sectors. Personal information, as well as sensitive government and corporate data, may be compromised.
+The growing threat to data privacy will demand better cybersecurity measures and stricter regulations. However, staying ahead of cybercriminals’ techniques will be an ongoing challenge.
+3. Cyber Warfare and Geopolitical Ramifications   :
+By 2040, cyber warfare will have likely escalated to unprecedented levels. Nation-states and rogue actors will exploit cyber vulnerabilities to wage attacks on critical infrastructure, disrupting essential services like power grids, transportation systems, and communication networks.
+The interconnectivity of nations through the internet will create new battlegrounds in the digital realm. These cyber-attacks will blur the lines between traditional warfare and cyber warfare, leading to geopolitical tensions and retaliatory actions in response to cyber aggression.
+4. Impact on Emerging  Technologies   :
+The rise of cybercrime may also hinder the progress of emerging technologies. As industries invest heavily in innovations like the Internet of Things (IoT) and smart cities, cybercriminals may target these advancements for disruption and financial gain.
+A lack of trust in cyber security measures could slow down the adoption of these technologies, delaying their potential benefits to society. It will be essential to prioritize security measures alongside technological advancements.
+5. Psychological and Social Impact  :
+Beyond financial and technological ramifications, cybercrime will also have significant psychological and social effects. As individuals fall victim to cyber-attacks, they may experience increased anxiety, fear, and distrust of online platforms. This may lead to a decline in internet usage or a shift in behaviour concerning the sharing of personal information.
+Moreover, cybercriminals might exploit social media and digital communication channels to manipulate public opinions, create disinformation campaigns, and sow discord within societies. The rise of cybercrime could also exacerbate existing inequalities, with vulnerable populations being disproportionately affected by cyber threats.
+Mitigating the Effects of Cybercrime
+While the projected rise of cybercrime by 2040 seems daunting, there is hope for effective mitigation. As technology advances, so too will the capabilities of cyber security measures. Policymakers, businesses, and individuals must work together to implement proactive strategies to combat cyber threats effectively.
+1. Strengthening Cyber Security Measures –
+Investing in cutting-edge cyber security technologies, like quantum-resistant encryption and AI-driven threat detection systems, will be crucial in safeguarding sensitive data and infrastructure. Companies should adopt a “security-first” approach to develop products and services that prioritize user privacy and data protection.
+2. Promoting Cyber Security Awareness –
+Raising public awareness about cyber threats and best practices is vital in reducing vulnerability to cybercrime. Educational campaigns and training programs should be implemented at all levels, from schools and universities to workplaces and public institutions.
+3. Global Cooperation and Information Sharing –
+Cybercrime knows no borders, and combating it requires global cooperation. International collaborations among law enforcement agencies and governments are essential to track down and prosecute cybercriminals across jurisdictions. Additionally, sharing information on cyber threats can help organizations stay ahead of evolving attacks.
+4. Privacy and Data Protection Regulations –
+Governments must continue to develop and enforce robust privacy and data protection regulations. Striking a balance between innovation and security will be crucial in protecting individuals’ rights while enabling technological advancements.
+Conclusion :
+As we approach the year 2040, the rise of cybercrime poses a formidable challenge to our interconnected world. The financial, technological, and psychological impacts of cybercrime could be devastating if left unchecked. However, with proactive measures and global collaboration, we can strive to stay one step ahead of cybercriminals and build a safer digital future for all. It is crucial to prioritize cyber security efforts, promote awareness, and enact effective regulations to mitigate the effects of cybercrime and safeguard our digital way of life.
+Topic keywords-
+Cybercrime, Rise of cybercrime, Impact of cybercrime, Technology advancement, Interconnected world, Cybercriminals, Advanced techniques, Artificial intelligence, Quantum computing, Financial implications, Ransomware attacks, Identity theft Data privacy, Data security, Large-scale data breaches, Cyberwarfare, Geopolitical ramifications
+Topic tags – Cybercrime trends, Future of cybercrime, Cyber security challenges, Technology advancements, Artificial intelligence in cybercrime, Quantum computing and cyber attacks, Financial implications of cybercrime, Ransomware and extortion.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Rise Cybercrime Effect 2040 Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist technology continues advance world reliant internet aspects lives connectivity brings numerous benefits opened door cybercrime posing genuine concerns future years cybercriminals evolved techniques making sophisticated challenging combat 2040 cybercrime expected rise significantly impacting individuals businesses society advent internet cybercrime grown exponentially scale complexity Initially cybercrime activities revolved basic hacking attempts online scams technology advanced methods cybercriminals 2040 cybercrime expected employ advanced artificial intelligence quantum computing emerging technologies posing significant challenges enforcement cybersecurity professionals rise cybercrime inevitably result severe financial consequences individuals organizations alike technology integrated lives potential threats financial assets 2040 cybercriminals developed advanced techniques compromise financial institutions infiltrate cryptocurrencies exploit weaknesses global financial systems expect surge ransomware attacks cybercriminals encrypt critical data demand ransoms release Additionally identity theft credit fraud common leading substantial financial losses individuals businesses worldwide 2 Data Privacy Security Concerns future protecting data paramount concern cybercriminals sophisticated data breaches increase affecting public private sectors Personal information sensitive government corporate data compromised growing threat data privacy demand cybersecurity measures stricter regulations staying ahead cybercriminals techniques ongoing challenge 3 Cyber Warfare Geopolitical Ramifications 2040 cyber warfare escalated unprecedented levels rogue actors exploit cyber vulnerabilities wage attacks critical infrastructure disrupting essential services grids transportation systems communication networks interconnectivity internet create battlegrounds digital realm blur lines traditional warfare cyber warfare leading geopolitical tensions retaliatory actions response cyber aggression 4 Impact Emerging Technologies rise cybercrime hinder progress emerging technologies industries invest heavily innovations Internet Things IoT cities cybercriminals target advancements disruption financial gain lack trust cyber security measures slow adoption technologies delaying potential benefits society essential prioritize security measures alongside technological advancements 5 Psychological Social Impact financial technological ramifications cybercrime significant psychological social effects individuals fall victim experience increased anxiety fear distrust online platforms lead decline internet usage shift behaviour sharing personal information cybercriminals exploit social media digital communication channels manipulate public opinions create disinformation campaigns sow discord societies rise cybercrime exacerbate existing inequalities vulnerable populations disproportionately affected cyber threats Mitigating Effects Cybercrime projected rise cybercrime 2040 daunting effective mitigation technology advances capabilities cyber security measures Policymakers businesses individuals work implement proactive strategies combat cyber threats effectively 1 Strengthening Cyber Security Measures Investing cyber security technologies encryption threat detection systems crucial safeguarding sensitive data infrastructure Companies adopt approach develop products services prioritize user privacy data protection 2 Promoting Cyber Security Awareness Raising public awareness cyber threats practices vital reducing vulnerability cybercrime Educational campaigns training programs implemented levels schools universities workplaces public institutions 3 Global Cooperation Information Sharing Cybercrime combating requires global cooperation International collaborations enforcement agencies governments essential track prosecute cybercriminals jurisdictions Additionally sharing information cyber threats organizations stay ahead evolving attacks 4 Privacy Data Protection Regulations Governments continue develop enforce robust privacy data protection regulations Striking balance innovation security crucial protecting individuals rights enabling technological advancements Conclusion approach 2040 rise cybercrime poses formidable challenge interconnected world financial technological psychological impacts cybercrime devastating left unchecked proactive measures global collaboration strive stay step ahead cybercriminals build safer digital future crucial prioritize cyber security efforts promote awareness enact effective regulations mitigate effects cybercrime safeguard digital life Topic Cybercrime Rise cybercrime Impact cybercrime Technology advancement Interconnected world Cybercriminals Advanced techniques Artificial intelligence Quantum computing Financial implications Ransomware attacks Identity theft Data privacy Data security data breaches Cyberwarfare Geopolitical ramifications Topic tags Cybercrime trends Future cybercrime Cyber security challenges Technology advancements Artificial intelligence cybercrime Quantum computing cyber attacks Financial implications cybercrime Ransomware extortion provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>44</v>
+      </c>
+      <c r="G10" t="n">
+        <v>51</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.07368420975069254</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1366906472853372</v>
+      </c>
+      <c r="J10" t="n">
+        <v>18.04838709677419</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3485254691689008</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7.358765026377238</v>
+      </c>
+      <c r="M10" t="n">
+        <v>21.37096774193548</v>
+      </c>
+      <c r="N10" t="n">
+        <v>758</v>
+      </c>
+      <c r="O10" t="n">
+        <v>390</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2531</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5.29809885931559</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>blackassign0010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/rise-of-cybercrime-and-its-effect-by-the-year-2040/</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Rise of Cybercrime and its Effect by the Year 2040.
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Understanding Cybercrime: An Overview
+In the year 2040, the rise of cybercrime has become a significant concern worldwide. As digital technologies have become an integral part of daily life, the increasing use of the global Internet has posed new security challenges, both for governments and individuals
+alike. According to recent studies on cybercrime, researchers have highlighted how the capabilities of digital technologies can facilitate various types of crimes, from identity theft and piracy to hacking and financial fraud. The impact of cybercrime in 2040 is expected to be far-reaching and pervasive, affecting not only individuals but also businesses and governments on a global scale.
+The Effect of Cybercrime on Businesses
+One of the most significant consequences of cybercrime is the detrimental effect it has on businesses. These crimes can result in significant financial losses, as evidenced by the estimated $600 billion loss experienced in 2018 due to global cybercrimes. This figure highlights the growing menace of cybercrimes, indicating that they are a significant threat to the business community. Organizations face reputational and financial damages as a result of cybercrimes.
+To address the growing menace of cybercrimes, organizations heavily rely on technology-based solutions to minimize incidents and mitigate their impact. However, the widespread use of the Internet and advancements in mobile technologies have exacerbated the problem. The frequency, sophistication, and impact of cyber threats have increased, posing a global concern for businesses of all sizes and industries. Policymakers and organizations alike have expressed concerns about the potential disruption cybercrime can cause to business and public administration activities. These concerns stem from the difficulty in precisely measuring the impact and increase of cybercrime. Nevertheless, the trends indicate that cybercrime is a pressing issue that requires immediate attention and strategic countermeasures.
+The destabilizing effects of cybercrimes on businesses cannot be overstated. Beyond the substantial financial losses, organizations also face reputational damage. Customers and stakeholders lose trust and confidence in the business’s ability to protect sensitive information, resulting in a decline in customer loyalty and potential revenue. Additionally, the constant threat of cybercrime creates a sense of vulnerability and uncertainty among businesses, hindering their ability to innovate and grow. Furthermore, cybercrimes have a global reach and can impact businesses in all corners of the world, including developing economies.
+Predicted Evolution of Cybercrime by 2040
+By the year 2040, the evolution of cybercrime is expected to continue on an upward trajectory. Advancements in technology and the increasing interconnectedness of our digital world will provide cybercriminals with even more opportunities to exploit vulnerabilities and carry out their illicit activities. Furthermore, the growing reliance on technology in all aspects of society will make businesses and individuals more susceptible to cyber threats. As technology continues to advance, cybercriminals will likely leverage emerging techniques such as artificial intelligence and machine learning to enhance their attacks.Cybercrime has evolved significantly over the past few decades, and it is only going to become more sophisticated in the years to come. Here are some of the ways that cybercrime is expected to evolve by 2040:
+These are just a few of the ways that cybercrime is expected to evolve by 2040. As technology continues to advance, so too will the sophistication of cyber-attacks. It is important to be aware of these trends so that you can take steps to protect yourself and your organization from cybercrime.
+The advancement of technology has had a significant impact on cybercrime. As technology has become more sophisticated, so have the methods used by cybercriminals to commit crimes.
+Here are some of the ways in which technological advancements have affected cybercrime:
+The effects of cybercrime can be significant. These include:
+The advancement of technology is likely to continue to have a significant impact on cybercrime in the future. As technology becomes more sophisticated, so will the methods used by cybercriminals to commit crimes. This means that it is important for individuals, businesses, and governments to take steps to protect themselves from cybercrime.
+Cybercrime is a growing threat to the global economy. In 2022, it is estimated that cybercrime will cost the world $8 trillion, and that figure is expected to grow to $10.5 trillion by 2025.
+The implications of cybercrime on the global economy are wide-ranging. Here are some of the most significant:
+The implications of cybercrime on the global economy are significant and far-reaching. As the threat of cybercrime continues to grow, it is important for businesses and individuals to take steps to protect themselves.
+Cybercrime is a growing problem, and it’s important to take steps to protect yourself and your organization from attack. Here are some cybersecurity measures that can help counteract cybercrime:
+In addition to these general measures, there are also specific cybersecurity measures that you can take depending on your individual needs and circumstances. For example, if you work from home, you may need to take additional steps to secure your home network.
+By following these cybersecurity measures, you can help protect yourself and your organization from cybercrime.
+Here are some additional tips for counteracting cybercrime:
+Cybercrime is a growing threat, and it is important to develop new strategies to combat it. Here are some future strategies that could be effective:
+These are just a few of the future strategies that could be effective in combating cybercrime. As the threat landscape continues to evolve, it will be important to adapt these strategies and develop new ones.
+Cybercrime is a growing problem, and it is important to have strong legislation in place to help mitigate it. Legislation can help to:
+There are a number of international and national laws that address cybercrime. Some of the most important include:
+These are just a few of the many laws that are in place to help mitigate cybercrime. By having strong legislation in place, we can help to make the internet a safer place for everyone.
+In addition to the above, legislation can also play a role in:
+The landscape of cybercrime is constantly evolving, and by 2040, we can expect to see a significant shift in the tactics used by cybercriminals. Here are some of the trends that we can expect to see:
+These are just a few of the trends that we can expect to see in cybercrime by 2040. As technology continues to evolve, so too will the methods used by cybercriminals. It is important to stay ahead of the curve and to be aware of the latest threats. By doing so, we can help to protect ourselves and our organizations from cyberattacks.
+In addition to the trends mentioned above, there are a few other factors that could contribute to the shift in cybercriminal tactics by 2040. These include:
+All of these factors will contribute to the shift in cybercriminal tactics by 2040. It is important to be aware of these trends and to take steps to protect yourself and your organization from cyberattacks.
+Cybercrime is a persistent threat to national security. It can be used by criminals, terrorists, and hostile nation-states to steal sensitive information, disrupt critical infrastructure, and cause economic damage.
+Some of the most common cyber threats to national security include:
+The threat of cybercrime is constantly evolving. As new technologies are developed, cybercriminals find new ways to exploit them. This makes it essential for governments and businesses to invest in cyber security.
+There are a number of things that can be done to mitigate the threat of cybercrime, including:
+Cybercrime is a serious threat to national security, but it is a threat that can be mitigated. By taking steps to educate users, invest in cyber security, and work with international partners, we can help to make our countries more secure in the digital age.
+The rise of cybercrime is a major threat to the world in the 21st century. As our lives become increasingly digitized, criminals are finding new ways to exploit our vulnerabilities. By the year 2040, cybercrime is likely to be even more prevalent and sophisticated than it is today.
+The effects of cybercrime can be devastating for individuals, businesses, and society as a whole. Financial losses, identity theft, and disruption of critical infrastructure are just a few of the potential consequences. In some cases, cybercrime can even lead to violence or death.
+There are a number of things that can be done to mitigate the risks of cybercrime. Individuals can protect themselves by using strong passwords, being careful about what information they share online, and keeping their software up to date. Businesses can implement security measures such as firewalls, intrusion detection systems, and data encryption. Governments can enact laws and regulations to deter cybercrime and prosecute criminals.
+However, even with the best efforts, it is impossible to completely eliminate the risk of cybercrime. As long as there is a demand for stolen data and other illegal goods and services, there will be criminals willing to exploit the internet for their own gain.
+In the years to come, it is important to be aware of the risks of cybercrime and to take steps to protect yourself and your assets. By being proactive, we can help to reduce the impact of cybercrime and make the internet a safer place for everyone.
+Here are some additional thoughts on the future of cybercrime:
+The future of cybercrime is uncertain, but it is clear that the threat is real and growing. By taking steps to protect ourselves and our assets, we can help to mitigate the risks and make the internet a safer place for everyone.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Rise Cybercrime Effect 2040 Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Understanding Cybercrime Overview 2040 rise cybercrime significant concern worldwide digital technologies integral part life increasing global Internet posed security challenges governments individuals alike recent studies cybercrime researchers highlighted capabilities digital technologies facilitate types crimes identity theft piracy hacking financial fraud impact cybercrime 2040 expected pervasive affecting individuals businesses governments global scale Effect Cybercrime Businesses significant consequences cybercrime detrimental effect businesses crimes result significant financial losses evidenced estimated 600 loss experienced 2018 due global cybercrimes figure highlights growing menace cybercrimes indicating significant threat business community Organizations face reputational financial damages result cybercrimes address growing menace cybercrimes organizations heavily rely solutions minimize incidents mitigate impact widespread Internet advancements mobile technologies exacerbated problem frequency sophistication impact cyber threats increased posing global concern businesses sizes industries Policymakers organizations alike expressed concerns potential disruption cybercrime business public administration activities concerns stem difficulty precisely measuring impact increase cybercrime trends cybercrime pressing issue requires attention strategic countermeasures destabilizing effects cybercrimes businesses overstated substantial financial losses organizations face reputational damage Customers stakeholders lose trust confidence business ability protect sensitive information resulting decline customer loyalty potential revenue Additionally threat cybercrime creates sense vulnerability uncertainty businesses hindering ability innovate cybercrimes global reach impact businesses corners world including developing economies Predicted Evolution Cybercrime 2040 2040 evolution cybercrime expected continue upward trajectory Advancements technology increasing interconnectedness digital world provide cybercriminals opportunities exploit vulnerabilities illicit activities growing reliance technology aspects society make businesses individuals susceptible cyber threats technology continues advance cybercriminals leverage emerging techniques artificial intelligence machine learning enhance evolved significantly past decades sophisticated years ways cybercrime expected evolve 2040 ways cybercrime expected evolve 2040 technology continues advance sophistication important aware trends steps protect organization cybercrime advancement technology significant impact cybercrime technology sophisticated methods cybercriminals commit crimes ways technological advancements affected cybercrime effects cybercrime significant include advancement technology continue significant impact cybercrime future technology sophisticated methods cybercriminals commit crimes important individuals businesses governments steps protect cybercrime Cybercrime growing threat global economy 2022 estimated cybercrime cost world 8 figure expected 2025 implications cybercrime global economy significant implications cybercrime global economy significant threat cybercrime continues important businesses individuals steps protect Cybercrime growing problem important steps protect organization attack cybersecurity measures counteract cybercrime addition general measures specific cybersecurity measures depending individual circumstances work home additional steps secure home network cybersecurity measures protect organization cybercrime additional tips counteracting cybercrime Cybercrime growing threat important develop strategies combat future strategies effective future strategies effective combating cybercrime threat landscape continues evolve important adapt strategies develop Cybercrime growing problem important legislation mitigate Legislation number international national address cybercrime important include mitigate cybercrime legislation make internet safer addition legislation play role landscape cybercrime constantly evolving 2040 expect significant shift tactics cybercriminals trends expect trends expect cybercrime 2040 technology continues evolve methods cybercriminals important stay ahead curve aware latest threats protect organizations cyberattacks addition trends mentioned factors contribute shift cybercriminal tactics 2040 include factors contribute shift cybercriminal tactics 2040 important aware trends steps protect organization cyberattacks Cybercrime persistent threat national security criminals terrorists hostile steal sensitive information disrupt critical infrastructure economic damage common cyber threats national security include threat cybercrime constantly evolving technologies developed cybercriminals find ways exploit makes essential governments businesses invest cyber security number things mitigate threat cybercrime including Cybercrime threat national security threat mitigated taking steps educate users invest cyber security work international partners make countries secure digital age rise cybercrime threat world 21st century lives increasingly digitized criminals finding ways exploit vulnerabilities 2040 cybercrime prevalent sophisticated today effects cybercrime devastating individuals businesses society Financial losses identity theft disruption critical infrastructure potential consequences cases cybercrime lead violence death number things mitigate risks cybercrime Individuals protect passwords careful information share online keeping software date Businesses implement security measures firewalls intrusion detection systems data encryption Governments enact regulations deter cybercrime prosecute criminals efforts impossible completely eliminate risk cybercrime demand stolen data illegal goods services criminals exploit internet gain years important aware risks cybercrime steps protect assets proactive reduce impact cybercrime make internet safer additional thoughts future cybercrime future cybercrime uncertain clear threat growing taking steps protect assets mitigate risks make internet safer provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>64</v>
+      </c>
+      <c r="G11" t="n">
+        <v>69</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.03759398467974448</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1648079304029642</v>
+      </c>
+      <c r="J11" t="n">
+        <v>20.83529411764706</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2755505364201016</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8.444337861626865</v>
+      </c>
+      <c r="M11" t="n">
+        <v>23.47058823529412</v>
+      </c>
+      <c r="N11" t="n">
+        <v>928</v>
+      </c>
+      <c r="O11" t="n">
+        <v>488</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3464</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4.742454728370221</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>blackassign0011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/rise-of-internet-demand-and-its-impact-on-communications-and-alternatives-by-the-year-2035/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Rise of Internet Demand and its Impact on Communications and Alternatives by the Year 2035.
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+ABSTRACT:
+The rapid development of the Internet has changed the ways in which we work, interact, and communicate with one another. The demand for Internet connectivity is expected to reach previously unheard-of heights by the year 2035 when every person on the planet will be linked. This article discusses the developing alternatives that will reshape the digital environment in India and around the world as well as the effects of this rise in Internet demand on communications.
+The essay emphasizes how digital communication channels including social networking platforms, video conferencing tools, and instant messaging apps will overtake traditional communication routes in the future. The telecommunications sector will meet this growing demand with the shift to 5G and beyond, allowing seamless connectivity for IoT devices and building the foundation for smart cities and driverless vehicles.
+INTRODUCTION:
+The way we interact, work and live has been completely changed by the internet. The demand for the Internet has grown exponentially since its inception, and this trend is expected to continue in the coming years. By 2035, the world’s population will be even more connected, and India, the largest economy and technology hub, will have a major impact on the development of the digital environment worldwide. This article examines how demand for the Internet is growing, how it affects communication, and how new options are emerging that will transform the digital world by 2035.
+An IoE ecosystem will be created by integrating AI into the Internet, personalizing user experiences and improving services. To shape this digital future and foster a connected, secure and efficient global community, this article highlights India’s role as a technology hub.
+The Internet has influenced many facets of modern culture and has become an indispensable component of it. The need for Internet access has increased dramatically as a result of the widespread use of smartphones, IoT devices, and other technological breakthroughs. It is anticipated that almost everyone will have access to the Internet by 2035, regardless of location. Due to the exponential rise in data consumption that will ensue, a reliable communications infrastructure will be needed to meet the rising demands.
+Our communication habits will change dramatically as Internet usage increases. As consumers prefer fast and digital communication techniques, traditional communication channels like telephones and postal services will continue to lose prominence. The communication landscape will be dominated by social media platforms, messaging services, and video conferencing capabilities, allowing for global real-time connections.
+The telecommunications sector is moving toward 5G and beyond to meet the growth in Internet demand. 5G networks, which provide unmatched data rates and low latency, will be widely used by 2035. The Internet of Things (IoT) will be seamlessly connected thanks to this technical advance, ushering in the era of smart cities and driverless automobiles. The telecommunications sector is preparing to take a huge step forward with the launch of 5G technology and beyond as the demand for Internet connectivity continues to soar. 5G networks are anticipated to offer unheard-of data rates, decreased latency, and increased network capacity by the year 2035.
+Satellite Internet will revolutionize isolated and rural locations with limited access to existing communication infrastructure. The most remote regions of India and the entire world will have access to high-speed Internet thanks to breakthroughs in satellite technology and falling costs. By doing this, the digital divide will be closed, and underserved areas will experience economic growth. When it comes to bridging the connectivity gap between remote rural areas and urban areas, satellite Internet will be essential. Satellite technology will make it possible for communities without or with little access to traditional communication infrastructure to engage in the digital economy and have access to government programs, healthcare services, and educational resources.
+Blockchain technology will replace the current centralized Internet model by 2035. The decentralized nature of blockchain will improve data ownership, security, and privacy. Users’ access to and control over their data will expand, which will boost confidence in online interactions and transactions. Finance, healthcare, and supply chain are just a few of the industries that decentralized apps (D Apps) will disrupt. Online information and transactions will become transparent and unchangeable thanks to the blockchain’s decentralized ledger architecture. Blockchain will improve consumer, business, and institutional trust by supplying a tamper-proof history of data, eliminating the need for middlemen in a number of operations.
+Quantum Internet will offer an unheard-of level of security as cyber threats become more advanced. Unbreakable encryption provided by quantum communication protects sensitive data from future cyberattacks. Quantum networks will be an essential part of critical infrastructure and data-sensitive sectors by 2035. QKD, a cutting-edge cryptographic method that permits the secure exchange of encryption keys between parties, will be used by Quantum Internet. Because QKD uses the principles of quantum mechanics, unlike conventional encryption techniques, it is nearly impossible for eavesdroppers to intercept or decode the transferred keys.
+An ecosystem known as the Internet of Everything (IoE) will be created by the deep integration of artificial intelligence (AI) into the Internet. Personalization of user experiences, service optimization, and work automation are all possible with AI-powered hardware and software. The IoE will transform sectors like healthcare, education, and entertainment by 2035. As AI becomes increasingly ingrained in the IoE and Internet environment, issues over data privacy will grow more pressing. For legislators and tech businesses, finding a balance between providing individualized experiences and safeguarding user data will be quite difficult.
+Through individualized learning routes and intelligent tutoring systems, AI will improve the learning experience in the education industry. Platforms for adaptive learning will meet the needs of each individual student, improving inclusivity and effectiveness in the classroom. There will be a greater emphasis on utilizing these technologies to solve climate change as the IoE and AI grow in popularity. AI-powered systems will be used to manage natural resources, monitor environmental changes, and optimize energy consumption.
+The likelihood of cyberwarfare and cyberattacks on a global and national level increases as Internet usage increases. Cybersecurity will dominate national security agendas by 2035. In order to safeguard vital infrastructure, avoid data breaches, and combat online threats posed by adversaries, governments and companies will make significant investments in cyber defence and offensive capabilities. By 2035, machine learning algorithms will be used by AI-powered cybersecurity systems to quickly identify and counteract advanced cyber threats. The ability of these intelligent systems to recognize and mitigate potential threats will continuously increase as they learn from fresh attack patterns.
+Bridging the gap between urban and rural communities is one of the major obstacles in the fight against the digital divide. Governments and organizations will put into place thorough plans by 2035 to bring affordable and dependable Internet connection to remote areas. The immense prospects provided by the Internet will be accessible to even the most remote locations thanks to projects like satellite Internet, community networks, and mobile connectivity projects. Mobile Internet will be essential for providing last-mile connection by 2035. Internet access will be possible in places where traditional fixed-line infrastructure is not practical thanks to mobile networks and technological breakthroughs. People in remote areas will be able to access information, education, and employment prospects thanks to mobile data subscriptions and reasonably priced cell phones.
+CONCLUSION
+By the year 2035, both in India and globally, the communications landscape will be shaped by the explosive growth of Internet demand. There will be an unprecedented amount of connectivity and data consumption as a result of the digital revolution, the expansion of smart gadgets, the Internet of Things, and developing technologies.
+With the transition from old methods to real-time, digital interactions via social media platforms, messaging applications, and video conferencing technologies, communications will undergo a fundamental upheaval. The growth of smart cities and autonomous vehicles will be fuelled by seamless connectivity and IoT integration as 5G networks become the standard.
+Despite technological developments, there is an increasing need to close the digital divide and guarantee that all communities have access to the Internet. While cybersecurity and privacy protections will be of the utmost importance in preserving sensitive data, sustainable and environmentally friendly solutions will be sought to lessen the Internet’s environmental impact.
+We can use the power of the Internet to build a connected, effective, and wealthy future for humanity by embracing innovation, encouraging inclusivity, and placing a high priority on security.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Rise Internet Demand Impact Communications Alternatives 2035 Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist ABSTRACT rapid development Internet changed ways work interact communicate demand Internet connectivity expected reach previously heights 2035 planet linked article discusses developing alternatives reshape digital environment world effects rise Internet demand communications essay emphasizes digital communication channels including social networking platforms video conferencing tools instant messaging apps overtake traditional communication routes future telecommunications sector meet growing demand shift 5G allowing seamless connectivity IoT devices building foundation cities driverless vehicles INTRODUCTION interact work live completely changed internet demand Internet grown exponentially inception trend expected continue coming years 2035 world population connected largest economy technology hub impact development digital environment worldwide article examines demand Internet growing affects communication options emerging transform digital world 2035 IoE ecosystem created integrating Internet personalizing user experiences improving services shape digital future connected secure efficient global community article highlights role technology hub Internet influenced facets modern culture indispensable component Internet access increased dramatically result widespread smartphones IoT devices technological breakthroughs anticipated access Internet 2035 location Due exponential rise data consumption ensue reliable communications infrastructure needed meet rising demands communication habits change dramatically Internet usage increases consumers prefer digital communication techniques traditional communication channels telephones postal services continue lose prominence communication landscape dominated social media platforms messaging services video conferencing capabilities allowing global connections telecommunications sector moving 5G meet growth Internet demand 5G networks provide unmatched data rates latency widely 2035 Internet Things IoT seamlessly connected technical advance ushering cities driverless automobiles telecommunications sector preparing huge step forward launch 5G technology demand Internet connectivity continues soar 5G networks anticipated offer data rates decreased latency increased network capacity 2035 Satellite Internet revolutionize isolated rural locations limited access existing communication infrastructure remote regions entire world access Internet breakthroughs satellite technology falling costs digital divide closed underserved areas experience economic growth bridging connectivity gap remote rural areas areas satellite Internet essential Satellite technology make communities access traditional communication infrastructure engage digital economy access government programs healthcare services educational resources Blockchain technology replace current centralized Internet model 2035 decentralized nature blockchain improve data ownership security privacy Users access control data expand boost confidence online interactions transactions Finance healthcare supply chain industries decentralized apps Apps disrupt Online information transactions transparent unchangeable blockchain decentralized ledger architecture Blockchain improve consumer business institutional trust supplying history data eliminating middlemen number operations Quantum Internet offer level security cyber threats advanced Unbreakable encryption provided quantum communication protects sensitive data future cyberattacks Quantum networks essential part critical infrastructure sectors 2035 QKD cryptographic method permits secure exchange encryption parties Quantum Internet QKD principles quantum mechanics unlike conventional encryption techniques impossible eavesdroppers intercept decode transferred ecosystem Internet IoE created deep integration artificial intelligence Internet Personalization user experiences service optimization work automation hardware software IoE transform sectors healthcare education entertainment 2035 increasingly ingrained IoE Internet environment issues data privacy pressing legislators tech businesses finding balance providing individualized experiences safeguarding user data difficult individualized learning routes intelligent tutoring systems improve learning experience education industry Platforms adaptive learning meet individual student improving inclusivity effectiveness classroom greater emphasis utilizing technologies solve climate change IoE popularity systems manage natural resources monitor environmental optimize energy consumption likelihood cyberwarfare cyberattacks global national level increases Internet usage increases Cybersecurity dominate national security agendas 2035 order safeguard vital infrastructure avoid data breaches combat online threats posed adversaries governments companies make significant investments cyber defence offensive capabilities 2035 machine learning algorithms cybersecurity systems quickly identify counteract advanced cyber threats ability intelligent systems recognize mitigate potential threats continuously increase learn fresh attack patterns Bridging gap rural communities obstacles fight digital divide Governments organizations put plans 2035 bring affordable dependable Internet connection remote areas immense prospects provided Internet accessible remote locations projects satellite Internet community networks mobile connectivity projects Mobile Internet essential providing connection 2035 Internet access places traditional infrastructure practical mobile networks technological breakthroughs People remote areas access information education employment prospects mobile data subscriptions priced cell phones CONCLUSION 2035 globally communications landscape shaped explosive growth Internet demand unprecedented amount connectivity data consumption result digital revolution expansion gadgets Internet Things developing technologies transition methods digital interactions social media platforms messaging applications video conferencing technologies communications undergo fundamental upheaval growth cities autonomous vehicles fuelled seamless connectivity IoT integration 5G networks standard technological developments increasing digital divide guarantee communities access Internet cybersecurity privacy protections utmost importance preserving sensitive data sustainable environmentally friendly solutions sought lessen Internet environmental impact Internet build connected effective wealthy future humanity embracing innovation encouraging inclusivity placing priority security provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>62</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5121951157049376</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.09447004597411285</v>
+      </c>
+      <c r="J12" t="n">
+        <v>21.88888888888889</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.3121827411167513</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.880428652002257</v>
+      </c>
+      <c r="M12" t="n">
+        <v>24.875</v>
+      </c>
+      <c r="N12" t="n">
+        <v>966</v>
+      </c>
+      <c r="O12" t="n">
+        <v>492</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3256</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5.108366086468276</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>blackassign0012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/rise-of-telemedicine-and-its-impact-on-livelihood-by-2040-3-2/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Rise of telemedicine and its Impact on Livelihood by 2040
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Telemedicine, the use of technology to diagnose and treat patients remotely, has been rising in recent years. With the advent of high-speed internet and improved video conferencing tools, healthcare providers are increasingly turning to telemedicine to provide care to patients in remote or underserved areas.
+Telemedicine, using technology to provide healthcare services remotely, has recently gained popularity. With advancements in communication and medical technology, it has become increasingly possible for doctors and patients to connect and interact from anywhere in the world. This has led to the rise of telemedicine, which has the potential to revolutionize the way healthcare is delivered.#Telemedicine
+The increasing focus on preventative healthcare has also driven the rise of telemedicine. As more and more people become aware of the importance of staying healthy, they are looking for ways to prevent illness and maintain their health. Telemedicine allows people to monitor their health and get advice from healthcare providers without traveling to a clinic or hospital.
+Improved access tohealthcare: One of the biggest challenges in the healthcare industry is the unequal distribution of medical resources, with many remote and rural areas lacking access to quality care. Telemedicine can help bridge this gap by allowing patients in these underserved areas to connect with healthcare providers worldwide. This can give people access to specialized medical care that they would otherwise not be able to receive, improving their health and overall well-being.#Healthcare
+Greater convenience and flexibility: Telemedicine also offers a level ofconvenienceandflexibilitythat is impossible with traditional in-person medical visits. Patients can consult with their healthcare providers from the comfort of their own homes, saving time and money on travel. This is particularly beneficial for individuals who have mobility issues or who live in areas with limited access tomedical facilities.
+Reduced healthcare costs: By enabling patients to receive care remotely, telemedicine can help reduce the overall cost of healthcare. This is because telemedicine visits are generally less expensive than in-person visits and can help prevent the need for more costly interventions, such as hospitalizations. As a result, telemedicine has the potential to make healthcare more affordable for patients and healthcare providers alike.#Costs
+Enhanced healthcare outcomes: Telemedicine can also improve patients’ quality of care. By allowing healthcare providers to access medical records and other important information remotely, telemedicine can help ensure that patients receive the most appropriate care for their needs. This can lead to better health outcomes and a higher quality of life for patients.#Enhanced
+More significantjob opportunitiesin the healthcare industry like healthcare sector, including for healthcare providers, support staff, and technology experts. This can provide a boost to localeconomiesand help to reduce unemployment.#Jobs
+Better carefor chronic conditions: Telemedicine can help patients with chronic conditions to manage their health more effectively, allowing them to receive regular check-ups and treatment without the need to travel long distances. This can improve the quality of life for these individuals and reduce the risk of complications from their conditions.
+Increased flexibility for patients and healthcare providers: Telemedicine allows patients and providers to schedule consultations at times convenient for them, improving the overall flexibility of the healthcare system. This can help to reduce wait times and improve patient satisfaction.
+Increased accessibility: Telemedicine makes healthcare more accessible to people living in rural and remote areas, who may not have easy access to medical facilities. With telemedicine, patients can consult with doctors and specialists from their homes using their phones, computers, or other devices. This means that more people will be able to get the medical care they need, regardless of where they live.
+Reduced costs: One of the most significant benefits of telemedicine is that it can reduce healthcare costs. Patients can avoid the costs of travel, accommodation, and time off work associated with in-person visits to the doctor. Telemedicine can also help reduce the cost of medical procedures, as doctors can remotely monitor patients and provide care without needing hospitalization.
+Improved health outcomes: By providing patients with access to medical care from the comfort of their own homes, telemedicine can help improve their health outcomes. For example, patients with chronic conditions can use telemedicine to manage their symptoms and reduce the risk of complications. Telemedicine can also help prevent the spread of infectious diseases, as patients can receive care without contacting other people.
+Increased convenience: Telemedicine offers a more convenient option for patients who need medical care. With telemedicine, patients can schedule appointments and consult with doctors at a convenient time without having to take time off work or arrange transportation. This can be especially beneficial for people with busy schedules or mobility issues.
+Telemedicine, or the use of electronic communication and information technologies to provide healthcare services remotely, has the potential to significantly impact the way we receive and deliver medical care. In the next 20 years, telemedicine will likely become an increasingly important part of our healthcare system, providing numerous benefits and improving the livelihood of many people.
+The benefits of telemedicine are numerous. For patients, it provides convenient access to medical care without traveling long distances. It also allows for faster diagnosis and treatment and improved continuity of care. For healthcare providers, telemedicine can reduce the strain on already-overburdened healthcare systems and make providing care to patients in remote areas more accessible.
+The rise of telemedicine will likely significantly impact how we receive medical care in the future. By 2040, it is estimated that telemedicine will be a standard part of the healthcare landscape, with more and more doctors using it to diagnose and treat patients remotely.
+One of the key drivers of the rise of telemedicine has been the increasing availability of high-speed internet and improved video conferencing tools. In the past, the video and audio quality of telemedicine consultations were often poor, making it difficult for doctors to diagnose and treat patients accurately. However, with faster internet speeds and better video conferencing tools, telemedicine consultations are just as good as in-person visits.
+Telemedicine makes healthcare more accessible. With telemedicine, patients no longer travel long distances to see a doctor or specialist. Instead, they can receive care from the comfort of their own home. This is particularly beneficial for people living in rural areas, where access to healthcare can be limited.
+Another factor contributing to the rise of telemedicine is the increasing demand for healthcare services. With the global population growing and people living longer, the need for medical care will only continue to increase. Telemedicine offers a way for healthcare providers to meet this demand by allowing them to provide care to more patients in a shorter amount of time.
+Another substantial impact of telemedicine is that it can improve patient quality of care. By using technology to connect patients with doctors, telemedicine can help ensure patients receive the best care possible. For example, a doctor can use video conferencing to consult with a specialist or use remote monitoring devices to track a patient’s vital signs. This can help doctors make more informed decisions and provide better treatment.
+Telemedicine also has the potential to reduce healthcare costs. By allowing patients to receive care from their homes, telemedicine can reduce the need for expensive hospital visits. In addition, telemedicine can help prevent the spread of infectious diseases, reducing healthcare costs by avoiding hospitalization.
+One of the critical impacts of telemedicine is that it can improve the patient experience. By providing patients with the ability to receive care from the comfort of their own homes, telemedicine can help reduce anxiety and stress. In addition, telemedicine can make it easier for patients to communicate with their doctors and get the answers they need.
+Another way in which telemedicine will impact people’s livelihoods is by making healthcare more efficient. By allowing doctors to diagnose and treat patients remotely, telemedicine will help reduce the time patients spend waiting to see a doctor. It will also help reduce doctors’ spending on administrative tasks, freeing them up to see more patients and provide better care.
+One major factor driving the rise of telemedicine is the increasing use of technology in healthcare. With advances in communication and medical technology, it is now possible for doctors and other healthcare providers to remotely diagnose and treat patients using video conferencing, remote monitoring, and other forms of telemedicine. This not only allows for more efficient and convenient healthcare delivery but also enables healthcare providers to offer specialized care to patients who otherwise may not have access to it.
+Another factor contributing to the rise of telemedicine is the need for improved access to healthcare. Patients may travel long distances in many rural and underserved areas; patients may travel long distances to access medical care. Telemedicine can bridge this gap by allowing patients in these areas to consult with healthcare providers remotely. This not only improves access to healthcare but also reduces the need for patients to travel long distances, saving them time and money.
+Finally, telemedicine’s rise is also driven by the growing trend of remote work. As more and more people work from home or other remote locations, the need for convenient and accessible healthcare is increasing. Telemedicine allows employees to consult with healthcare providers from their homes, reducing the need for them to take time off work to visit a doctor or other healthcare provider.
+Overall, the rise of telemedicine by 2040 is a result of a combination of factors, including the increasing use of technology in healthcare, the need for improved access to healthcare, and the growing trend of remote work. As these factors continue to evolve, likely, telemedicine will likely become an increasingly important part of the healthcare landscape.
+However, the rise of telemedicine is also likely to present some challenges. For example, telemedicine consultations may only be suitable for some medical conditions, and some patients may still need to see a doctor. Additionally, telemedicine may put some jobs at risk, such as receptionists and other administrative staff in healthcare facilities.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Rise telemedicine Impact Livelihood 2040 Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Telemedicine technology diagnose patients remotely rising recent years advent internet improved video conferencing tools healthcare providers increasingly turning telemedicine provide care patients remote underserved areas Telemedicine technology provide healthcare services remotely recently gained popularity advancements communication medical technology increasingly doctors patients connect interact world led rise telemedicine potential revolutionize healthcare Telemedicine increasing focus preventative healthcare driven rise telemedicine people aware importance staying healthy ways prevent illness maintain health Telemedicine people monitor health advice healthcare providers traveling clinic hospital Improved access tohealthcare biggest challenges healthcare industry unequal distribution medical resources remote rural areas lacking access quality care Telemedicine gap allowing patients underserved areas connect healthcare providers worldwide give people access specialized medical care receive improving health Healthcare Greater convenience flexibility Telemedicine offers level ofconvenienceandflexibilitythat impossible traditional medical visits Patients consult healthcare providers comfort homes saving time travel beneficial individuals mobility issues live areas limited access tomedical facilities Reduced healthcare costs enabling patients receive care remotely telemedicine reduce cost healthcare telemedicine visits generally expensive visits prevent costly interventions hospitalizations result telemedicine potential make healthcare affordable patients healthcare providers Costs Enhanced healthcare outcomes Telemedicine improve patients quality care allowing healthcare providers access medical records important information remotely telemedicine ensure patients receive care lead health outcomes higher quality life Enhanced significantjob opportunitiesin healthcare industry healthcare sector including healthcare providers support staff technology experts provide boost localeconomiesand reduce Jobs carefor chronic conditions Telemedicine patients chronic conditions manage health effectively allowing receive regular treatment travel distances improve quality life individuals reduce risk complications conditions Increased flexibility patients healthcare providers Telemedicine patients providers schedule consultations times convenient improving flexibility healthcare system reduce wait times improve patient satisfaction Increased accessibility Telemedicine makes healthcare accessible people living rural remote areas easy access medical facilities telemedicine patients consult doctors specialists homes phones computers devices people medical care live Reduced costs significant benefits telemedicine reduce healthcare costs Patients avoid costs travel accommodation time work visits Telemedicine reduce cost medical procedures doctors remotely monitor patients provide care needing hospitalization Improved health outcomes providing patients access medical care comfort homes telemedicine improve health outcomes patients chronic conditions telemedicine manage symptoms reduce risk complications Telemedicine prevent spread infectious diseases patients receive care contacting people Increased convenience Telemedicine offers convenient option patients medical care telemedicine patients schedule appointments consult doctors convenient time time work arrange transportation beneficial people busy schedules mobility issues Telemedicine electronic communication information technologies provide healthcare services remotely potential significantly impact receive deliver medical care 20 years telemedicine increasingly important part healthcare system providing numerous benefits improving livelihood people benefits telemedicine numerous patients convenient access medical care traveling distances faster diagnosis treatment improved continuity care healthcare providers telemedicine reduce healthcare systems make providing care patients remote areas accessible rise telemedicine significantly impact receive medical care future 2040 estimated telemedicine standard part healthcare landscape doctors diagnose patients remotely drivers rise telemedicine increasing availability internet improved video conferencing tools past video audio quality telemedicine consultations poor making difficult doctors diagnose patients accurately faster internet speeds video conferencing tools telemedicine consultations visits Telemedicine makes healthcare accessible telemedicine patients longer travel distances specialist receive care comfort home beneficial people living rural areas access healthcare limited factor contributing rise telemedicine increasing demand healthcare services global population growing people living longer medical care continue increase Telemedicine offers healthcare providers meet demand allowing provide care patients amount time substantial impact telemedicine improve patient quality care technology connect patients doctors telemedicine ensure patients receive care video conferencing consult specialist remote monitoring devices track patient vital signs doctors make informed decisions provide treatment Telemedicine potential reduce healthcare costs allowing patients receive care homes telemedicine reduce expensive hospital visits addition telemedicine prevent spread infectious diseases reducing healthcare costs avoiding hospitalization critical impacts telemedicine improve patient experience providing patients ability receive care comfort homes telemedicine reduce anxiety stress addition telemedicine make easier patients communicate doctors answers telemedicine impact people livelihoods making healthcare efficient allowing doctors diagnose patients remotely telemedicine reduce time patients spend waiting reduce doctors spending administrative tasks freeing patients provide care factor driving rise telemedicine increasing technology healthcare advances communication medical technology doctors healthcare providers remotely diagnose patients video conferencing remote monitoring forms telemedicine efficient convenient healthcare delivery enables healthcare providers offer specialized care patients access factor contributing rise telemedicine improved access healthcare Patients travel distances rural underserved areas patients travel distances access medical care Telemedicine gap allowing patients areas consult healthcare providers remotely improves access healthcare reduces patients travel distances saving time Finally telemedicine rise driven growing trend remote work people work home remote locations convenient accessible healthcare increasing Telemedicine employees consult healthcare providers homes reducing time work visit healthcare provider rise telemedicine 2040 result combination factors including increasing technology healthcare improved access healthcare growing trend remote work factors continue evolve telemedicine increasingly important part healthcare landscape rise telemedicine present challenges telemedicine consultations suitable medical conditions patients Additionally telemedicine put jobs risk receptionists administrative staff healthcare facilities provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>83</v>
+      </c>
+      <c r="G13" t="n">
+        <v>24</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5514018640055901</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1132275131076958</v>
+      </c>
+      <c r="J13" t="n">
+        <v>21.91666666666667</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2884302009777295</v>
+      </c>
+      <c r="L13" t="n">
+        <v>8.882038747057759</v>
+      </c>
+      <c r="M13" t="n">
+        <v>24.63095238095238</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1126</v>
+      </c>
+      <c r="O13" t="n">
+        <v>531</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3823</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5.02321083172147</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>blackassign0013</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/rise-of-e-health-and-its-impact-on-humans-by-the-year-2030/</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Rise of e-health and its impact on humans by the year 2030
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+The rise of e-health, or the use of electronic means to facilitate health care, has been a major development in the healthcare industry in recent years. The use of technology to improve access to healthcare and make it more efficient has the potential to revolutionize the way we think about healthcare and its delivery. By 2030, it is likely that e-health will have a significant impact on the way we receive and provide healthcare, and this essay will explore the potential impacts of e-health on humans by that year.
+One of the main benefits of e-health is the increased access it provides to healthcare services. With the use of telemedicine and other remote care technologies, patients can receive care from anywhere with an internet connection. This can be particularly beneficial for those who live in rural or underserved areas, where access to healthcare providers may be limited. It can also be useful for those with mobility issues or disabilities that make it difficult for them to visit a healthcare facility in person. By 2030, it is likely that the use of telemedicine and other remote care technologies will become even more widespread, potentially leading to a decrease in healthcare disparities and an increase in access to care for those who may have previously had difficulty accessing it.
+In addition to increasing access to care, e-health has the potential to improve the efficiency of the healthcare system. By using electronic medical records and other digital technologies, healthcare providers can more easily share and access patient information, streamlining the process of providing care. This can lead to more accurate diagnoses and treatment plans, and potentially reduce the need for unnecessary or redundant tests and procedures. By 2030, it is likely that the use of electronic medical records and other digital technologies will become even more widespread, potentially leading to a more efficient and effective healthcare system.
+Another potential impact of e-health by 2030 is the ability to use data analytics to improve population health. By collecting and analyzing data on patient health and healthcare utilization, healthcare providers can identify trends and patterns that may help them better understand and address the health needs of their patient populations. This could lead to the development of targeted interventions and prevention strategies that are more effective at improving population health. Additionally, the use of wearable technology and other digital health devices can help individuals track and manage their own health, potentially leading to improved health outcomes for individuals and populations.
+While the potential benefits of e-health are significant, there are also potential challenges and drawbacks to consider. One concern is the potential for cybersecurity breaches, which could compromise the confidentiality and privacy of patient information. It is important for healthcare organizations to prioritize cybersecurity and ensure that appropriate measures are in place to protect patient data. Another concern is the potential for the use of e-health to exacerbate healthcare disparities, as those who are unable to afford or access the necessary technology may be left behind. Ensuring that e-health technologies are accessible and affordable to all is an important consideration as the use of e-health continues to grow.
+In conclusion, by 2030 it is likely that e-health will have a significant impact on the way we receive and provide healthcare. The increased access to care and improved efficiency provided by e-health technologies have the potential to revolutionize the healthcare industry and improve health outcomes for individuals and populations. However, it is important to consider and address potential challenges and drawbacks, such as cybersecurity concerns and healthcare disparities, as the use of e-health continues to grow.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Rise impact humans 2030 Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist rise electronic facilitate health care development healthcare industry recent years technology improve access healthcare make efficient potential revolutionize healthcare delivery 2030 significant impact receive provide healthcare essay explore potential impacts humans benefits increased access healthcare services telemedicine remote care technologies patients receive care internet connection beneficial live rural underserved areas access healthcare providers limited mobility issues disabilities make difficult visit healthcare facility 2030 telemedicine remote care technologies widespread potentially leading decrease healthcare disparities increase access care previously difficulty accessing addition increasing access care potential improve efficiency healthcare system electronic medical records digital technologies healthcare providers easily share access patient information streamlining process providing care lead accurate diagnoses treatment plans potentially reduce unnecessary redundant tests procedures 2030 electronic medical records digital technologies widespread potentially leading efficient effective healthcare system potential impact 2030 ability data analytics improve population health collecting analyzing data patient health healthcare utilization healthcare providers identify trends patterns understand address health patient populations lead development targeted interventions prevention strategies effective improving population health Additionally wearable technology digital health devices individuals track manage health potentially leading improved health outcomes individuals populations potential benefits significant potential challenges drawbacks concern potential cybersecurity breaches compromise confidentiality privacy patient information important healthcare organizations prioritize cybersecurity ensure measures protect patient data concern potential exacerbate healthcare disparities unable afford access technology left Ensuring technologies accessible affordable important consideration continues conclusion 2030 significant impact receive provide healthcare increased access care improved efficiency provided technologies potential revolutionize healthcare industry improve health outcomes individuals populations important address potential challenges drawbacks cybersecurity concerns healthcare disparities continues provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>45</v>
+      </c>
+      <c r="G14" t="n">
+        <v>14</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5254237199080726</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1501272260811012</v>
+      </c>
+      <c r="J14" t="n">
+        <v>27.27586206896552</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3034134007585335</v>
+      </c>
+      <c r="L14" t="n">
+        <v>11.03171018788962</v>
+      </c>
+      <c r="M14" t="n">
+        <v>30.79310344827586</v>
+      </c>
+      <c r="N14" t="n">
+        <v>462</v>
+      </c>
+      <c r="O14" t="n">
+        <v>240</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1643</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4.952914798206278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>blackassign0014</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/rise-of-e-health-and-its-imapct-on-humans-by-the-year-2030-2/</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Rise of e-health and its impact on humans by the year 2030
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+2020 was the year the world was ravaged by the SarsCov2 virus. This notorious virus brought about a pandemic that would go on to change the course of humanity.  From that point forth daily lives of everyone across the world changed. With widespread stringent lockdowns, the entire world came to a sharp halt. Not only was the general populace affected, but the pandemic also affected all industries. The pandemic did not even spare critical industries, like healthcare and security. While these industries were required to function for the benefit of society, their daily operations changed drastically. But just as human nature prevails, we rose from this adversity. Post pandemic era saw the rise of new technologies that could aid overcome the restrictions put forth by the pandemic. In this article, we will specifically focus on the healthcare industries, innovations done in the industry, and the impact of those innovations on humans by 2030.
+Lockdowns initiated to curb the pandemic caused people to stay in their homes at all times. The exception to this was the medical staff who acted as our first line of defense against the pandemic. They not only had to deal with the pandemic but also had to cater to patients suffering from various other ailments. While people were restricted to go out, they still required medical consultation for their issues. This conundrum led to the rise of imparting healthcare facilities over electronic media. Healthcare workers utilized technologies such as video calls and virtual meetings to reach out to the needy. Now, these practices are also known as ‘e-Health’.  As the pandemic raged on, society saw numerous initiatives in the e-health sector. Government-led initiatives like ‘eSanjeevani OPD’ brought government OPD facilities directly to people’s homes.  It should be noted that e-health is not just limited to providing patients with virtual meetings. It encompasses every technology that transitions the traditional healthcare sector into a more accessible electronic form. Keeping with this trend we also saw the use of the Internet of Things (IoT)  to build the Internet of Medical Things (IoMT). These internet-connected devices allowed remote monitoring and controlling of facilities imparted to patients.  With the onset of 5G technology, the use of  IoMT has flourished. Some of these solutions include smart devices that monitor an individual’s health metrics. These devices are also capable of sending out alerts in case the metrics do not fall under the acceptable range. Furthermore with the advancements in artificial intelligence, machine learning, and deep learning technologies these devices do more than just report. With the help of these technologies, IoMT devices are now capable of intelligently performing actions that keep the metric of a patient in check.
+Another interesting technology that has found its use in the healthcare industry is ‘Blockchain technology. The technology used as the base for cryptocurrency can also be used to maintain immutable records of patients. Such blockchain solutions are already finding their way into the market Pranacare, is one such India start-up. It is a  platform for doctors driven by blockchain and AI. It offers tools to help dieticians, diabetologists, and cardiac specialists manage their customers and data. It also maintains, tracks, and records patient data and offers a decentralized ledger. The armchair is another organization that combines blockchain technology and the health industry.  The armchair provides an Ethereum-based platform for electronic health records storage. The blockchain is a hybrid public/private network that analyses data using Artificial Intelligence. Will use Ethereum Smart Contracts with the Hyperledger Sawtooth platform to offer a safe method for both patients and providers to access patient data. Existing e-health services also saw a rise during the pandemic. For example, telemedicine visits increased from 1-2% of ambulatory care visits before to the pandemic to 30% of all visits. With customer readiness to adopt telehealth climbing to 66%. According to health systems, up to 40% of primary care appointments might be performed remotely.
+With the increased penetration of the internet in our daily lives, it has been now critical for companies and start-ups to capture this segment. Keeping in with this agenda, the market has seen a proliferation of companies providing e-health services. Consequently, this industry has also seen an increase.in investments. Between 2019 and 2020, investments in telemedicine solutions quadrupled, rising from $1.1 billion to $3.1 billion. In 2020, total funding for remote patient monitoring (RPM) solutions will have more than quadrupled, rising from $417 million to $941 million. According to e-healthcare investors, RPM solutions for chronic care management are expected to become more popular in the next coming years. Analysts predict that eHealth will increase at a compound annual growth rate of 16.1% from 2022 to 2030, with the eHealth segment expected to generate $61.4 billion in sales in 2023 alone. China is expected to lead the global market followed by the USA. Overall, the e-Health industry is expected to see a boom in investments, providing early investors with a large return for their investments.
+While e-Health seems like the probable future for the entire healthcare industry, special attention must be given to the security aspect of these services. Being connected to the internet and being made available to all also attracts a lot of nefarious elements. Cybercriminals continually target the healthcare industry. The ransomware attack on AIIMS New Delhi is a prime example of this. Cybercriminals were able to cripple AIIMS systems. For over two weeks this caused massive chaos and confusion among the general public. The pandemic itself saw a large number of healthcare-themed smishing and vishing attacks. Their major motive was to exploit the insecure and scared public and make use of the pandemic to extort money. Every example of a cyberattack on a healthcare industry has always led to massive chaos. Healthcare is considered a critical industry, thereby it needs to be adequately protected. With e-Health on the rise, by 2023 society can also expect a lot of jobs to open in the sector of cyber security in the healthcare industry.
+e-Health solutions are the need of the hour. Integrating e-Health solutions with up-and-coming technologies can effectively ensure inclusivity for all. Such solutions can bring healthcare facilities to the remotest parts of the earth. With current trends in sight, 2030 is expected to have a large market share occupied by e-Health solutions. Early investors can expect high returns by 2030. With this in mind, special focus should also be given to securing the ever-growing e-health industry.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Rise impact humans 2030 Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist 2020 world ravaged SarsCov2 virus notorious virus brought pandemic change humanity point lives world changed widespread stringent lockdowns entire world halt general populace affected pandemic affected industries pandemic spare critical industries healthcare security industries required function benefit society operations changed drastically human nature prevails adversity pandemic rise technologies aid overcome restrictions put pandemic article specifically focus healthcare industries innovations industry impact innovations humans 2030 Lockdowns initiated curb pandemic caused people stay homes times exception medical staff acted line defense pandemic pandemic cater patients suffering ailments people restricted required medical consultation issues conundrum led rise imparting healthcare facilities electronic media Healthcare workers utilized technologies video calls virtual meetings reach needy practices pandemic raged society numerous initiatives sector initiatives eSanjeevani OPD brought government OPD facilities directly people homes noted limited providing patients virtual meetings encompasses technology transitions traditional healthcare sector accessible electronic form Keeping trend Internet Things IoT build Internet Medical Things IoMT devices allowed remote monitoring controlling facilities imparted patients onset 5G technology IoMT flourished solutions include devices monitor individual health metrics devices capable sending alerts metrics fall acceptable advancements artificial intelligence machine learning deep learning technologies devices report technologies IoMT devices capable intelligently performing actions metric patient check interesting technology found healthcare industry Blockchain technology technology base cryptocurrency maintain immutable records patients blockchain solutions finding market Pranacare platform doctors driven blockchain offers tools dieticians diabetologists cardiac specialists manage customers data maintains tracks records patient data offers decentralized ledger armchair organization combines blockchain technology health industry armchair platform electronic health records storage blockchain hybrid network analyses data Artificial Intelligence Ethereum Contracts Hyperledger Sawtooth platform offer safe method patients providers access patient data Existing services rise pandemic telemedicine visits increased ambulatory care visits pandemic 30 visits customer readiness adopt telehealth climbing 66 health systems 40 primary care appointments performed remotely increased penetration internet lives critical companies capture segment Keeping agenda market proliferation companies providing services industry investments 2019 2020 investments telemedicine solutions quadrupled rising 2020 total funding remote patient monitoring RPM solutions quadrupled rising 417 941 investors RPM solutions chronic care management expected popular coming years Analysts predict eHealth increase compound growth rate 2022 2030 eHealth segment expected generate 2023 expected lead global market industry expected boom investments providing investors return investments probable future entire healthcare industry special attention security aspect services connected internet made attracts lot nefarious elements Cybercriminals continually target healthcare industry ransomware attack AIIMS prime Cybercriminals cripple AIIMS systems caused massive chaos confusion general public pandemic number smishing vishing attacks motive exploit insecure scared public make pandemic extort cyberattack healthcare industry led massive chaos Healthcare considered critical industry adequately protected rise 2023 society expect lot jobs open sector cyber security healthcare industry solutions hour Integrating solutions technologies effectively ensure inclusivity solutions bring healthcare facilities remotest parts earth current trends sight 2030 expected market share occupied solutions investors expect returns 2030 mind special focus securing industry provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>25</v>
+      </c>
+      <c r="G15" t="n">
+        <v>28</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.05660377251690996</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.08646003248538331</v>
+      </c>
+      <c r="J15" t="n">
+        <v>17.06849315068493</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.2407704654895666</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.923705446469801</v>
+      </c>
+      <c r="M15" t="n">
+        <v>19.78082191780822</v>
+      </c>
+      <c r="N15" t="n">
+        <v>741</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2404</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4.61207494795281</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>blackassign0015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/rise-of-telemedicine-and-its-impact-on-livelihood-by-2040-2/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Rise of telemedicine and its Impact on Livelihood by 2040
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+“More gains on quality, affordability and accessibility are on the way”
+What do tele-med means?
+As the world evolves and advances, so does technology which in turn impacts our daily lives. One of that advancement is Telemedicine. It’s not an overnight change, but more like how summer turns into fall – gradual yet very perceptible. We are now able to access healthcare remotely and this has huge implications for the way we access healthcare. How will people be accessing healthcare services in 2040? I believe that telehealth services will become an essential part of our everyday lives and will be easily accessible from the comfort of our own homes. But first of all, what is telemedicine? It is the use of telecommunications technology to transmit medical information between healthcare professionals and patients via mobile devices or computer tablets. Healthcare providers can use these devices to connect remotely with their patients to monitor their health remotely or to even treat them during emergencies without having to travel from one location to another.
+Role of tele-med during a pandemic
+Telemedicine’s ability to address inequities in access has been demonstrated during the pandemic. The ubiquitous smartphone, capable of video interactions, can be a lifeline for underserved populations. In rural areas with few mental health professionals, for example, Intermountain’s’s ability to offer virtual visits gives patients prompt access to both emergency and routine care. Early in the COVID-19 pandemic, telehealth usage surged as consumers and providers sought ways to safely access and deliver healthcare. When the pandemic forced the closure of in-person clinics and offices, psychologists and psychiatrists across the world quickly instituted virtual visits. Telemedicine visits remained popular even after restrictions eased. Intermountain patients receiving their care virtually reported high satisfaction and were less likely to cancel appointments than patients who had scheduled in-person visits.
+Advantages of Telemed in today’s era
+Patients with obscure or complex medical problems often find themselves living a two-pronged nightmare. There’s the pain and fear of having a rare disease and the frustration of trying to find the right specialist. Patients may bounce from one local physician to the next, wasting weeks or months sitting through useless appointments and enduring sleepless nights. Telemedicine offers a far better solution. Virtual technology can connect patients with the most experienced and knowledgeable doctors regardless of where they practice. By eliminating the barriers of time and distance, telemedicine can help address two serious problems for patients with difficult diagnoses and rare diseases. The first is misdiagnosis. The second is long waits for a proper diagnosis and effective treatment plan.
+Rise of the telemedicine industry post-pandemic
+Source: The Indian Express
+This step-change, borne out of necessity, was enabled by these factors: 1) increased consumer willingness to use telehealth, 2) increased provider willingness to use telehealth, and 3) regulatory changes enabling greater access and reimbursement. During the tragedy of the pandemic, telehealth offered a bridge to care, and now offers a chance to reinvent virtual and hybrid virtual/in-person care models, with a goal of improved healthcare access, outcomes, and affordability.
+Our consumer research5 shows that consumers continue to view telehealth as an important modality for their future care needs, but—as expected—this view varies widely depending on the type of care. Overall, consumer perception tracks closely to what we believe is possible telehealth uptake by various specialties (Exhibit 2).
+Around 40 percent of surveyed consumers stated that they believe they will continue to use telehealth going forward—up from 11 percent of consumers using telehealth before COVID-19.
+Its impact on human beings over the years
+Moreover, our research shows between 40 and 60 percent of consumers express interest in a set of broader virtual health solutions, such as a “digital front door” or lower-cost virtual-first health plan.6 However, a gap has historically existed between consumers’ expressed interest in digital health solutions and actual usage. Continuing to focus on creating a seamless consumer interface, breaking down silos in care provision (across virtual and in-person) with improved data integration and insights, and proactive consumer engagement will all be important to sustaining and growing consumer use of virtual health as the pandemic wanes.
+Increasing both the frequency and the scope of virtual care nationwide would transform Indian health, improving the lives of patients who get sick during nights and weekends, those with chronic and mental health issues, and anyone who could benefit from virtual specialty care. It could save tens of thousands of lives and hundreds of billions of dollars each year. As of July 2021, we step back to review the progress of telehealth since the initial COVID-19 spike and to assess implications for telehealth and virtual health more broadly going forward. The findings include the following insights:
+“ Telehealth utilization has stabilized at levels 38X higher than before the pandemic.Similarly, consumer and provider attitudes toward telehealth have improved since the pre-COVID-19 era. Investment in virtual care and digital health more broadly has skyrocketed, fuelling further innovation. Virtual healthcare models and business models are evolving and proliferating.”
+Access to online primary care is growing rapidly but remains concentrated among younger patients and minorities. Despite the challenges ahead, substantial opportunities lie ahead as we recover from the pandemic.
+Is the rise in tele-med industry temporary or will keep growing?
+The trend toward more virtual health care will continue as consumers become more comfortable with telehealth and demand more convenient ways to access care. In some areas, such as urgent care and specialty care, patients are starting to shift their preferences toward online solutions. Moving forward, there are several important challenges and opportunities to consider to ensure that the benefits of telehealth are widely accessible to patients and providers alike.
+Role of business leaders in achieving new model
+When creating a new model of health care, the hard work is in the details, and because a tele-driven system will affect every aspect of care delivery, developing one entails thousands of decisions. Medical and financial leaders will need to design, shape, and implement the processes by which care will be delivered and paid for. The specifics of how best to do this are beyond the scope of this article, but here are two major considerations: reimbursement and care delivery requisites.
+Businesses will need to band together to achieve economies of scale and identify the right leadership in the surrounding medical community. Businesses might wonder whether creating a new health system merits the time and energy that would be required. They should consider that rapidly rising medical costs will significantly affect their bottom lines. Even before Covid-19 struck, sparking supply chain challenges and exacerbating the shortage of healthcare professionals, experts predicted that healthcare spending would increase by 5.5% annually. Businesses can expect extremely high medical-cost inflation if nothing is done. The time to act is now.
+Summing it up
+Lowering medical costs while maximizing the health of employees is the best way for businesses to stay profitable and maintain a loyal workforce. The pandemic has highlighted the opportunities that exist and the problems that will worsen if nothing changes. Done well, the transition to a tele-driven health system could be accomplished in a few years. If left to chance, it could take decades—if it happens at all. The current crisis offers a unique opportunity to build a better future for our healthcare system. But we must act quickly.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Rise telemedicine Impact Livelihood 2040 Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist gains quality affordability accessibility world evolves advances technology turn impacts lives advancement Telemedicine overnight change turns fall gradual perceptible access healthcare remotely huge implications access healthcare people accessing healthcare services 2040 telehealth services essential part everyday lives easily accessible comfort homes telemedicine telecommunications technology transmit medical information healthcare professionals patients mobile devices computer tablets Healthcare providers devices connect remotely patients monitor health remotely emergencies travel location Role pandemic Telemedicine ability address inequities access demonstrated pandemic ubiquitous smartphone capable video interactions lifeline underserved populations rural areas mental health professionals Intermountain ability offer virtual visits patients prompt access emergency routine care pandemic telehealth usage surged consumers providers sought ways safely access deliver healthcare pandemic forced closure clinics offices psychologists psychiatrists world quickly instituted virtual visits Telemedicine visits remained popular restrictions eased Intermountain patients receiving care virtually reported satisfaction cancel appointments patients scheduled visits Advantages Telemed today Patients obscure complex medical problems find living nightmare pain fear rare disease frustration find specialist Patients bounce local physician wasting months sitting useless appointments enduring sleepless nights Telemedicine offers solution Virtual technology connect patients experienced knowledgeable doctors practice eliminating barriers time distance telemedicine address problems patients difficult diagnoses rare diseases misdiagnosis proper diagnosis effective treatment plan Rise telemedicine industry Source Express borne necessity enabled factors 1 increased consumer willingness telehealth 2 increased provider willingness telehealth 3 regulatory enabling greater access reimbursement tragedy pandemic telehealth offered care offers reinvent virtual hybrid care models goal improved healthcare access outcomes affordability consumer research5 shows consumers continue view telehealth important modality future care view varies widely depending type care consumer perception tracks closely telehealth uptake specialties Exhibit 2 40 percent surveyed consumers stated continue telehealth 11 percent consumers telehealth impact human beings years research shows 40 60 percent consumers express interest set broader virtual health solutions digital front door health gap historically existed consumers expressed interest digital health solutions actual usage Continuing focus creating seamless consumer interface breaking silos care provision virtual improved data integration insights proactive consumer engagement important sustaining growing consumer virtual health pandemic wanes Increasing frequency scope virtual care nationwide transform health improving lives patients sick nights weekends chronic mental health issues benefit virtual specialty care save tens thousands lives hundreds billions dollars 2021 step review progress telehealth initial spike assess implications telehealth virtual health broadly forward findings include insights Telehealth utilization stabilized levels 38X higher consumer provider attitudes telehealth improved Investment virtual care digital health broadly skyrocketed fuelling innovation Virtual healthcare models business models evolving Access online primary care growing rapidly remains concentrated patients minorities challenges ahead substantial opportunities lie ahead recover pandemic rise industry temporary growing trend virtual health care continue consumers comfortable telehealth demand convenient ways access care areas urgent care specialty care patients starting shift preferences online solutions Moving forward important challenges opportunities ensure benefits telehealth widely accessible patients providers alike Role business leaders achieving model creating model health care hard work details system affect aspect care delivery developing entails thousands decisions Medical financial leaders design shape implement processes care delivered paid specifics scope article considerations reimbursement care delivery requisites Businesses band achieve economies scale identify leadership surrounding medical community Businesses creating health system merits time energy required rapidly rising medical costs significantly affect bottom lines sparking supply chain challenges exacerbating shortage healthcare professionals experts predicted healthcare spending increase Businesses expect extremely inflation time act Summing Lowering medical costs maximizing health employees businesses stay profitable maintain loyal workforce pandemic highlighted opportunities exist problems worsen transition health system accomplished years left current crisis offers unique opportunity build future healthcare system act quickly provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>41</v>
+      </c>
+      <c r="G16" t="n">
+        <v>27</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.2058823499134949</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.09366391171671637</v>
+      </c>
+      <c r="J16" t="n">
+        <v>22.14285714285714</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2695340501792114</v>
+      </c>
+      <c r="L16" t="n">
+        <v>8.964956477214541</v>
+      </c>
+      <c r="M16" t="n">
+        <v>25.31746031746032</v>
+      </c>
+      <c r="N16" t="n">
+        <v>864</v>
+      </c>
+      <c r="O16" t="n">
+        <v>376</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2773</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>7</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4.825595984943538</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>blackassign0016</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/rise-of-telemedicine-and-its-impact-on-livelihood-by-2040-2-2/</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Rise of telemedicine and its Impact on Livelihood by 2040
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+“More gains on quality, affordability and accessibility are on the way”
+What do tele-med means?
+As the world evolves and advances, so does technology which in turn impacts our daily lives. One of that advancement is Telemedicine. It’s not an overnight change, but more like how summer turns into fall – gradual yet very perceptible. We are now able to access healthcare remotely and this has huge implications for the way we access healthcare. How will people be accessing healthcare services in 2040? I believe that telehealth services will become an essential part of our everyday lives and will be easily accessible from the comfort of our own homes. But first of all, what is telemedicine? It is the use of telecommunications technology to transmit medical information between healthcare professionals and patients via mobile devices or computer tablets. Healthcare providers can use these devices to connect remotely with their patients to monitor their health remotely or to even treat them during emergencies without having to travel from one location to another.
+Role of tele-med during a pandemic
+Telemedicine’s ability to address inequities in access has been demonstrated during the pandemic. The ubiquitous smartphone, capable of video interactions, can be a lifeline for underserved populations. In rural areas with few mental health professionals, for example, Intermountain’s’s ability to offer virtual visits gives patients prompt access to both emergency and routine care. Early in the COVID-19 pandemic, telehealth usage surged as consumers and providers sought ways to safely access and deliver healthcare. When the pandemic forced the closure of in-person clinics and offices, psychologists and psychiatrists across the world quickly instituted virtual visits. Telemedicine visits remained popular even after restrictions eased. Intermountain patients receiving their care virtually reported high satisfaction and were less likely to cancel appointments than patients who had scheduled in-person visits.
+Advantages of Telemed in today’s era
+Patients with obscure or complex medical problems often find themselves living a two-pronged nightmare. There’s the pain and fear of having a rare disease and the frustration of trying to find the right specialist. Patients may bounce from one local physician to the next, wasting weeks or months sitting through useless appointments and enduring sleepless nights. Telemedicine offers a far better solution. Virtual technology can connect patients with the most experienced and knowledgeable doctors regardless of where they practice. By eliminating the barriers of time and distance, telemedicine can help address two serious problems for patients with difficult diagnoses and rare diseases. The first is misdiagnosis. The second is long waits for a proper diagnosis and effective treatment plan.
+Rise of the telemedicine industry post-pandemic
+Source: The Indian Express
+This step-change, borne out of necessity, was enabled by these factors: 1) increased consumer willingness to use telehealth, 2) increased provider willingness to use telehealth, and 3) regulatory changes enabling greater access and reimbursement. During the tragedy of the pandemic, telehealth offered a bridge to care, and now offers a chance to reinvent virtual and hybrid virtual/in-person care models, with a goal of improved healthcare access, outcomes, and affordability.
+Our consumer research5 shows that consumers continue to view telehealth as an important modality for their future care needs, but—as expected—this view varies widely depending on the type of care. Overall, consumer perception tracks closely to what we believe is possible telehealth uptake by various specialties (Exhibit 2).
+Around 40 percent of surveyed consumers stated that they believe they will continue to use telehealth going forward—up from 11 percent of consumers using telehealth before COVID-19.
+Its impact on human beings over the years
+Moreover, our research shows between 40 and 60 percent of consumers express interest in a set of broader virtual health solutions, such as a “digital front door” or lower-cost virtual-first health plan.6 However, a gap has historically existed between consumers’ expressed interest in digital health solutions and actual usage. Continuing to focus on creating a seamless consumer interface, breaking down silos in care provision (across virtual and in-person) with improved data integration and insights, and proactive consumer engagement will all be important to sustaining and growing consumer use of virtual health as the pandemic wanes.
+Increasing both the frequency and the scope of virtual care nationwide would transform Indian health, improving the lives of patients who get sick during nights and weekends, those with chronic and mental health issues, and anyone who could benefit from virtual specialty care. It could save tens of thousands of lives and hundreds of billions of dollars each year. As of July 2021, we step back to review the progress of telehealth since the initial COVID-19 spike and to assess implications for telehealth and virtual health more broadly going forward. The findings include the following insights:
+“ Telehealth utilization has stabilized at levels 38X higher than before the pandemic.Similarly, consumer and provider attitudes toward telehealth have improved since the pre-COVID-19 era. Investment in virtual care and digital health more broadly has skyrocketed, fuelling further innovation. Virtual healthcare models and business models are evolving and proliferating.”
+Access to online primary care is growing rapidly but remains concentrated among younger patients and minorities. Despite the challenges ahead, substantial opportunities lie ahead as we recover from the pandemic.
+Is the rise in tele-med industry temporary or will keep growing?
+The trend toward more virtual health care will continue as consumers become more comfortable with telehealth and demand more convenient ways to access care. In some areas, such as urgent care and specialty care, patients are starting to shift their preferences toward online solutions. Moving forward, there are several important challenges and opportunities to consider to ensure that the benefits of telehealth are widely accessible to patients and providers alike.
+Role of business leaders in achieving new model
+When creating a new model of health care, the hard work is in the details, and because a tele-driven system will affect every aspect of care delivery, developing one entails thousands of decisions. Medical and financial leaders will need to design, shape, and implement the processes by which care will be delivered and paid for. The specifics of how best to do this are beyond the scope of this article, but here are two major considerations: reimbursement and care delivery requisites.
+Businesses will need to band together to achieve economies of scale and identify the right leadership in the surrounding medical community. Businesses might wonder whether creating a new health system merits the time and energy that would be required. They should consider that rapidly rising medical costs will significantly affect their bottom lines. Even before Covid-19 struck, sparking supply chain challenges and exacerbating the shortage of healthcare professionals, experts predicted that healthcare spending would increase by 5.5% annually. Businesses can expect extremely high medical-cost inflation if nothing is done. The time to act is now.
+Summing it up
+Lowering medical costs while maximizing the health of employees is the best way for businesses to stay profitable and maintain a loyal workforce. The pandemic has highlighted the opportunities that exist and the problems that will worsen if nothing changes. Done well, the transition to a tele-driven health system could be accomplished in a few years. If left to chance, it could take decades—if it happens at all. The current crisis offers a unique opportunity to build a better future for our healthcare system. But we must act quickly.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Rise telemedicine Impact Livelihood 2040 Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist gains quality affordability accessibility world evolves advances technology turn impacts lives advancement Telemedicine overnight change turns fall gradual perceptible access healthcare remotely huge implications access healthcare people accessing healthcare services 2040 telehealth services essential part everyday lives easily accessible comfort homes telemedicine telecommunications technology transmit medical information healthcare professionals patients mobile devices computer tablets Healthcare providers devices connect remotely patients monitor health remotely emergencies travel location Role pandemic Telemedicine ability address inequities access demonstrated pandemic ubiquitous smartphone capable video interactions lifeline underserved populations rural areas mental health professionals Intermountain ability offer virtual visits patients prompt access emergency routine care pandemic telehealth usage surged consumers providers sought ways safely access deliver healthcare pandemic forced closure clinics offices psychologists psychiatrists world quickly instituted virtual visits Telemedicine visits remained popular restrictions eased Intermountain patients receiving care virtually reported satisfaction cancel appointments patients scheduled visits Advantages Telemed today Patients obscure complex medical problems find living nightmare pain fear rare disease frustration find specialist Patients bounce local physician wasting months sitting useless appointments enduring sleepless nights Telemedicine offers solution Virtual technology connect patients experienced knowledgeable doctors practice eliminating barriers time distance telemedicine address problems patients difficult diagnoses rare diseases misdiagnosis proper diagnosis effective treatment plan Rise telemedicine industry Source Express borne necessity enabled factors 1 increased consumer willingness telehealth 2 increased provider willingness telehealth 3 regulatory enabling greater access reimbursement tragedy pandemic telehealth offered care offers reinvent virtual hybrid care models goal improved healthcare access outcomes affordability consumer research5 shows consumers continue view telehealth important modality future care view varies widely depending type care consumer perception tracks closely telehealth uptake specialties Exhibit 2 40 percent surveyed consumers stated continue telehealth 11 percent consumers telehealth impact human beings years research shows 40 60 percent consumers express interest set broader virtual health solutions digital front door health gap historically existed consumers expressed interest digital health solutions actual usage Continuing focus creating seamless consumer interface breaking silos care provision virtual improved data integration insights proactive consumer engagement important sustaining growing consumer virtual health pandemic wanes Increasing frequency scope virtual care nationwide transform health improving lives patients sick nights weekends chronic mental health issues benefit virtual specialty care save tens thousands lives hundreds billions dollars 2021 step review progress telehealth initial spike assess implications telehealth virtual health broadly forward findings include insights Telehealth utilization stabilized levels 38X higher consumer provider attitudes telehealth improved Investment virtual care digital health broadly skyrocketed fuelling innovation Virtual healthcare models business models evolving Access online primary care growing rapidly remains concentrated patients minorities challenges ahead substantial opportunities lie ahead recover pandemic rise industry temporary growing trend virtual health care continue consumers comfortable telehealth demand convenient ways access care areas urgent care specialty care patients starting shift preferences online solutions Moving forward important challenges opportunities ensure benefits telehealth widely accessible patients providers alike Role business leaders achieving model creating model health care hard work details system affect aspect care delivery developing entails thousands decisions Medical financial leaders design shape implement processes care delivered paid specifics scope article considerations reimbursement care delivery requisites Businesses band achieve economies scale identify leadership surrounding medical community Businesses creating health system merits time energy required rapidly rising medical costs significantly affect bottom lines sparking supply chain challenges exacerbating shortage healthcare professionals experts predicted healthcare spending increase Businesses expect extremely inflation time act Summing Lowering medical costs maximizing health employees businesses stay profitable maintain loyal workforce pandemic highlighted opportunities exist problems worsen transition health system accomplished years left current crisis offers unique opportunity build future healthcare system act quickly provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>41</v>
+      </c>
+      <c r="G17" t="n">
+        <v>27</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.2058823499134949</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.09366391171671637</v>
+      </c>
+      <c r="J17" t="n">
+        <v>22.14285714285714</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.2695340501792114</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.964956477214541</v>
+      </c>
+      <c r="M17" t="n">
+        <v>25.31746031746032</v>
+      </c>
+      <c r="N17" t="n">
+        <v>864</v>
+      </c>
+      <c r="O17" t="n">
+        <v>376</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2773</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>7</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4.825595984943538</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>blackassign0017</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/rise-of-chatbots-and-its-impact-on-customer-support-by-the-year-2040/</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Rise of Chatbots and its impact on customer support by the year 2040
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+The human race is known to come up with inventions that decide its future. Many scholars believe that Artificial Intelligence(AI) has been the most pioneering innovation since early humans discovered fire and invented the wheel. The advancement of groundbreaking technologies such as Artificial Intelligence and Machine Learning (ML) have constantly been shaping the future of humankind. The likes of Mark Zuckerberg have welcomed the evolution of AI. He once stated- “With A.I.especially, I am optimistic“. While according to Elon Musk, “AI can outsmart and endanger us.”However, we simply cannot ignore how useful and influential AI is in our daily lives.
+The applications of AI and ML have delved deeply into various domains. The least to mention are Healthcare, Transportation, Education, Media, Communication, Manufacturing, andCustomer service. Businesses worldwide are placing a significant emphasis on enhancing their customers’ overall experiences. As a result of AI, a massive leap in customer experience service has come up with the evolution of chatbots.
+Chatbots are AI-based systems used by businesses for communication with customers. Customers can interact with chatbots directly via chat and voice applications. Numerous online customer service platforms are utilizing chatbots to manage bulk phone calls, FAQs, and other common customer service inquiries. Chatbots resolve customer queries within no time and are accessible 24X7, enhancing the customer experience.
+The use of technologies such as AI, ML, and NLP (Natural Language Processing), enables the bot to analyze and identify the user’s problems and instantly give the most relevant answers to the queries.
+Platforms such as Facebook Messenger, WeChat, Discord, and Slack have been extensively using chatbots for better communication.
+There are numerous advantages of using chatbots in businesses- Chatbots can communicate with multiple customers at once. They can be used to send regular updates about the products and exclusive offers by the company. They are available throughout the day, which is crucial for businesses that expand globally in different time zones. It becomes too cumbersome for businesses to have customer care support centers at various locations across the world. There is no human intervention involved. Therefore, chatbots can be accessed worldwide anytime. Chatbots reply instantly, and hence it increases customer engagement. Chatbots can also be extensively used to collect user data and analyze it further to provide customized solutions. ML-based chatbot systems are learning from past conversations to generate more thoughtful replies.
+Roughly 40 % of internet users around the globe prefer interacting with chatbots rather than virtual agents. With leading sectors such as retail and healthcare rapidly turning towards digital technology, chatbots will continue to grow in popularity in the years to come.
+According to some reports, it is anticipated that the size of the global chatbot market will expand at a compound annual growth rate (CAGR) of approximately 26% from the years 2022 to 2030. In the year 2021, the chatbot market size was valued at a total of USD 525 million.
+It is anticipated that the growing adoption of customer service activities among enterprises to reduce operating costs will be the primary factor driving the chatbot market.
+In the past few years, some of the most significant advances that have been made in artificial intelligence and machine learning have been in the areas of perception and cognition. Although there is much room for improvement in voice recognition technology, the tech giants like Apple, Amazon, and Google have all made significant strides in this direction with their digital assistants Siri, Alexa, and Google Assistant, respectively.
+Deep learning systems are now actively utilized to decide trades accomplished on Wall Street and predict whether users will click on particular advertisements. It has increased efficiency on both the consumer and the business side of things. Chatbots can help businesses save money by generating revenue, conducting research, generating leads, and increasing brand awareness. Other uses for chatbots include research and lead generation.
+Given the trends of the data, we can expect the chatbot industry to surpass the billion-dollar mark in a few years. Hence, by 2040 the chatbot industry would be having a multi-billion dollar market value.
+Bank of America is responsible for creating one of the most groundbreaking innovations. The recently introduced “Erica” is intended to assist customers in making more informed choices regarding their finances. Customers can make payments, check their balances, save money, and transfer funds with this chatbot, which uses artificial intelligence, algorithms, and predictive messaging. Erica makes it possible for users to interact via text and voice, and it then uses the information provided to push insights to the customer.
+KLM Royal Dutch Airlines is another company incorporating chatbots into their customer service channel. KLM increased the number of customer interactions with the Facebook messenger app by forty percent. The airline wanted to facilitate more effortless conversations between its employees and passengers without compromising passengers’ right to personal privacy. KLM was aware that its customers spent a significant amount of time using Facebook and Messenger, so the company decided to implement a chatbot as its platform for customer service. Messenger is now the channel through which customers can directly receive booking details, boarding passes, and flight status updates. On a typical day, KLM receives an average of five messages per minute through Facebook Messenger. During peak traffic, that number jumps to over eleven messages per minute.
+These innovations with chatbots will surely pave the way for the future. by 2040, chatbots will completely revolutionize the customer experience domain.
+There are apparent constraints with AI technology. The absence of emotional intelligence restricts the range and depth of the conversation that can take place when AI-driven chatbots are used with customers, even though the chatbots can learn from and predict the behavior of the customers.
+The availability of trained staff and their familiarity with this developing technology is another factor that can hinder the effectiveness of chatbots. Chatbots can have significant limitations when it comes to different languages and accents. This restriction turns into a significant obstacle for companies that operate in more than one location. Maintaining the security of the customer’s data is also a key challenge.
+Even though chatbot technology has some limitations in how it can function, there are innumerable advantages of using this technology in improving customer support. The chatbot technology is potent enough to enhance customer support multi-folds by 2040. The optimistic thing about this technology is that ML-based systems can learn from their own experiences and improve with time. Hence there is a high chance that chatbot technology is perhaps “The next big thing” in the customer service domain.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Rise Chatbots impact customer support 2040 Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist human inventions decide future scholars Artificial Intelligence pioneering innovation humans discovered fire invented wheel advancement groundbreaking technologies Artificial Intelligence Machine Learning ML constantly shaping future humankind likes Zuckerberg welcomed evolution optimistic Elon Musk outsmart endanger simply ignore influential lives applications ML delved deeply domains mention Healthcare Transportation Education Media Communication Manufacturing andCustomer service Businesses worldwide placing significant emphasis enhancing customers experiences result massive leap customer experience service evolution chatbots Chatbots systems businesses communication customers Customers interact chatbots directly chat voice applications Numerous online customer service platforms utilizing chatbots manage bulk phone calls FAQs common customer service inquiries Chatbots resolve customer queries time accessible 24X7 enhancing customer experience technologies ML NLP Natural Language Processing enables bot analyze identify user problems instantly give relevant answers queries Platforms Facebook WeChat Discord extensively chatbots communication numerous advantages chatbots Chatbots communicate multiple customers send regular updates products exclusive offers company crucial businesses expand globally time zones cumbersome businesses customer care support centers locations world human intervention involved chatbots accessed worldwide anytime Chatbots reply instantly increases customer engagement Chatbots extensively collect user data analyze provide customized solutions chatbot systems learning past conversations generate thoughtful replies Roughly 40 internet users globe prefer interacting chatbots virtual agents leading sectors retail healthcare rapidly turning digital technology chatbots continue popularity years reports anticipated size global chatbot market expand compound growth rate CAGR approximately 26 years 2022 2030 2021 chatbot market size valued total USD 525 anticipated growing adoption customer service activities enterprises reduce operating costs primary factor driving chatbot market past years significant advances made artificial intelligence machine learning areas perception cognition room improvement voice recognition technology tech giants Amazon Google made significant strides direction digital assistants Siri Google Assistant Deep learning systems actively utilized decide trades accomplished predict users advertisements increased efficiency consumer business side things Chatbots businesses save generating revenue conducting research generating leads increasing awareness chatbots include research lead generation trends data expect chatbot industry surpass years 2040 chatbot industry market Bank responsible creating groundbreaking innovations recently introduced intended assist customers making informed choices finances Customers make payments check balances save transfer funds chatbot artificial intelligence algorithms predictive messaging makes users interact text voice information provided push insights customer KLM Dutch Airlines company incorporating chatbots customer service channel KLM increased number customer interactions Facebook app percent airline wanted facilitate effortless conversations employees passengers compromising passengers personal privacy KLM aware customers spent significant amount time Facebook company decided implement chatbot platform customer service channel customers directly receive booking details boarding passes flight status updates typical KLM receives average messages minute Facebook traffic number jumps messages minute innovations chatbots surely pave future 2040 chatbots completely revolutionize customer experience domain apparent constraints technology absence emotional intelligence restricts depth conversation chatbots customers chatbots learn predict behavior customers availability trained staff familiarity developing technology factor hinder effectiveness chatbots Chatbots significant limitations languages accents restriction turns significant obstacle companies operate location Maintaining security customer data challenge chatbot technology limitations function innumerable advantages technology improving customer support chatbot technology potent enhance customer support 2040 optimistic thing technology systems learn experiences improve time chatbot technology big thing customer service domain provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>50</v>
+      </c>
+      <c r="G18" t="n">
+        <v>12</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.6129032159209159</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.09480122309663422</v>
+      </c>
+      <c r="J18" t="n">
+        <v>19.40909090909091</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.2755659640905542</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7.873862749272586</v>
+      </c>
+      <c r="M18" t="n">
+        <v>22.22727272727273</v>
+      </c>
+      <c r="N18" t="n">
+        <v>787</v>
+      </c>
+      <c r="O18" t="n">
+        <v>353</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2557</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4.866803278688525</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>blackassign0018</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/rise-of-e-health-and-its-imapct-on-humans-by-the-year-2030/</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Rise of e-health and its impact on humans by the year 2030
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Introduction
+The phrase “e-health” refers to “Internet medicine” as well as almost everything else connected to computers and healthcare. It appears that industry leaders and marketing professionals, not academics, were the first to adopt the word. To bring the promises, principles, and excitement (and hype) surrounding e-commerce (electronic commerce) to the health arena and to give an account of the new possibilities the Internet is opening up for the area of health care, they created and used this term in line with other “e-words” such as e-commerce, e-business, e-solutions, and so on.
+E-health emerged in the modern world as a result of the demand for better patient tracking of their healthcare and operations, notably for purposes of reimbursement from organizations like insurance companies. In the past, healthcare professionals kept paper records of the patient’s history and current condition. However, the development of an electronic tracking system was pushed by rising healthcare expenses and technological advancements. The field of telemedicine, in which a telecommunications medium is utilized to deliver medical care remotely, evolved as e-health technology advanced.
+Growth of E-health
+The e-health industry saw tremendous expansion following the epidemic, with several new companies being created as “buddies” for e-health treatment. such as the market leaders in a positive way right now, Oura Health, Vantage Health, Mendelian, and HealthifyMe. They target those who are looking for economical healthcare facilities by offering E-health at lower prices. Accessibility from the East is another aspect of e-health care brands. Some benefits of e-health care facilities include quality, improved doctor-patient relationships, a wider audience, better communication, tracking of health, and convenience of follow-ups.
+Impact of technology on E-health
+The recently introduced 5G services will present an ocean of chances for e-health services, according to a study by “EY.” In addition to accelerating the deployment of telemedicine, 5G may improve the interaction between health sensors, algorithms, and smart gadgets.
+In 2021, the size of the global e-health market was estimated at USD 97,640.4 million. By 2030, it is anticipated to reach USD 338,147.7 million, expanding at a CAGR of 14.8% over the forecast period (2022-2030). As we can see, the fast-expanding e-health sector is changing how healthcare is provided. This caused a large portion of the population to switch from conventional healthcare practices to electronic health. Now, more and more nations are looking for a digital strategy. The market is expanding as a result of rising government measures to encourage e-health solutions, an increase in chronic diseases, and a growing requirement to employ e-health to manage regulatory compliance.
+Rise of E-health in today’s world
+According to a poll of more than 11,000 consumers across 16 nations, consumers still view health and fitness as “essentials,” right up there with groceries and domestic cleaning supplies, even in the face of general insecurity and financial difficulties. 80% of poll participants indicated they intended to maintain or increase their spending on areas connected to health and fitness in the coming year, such as exercise classes or vitamins and supplements, even though two-thirds (66%) of respondents stated they feel financially stressed.
+Source: Accenture consumer public survey
+Regardless of income levels, people have redefined health and well-being as essential goods and intend to maintain or increase their spending in this area this year, according to Oliver Wright, a senior managing director at Accenture and the global leader of the company’s Consumer Goods &amp; Services industry practice. “With the global spend on health and wellness expected to reach more than $1 trillion by 2025, consumer-facing companies must draw on cross-industry expertise, scientific advancements, and technological innovations while also taking consumers’ shifting priorities into account when developing new offerings.” Thus, as health requirements rise along with innovation, people are more tolerant of e-health.
+Source: Deloitte
+Healthcare customers desire both easy access to medical care and positive interactions with their doctors. However, if forced to pick one, they would go with convenience. To address this, more than half of the survey participants expressed interest in implementing solutions that would enhance the consumer experience by lowering the time and difficulty associated with obtaining care. In fact, over the next three to five years, 61% of respondents intend to spend money on patient communication technologies like telehealth and messaging capabilities with their medical staff. Other consumer-specific capabilities that businesses are wanting to invest in at this time include online appointment scheduling and virtual registration.
+Future of E-health and its role in the Pandemic
+The system of E-health relies on interoperable digital systems to exchange information on health operations, and in the future, information from these systems might be exchanged between other nations to enhance healthcare administration. This enables inhabitants of one country who travel elsewhere for a vacation to receive better healthcare and medicine prescriptions there. Additionally, this will help the medical tourism sector as well.
+Robotics and artificial intelligence will be used more frequently in the future. Even though it will be difficult in the future for robots to operate on people, doctors are now utilizing AI to diagnose illnesses. The goal of digital healthcare in the future is to put medical facilities close to the people. M-health technologies can track patients’ vital signs and keep an eye out for anomalies. so that consumers can consult a doctor before the issue worsens This lowers the fatality rate and medical malpractice.
+The covid-19 pandemic has already demonstrated the value of e-health technology since most hospitals were operating at limited capacity and postponing procedures as a result. As a result, during the epidemic, E-health applications were employed to maintain communication and improve patient care. All of this technology was, however, interoperable and required fast internet connections. To reduce the distance between doctors and patients, internet penetration would rise in the future, for instance with today’s 5G technology.
+Summing it up
+Last but not least, a stronger push for digital health may increase confidence in digital healthcare and increase dependence on medical websites. The vaccination movement, which is highly vocal and gaining traction through digital channels, is an example of this. The relationship between the medical staff and the patient is ultimately what drives health and wellness, but in today’s environment, digital platforms are supporting this interaction more than ever. The future standard of treatment might very well include the routine use of digital health instruments.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Rise impact humans 2030 Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Introduction phrase refers Internet medicine connected computers healthcare appears industry leaders marketing professionals academics adopt bring promises principles excitement hype surrounding electronic commerce health give account possibilities Internet opening area health care created term line emerged modern world result demand patient tracking healthcare operations notably purposes reimbursement organizations insurance companies past healthcare professionals paper records patient history current condition development electronic tracking system pushed rising healthcare expenses technological advancements telemedicine telecommunications medium utilized deliver medical care remotely evolved technology advanced Growth industry tremendous expansion epidemic companies created buddies treatment market leaders positive Oura Health Vantage Health Mendelian HealthifyMe target economical healthcare facilities offering prices Accessibility aspect care brands benefits care facilities include quality improved relationships wider audience communication tracking health convenience Impact technology recently introduced 5G services present chances services study addition accelerating deployment telemedicine 5G improve interaction health sensors algorithms gadgets 2021 size global market estimated USD 2030 anticipated reach USD expanding CAGR forecast period sector changing healthcare provided caused portion population switch conventional healthcare practices electronic health digital strategy market expanding result rising government measures encourage solutions increase chronic diseases growing requirement employ manage regulatory compliance Rise today world poll consumers 16 consumers view health fitness essentials groceries domestic cleaning supplies face general insecurity financial difficulties 80 poll participants intended maintain increase spending areas connected health fitness coming exercise classes vitamins supplements 66 respondents stated feel financially stressed Source Accenture consumer public survey income levels people redefined health essential goods intend maintain increase spending area senior managing director Accenture global leader company Consumer Goods Services industry practice global spend health wellness expected reach 1 2025 companies draw expertise scientific advancements technological innovations taking consumers shifting priorities account developing health requirements rise innovation people tolerant Source Healthcare customers easy access medical care positive interactions doctors forced pick convenience address half survey participants expressed interest implementing solutions enhance consumer experience lowering time difficulty obtaining care fact years 61 respondents intend spend patient communication technologies telehealth messaging capabilities medical staff capabilities businesses wanting invest time include online appointment scheduling virtual registration Future role Pandemic system relies interoperable digital systems exchange information health operations future information systems exchanged enhance healthcare administration enables inhabitants travel vacation receive healthcare medicine prescriptions Additionally medical tourism sector Robotics artificial intelligence frequently future difficult future robots operate people doctors utilizing diagnose illnesses goal digital healthcare future put medical facilities people technologies track patients vital signs eye anomalies consumers consult issue worsens lowers fatality rate medical malpractice pandemic demonstrated technology hospitals operating limited capacity postponing procedures result result epidemic applications employed maintain communication improve patient care technology interoperable required internet connections reduce distance doctors patients internet penetration rise future instance today 5G technology Summing stronger push digital health increase confidence digital healthcare increase dependence medical websites vaccination movement highly vocal gaining traction digital channels relationship medical staff patient ultimately drives health wellness today environment digital platforms supporting interaction future standard treatment include routine digital health instruments provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>37</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5416666553819447</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.07679999987712</v>
+      </c>
+      <c r="J19" t="n">
+        <v>24.71428571428572</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.2848885218827416</v>
+      </c>
+      <c r="L19" t="n">
+        <v>9.999669694467384</v>
+      </c>
+      <c r="M19" t="n">
+        <v>29.44897959183674</v>
+      </c>
+      <c r="N19" t="n">
+        <v>734</v>
+      </c>
+      <c r="O19" t="n">
+        <v>345</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2492</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4.655339805825243</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>blackassign0019</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/how-does-marketing-influence-businesses-and-consumers/</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>How does marketing influence businesses and consumers?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Marketing can be defined as an act of promotion or advertisement of selling products or services. It is the process of exploring, creating, and delivering value to meet the needs of the consumers by understanding the target consumer market and particular businesses. It has evolved into a new form especially due to the excessive use of social media. Due to the boost in the use of social media, it is easier for businesses to market and advertise their business or the products and services offered by them. It affects both businesses and consumers in a significant manner.
+How does marketing influence business?
+In the words of Peter Drucker: “Because the purpose of business is to create a customer, the business enterprise has two–and only two–basic functions: marketing and innovation. Marketing and innovation produce results; all the rest are costs. Marketing is the distinguishing, unique function of the business.”
+Marketing doesn’t just “impact” a business – it is the function that saves a company from closing down.
+Marketing has various benefits for business such as –
+Marketing your business can have a huge impact on new businesses by creating large barriers for them to enter a well-established market. The new companies, brands, and businesses marketing, and advertisement can play a significant in making consumers aware of the products and services they are offering.
+While a company can sell out its products to larger customers. With the assistance of various marketing tactics, they can significantly improve their brand awareness and make their product more visible to a larger audience, which in turn increases both sales and revenue. Marketing can help in identifying the buying behavior of consumers as well.
+Whether you are a new company or an established one, they need to create awareness about their product to boost their sales and revenue. Making use of correct marketing tools can help businesses in reaching out to more customers, therefore, creating awareness about the product.
+It has a huge impact on the functioning of the business. A business marketing strategy is what you offer, how you offer, and whom you offer. Whenever a company forms a marketing strategy they are thinking about the future success of the business. They make sure that they understand consumer needs, and what they want and they know how to communicate well with the target audience so they understand the offer they are offering.
+source- STATE OF MARKETING, 8TH EDITION, SALESFORCE
+Inbound marketing has immensely modernized the way businesses undertake marketing and selling operations. It greatly helps in creating awareness and spreading the message about the product.
+Current Marketing Trends
+Marketing trends are very essential to boost business. Some of the hottest trends in the market which can surely boost the business are –
+It means that consumers interact with the brands through chatbots and voice assistants. It is most commonly used in marketing campaigns. Artificial Intelligence and Machine learning are the reasons behind conversational marketing. In a recent study by IBM, it was found that more than 70% of users want instant answers to their queries.
+source- STATE OF MARKETING, 8TH EDITION, SALESFORCE
+This is where conversational marketing can help them reach out to customers effectively and efficiently. It is a powerful way of driving sales and returns on investment (ROI). Brands using this can have a positive impact on their businesses.
+In no sense, influencer marketing has gained significant attraction in the past one to two years. brands use online influencers for their marketing campaigns through social media platforms like Instagram and Facebook. It includes influencers creating content by interacting with the product or services offered or with the employee of the business. Influencer marketing yields better results than conventional celebrity endorsements. They can easily interact with their followers which results in better engagement. Influencer marketing plays a significant role in consumer behavior and psychology such as recommendations. In recent times we have seen various brands like beardo, and Muscleblaze use influencers on Instagram to market their product. The influencers create content about the product and services offered which creates an online marketing campaign for the businesses.
+The content you post can have a significant impact on the development of the business. Personalized content can result in better consumer interaction. Big businesses like Netflix, Amazon, Spotify, etc. are some successful examples. If we take the example of Netflix, it automatically suggests movies and web series on the search history of the user, and the same is done by Spotify. Facebook makes use of an algorithm that determines the kind of content that should be shown on the user’s feed. Amazon makes use of users’ browsing and purchasing history while displaying products when we log in to it. Spotify Wrapped is one of the music streaming service’s most effective content marketing initiatives. Every year, around the New year, Spotify subscribers receive a wonderful compilation of all the songs they’ve listened to. The compilation is presented with graphics in vibrant colors and is divided into genres, years, musicians, and more.
+Users then have the option to share their wrapped playlists on social media, which is a crucial component that has caused the campaign to trend on social media every year since its beginning.
+SOURCE- https://newsroom.spotify.com/2021-12-01/the-wait-is-over-your-spotify-2021-wrapped-is-here/
+Automation in marketing is making use of technology to automate marketing and advertising efforts. The covid-19 pandemic has significantly increased the use of technology and automation not only in marketing but in other sectors of the business as well. It may sound complex but automation in marketing is simple. Automated email sequences in sales and the upload of social media posts are all examples of Automation in marketing. Marketing automation allows businesses to scale their efforts to reach out to larger customers. More than 30% of business owners claim that marketing automation help with time-saving.  Their marketing team no longer needs to waste time repetitively focusing on tasks and can focus on optimization and content creation. Nissan gathers relevant data about its customers, including the time at which each vehicle was purchased. Six months after the automobile is acquired, they can utilize the purchase date to automatically send a reminder email to schedule the first service visit. This is an essential component of Nissan’s strategy because maintenance costs collected after the sale of the vehicle make up a significant part of Nissan’s overall earnings.
+By understanding, consumer behavior marketers can fill in the gap of how consumers buy a product and identify the product that is needed ad the obsolete products.
+Studying consumer behavior can help marketers to present the product in a way that yields higher consumer attraction. Understanding consumer behavior is the key secret to reaching out to more customers for brand recognition, engaging with the clients, and converting those into potential buyers.
+How marketing influences consumer decisions?
+The primary responsibility of a marketing department is to grow the market share by acquiring and keeping new clients. The best way to do that is by monitoring, evaluating, and controlling consumer behavior. Modern marketing strategies easily handle this duty. Let’s examine the how and why in more detail.
+Regularly held marketing initiatives have a significant impact on consumers’ purchase decisions. They pick one brand over another just because they saw the first one’s advertisement more frequently. Customers tend to trust some businesses more than others simply because they have better blogs, and more visually appealing material and employ opinion leaders who help customers associate with the company favorably.
+Instead of informing consumers, modern marketing aims to convince and build strong emotional bonds with brands and products. Even if people can’t recall where or when they saw a specific advertisement, they may still experience a specific emotion when they look at a product at a store, such as happiness, comfort, or confidence. It occurs because the advertising they watched caused their brain to detect a particular emotion. The brain immediately connected the product with a certain emotion when they first viewed it. When buyers select from a variety of comparable products from various companies, this relationship will operate flawlessly.
+Nike advertises in a way that makes its customers comfortable. Its tagline, “Just Do It,” speaks for itself. Allowing everybody and everyone to come up with their meaning of the term makes it straightforward but to the point and helps the business build relationships with its customers. The audience is emotionally connected to this slogan.
+We believe that each of our social, professional, and informational settings is distinct. But in reality, we all live in a world of marketing where everything is offered for sale and purchased. It’s not good or bad; it’s simply the new commercial reality that dictates what you’ll wear tomorrow, how you’ll address your boss, and how much of your income you’ll spend on eating out. With a few notable exceptions, it is generally applicable to everyone, from a young wealthy nerd who is only 20 years old to a family in their late 30s. If you give it some more thought, you’ll realize that most of the material you encounter each day attempts to sell you something, such as a good, idea, an emotion, a political viewpoint, a way of acting, etc. Marketing strategies and tactics in all their forms and guises are what produce this entire environment.
+Take, for instance, the blogs of modern businesses. Rather than being sales tools, they appear to be thematic media. Companies work to position themselves as the go-to resource for information about a given industry by disseminating their knowledge of it to consumers. In this approach, they produce a ton of content, including viral material that shapes consumer trends and purchasing patterns. Today, public perception and reputation are even more valuable than actual goods. If it has a worthwhile message to convey and is effectively promoted, even a plain chicken egg can become viral and break Instagram records.
+Source-Instagram
+Because it informs, equalizes, supports, engages, sells, and expands a business’s operations and offers, marketing is crucial for enterprises. It is equally important in the sense that it greatly influences the potential consumer behavior of the individual. If done correctly marketing can create a huge influence on both businesses and consumers.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>marketing influence businesses consumers Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Marketing defined act promotion advertisement selling products services process exploring creating delivering meet consumers understanding target consumer market businesses evolved form due excessive social media Due boost social media easier businesses market advertise business products services offered affects businesses consumers significant manner marketing influence business words Drucker purpose business create customer business enterprise functions marketing innovation Marketing innovation produce results rest costs Marketing distinguishing unique function Marketing impact business function saves company closing Marketing benefits business Marketing business huge impact businesses creating barriers enter market companies brands businesses marketing advertisement play significant making consumers aware products services offering company products larger customers assistance marketing tactics significantly improve awareness make product visible larger audience turn increases revenue Marketing identifying buying behavior consumers company established create awareness product boost revenue Making correct marketing tools businesses reaching customers creating awareness product huge impact functioning business business marketing strategy offer offer offer company forms marketing strategy thinking future success business make understand consumer communicate target audience understand offer offering MARKETING 8TH EDITION SALESFORCE Inbound marketing immensely modernized businesses undertake marketing selling operations greatly helps creating awareness spreading message product Current Marketing Trends Marketing trends essential boost business hottest trends market surely boost business consumers interact brands chatbots voice assistants commonly marketing campaigns Artificial Intelligence Machine learning reasons conversational marketing recent study IBM found 70 users instant answers queries MARKETING 8TH EDITION SALESFORCE conversational marketing reach customers effectively efficiently powerful driving returns investment ROI Brands positive impact businesses sense influencer marketing gained significant attraction past years brands online influencers marketing campaigns social media platforms Instagram Facebook includes influencers creating content interacting product services offered employee business Influencer marketing yields results conventional celebrity endorsements easily interact followers results engagement Influencer marketing plays significant role consumer behavior psychology recommendations recent times brands beardo Muscleblaze influencers Instagram market product influencers create content product services offered creates online marketing campaign businesses content significant impact development business Personalized content result consumer interaction Big businesses Netflix Amazon Spotify successful examples Netflix automatically suggests movies web series search history user Spotify Facebook makes algorithm determines kind content shown user feed Amazon makes users browsing purchasing history displaying products log Spotify Wrapped streaming service effective content marketing initiatives Spotify subscribers receive wonderful compilation songs listened compilation presented graphics vibrant colors divided genres years musicians Users option share wrapped playlists social media crucial component caused campaign trend social media beginning https Automation marketing making technology automate marketing advertising efforts pandemic significantly increased technology automation marketing sectors business sound complex automation marketing simple Automated email sequences upload social media posts examples Automation marketing Marketing automation businesses scale efforts reach larger customers 30 business owners claim marketing automation marketing team longer waste time repetitively focusing tasks focus optimization content creation Nissan gathers relevant data customers including time vehicle purchased months automobile acquired utilize purchase date automatically send reminder email schedule service visit essential component Nissan strategy maintenance costs collected vehicle make significant part Nissan earnings understanding consumer behavior marketers fill gap consumers buy product identify product needed ad obsolete products Studying consumer behavior marketers present product yields higher consumer attraction Understanding consumer behavior secret reaching customers recognition engaging clients converting potential buyers marketing influences consumer decisions primary responsibility marketing department market share acquiring keeping clients monitoring evaluating controlling consumer behavior Modern marketing strategies easily handle examine detail Regularly marketing initiatives significant impact consumers purchase decisions pick advertisement frequently Customers tend trust businesses simply blogs visually appealing material employ opinion leaders customers associate company favorably informing consumers modern marketing aims convince build emotional brands products people recall specific advertisement experience specific emotion product store happiness comfort confidence occurs advertising watched caused detect emotion immediately connected product emotion viewed buyers select variety comparable products companies relationship operate flawlessly Nike advertises makes customers comfortable tagline Allowing meaning term makes straightforward point helps business build relationships customers audience emotionally connected slogan social professional informational settings distinct reality live world marketing offered purchased bad simply commercial reality dictates wear tomorrow address income spend eating notable exceptions generally applicable wealthy nerd 20 years family late 30s give thought realize material encounter attempts idea emotion political viewpoint acting Marketing strategies tactics forms guises produce entire environment instance blogs modern businesses tools thematic media Companies work position resource information industry disseminating knowledge consumers approach produce ton content including viral material shapes consumer trends purchasing patterns Today public perception reputation valuable actual goods worthwhile message convey effectively promoted plain chicken egg viral break Instagram records informs equalizes supports engages expands business operations offers marketing crucial enterprises equally important sense greatly influences potential consumer behavior individual correctly marketing create huge influence businesses consumers provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>62</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.7971014377231675</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.07632743354388559</v>
+      </c>
+      <c r="J20" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2582010582010582</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7.663280423280423</v>
+      </c>
+      <c r="M20" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1063</v>
+      </c>
+      <c r="O20" t="n">
+        <v>488</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3578</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>6</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4.657049790600279</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>blackassign0020</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/how-advertisement-increase-your-market-value/</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>How advertisement increase your market value?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+According to research, the advertisement can increase the market value. Not only offline advertisement, but the world is also going through “Digital advertising” through “social media and many other media’’. With the help of advertising, most people are becoming famous and getting success in their companies.
+Advertisements can help the company to grow successfully and potentially. For small to big companies advertisement is the only weapon to change the company’s faith and bring success to the company. Nowadays most of them are using digital media for their advertisement and they’re attracting people to their products. It is a flat form for the people to know what product that they launch by the company, and most of them are using social media like “youtube, Facebook, Twitter Now recently Instagram also sponsoring the advertisements while scrolling through the app”. while coming to “nondigital advertising means firstly it will be the Radio, later pamphlets, and newspaper advertisements, announcing through the mike and roaming on the road”, With these the advertisement can help in growing the market value.
+According to research advertisement can helps increases the market value. A recent study that advertisement will only be the “strongest weapon to the change the market value”. Not only does the advertisement increase the market’s value, it sometimes depends upon the product. with the help of this, it will increase the market value of the company and increases the share value of the company.  Most companies are spending crores and lakhs on their advertisement for increasing the market value and their company value.
+Presently the following days “celebrities are sponsoring the product and it is a key to the company to increase the market value of the company”. By sponsoring the about their fans buying that product and increasing the market value of the company.  Mostly the main reason for increasing the market value is to show up their product’s specialty and the importance of the product.
+By giving advertisements some of them believe it is a brand that can now beat the product. And most people think that and buy that product and this is the one type of way that increases the market value of the product. Some of them trust their product and buy their product, and increase the market value.
+Nowadays advertising is largely expanded through the public area, the internet websites, etc …By advertising, you can know what the product is launched and what is the specialty of their product, after research, the product will be sold in the market with their values and it will help in increase the market value.
+From the above data, we can see how many ways that increase the market value. And so many ways that advertisement is only the way that increases the market value. Not only non-digital media even in the events they’re giving the pamphlets and increasing their market values. And some of them observe that the company’s interaction with the people can also increase the market value of the company. And many of them observe that the quality of their product also increase the market value
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>advertisement increase market Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist research advertisement increase market offline advertisement world Digital advertising social media media advertising people famous success companies Advertisements company successfully potentially big companies advertisement weapon change company bring success company Nowadays digital media advertisement attracting people products flat form people product launch company social media youtube Facebook Twitter recently Instagram sponsoring advertisements scrolling app coming nondigital advertising firstly Radio pamphlets newspaper advertisements announcing roaming road advertisement growing market research advertisement helps increases market recent study advertisement strongest weapon change market advertisement increase market depends product increase market company increases share company companies spending crores lakhs advertisement increasing market company Presently days celebrities sponsoring product company increase market company sponsoring fans buying product increasing market company reason increasing market show product specialty importance product giving advertisements beat product people buy product type increases market product trust product buy product increase market Nowadays advertising largely expanded public area internet websites advertising product launched specialty product research product sold market values increase market data ways increase market ways advertisement increases market media events giving pamphlets increasing market values observe company interaction people increase market company observe quality product increase market provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>14</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8666666088888928</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0464396283391962</v>
+      </c>
+      <c r="J21" t="n">
+        <v>23.93333333333333</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.2116991643454039</v>
+      </c>
+      <c r="L21" t="n">
+        <v>9.658012999071495</v>
+      </c>
+      <c r="M21" t="n">
+        <v>27.43333333333333</v>
+      </c>
+      <c r="N21" t="n">
+        <v>397</v>
+      </c>
+      <c r="O21" t="n">
+        <v>152</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1355</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4.609489051094891</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>blackassign0021</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/negative-effects-of-marketing-on-society/</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Negative effects of marketing on society
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+“Society can exist without Marketing, but Marketing cannot exist without Society.”
+Marketing is the management process of anticipating, identifying, and satisfying customers’ requirements. The various conventional marketing tools are advertising, branding, direct marketing, sales promotion, publicity, and public relations. Critics acknowledge that marketing has legitimate uses in as much as it connects goods and services to consumers who desire them. However, some aspects of marketing, especially promotion and advertisements, are subject to criticism. They argue that product promotion is an attempt by the goods and service providers to influence demand. Advertising has become such an inextricable part of our lives that one cannot imagine life without it. Although we hardly ever notice, advertisements leave an indelible mark on our minds, especially on vulnerable groups like children and adolescents.
+The commensuration of the two words raises eyebrows in marketing and society, as it is highly debatable. On the one hand, Society thrives on Companies’ marketing efforts, while another school of thought argues that marketing makes society more materialistic. Today, striking a balance between the two is the challenge marketers face. Ethical expectations are a vital part of the business environment. Society expects businesses to be honest and desires corporate executives, at all levels, to apply ethical principles- in other words, guidelines as to what is right and wrong, fair and unfair, and morally correct- when they make business decisions. For better or worse, marketing is everywhere, with the allure of new products, big promises, and hope for something new or different. As we turn on the television or scroll through social media feeds, we will find it hard to avoid someone trying to sell us something. While advertising and marketing share information and tell us what is new, it does so to persuade rather than educate, so their influence can sometimes be more harmful than positive.
+The debate about the positives and negatives of advertising is a bit like the infamous chicken or egg question. Some people claim that marketing causes adverse effects, while others argue that it merely reflects what is already happening in the culture. For all the positive potential of marketing, the reality is that it frequently influences society in negative ways. One negative aspect of marketing is its potential to feed into unrealistic expectations, breed discontentment, and influence our thought processes in ways beyond our control. Materialism, workaholism, unhealthy lifestyle habits, alcoholism, politics, and unrealistic views negatively shape our culture and impact the most vulnerable.
+According to research, marketing has become increasingly hostile in the modern television era. Consumers are often disturbed by advertisements &amp; marketing, and negative campaign ads tend to fuel a vicious cycle where both sides fling ads back and forth in a futile, narcissistic, tantrum-like attempt to make their opponents look worse and worse while making themselves look better. Marketing aims to present a product in the best light possible. There is some leeway in the creative process. The problem arises when dramatization crosses the line into falsely representing a product. Hefty fines can result from false advertising when levied by the authorities.
+Marketing and advertising are ingrained in the modern culture, from children’s programs on Saturday mornings to talk shows and prime-time TV. Advertising even invades movies through product placement. Marketing influences how people feel about themselves and often turns out negative. Widespread concern exists about the potential effects of media portrayals of drinking, alcohol product placements, and alcohol advertising on alcohol consumption and problems among young people. Television, radio, film, and popular music are often identified as potential sources through which young people learn about alcohol and as possible influences on young people’s drinking and drinking problems. Even though campaign advertising has been a part of politics, scholars are still conflicted over the effects of different advertising strategies. As a result, the literature on political advertising is vast and multifaceted. Conventional wisdom holds that political advertising, in general, is harmful to democracy. Further, the adverse effects of advertising on teenagers include increased cigarette and alcohol use, obesity, poor nutrition, and eating disorders, according to Pediatrics, the official journal of the American Academy of Pediatrics.
+Advertisers are traditionally using techniques to which children and adolescents are more susceptible, such as product placement in TV shows and tie-ins between movies and fast-food restaurants, to mention a few. It’s all kid’s play anyway, with today’s youngsters having profound influence over purchases in all product categories. Many marketing evils lure people into buying even when not required. However, the picture of the relationship between marketing and society is contested. Marketing has often been criticized for encouraging excessive consumption, self-indulgent lifestyle, and producing a consumer culture where products and services are the core of social identity at the expense of other ‘traditional’ values.
+Just as in an underdeveloped economy, marketing can be an avenue for publicity of indigenous products and services, thereby generating income; similarly, in developing and developed economies, where competition for the share of the customer’s pocket is high, marketing can lead to attitudinal and lifestyle changes and problems. Free collectible coupons or tattoos inside chips packets, and other such advertising gimmicks and tactics do not add any value to the product being offered but only lure consumers into buying a product they otherwise may not have purchased- leading to another group of people who entice these students to enroll for a weight reduction program! Sex is used in commercials to sell everything from beer to shampoo to cars. New research shows that teenagers’ exposure to sexual content in the media may be responsible for the earlier onset of sexual intercourse or other sexual activities leading to an increased number of HIV-positive cases.
+Alcohol producers spend $ 5.7 billion/per year on advertising and promotions. Research has found that adolescent drinkers are more likely to have been exposed to alcohol advertising. Studies confirm a direct link between junk food advertisements and obesity among adolescents.
+As we move ahead with technology and change the marketing strategy with the growing consumerism, it is vital to be cautious. Our cautiousness can only decide what happens in the future regarding marketing.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Negative effects marketing society Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Society exist Marketing Marketing exist Marketing management process anticipating identifying satisfying customers requirements conventional marketing tools advertising branding direct marketing promotion publicity public relations Critics acknowledge marketing legitimate connects goods services consumers aspects marketing promotion advertisements subject criticism argue product promotion attempt goods service providers influence demand Advertising inextricable part lives imagine life notice advertisements leave indelible minds vulnerable groups children adolescents commensuration words raises eyebrows marketing society highly debatable Society thrives Companies marketing efforts school thought argues marketing makes society materialistic Today striking balance challenge marketers face Ethical expectations vital part business environment Society expects businesses honest desires corporate executives levels apply ethical words guidelines wrong unfair morally make business decisions worse marketing allure products big promises turn television scroll social media feeds find hard avoid advertising marketing share information persuade educate influence harmful positive debate positives negatives advertising bit infamous chicken egg question people claim marketing adverse effects argue reflects happening culture positive potential marketing reality frequently influences society negative ways negative aspect marketing potential feed unrealistic expectations breed discontentment influence thought processes ways control Materialism workaholism unhealthy lifestyle habits alcoholism politics unrealistic views negatively shape culture impact vulnerable research marketing increasingly hostile modern television Consumers disturbed advertisements marketing negative campaign ads tend fuel vicious cycle fling ads futile narcissistic attempt make opponents worse worse making Marketing aims present product leeway creative process problem arises dramatization crosses line falsely representing product Hefty fines result false advertising levied authorities Marketing advertising ingrained modern culture children programs mornings talk shows TV Advertising invades movies product placement Marketing influences people feel turns negative Widespread concern exists potential effects media portrayals drinking alcohol product placements alcohol advertising alcohol consumption problems people Television radio film popular identified potential sources people learn alcohol influences people drinking drinking problems campaign advertising part politics scholars conflicted effects advertising strategies result literature political advertising vast multifaceted Conventional holds political advertising general harmful democracy adverse effects advertising teenagers include increased cigarette alcohol obesity poor nutrition eating disorders Pediatrics official journal Academy Pediatrics Advertisers traditionally techniques children adolescents susceptible product placement TV shows movies restaurants mention kid play today youngsters profound influence purchases product categories marketing evils lure people buying required picture relationship marketing society contested Marketing criticized encouraging excessive consumption lifestyle producing consumer culture products services social identity expense traditional values underdeveloped economy marketing avenue publicity indigenous products services generating income similarly developing developed economies competition share customer pocket marketing lead attitudinal lifestyle problems collectible coupons tattoos inside chips packets advertising gimmicks tactics add product offered lure consumers buying product leading group people entice students enroll weight reduction program Sex commercials shampoo cars research shows teenagers exposure sexual content media responsible earlier onset sexual intercourse sexual activities leading increased number cases Alcohol producers spend advertising promotions Research found adolescent drinkers exposed alcohol advertising Studies confirm direct junk food advertisements obesity adolescents move ahead technology change marketing strategy growing consumerism vital cautious cautiousness decide future marketing provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>26</v>
+      </c>
+      <c r="G22" t="n">
+        <v>48</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.2972972932797663</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1185897433996959</v>
+      </c>
+      <c r="J22" t="n">
+        <v>22.31481481481481</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.2887966804979253</v>
+      </c>
+      <c r="L22" t="n">
+        <v>9.041444598125095</v>
+      </c>
+      <c r="M22" t="n">
+        <v>25.7962962962963</v>
+      </c>
+      <c r="N22" t="n">
+        <v>741</v>
+      </c>
+      <c r="O22" t="n">
+        <v>348</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2446</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4.871408045977011</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>blackassign0022</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/how-advertisement-marketing-affects-business/</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>How advertisement/marketing affects business.
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+We are living in 2022 and everything has changed post the years. The whole world is running on two phenomena, either #technology or marketing. In a simple sense, earlier if we had to buy something our choice was clear with respect to the product, its price, brand, even shops from where to purchase, and more such factors. There were not many alternates and substitutes available in the market for anything. But now the scenario has changed and we could find ample alternates and substitutes available in the market and not only that, even we have alternatives to markets as well. Now we even have a choice among the mode of the market to choose from, i.e. either physical market or virtual market. Simultaneously the competition between the businesses has also risen. So a question arises, in such a competitive and dynamic environment how do businesses sustain themselves?
+The only solution to this question is ADVERTISEMENT / MARKETING. Marketing plays a very important role in the #success and failure of any company. Marketing philosophy is implemented to attract new and existing customers towards their product/service or company. The very common tool used for marketing is advertising. The basic idea behind advertising is to give customers knowledgeable about the product or service in a very interesting and attractive way.
+Any company should opt for the advertisement model very judiciously. The advertisement tells customers which product they should buy and which to leave. Advertisement affects businesses in a very crucial way as they decide whether a product is ready to play in long run or not. Most of the products are chosen by the customers because of the advertisement only. If businesses don’t advertise then no one will buy their products. Advertisements are the main reason behind the revenues of a company. There are many ways to do advertise through electronic mediums such as televisions, radio, social media, etc., and paper mediums such as newspapers.
+Wrong advertisements can be harmful to businesses as they provide information in the wrong manner. Instead of being the needs of people, it becomes unnecessary for the people. This could result in a big loss for the company and may also hamper the image of the company. For example, TATA introduced the Nano car in India to have low price car but its marketing went wrong in the eyes of the public and it got failed.
+So advertising/marketing affects a business in both positive and negative ways.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>affects business Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist living 2022 changed years world running phenomena technology marketing simple sense earlier buy choice clear respect product shops purchase factors alternates substitutes market scenario changed find ample alternates substitutes market alternatives markets choice mode market choose physical market virtual market Simultaneously competition businesses risen question arises competitive dynamic environment businesses sustain solution question ADVERTISEMENT MARKETING Marketing plays important role success failure company Marketing philosophy implemented attract existing customers company common tool marketing advertising basic idea advertising give customers knowledgeable product service interesting attractive company opt advertisement model judiciously advertisement tells customers product buy leave Advertisement affects businesses crucial decide product play run products chosen customers advertisement businesses advertise buy products Advertisements reason revenues company ways advertise electronic mediums televisions radio social media paper mediums newspapers Wrong advertisements harmful businesses provide information wrong manner people unnecessary people result big loss company hamper image company TATA introduced Nano car car marketing wrong eyes public failed affects business positive negative ways provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>18</v>
+      </c>
+      <c r="G23" t="n">
+        <v>11</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.2413793020214034</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.09897610887721464</v>
+      </c>
+      <c r="J23" t="n">
+        <v>18.78125</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.2495840266222962</v>
+      </c>
+      <c r="L23" t="n">
+        <v>7.612333610648919</v>
+      </c>
+      <c r="M23" t="n">
+        <v>21.625</v>
+      </c>
+      <c r="N23" t="n">
+        <v>348</v>
+      </c>
+      <c r="O23" t="n">
+        <v>150</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1192</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>6</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4.645441389290883</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>blackassign0023</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/rising-it-cities-will-impact-the-economy-environment-infrastructure-and-city-life-by-the-year-2035/</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Rising IT cities will impact the economy, environment, infrastructure, and city life by the year 2035
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+2035,urbanizationhas changed the world as well as the country. India, the world’s third-largest economy after America with China already surpassing the USA and India surpassing Japan to become a larger #economy is now behind China in terms of urbanization with 675 million people living in urbanized cities as compared to China which has 1bn people living in urbanized cities. But what is the cost of urbanization?Social cost? Is it positive or negative? Has it eased our leaving or are we becoming moreAI-driven?
+Technologyhas always been the driving force for any change in society be it from theindustrialrevolutionin the 18th century to the advancement of the Internet. The world has changed massively and is continuously changing with citiestransforminginto smart ones with more #opportunities and #betterment oflife. Cities change the future and they are the #engines of economic growth and modernization. With half of the world now living in #urban cities. It is this urbanization that is changing the trajectory ofgrowthmiraculously. The present cities which are in the top 10 with the highest #GDP share might not be there in the list of 2035. A report by Oxford Economics claims that most of the cities will be from Asia with New York and London still being the leader as it has deep roots inbankingandfinanceinstitutes. Likewise, Population anddemographicscan become major assets to a country’s growth. India’s burgeoning working-age demographics will present a #unique advantage for themselves and the country is projected to contain several of the fastest-growing cities in the coming years. If we talk about the annual GDP growth rate of the cities which are likely to top the charts, it is also a surprise for the West. Not a single city is from the West anymore but all are from the Asian block, mainly dominated by India and China, and some cities from Southeast Asia. Bangalore with a massive GDP growth rate of 8.5 percent leads the pack followed by Dhaka, Mumbai, and Delhi. Bangalore has a colossal amount of talent pool and the startup culture makes it unique on its own. It is safe to say the next Silicon Valley of Asia and the world is Bangalore itself. The amount of startups it generates now is huge. It has the potential to be one of the most urbanized cities in the world. The annual average GDP growth of the entire world, which will be around 2.5 percent, is very minimal for these cities which will surpass it by a fair amount.
+Surely countries will grow as well as cities will be modernized to cater to the needs of society. Migration from rural to urban has been a key reason for the expansion of urban cities. But if we can maintain a balance between both the environment and sustainable growth, the future would be better for us as well as our future generations. Climate change is real and it’s affecting us. The impacts of climate change will lead to a worsening of environmental conditions in vast regions in the form of extended heat episodes, more erratic rainfall, drought, and flooding. As we are seeing in Europe, China, and Pakistan. Heatwaves in the entire continent of Europe have caused problems in society, likewise, China is experiencing severe heat waves in the country causing rivers to dry up due to which hydroelectricity cannot be generated. Pakistan witnessed an unprecedented amount of floods in the region. Out of 160 districts,110 districts are underwater and a loss of almost 10bn dollars.  These impacts particularly affect rural agrarian and pastoralist communities of society which heavily depend on the environment. With livelihoods being increasingly disrupted by climate change across the globe, climate-driven migration will likely increase. According to the World Bank Groundswell report, Sub-Saharan, and Southeast Asia could see more than 130 million people move within their countries’ making it a massive amount of migration if no urgent global and national climate actions are taken right now.(Rigaud et al., 2018) Urbanization also affects the broader prospects of regional environments. Regions downwind from large industrial complexes also see huge increases in the amount of air pollution, precipitation, and the number of days with thunderstorms. Urban areas generate more rain, but they reduce the infiltration of water and thus lower the water tables.
+Energy consumption for electricity, transportation, cooking, and heating is much higher in urban areas than in rural villages. For example, urban populations nowadays have more cars than rural populations. Almost all of the cars in the world in the 1930s were in the country of the United States. Today we have a car for every two people in that country. China, the United States, and India are the top three countries that contribute to the global greenhouse emitter. If that becomes the norm, in 2050 there would be almost 5.3 billion cars in the world, all using the energy of cars and destroying the environment with their global emission.
+A large share of migrants will be moving to cities. In many countries, including the G20 ones, urbanization processes are driven by rural-urban migration in response to rapid changes in production, especially manufacturing. India is now trying to catch up with manufacturing after becoming successful in the service sector as it sees an opportunity in front of them. With China 2035 moving towards a more AI-based service sector, it will be the young population of India that will cater to the needs of the world.  Better labor market prospects in urban areas pull in young people, while lack of social and economic opportunities as well as environmental drivers of the society push people out of their rural origins to search for a better and higher standard of living in the urban centers. As a consequence, G20 countries like China, India, and South Africa have seen major urban growth in the past decades. People who live in urban areas have very different consumption patterns than the residents of rural areas. For example, urban populations consume much more amounts of food, energy, and durable goods than rural populations. In China during the 1970s, the urban populations also consumed more than twice as much pork as the rural populations who were raising pigs. With economic development, people now have declined their consumption as the rural populations of the countries ate better diets.
+The health implications of environmental problems include respiratory infections and other infectious and parasitic diseases. Capital costs for building improved environmental infrastructure are also costly for example, investments in a cleaner public transportation system such as a subway — and for building more hospitals and clinics are higher in cities than people in rural areas, where wages exceed those paid in rural areas and also the cost to avail the services are much higher in urban cities than in rural areas.
+Infrastructure does play an important role in the process of urbanization. India, which is now aiming toward a 5 trillion economy, is building up a huge infrastructure to support the economy. Infrastructure like roads, bridges, and railway networks are the veins of an economy. Just like China created a pool of massive infrastructures to support the economy  Being a developing country India has to prioritize sectors for their both inclusive as well as exclusive growth and as India moves towards a manufacturing hub, India needs to move towards better network and fast-paced network to support the movement of logistics  Often it is said- roads are the true mirror of the economy as India is moving from highways to expressways it needs to sustain these changes so that shortly you have infrastructures ready to move ahead in leaps and bounds. Therefore, to enable macroeconomic stabilization through the expansion of revenue expenditure, ring-fencing of capital expenditure levels as a share of the Gross Domestic Product (GDP) becomes critical.
+Of course, any number of variables could impact these projections of 2035, from financial recessions to wars, food securities to pandemics, and political uncertainty to rapid urbanization and technological advances.
+But one thing’s certain— it is in these coming decades, cities are where many of these factors will converge and play out on the world stage.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Rising cities impact economy environment infrastructure life 2035 Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist 2035 urbanizationhas changed world world economy surpassing surpassing larger economy terms urbanization 675 people living urbanized cities compared 1bn people living urbanized cities cost urbanization Social cost positive negative eased leaving Technologyhas driving force change society theindustrialrevolutionin 18th century advancement Internet world changed massively continuously changing citiestransforminginto opportunities betterment oflife Cities change future engines economic growth modernization half world living cities urbanization changing trajectory ofgrowthmiraculously present cities top 10 highest GDP share list 2035 report Economics claims cities leader deep roots inbankingandfinanceinstitutes Likewise Population anddemographicscan assets growth burgeoning demographics present unique advantage projected cities coming years talk GDP growth rate cities top charts surprise single anymore Asian dominated cities Bangalore massive GDP growth rate percent leads Dhaka Bangalore colossal amount talent startup culture makes unique safe Silicon world Bangalore amount startups generates huge potential urbanized cities world average GDP growth entire world percent minimal cities surpass amount Surely countries cities modernized cater society Migration rural reason expansion cities maintain balance environment sustainable growth future future generations Climate change affecting impacts climate change lead worsening environmental conditions vast regions form extended heat episodes erratic rainfall drought flooding Heatwaves entire continent caused problems society likewise experiencing severe heat waves causing dry due hydroelectricity generated witnessed unprecedented amount floods region 160 districts underwater loss 10bn dollars impacts affect rural agrarian pastoralist communities society heavily depend environment livelihoods increasingly disrupted climate change globe migration increase World Bank Groundswell report 130 people move countries making massive amount migration urgent global national climate actions Rigaud 2018 Urbanization affects broader prospects regional environments Regions downwind industrial complexes huge increases amount air pollution precipitation number days thunderstorms areas generate rain reduce infiltration water water tables Energy consumption electricity transportation cooking heating higher areas rural villages populations nowadays cars rural populations cars world 1930s United States Today car people United States top countries contribute global greenhouse emitter norm 2050 cars world energy cars destroying environment global emission share migrants moving cities countries including G20 urbanization processes driven migration response rapid production manufacturing catch manufacturing successful service sector sees opportunity front 2035 moving service sector population cater world labor market prospects areas pull people lack social economic opportunities environmental drivers society push people rural origins search higher standard living centers consequence G20 countries growth past decades People live areas consumption patterns residents rural areas populations consume amounts food energy durable goods rural populations 1970s populations consumed pork rural populations raising pigs economic development people declined consumption rural populations countries ate diets health implications environmental problems include respiratory infections infectious parasitic diseases Capital costs building improved environmental infrastructure costly investments cleaner public transportation system subway building hospitals clinics higher cities people rural areas exceed paid rural areas cost avail services higher cities rural areas Infrastructure play important role process urbanization aiming 5 economy building huge infrastructure support economy Infrastructure roads railway networks veins economy created massive infrastructures support economy developing prioritize sectors inclusive exclusive growth moves manufacturing hub move network network support movement logistics roads mirror economy moving highways expressways sustain shortly infrastructures move ahead leaps enable macroeconomic stabilization expansion revenue expenditure capital expenditure levels share Domestic Product GDP critical number variables impact projections 2035 financial recessions wars food securities pandemics political uncertainty rapid urbanization technological advances thing coming decades cities factors converge play world stage provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>31</v>
+      </c>
+      <c r="G24" t="n">
+        <v>15</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.3478260793950853</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.06705539348825744</v>
+      </c>
+      <c r="J24" t="n">
+        <v>23.05970149253731</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2006472491909385</v>
+      </c>
+      <c r="L24" t="n">
+        <v>9.304139496691302</v>
+      </c>
+      <c r="M24" t="n">
+        <v>26.05970149253731</v>
+      </c>
+      <c r="N24" t="n">
+        <v>889</v>
+      </c>
+      <c r="O24" t="n">
+        <v>310</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2856</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>6</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4.561353211009174</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>blackassign0024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/rise-of-ott-platform-and-its-impact-on-entertainment-industry-by-the-year-2030/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Rise of OTT platform and its impact on entertainment industry by the year 2030
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+The advancement in technology and proliferation of the Internet has led to the wide exposure of entertainment platforms to a massive audience including teenagers, adults, and senile. In this research paper, we study the impact of Over-the-Top media on society as a whole especially after the pandemic when there was a sudden shift in remote work culture, educational practices being held online, families spending valuable time together, and majorly the access to viewers. Besides the convenience of receiving, the media has certain other advantages too. It has opened up the possibility of streaming ad-free content and undisturbed viewing. Also, the customer is truly the king here; he or she can watch what they want and when they want. However, there have been no studies so far that have examined the impact of OTT media on society, families, and individuals.
+There has been a prodigious change over the past decade as how there has been a shift of television viewers to Over-the-Top platforms which are now easily accessible to anyone through the internet. The widespread availability of broadband internet has led to the emergence and steady rise to prominence of many platforms, including YouTube, Netflix, and HBO Go. By satisfying media-hungry consumers’ needs and adjusting to their increasingly busy lifestyles, these platforms have found success.
+The traditional TV-viewing experience is no longer restricted to real-time or the living room TV. Nowadays, users may consume content on laptops, tablets, portable devices, and gaming consoles whenever and wherever they want.  Especially the demand for OTT media and entertainment has seen a concurrent and large increase during the post-pandemic era, with internet usage increasing from 40% to 100% during that time. The widespread lockdowns have contributed to consumer awareness of the potential of OTT media services, enhancing their capacity to influence the daily consumption of content. By offering tailored content recommendations and focused adverts, media firms have also contributed to unlocking additional value for each of their unique viewers by utilizing Artificial Intelligence (AI) and Analytics. With the rise of cross-platform smart voice assistants ensuring the creation of a smart home ecosystem within the homes of the consumers, the transitions underway in the media and entertainment space enable customer-friendly easy content search with voice commands through Smart OTT Platforms will enhance customer experience by every passing day.
+India’s OTT streaming video market is currently in its second growth phase with total revenues of $3 billion in 2022. To know about the impact of OTT platforms in India, it is important to consider consumers’ passive involvement, and interests which helps in analyzing the last action.
+According to a survey by RBSA Advisors, India’s video OTT market is anticipated to grow from roughly USD 1.5 billion in 2021 to USD 12.5 billion by 2030 as a result of access to better networks, digital connections, and smartphones. According to the survey, Tier II, III, and Tier IV cities and the population who speak Indian languages would be responsible for the next wave of growth in the OTT environment.
+The significant expenditures made in original and acquired content by OTT services like Netflix, Amazon, Disney+ Hotstar, and others will assist subscription video-on-demand in making up 93% of the total OTT income (as opposed to 87%) while expanding at a CAGR of 30.7% between 2019 and 2024.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Rise platform impact entertainment industry 2030 Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist advancement technology proliferation Internet led wide exposure entertainment platforms massive audience including teenagers adults senile research paper study impact media society pandemic sudden shift remote work culture educational practices online families spending valuable time majorly access viewers convenience receiving media advantages opened possibility streaming content undisturbed viewing customer watch studies examined impact media society families individuals prodigious change past decade shift television viewers platforms easily accessible internet widespread availability broadband internet led emergence steady rise prominence platforms including YouTube Netflix HBO satisfying consumers adjusting increasingly busy lifestyles platforms found success traditional experience longer restricted living room TV Nowadays users consume content laptops tablets portable devices gaming consoles demand media entertainment concurrent increase internet usage increasing 40 100 time widespread lockdowns contributed consumer awareness potential media services enhancing capacity influence consumption content offering tailored content recommendations focused adverts media firms contributed unlocking additional unique viewers utilizing Artificial Intelligence Analytics rise voice assistants ensuring creation home ecosystem homes consumers transitions underway media entertainment space enable easy content search voice commands Platforms enhance customer experience passing streaming video market growth phase total revenues 3 2022 impact platforms important consumers passive involvement interests helps analyzing action survey RBSA Advisors video market anticipated roughly USD 2021 USD 2030 result access networks digital connections smartphones survey Tier Tier cities population speak languages responsible wave growth environment significant expenditures made original acquired content services Netflix Amazon Hotstar assist subscription making 93 total income opposed 87 expanding CAGR 2019 2024 provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>27</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.7419354599375658</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.08136482918276948</v>
+      </c>
+      <c r="J25" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.2664872139973082</v>
+      </c>
+      <c r="L25" t="n">
+        <v>11.99459488559892</v>
+      </c>
+      <c r="M25" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="N25" t="n">
+        <v>459</v>
+      </c>
+      <c r="O25" t="n">
+        <v>198</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1484</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4.660486674391657</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>blackassign0025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/rise-of-electric-vehicles-and-its-impact-on-livelihood-by-2040/</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Rise of Electric Vehicles and its Impact on Livelihood by 2040
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+In 2020 India became the 5th largest automobile market in the world. While this fact is good news for the automobile industry, it is also bad news for the environment. How? Well, India is also the 3rd largest oil-consuming and Green House Gas (GHG) emitting nation. According to the Assessment Report (AR6) of the Intergovernmental Panel on Climate Change (IPCC), during the 2020 lockdown, even though the complete economy was shut yet 36 out of 50 big cities in India had unhealthy air quality.
+Taking into account the current situation where according to studies, vehicles annually contribute about 290 Giga grams of PM2, at the same time, around 8 percent of total GHG (Green House Gas) Emissions in India are from the transport sector and in Delhi, it exceeds 30 percent and also in the account of the promises made by India on decreasing Carbon emissions NITI Ayog wants to electrify India’s 2W segment by 2025 and the 3W segment by 2030. India has aimed to create 100 percent Electric Vehicle (EV) use by 2030. While experts say that this goal is quite ambitious and a hybrid of both Electric Vehicles (EVs) and Internal Combustion Engines (ICEs) may be seen in India for another decade but India is ushering itself towards itsgoal in a much faster fashion. And let me give you a few reasons behind it:
+ So basically, since the war between Ukraine and Russia seems to be never-ending and Russia is an exporter of crude petroleum to the world, the rates of petroleum in the International market are skyrocketing and India is the 3rd largest oil-consuming nation and 90 percent of this oil is being imported, a lot of India’s money is being driven towards that which needs to be controlled. Moreover, after the lockdown people are trying to stay at distance from each other and thus the people who can afford are trying to use personal vehicles instead of public ones. This is why India is on its way to becoming the largest market for automobiles, given the population. The effect of rising oil prices (touching the 100rs mark now and then) can be seen in other products as well, transportation costs increasing inflation of course.
+Therefore the government is hoping to control our import bills with EVs (Electric Vehicles) and Hydrogen Running Vehicles. But (no matter what is being said, there’s always a but in India) here’s a catch if the hasty push is being done then that may further increase our country’s import bill. How? Well, currently most of the EV components are imported from China, yet nothing much to worry about, huge Indian Automobile Industries are trying to make EVs (Electric Vehicles) completely made in India, you just need to be informed and smart consumer.
+Now let’s see what the government is doing about the issue currently:
+ Since battery costs 70 percent of the total manufacturing cost of an EV (Electrical Vehicle), MoRTH (Ministry of Road Transport and Highways) is considering ‘Battery as a service business model. The government has allotted a budget of about 100 crores in its latest budget. The government is working on applying the Fame II Policy wherein it will spend 86 percent on Consumer Incentives and 10 percent on Charging Infrastructure. The government is trying to attract FDIs and take help with the import of Li (Lithium) to make batteries. The government has also promised to build charging infrastructure.
+The government has also launched an e-portal that is e-amrit.niti.gov on COP26 Summit in Glasgow. The portal gives an insight into the major benefits of using EVs (Electric Vehicles). The major benefits talked about are:
+ Zero Tailpipe Emission (ZTE) Lower Running Cost Lower Maintenance Less Tax Environmental Benefits Easy to Drive Quite
+You might feel that the government is adamant about its “ICE to EV by 2030” mission, yet let’s talk about what government can add to this mission. The double Dividend Hypothesis by David Pearce in 1991 states that environmentaltaxation can improve economic and environmental conditions and recyclingrevenues obtained to reduce other pre-existing taxes. Norway provides no toll and free parking to people using EVs as an incentive. Sweden and France give tax levitation to people using EVs.
+Now let’s chitchat a bit upon the problems that consumers think might come if they switch toEVs: Short driving range of EVs Long Battery Recharge Time Lack of charging Infrastructure Higher cost Battery life High cost of commercial electricity Poor roads
+If India is looking forward to an EV future then it has to build a good road network because it isproven that carbon emission by ICE is lesser on good roads and the driving range of EVs is alsogreater on good roads.
+Now let’s talk about how will this affect livelihood in the future that is by 2040. So let me give yousome of my and some of the expert’s predictions to conclude this article : According to Crew Report demand for power is expected to rise by 80 percent. About 75 percent of vehicles will be EVs. This will usher in the use of Railways for large distances. Let’s not forget air transport as well. Transportation cost of goods to decrease Imports to decrease in large amounts. Empty petrol stations (better if converted to charging stations) And me writing and you reading about self-solarized EVs.
+The last one was obvious (chuckles) but since you have read me so far, allow me to share a small, additional yet important information that will be summarized by my last prediction. So, there is this EV trade route that happens to have the Philippines, Japan, and the US. And here The Philippines extracts Ni (Nickel) for batteries of EVs from Rio Tuba, a mine, Japan purifies it and The US makes batteries out of them and uses them in EVs. Now since demand is increasing, the mining of Rio Tuba is increasing too which is affecting the Rainforests of the Philippines and its ecosystem, making us question “Is it even a solution?”
+And here I predict: High prices and nonavailability of batteries and their parts in the world.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Rise Electric Vehicles Impact Livelihood 2040 Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist 2020 5th largest automobile market world fact news automobile industry bad news environment 3rd largest Gas GHG emitting Assessment Report AR6 Intergovernmental Panel Climate Change IPCC 2020 lockdown complete economy shut 36 50 big cities unhealthy air quality Taking account current situation studies vehicles contribute 290 Giga grams PM2 time 8 percent total GHG Gas Emissions transport sector exceeds 30 percent account promises made decreasing Carbon emissions NITI Ayog electrify 2W segment 2025 3W segment 2030 aimed create 100 percent Electric Vehicle EV 2030 experts goal ambitious hybrid Electric Vehicles EVs Internal Combustion Engines ICEs decade ushering itsgoal faster fashion give reasons basically war Ukraine exporter crude petroleum world rates petroleum International market skyrocketing 3rd largest 90 percent oil imported lot driven lockdown people stay distance people afford personal vehicles public largest market automobiles effect rising oil prices touching 100rs products transportation costs increasing inflation government hoping control import EVs Electric Vehicles Hydrogen Running Vehicles matter catch push increase import EV components imported worry huge Automobile Industries make EVs Electric Vehicles completely made informed consumer government issue battery costs 70 percent total manufacturing cost EV Electrical Vehicle MoRTH Ministry Road Transport Highways Battery service business government allotted budget 100 crores latest government working applying Fame Policy spend 86 percent Consumer Incentives 10 percent Charging government attract FDIs import Lithium make government promised build charging infrastructure government launched COP26 Summit portal insight benefits EVs Electric Vehicles benefits talked Tailpipe Emission ZTE Running Environmental Easy feel government adamant ICE EV 2030 mission talk government add double Dividend Hypothesis 1991 states environmentaltaxation improve economic environmental conditions recyclingrevenues obtained reduce toll parking people EVs give tax levitation people EVs chitchat bit problems consumers switch toEVs driving Battery Recharge Lack charging Higher Battery cost commercial Poor roads forward EV future build road network isproven carbon emission ICE lesser roads driving EVs alsogreater roads talk affect livelihood future 2040 give yousome expert predictions conclude article Crew Report demand expected rise 80 75 percent vehicles Railways forget air transport Transportation cost goods Imports decrease Empty petrol stations converted charging stations writing reading EVs obvious chuckles share additional important information summarized prediction EV trade route extracts Ni batteries EVs Rio Tuba mine purifies makes batteries EVs demand increasing mining Rio Tuba increasing affecting Rainforests ecosystem making question solution predict prices nonavailability batteries parts world provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>20</v>
+      </c>
+      <c r="G26" t="n">
+        <v>11</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2903225712799171</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.05904761893514739</v>
+      </c>
+      <c r="J26" t="n">
+        <v>39.86666666666667</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1831103678929766</v>
+      </c>
+      <c r="L26" t="n">
+        <v>16.01991081382386</v>
+      </c>
+      <c r="M26" t="n">
+        <v>46.43333333333333</v>
+      </c>
+      <c r="N26" t="n">
+        <v>700</v>
+      </c>
+      <c r="O26" t="n">
+        <v>219</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2174</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4.188624910007199</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>blackassign0026</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/rise-of-electric-vehicle-and-its-impact-on-livelihood-by-the-year-2040/</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Rise of electric vehicle and its impact on livelihood by the year 2040.
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Additionally, the electrification of other forms of road transportation continues to increase. Around 25% of all two-wheelers on the road around the globe are electric, however, this trend is mostly restricted to China, India, and ASEAN nations. The world’s worst air quality is in India. Even during the Covid crisis in 2020, when there were national and state lockdowns, 36 of the 50 cities with bad air quality were in India. Internal combustion engines (ICE), in particular, have greatly worsened vehicular pollution as a result of the growing number of private automobiles on Indian roads.
+India is now the third-highest oil consumer and GHG emitter in the world due to the rise in the stock of ICE automobiles. To prevent it electrification of cars and other vehicles is a must. According to a number of studies, impediments to EV adoption may arise from the distinctions between EV and ICE features.
+According to surveys, one of the major obstacles to EV adoption’s rapid growth is the vehicles’ limited driving range. Long battery recharge times and a lack of charging infrastructure also have an impact on demand. Longer EV driving ranges, quick recharge periods, and an expansion of the charging infrastructure, however, may eventually result inless significant problems.However, EV popularity is mostly driven by features like high environmental friendliness, quick acceleration, and cheaper maintenance and fuel expenses. China, a pioneer in the production of lithium-ion batteries, is gaining from the increase in interest in EV battery packs. By establishing the ambitious target of having enough batteries available to fulfill its own demand by 2024, the European Union is making an effort to catch up. Plans from several countries The prediction predicts that by 2030, the annual lithium-ion battery consumption for EVs would surpass 1,748-gigawatt hours (GWh).
+By 2025, the manufacture of battery cells will have reached 1 trillion watt hours (TWh), according to the capacity projections that have been currently stated. Starting with the surroundings. Depending on the assessment, the automobile industry is thought to produce between 10 and 25 percent of the world’s carbon dioxide, nitrogen oxide, and particulate matter emissions. These contaminants, which are presently concentrated in the Earth’s atmosphere at their greatest levels in the past 650,000 years, are all related to climate change.
+By the end of this century, according to studies, the Earth’s temperature is likely to increase by much more than two degrees Celsius unless considerable changes are made to the world’s industry, energy supply, and consumer habits. These pollutants also caused local pollution and smog, which harmed public health and congested big cities. It was thus no coincidence that automakers started offering alternatively powered vehicles that generated reduced emissions by combining internal combustion engines with electric motors just as the widespread public uproar in reaction to this trend started to grow.
+With the introduction of the hybrid Prius in Japan in 1997, Toyota was the first to truly seize this market. In general, there are 4 types of Electric vehicles in the market i.e.Hybrid electric vehicles, Plug-in hybrid electric vehicles, All-Electric vehicles, and conventional vehicles.Charging an electric vehicle is always less expensive than purchasing petrol for a conventional vehicle. There is no need for gasoline, saving you money on petrol. The cost of $0.10 per kW is the same as paying less than $1 per gallon of petrol to drive. Driving electric vehicles saves drivers, on average, $700 in gasoline expenditures per year.since they don’t release toxins, they are environmentally beneficial. More than 177,758,804 kg of CO2 emissions have been cut by electric car drivers. fewer repairs because of an effective electric motor.
+You save on running costs since electric motors have fewer components and cause less damage than conventional, non-electric vehicles. Greater Efficiency, In addition to being lighter, electric vehicles also accelerate more quickly.The best electric car ever made is the Tesla Model 3 with 20″ Überturbine Wheels, Performance Brakes and Dual Motor All-Wheel Drive are available for complete control in all weather.
+The Model 3 can accelerate from 0 to 60 miles per hour (mph) in as little as 3.1 seconds because of a carbon fiber spoiler that increases stability at high speeds. In order to increase redundancy, the Tesla All-Wheel Drive incorporates two separate motors, each of which has just one moving element for optimal longevity and low maintenance. They digitally manage torque to the front and back wheels, unlike conventional all-wheel drive systems, providing far superior handling and traction control.
+A fantastic approach to save money and support a stable and healthy environment is to drive an electric vehicle like the Nissan Leaf, Ford Focus Electric, Tesla Model S, or Chevrolet Volt. Due to the large number of carbon emissions produced by cars, which are released into the atmosphere, we are more susceptible to pollution and greenhouse gases. The ecology is greatly improved by using electric vehicles. Additionally, since electric vehicleshave no environmental effect, they are good for the environment and the economy. There are many elements, but that doesn’t mean they have to be overpowering. You can make an informed choice going ahead by doing a good deal of study on various models, including hybrids. Any way you look at it, an electric vehicle can protect our fragile ecosystem.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Rise electric vehicle impact livelihood 2040 Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Additionally electrification forms road transportation continues increase 25 road globe electric trend restricted ASEAN world worst air quality Covid crisis 2020 national lockdowns 36 50 cities bad air quality Internal combustion engines ICE greatly worsened vehicular pollution result growing number private automobiles roads oil consumer GHG emitter world due rise ICE automobiles prevent electrification cars vehicles number studies impediments EV adoption arise distinctions EV ICE features surveys obstacles EV adoption rapid growth vehicles limited driving battery recharge times lack charging infrastructure impact demand Longer EV driving ranges recharge periods expansion charging infrastructure eventually result inless significant EV popularity driven features environmental friendliness acceleration cheaper maintenance fuel expenses pioneer production batteries gaining increase interest EV battery packs establishing ambitious target batteries fulfill demand 2024 Union making effort catch Plans countries prediction predicts 2030 battery consumption EVs surpass hours GWh 2025 manufacture battery cells reached 1 hours TWh capacity projections stated Starting surroundings Depending assessment automobile industry thought produce 10 25 percent world carbon dioxide nitrogen oxide particulate matter emissions contaminants presently concentrated Earth atmosphere greatest levels past years related climate change end century studies Earth temperature increase degrees Celsius considerable made world industry energy supply consumer habits pollutants caused local pollution smog harmed public health congested big cities coincidence automakers started offering alternatively powered vehicles generated reduced emissions combining internal combustion engines electric motors widespread public uproar reaction trend started introduction hybrid Prius 1997 Toyota seize market general 4 types Electric vehicles market electric vehicles hybrid electric vehicles vehicles conventional electric vehicle expensive purchasing petrol conventional vehicle gasoline saving petrol cost kW paying 1 gallon petrol drive Driving electric vehicles saves drivers average 700 gasoline expenditures release toxins environmentally beneficial kg CO2 emissions cut electric car drivers fewer repairs effective electric motor save running costs electric motors fewer components damage conventional vehicles Greater Efficiency addition lighter electric vehicles accelerate electric car made Tesla Model 3 Überturbine Wheels Performance Brakes Dual Motor Drive complete control weather Model 3 accelerate 0 60 hour mph seconds carbon fiber spoiler increases stability speeds order increase redundancy Tesla Drive incorporates separate motors moving element optimal longevity maintenance digitally manage torque front wheels unlike conventional drive systems providing superior handling traction control fantastic approach save support stable healthy environment drive electric vehicle Nissan Leaf Focus Electric Tesla Model Chevrolet Volt Due number carbon emissions produced cars released atmosphere susceptible pollution greenhouse gases ecology greatly improved electric vehicles Additionally electric vehicleshave environmental effect environment economy elements overpowering make informed choice ahead study models including hybrids electric vehicle protect fragile ecosystem provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>28</v>
+      </c>
+      <c r="G27" t="n">
+        <v>15</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.3023255743645216</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.07664884121809476</v>
+      </c>
+      <c r="J27" t="n">
+        <v>23.08695652173913</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.2467043314500942</v>
+      </c>
+      <c r="L27" t="n">
+        <v>9.33346434127569</v>
+      </c>
+      <c r="M27" t="n">
+        <v>27.08695652173913</v>
+      </c>
+      <c r="N27" t="n">
+        <v>664</v>
+      </c>
+      <c r="O27" t="n">
+        <v>262</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2082</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4.530546623794212</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>blackassign0027</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/oil-prices-by-the-year-2040-and-how-it-will-impact-the-world-economy/</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Oil prices by the year 2040, and how it will impact the world economy.
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+We are in aninterconnected world. Any change in one part of the world will always lead to some #changes in other parts of the world as well, maybe a bit later but surely there will be some change and that is what we are seeing in today’s world.Electric vehiclesare the change that we are seeing in today’s world. With so many advancements in technology, economies are getting bigger. China might surpass the US and become a #superpower, we will have India inching towards a 15 trillion economy by 2040 and there will be competition among themselves to outshine the other. We are also seeing aparadigm shifttoward a moremultipolar worldfrom a unipolar world where powers are moving towards certain clusters of the world and everyone wants to be a part of these clusters. But in all these rearrangements taking place. We are in a way creating a better and moresustainablelife for our present as well as our future generations.
+We have witnessed the COP26 where we saw leaders of top countries taking pledges to create a more sustainable future and the answer lies in a safer and greener planet and electric vehicles occupy a huge chunk of it. Internal combustion engines have already peaked, and electric vehicles are getting cheaper and cheaper asgovernmentsof every country are actively pushing for electric vehicles as we have seen the joint statement in Cop 26 that “As business fleet owners and operators, or shared mobility platforms, we will work towards 100% of our car and van fleets being zero emission vehicles by 2030, or earlier”. This is a step towards the future. India which is home to a large number of two-wheelers and three-wheelers constitutes more than 70% of global sales and more than 80% in India is also a signatory to this statement.   And if we analyze it properly- crude oil, coal, and gas are the most demanded natural resource still in the world. But it’s not free and with the latest scenarios in and around the world, it’s #better to switch to a more safe, efficient, andaffordableelectric vehicle.
+If we look at theeconomic aspectsof electric vehicles, it will surely improve the livelihood of society and in turn the world. EVs are on track to rise to 20% of China’s total market by 2025, up from 6% in 2020, and to 37% in the EU, from 11% last year. In the U.S., they are forecast to reach 10% by 2025. India is also not lagging. India’s EV market is still nascent and is forecast to record a 2.4% CAGR from 2020 to 2025. Electrification is expected to penetrate cars and last-mile connectivity modes like two-wheelers in India by 2030. It is expected about 70% of two-wheeler fleets and 30% of private two-wheelers to be electric by 2030. For passenger vehicles, 40% of fleets and 15%-20% of private cars will be electric by that time.  There are also different steps taken by the government like #tax exemptions, schemes like PLI,FAME, and battery swapping policy. We must also note that it is estimated that around 10 million direct jobs will be created and indirectly almost 50 million jobs will be created around this sector. If we look at the global picture we are also seeing that there is aprice paritybetween battery vehicles and ICE vehicles and with so many advancements in technology we are seeing the prices of batteries coming down with more players getting involved in it with prices estimated to be further down.
+As a world leader, countries like China and the USA are in a race to build more lithium-ion batteries so that they areself-sufficientand have the capabilities to further rise to the occasion of being a major exporters in the world. The European Union is also not lagging as they are also trying to catch up by producing enough batteries to be self-sufficient by 2025.
+Crude oils are increasing day by day. We have seen a shortage of gas in European countries mainly due to the Russia- Ukraine war and everybody is trying to find an alternative to gas and crude oil as it is harmful and it’s one of the main reasons whypollutionis such a havoc in the world. One of the major problems of Crude oils is oil spilling which is endangering marine species. Air pollution caused due to petrol and diesel vehicles is also affecting our planet and if there is less oil then there is less pollution as alternative drivetrains, fuel economy, and shared mobility will impact oil demand; however, nations still won’t reach net-zero by 2050 without doing more. Coal is also a great contributor to this pollutionEnvironmental impactsassociated with using coal as an energy source are particulate emission, ground-level ozone, smog, and acid rain. Coal and fuel oil combustion emit fly ash particles into the atmosphere, which contribute to air pollution problems. Though it is said that prices of crude oil haven’t peaked yet, they will surely peak by 2040. So, we need to foresee the future to have an alternative in society though we still can’t reach a complete outwash of oil in 2050 we can make sure that other alternatives are ready and self-sufficient.
+Well,job opportunitiesare also a major reason why we should consider EVs as our future. We realize that the max range of an electric vehicle will be around 350-390 km so people need to stop somewhere to recharge their batteries for at least 40-50 minutes which can provide a time frame in which people can avail restaurants explore shopping complexes and what not. This will help in generating employment opportunities in #hubs like these. There is also a rush in countries like China, the USA, and the European Union to build charging stations like this which will accelerate the process of EV vehicles. In this fast, paced world almost every alternative family is having a car but if public vehicles like buses and trains can be changed into electric vehicles this can boost the economy as a whole by creating greater needs with more opportunities in these sectors such as transportation and communication are very much a building block of today’s nation-building process.
+However, if we are talking about a world that is greener and fitter we must realize and understand that Electric vehicles do have acostto this planet. There is a huge amount of electric waste which is not so concerning in today’s world. It might be a concern in the world we are all planning to live in. Electric vehicles and batteries need rare materials which are not easy to find. Electronic waste, also known ase-waste, is any electronic product, or product containing electronic components, that has reached the end of its usable life cycle. Unbeknownst to many consumers, electronics contain toxic substances – therefore they must be handled with care when no longer wanted or needed. There are also negative effects on soil When the improper disposal of e-waste in regular landfills or in places where it is dumped illegally, both heavy metals and flame retardants can seep directly from the e-waste into the soil, causing contamination of underlying groundwater or contamination of crops that may be planted nearby or in the area in the future. Therefore, we must also not only focus on solely electric vehicles but also on other kinds of fuels like green hydrogen fuels like ethanol which can be generated from agricultural waste. Companies play an important part in this change. Rather than making it only electric, they should try to make vehicles that are hybrid in nature. They can switch engines so that they are ready to switch from petrol or diesel to green hydrogen and ethanol and also to electric vehicles.The future is now…It’s time to act!
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Oil prices 2040 impact world economy Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist aninterconnected world change part world lead parts world bit surely change today vehiclesare change today world advancements technology economies bigger surpass superpower inching 15 economy 2040 competition outshine aparadigm shifttoward moremultipolar worldfrom unipolar world moving clusters world part clusters rearrangements taking creating moresustainablelife present future generations witnessed COP26 leaders top countries taking pledges create sustainable future answer lies safer greener planet electric vehicles occupy huge chunk Internal combustion engines peaked electric vehicles cheaper cheaper asgovernmentsof actively pushing electric vehicles joint statement Cop 26 business fleet owners operators shared mobility platforms work 100 car fleets emission vehicles 2030 earlier step future home number constitutes 70 global 80 signatory statement analyze crude oil coal gas demanded natural resource world latest scenarios world switch safe efficient andaffordableelectric vehicle theeconomic aspectsof electric vehicles surely improve livelihood society turn world EVs track rise 20 total market 2025 6 2020 37 EU 11 forecast reach 10 2025 lagging EV market nascent forecast record CAGR 2020 2025 Electrification expected penetrate cars connectivity modes 2030 expected 70 fleets 30 private electric 2030 passenger vehicles 40 fleets 15 private cars electric time steps government tax exemptions schemes PLI FAME battery swapping policy note estimated 10 direct jobs created indirectly 50 jobs created sector global picture aprice paritybetween battery vehicles ICE vehicles advancements technology prices batteries coming players involved prices estimated world leader countries build batteries capabilities rise occasion exporters world Union lagging catch producing batteries 2025 Crude oils increasing shortage gas countries due Ukraine war find alternative gas crude oil harmful reasons whypollutionis havoc world problems Crude oils oil spilling endangering species Air pollution caused due petrol diesel vehicles affecting planet oil pollution alternative drivetrains fuel economy shared mobility impact oil demand reach 2050 Coal great contributor pollutionEnvironmental impactsassociated coal energy source particulate emission ozone smog acid rain Coal fuel oil combustion emit fly particles atmosphere contribute air pollution problems prices crude oil peaked surely 2040 foresee future alternative society reach complete outwash oil 2050 make alternatives job opportunitiesare reason EVs future realize electric vehicle km people stop recharge batteries minutes provide time people avail restaurants explore shopping complexes generating employment opportunities hubs countries Union build charging stations accelerate process EV vehicles paced world alternative family car public vehicles buses trains changed electric vehicles boost economy creating greater opportunities sectors transportation communication building today process talking world greener fitter realize understand Electric vehicles acostto planet huge amount electric waste today world concern world planning live Electric vehicles batteries rare materials easy find Electronic waste electronic product product electronic components reached end usable life cycle Unbeknownst consumers electronics toxic substances handled care longer wanted needed negative effects soil improper disposal regular landfills places dumped illegally heavy metals flame retardants seep directly soil causing contamination underlying groundwater contamination crops planted nearby area future focus solely electric vehicles kinds fuels hydrogen fuels ethanol generated agricultural waste Companies play important part change making electric make vehicles hybrid nature switch engines switch petrol diesel hydrogen ethanol electric future time act provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>24</v>
+      </c>
+      <c r="G28" t="n">
+        <v>27</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.05882352825836219</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.080314960503441</v>
+      </c>
+      <c r="J28" t="n">
+        <v>26.44642857142857</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.187035786630655</v>
+      </c>
+      <c r="L28" t="n">
+        <v>10.65338574322369</v>
+      </c>
+      <c r="M28" t="n">
+        <v>30</v>
+      </c>
+      <c r="N28" t="n">
+        <v>811</v>
+      </c>
+      <c r="O28" t="n">
+        <v>277</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2652</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>27</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4.246861924686193</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>blackassign0028</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/an-outlook-of-healthcare-by-the-year-2040-and-how-it-will-impact-human-lives/</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>An outlook of healthcare by the year 2040, and how it will impact human lives.
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Are you afraid that robots will take over the jobs of nurses, doctors, and other healthcareprofessionals? Are you scared that artificial intelligence will control the world within acouple of years?COVID-19 has revealed how vulnerable the health care industry is to change and its need for structural and technological transformation. The COVID-19 pandemic has been an unwelcome reminder of just how much health matters not only to individuals and society but also to the global economy. Improved health accounted for about one-third of the overall GDP per capita growth of developed economies in the past century.
+The traditional boundaries of the industry will dissolve and new roles will emerge in the future of health as exponential innovation propels the industry towards 2040. By 2040, health care as we know it today will no longer exist. There will be a fundamental shift from “health care” to “health.” And while disease will never be eliminated, through science, data, and technology, we can identify it earlier, intervene proactively, and better understand its progression to help consumers more effectively and actively sustain their well-being.
+The future will be focused on wellness and managed by companies that assume new roles to drive value in the transformed health ecosystem. As the rate of technological evolution continues to speed up, companies need to look ahead and proactively plan for the future. For the healthcare industry, in particular, this need is even more pressing as it is compounded by the pace of declining health in our society. Ray Hammond commented on what healthcare will look like in 2040:
+“Healthcare is one of the few arenas in which every one of us has a stake. The next 20 years will witness a profound change in healthcare, all the more notable given that medical science and healthcare delivery tend to be conservative, slow-moving sectors that are highly resistant to change. The annual global market is currently estimated to be worth around $8.1 trillion, with annual global spending on healthcare forecast to rise to $18.28 trillion by 2040.
+With that in mind, we have a collective responsibility to ourselves and to the next generation to determine what that change will look like and the impact it will have on all of us.” How exactly does better health promote economic growth? First, fewer people are likely to die prematurely so the working-age population will increase. When people are healthier, absences from sickness decline and workers are less distracted by managing theirconditions or those of their loved ones. Also, fewer workers retire early because of health conditions.
+The COVID-19 pandemic has hit people with underlying health conditions hardest—for example, diabetes, hypertension, a chronic obstructive pulmonary disorder, and obesity, which are common across most of the world’s economies. We can improve the health of the world’s population, and that would not only build resilience against future pandemics but also dramatically improve the quality of life of millions of people who suffer the heavy dailythe toll of chronic conditions.
+Actions or programs such as adopting healthy behavior, expanding access to primary care, and improving medication adherence—could reduce the global disease burden by 40% over 20 years. We found that such a reduction of the disease burden would deliver tremendous benefits: a 65-year-old in 2040 could be as healthy as a 55-year-old today, infant mortality would decline by 65% and 230 million more people would be alive in 2040. More than 70% of the health benefits would come from prevention through healthier environments, healthier behavior, and preventive care (including safe childbirth, vaccination, and adherence to medications that lower risk) rather than treatment of diseases.
+One way to improve health is to invest in communities so that children can grow up to live long and healthy lives as adults. The remaining 30% of the benefits we found would come from proven therapies to treat existing health conditions. “Future health care and wellbeing” report authored by internationally renowned futurologist, Ray Hammond presents the likely future developments and trends in healthcare between now and 2040.
+Among the report’s key healthcare predictions for 2040 are:
+• Health information from traditional annual physical check-ups and other tests previously only available in surgery or lab will be replaced by data from sensors on/around our ‘smart’ bodies (including in our clothing and, eventually, skin and blood). This will be immediately accessible to us, in real-time.• A new field of ‘predictive medical data mining’ will provide early warnings of physiological trouble ahead or indications of disease as it develops. Physicians will have 24/7 real-time reports of their patients’ wellbeing and will be alerted to any change in patients’ data that requires urgent attention.• Stem-cell medicine will be a powerful tool in mainstream medicine. For example, replacement human organs for transplant will be grown on demand from stem cells in the lab, with minimal risk of rejection• Nano-medicine (in its infancy in 2019) may eventually outperform all other branches of medical science, as scientists create ‘designer drugs that are far more powerful than today’s drugs• Artificial Intelligence (AI) ‘chatbots’ equipped with deep learning algorithms could relieve emergency room personnel of tending to large numbers of walk-in patients with non-emergencies (e.g. sore throats, UTIs).
+The 10 archetypes will fall into three distinct, but interconnected, categories:
+• Data and platforms: These archetypes will be the foundational infrastructure that forms the backbone of tomorrow’s health ecosystem. They will generate insights for decision-making. Everything else will build off of the data and platforms that underpin consumer-driven health.• Well-being and care delivery: These archetypes will be the most health-focused of the three groupings made up of care facilities and health communities—both virtual and physical, and will provide consumer-centric delivery of products, care, wellness, and well-being.
+• Care enablement: These archetypes will be connectors, financers, and regulators thathelp make the industry’s “engine” run.
+All three components need to be fully functioning and integrated for the future of health to come to life.The future of healthcare is shaping up in front of our very eyes with advances in digital healthcare technologies, such as artificial intelligence, VR/AR, 3D printing, robotics, and nanotechnology.
+We have to familiarize ourselves with the latest developments to be able to control technology and not the other way around. The future of healthcare lies in working hand-in-hand with technology and healthcare workers have to embrace emerging healthcare technologies to stay relevant in the coming years. So it is worth starting “the future” with the betterment of our health through digital technologies, as well as changing our attitude towards the concept of health as such and towards medicine and healthcare.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>outlook healthcare 2040 impact human lives Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist afraid robots jobs nurses doctors healthcareprofessionals scared artificial intelligence control world acouple years revealed vulnerable health care industry change structural technological transformation pandemic unwelcome reminder health matters individuals society global economy Improved health accounted GDP capita growth developed economies past century traditional boundaries industry dissolve roles emerge future health exponential innovation propels industry 2040 2040 health care today longer exist fundamental shift health care disease eliminated science data technology identify earlier intervene proactively understand progression consumers effectively actively sustain future focused wellness managed companies assume roles drive transformed health ecosystem rate technological evolution continues companies ahead proactively plan future healthcare industry pressing compounded declining health society commented healthcare 2040 Healthcare stake 20 years witness profound change healthcare notable medical science healthcare delivery tend conservative sectors highly resistant change global market estimated global spending healthcare forecast rise 2040 mind collective responsibility generation determine change impact health promote economic growth fewer people die prematurely population increase people healthier absences sickness decline workers distracted managing theirconditions loved fewer workers retire health conditions pandemic hit people underlying health conditions diabetes hypertension chronic obstructive pulmonary disorder obesity common world economies improve health world population build resilience future pandemics dramatically improve quality life millions people suffer heavy dailythe toll chronic conditions Actions programs adopting healthy behavior expanding access primary care improving medication reduce global disease 40 20 years found reduction disease deliver tremendous benefits 2040 healthy today infant mortality decline 65 230 people alive 2040 70 health benefits prevention healthier environments healthier behavior preventive care including safe childbirth vaccination adherence medications risk treatment diseases improve health invest communities children live healthy lives adults remaining 30 benefits found proven therapies existing health conditions Future health care wellbeing report authored internationally renowned futurologist presents future developments trends healthcare 2040 report healthcare predictions 2040 Health information traditional physical tests previously surgery lab replaced data sensors bodies including clothing eventually skin immediately accessible predictive medical data mining provide warnings physiological trouble ahead indications disease develops Physicians reports patients wellbeing alerted change patients data requires urgent medicine powerful tool mainstream medicine replacement human organs transplant grown demand stem cells lab minimal risk infancy 2019 eventually outperform branches medical science scientists create designer drugs powerful today Artificial Intelligence chatbots equipped deep learning algorithms relieve emergency room personnel tending patients sore throats UTIs 10 archetypes fall distinct interconnected categories Data platforms archetypes foundational infrastructure forms backbone tomorrow health ecosystem generate insights build data platforms underpin care delivery archetypes groupings made care facilities health virtual physical provide delivery products care wellness Care enablement archetypes connectors financers regulators thathelp make industry engine run components fully functioning integrated future health future healthcare shaping front eyes advances digital healthcare technologies artificial intelligence 3D printing robotics nanotechnology familiarize latest developments control technology future healthcare lies working technology healthcare workers embrace emerging healthcare technologies stay relevant coming years starting future betterment health digital technologies changing attitude concept health medicine healthcare provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>36</v>
+      </c>
+      <c r="G29" t="n">
+        <v>24</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1999999966666667</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.09677419339229969</v>
+      </c>
+      <c r="J29" t="n">
+        <v>28.68181818181818</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.2583201267828843</v>
+      </c>
+      <c r="L29" t="n">
+        <v>11.57605532344043</v>
+      </c>
+      <c r="M29" t="n">
+        <v>33.84090909090909</v>
+      </c>
+      <c r="N29" t="n">
+        <v>734</v>
+      </c>
+      <c r="O29" t="n">
+        <v>326</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2497</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>8</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4.535714285714286</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>blackassign0029</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-in-healthcare-to-improve-patient-outcomes/</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>AI in healthcare to Improve Patient Outcomes
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Introduction
+“If anything kills over 10 million people in the next few decades, it will be a highly infectious virus rather than a war. Not missiles but microbes.” Bill Gates’s remarks at a TED conference in 2014, right after the world had avoided the Ebola outbreak. When the new, unprecedented, invisible virus hit us, it met an overwhelmed and unprepared healthcare system and oblivious population. This public health emergency demonstrated our lack of scientific consideration and underlined the alarming need for robust innovations in our health and medical facilities. For the past few years, artificial intelligence has proven to be of tangible potential in the healthcare sectors, clinical practices, translational medical and biomedical research.
+After the first case was detected in China on December 31st 2019, it was an AI program developed by BlueDot that alerted the world about the pandemic. It was quick to realise AI’s ability to analyse large chunks of data could help in detecting patterns and identifying and tracking the possible carriers of the virus.
+Many tracing apps use AI to keep tabs on the people who have been infected and prevent the risk of cross-infection by using AI algorithms that can track patterns and extract some features to classify or categorise them.
+So how does AI do that?
+IBM Watson, a sophisticated AI that works on cloud computing and natural language processing, has prominently contributed to the healthcare sector on a global level. Being a conversational AI, since 2013, Watson has helped in recommending treatments to patients suffering from cancer to ensure that they get the best treatment at optimum costs.
+Researchers at Google Inc. showed that an AI system can be trained on thousands of images to achieve physician-level sensitivity.
+By identifying the molecular patterns associated with disease status and its subtypes, gene expression, and protein abundance levels, machine learning methods can detect fatal diseases like cancer at an early stage. Machine Learning (ML) techniques focus mainly on analyzing structured data, which can further help in clustering patients’ traits and infer the probability of disease outcomes. Since patient traits mainly include masses of data relating to age, gender, disease history, disease-specific data like diagnostic imaging and gene expressions, etc, ML can extract features from these data inputs by constructing data analytical algorithms.
+ML algorithms are either supervised or unsupervised. Unsupervised learning helps in extracting features and clustering similar features together that further leads to early detection of diseases. Clustering and principal component analysis enable grouping or clustering of similar traits together that are further used to maximize or minimize the similarity between the patients within or between the clusters. Since patient traits are recorded in multiple dimensions, such as genes, principal component analysis(PCA) creates the apparatus to reduce these dimensions which humans could have not done alone.
+Supervised learning considers the outcomes of the subjects together with the traits, and further correlates the inputs with the outputs to predict the probability of getting a particular clinical event, expected value of a disease level or expected survival time, or risk of Down’s syndrome.
+Biomarker panels that are mostly used to detect ovarian cancer, have outperformed the conventional statistical methods due to machine learning. In addition to this, the use of EHRs and Bayesian networks, which are a part of supervised machine learning algorithms, can predict clinical outcomes and mortality respectively.
+Unstructured data such as clinical notes and texts are converted into machine-readable structured data with the help of natural language processing(NLP). NLP works with two components: text processing and classification. Text processing helps in identifying a series of disease-relevant keywords in clinical notes and then through classification are further categorized into normal and abnormal cases. Chest screening through ML and NLP has helped find abnormalities in the lungs and provide treatment to covid patients. Healthcare organizations use NLP-based chatbots to increase interactions with patients, keeping their mental health and wellness in check.
+Deep learning is a modern extension of the classical neural network techniques which helps explore more complex non-linear patterns in data, using algorithms like convolution neural network, recurrent neural network, deep belief network, and deep neural network which enables more accurate clinical prediction. When it comes to genome interpretation, deep neural networks surpass the conventional methods of logistics regression and support vector machines.
+Sepsis Watch is an AI system trained in deep learning algorithms that holds the capability to analyze over 32 million data points to create a patient’s risk score and identify the early stages of sepsis.
+Another method known as the Learning-based Optimization of the Under Sampling Pattern( LOUPE) is based on integrating full resolution MRI scans with the convolutional neural network algorithm, which helps in creating more accurate reconstructions.
+Robotic surgery is widely considered in most delicate surgeries like gynaecology and prostate surgery. Even after striking the right balance between human decisions and AI precision, robotic surgery reduces surgeon efficiency as they have to be manually operated through a console. Thus, autonomous robotic surgery is on the rise with inventions such as robotic silicon fingers that mimic the sense of touch that surgeons need to identify organs, cut tissues, etc., or robotic catheters that can navigate whether it is touching blood, tissue, or valve.
+Researchers at Children’s National Hospital, Washington have already developed an AI called Smart Tissue Autonomous Robot (STAR), which performs a colon anastomosis on its own with the help of an ML-powered suturing tool, that automatically detects the patient’s breathing pattern to apply suture at the correct point.
+Cloud computing in healthcare has helped in retrieving and sharing medical records safely with a reduction in maintenance costs. Through this technology doctors and various healthcare workers have access to detailed patient data that helps in speeding up analysis ultimately leading to better care in the form of more accurate information, medications, and therapies.
+How can It help in Biomedical research?
+Since AI can analyze literature beyond readability, it can be used to concise biomedical research. With the help of ML algorithms and NLP, AI can accelerate screening and indexing of biomedical research, by ranking the literature of interest which allows researchers to formulate and test scientific hypotheses far more precisely and quickly. Taking it to the next level, AI systems like the computational modelling assistant (CMA) helps researchers to construct simulation models from the concepts they have in mind. Such innovations have majorly contributed to topics such as tumour suppressor mechanisms and protein-protein interaction information extraction.
+AI as precision medicine
+Since precision medicine focuses on healthcare interventions to individuals or groups of patients based on their profile, the various AI devices pave the way to practice it more efficiently. With the help of ML, complex algorithms like large datasets can be used to predict and create an optimal treatment strategy.
+Deep learning and neural networks can be used to process data in healthcare apps and keep a close watch on the patient’s emotional state, food intake, or health monitoring.
+“Omics” refers to the collective technologies that help in exploring the roles, relationships of various branches ending with the suffix “omics” such as genomics, proteomics, etc. Omics-based tests based on machine learning algorithms help find correlations and predict treatment responses, ultimately creating personalized treatments for individual patients.
+How it helps in psychology and neuro patients
+For psychologists studying creativity,  AI is promising new classes of experiments that are developing data structures and programs and exploring novel theories on a new horizon. Studies show that  AI can conduct therapy sessions,e-therapysessions, and assessments autonomously, also assisting human practitioners before, during, or after sessions. The Detection and Computational Analysis of Psychological Signal project uses ML, computer vision, and NLP to analyze language, physical gestures, and social signals to identify cues for human distress. This ground-breaking technology assesses soldiers returning from combat and recognizes those who require further mental health support. In the future, it will combine data captured during face-to-face interviews with information on sleeping, eating, and online behaviours for a complete patient view.
+Stroke identification
+Stroke is another frequently occurring disease that affects more than 500 million people worldwide. Thrombus,  in the vessel cerebral infarction is the major (about 85%) cause of stroke occurrence. In recent years, AI techniques have been used in numerous stroke-related studies as early detection and timely treatment along with efficient outcome prediction can help solve the problem. With AI at our disposal, large amounts of data with rich information, more complications and real-life clinical questions can be addressed in this arena. Currently, two ML algorithms- genetic fuzzy finite state machine and PCA were implemented to build a model building solution. These include a human activity recognition stage and a stroke onset detection stage. An alert stroke message is activated as soon as a movement significantly different from the normal pattern is recorded. ML methods have been applied to neuroimaging data to assist disease evaluation and predicting stroke treatment for the diagnosis.
+Patient Monitoring
+Today, the market for AI-based patient monitoring is impressive and monetarily enticing. It is evolving with artificial sensors, smart technologies and explores everything from brain-computer interfaces to nanorobotics. Companies with their smart-watches have engaged people to perform remote monitoring even when they are not “patients”. An obvious place to start is with wearable and embedded sensors, glucose monitors, pulse monitors, oximeters, and ECG monitors. With patient monitoring becoming crucial, AI finds numerous applications in chronic conditions, intensive care units, operating rooms, emergency rooms, and cardiac wards where timeless clinical decision-making can be measured in seconds. More advances have started to gain traction like smart prosthetics and implants. These play an impeccable role in patient management post-surgery or rehabilitation. Demographics, laboratory results and vital signs can also be used to predict cardiac arrest, transfer into the intensive care unit, or even death. In addition, an interpretable machine-learning model can assist anesthesiologists in predicting hypoxaemia events during surgery. This suggests that with deep-learning algorithms, raw patient-monitoring data could be better used to avoid information overload and alert overload while enabling more accurate clinical prediction and timely decision-making.
+Conclusion
+Considering the vast range of tasks that an AI can do, it is evident that it holds deep potential in improving patient outcomes to skyrocketing levels. Using sophisticated algorithms AI can bring a revolution in the healthcare sector. Even after facing challenges like whether the technology will be able to deliver the promises, ethical measures, training physicians to use it, standard regulations etc, the role of AI in transforming the clinical practices cannot be ignored. The biggest challenge is the integration of AI in daily practice. All of these can be overcome and within that period the technologies will mature making the system far more enhanced and effective.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>healthcare Improve Patient Outcomes Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Introduction kills 10 people decades highly infectious virus war missiles remarks conference 2014 world avoided Ebola outbreak unprecedented invisible virus hit met overwhelmed unprepared healthcare system oblivious population public health emergency demonstrated lack scientific consideration underlined alarming robust innovations health medical facilities past years artificial intelligence proven tangible potential healthcare sectors clinical practices translational medical biomedical research detected 31st 2019 program developed BlueDot alerted world pandemic realise ability analyse chunks data detecting patterns identifying tracking carriers virus tracing apps tabs people infected prevent risk algorithms track patterns extract features classify categorise IBM sophisticated works computing natural language processing prominently contributed healthcare sector global level conversational 2013 helped recommending treatments patients suffering cancer ensure treatment optimum costs Researchers Google showed system trained thousands images achieve sensitivity identifying molecular patterns disease status subtypes expression protein abundance levels machine learning methods detect fatal diseases cancer stage Machine Learning ML techniques focus analyzing structured data clustering patients traits infer probability disease outcomes patient traits include masses data relating age gender disease history data diagnostic imaging expressions ML extract features data inputs constructing data analytical algorithms ML algorithms supervised unsupervised Unsupervised learning helps extracting features clustering similar features leads detection diseases Clustering principal component analysis enable grouping clustering similar traits maximize minimize similarity patients clusters patient traits recorded multiple dimensions genes principal component analysis PCA creates apparatus reduce dimensions humans Supervised learning considers outcomes subjects traits correlates inputs outputs predict probability clinical event expected disease level expected survival time risk syndrome Biomarker panels detect ovarian cancer outperformed conventional statistical methods due machine learning addition EHRs Bayesian networks part supervised machine learning algorithms predict clinical outcomes mortality Unstructured data clinical notes texts converted structured data natural language processing NLP NLP works components text processing classification Text processing helps identifying series keywords clinical notes classification categorized normal abnormal cases Chest screening ML NLP helped find abnormalities lungs provide treatment covid patients Healthcare organizations chatbots increase interactions patients keeping mental health wellness check Deep learning modern extension classical neural network techniques helps explore complex patterns data algorithms convolution neural network recurrent neural network deep belief network deep neural network enables accurate clinical prediction genome interpretation deep neural networks surpass conventional methods logistics regression support vector machines Sepsis Watch system trained deep learning algorithms holds capability analyze 32 data points create patient risk score identify stages sepsis method Optimization Sampling Pattern LOUPE based integrating full resolution MRI scans convolutional neural network algorithm helps creating accurate reconstructions Robotic surgery widely considered delicate surgeries gynaecology prostate surgery striking balance human decisions precision robotic surgery reduces surgeon efficiency manually operated console autonomous robotic surgery rise inventions robotic silicon fingers mimic sense touch surgeons identify organs cut tissues robotic catheters navigate touching tissue valve Researchers Children National Hospital developed called Tissue Autonomous Robot performs anastomosis suturing tool automatically detects patient breathing pattern apply suture correct point computing healthcare helped retrieving sharing medical records safely reduction maintenance costs technology doctors healthcare workers access detailed patient data helps speeding analysis ultimately leading care form accurate information medications therapies Biomedical research analyze literature readability concise biomedical research ML algorithms NLP accelerate screening indexing biomedical research ranking literature interest researchers formulate test scientific hypotheses precisely quickly Taking level systems computational modelling assistant CMA helps researchers construct simulation models concepts mind innovations majorly contributed topics tumour suppressor mechanisms interaction information extraction precision medicine precision medicine focuses healthcare interventions individuals groups patients based profile devices pave practice efficiently ML complex algorithms datasets predict create optimal treatment strategy Deep learning neural networks process data healthcare apps watch patient emotional food intake health monitoring Omics refers collective technologies exploring roles relationships branches ending suffix omics genomics proteomics tests based machine learning algorithms find correlations predict treatment responses ultimately creating personalized treatments individual patients helps psychology neuro patients psychologists studying creativity promising classes experiments developing data structures programs exploring theories horizon Studies show conduct therapy assessments autonomously assisting human practitioners Detection Computational Analysis Psychological Signal project ML computer vision NLP analyze language physical gestures social signals identify cues human distress technology assesses soldiers returning combat recognizes require mental health support future combine data captured interviews information sleeping eating online behaviours complete patient view Stroke identification Stroke frequently occurring disease affects 500 people worldwide Thrombus vessel cerebral infarction 85 stroke occurrence recent years techniques numerous studies detection timely treatment efficient outcome prediction solve problem disposal amounts data information complications clinical questions addressed ML genetic fuzzy finite machine PCA implemented build model building solution include human activity recognition stage stroke onset detection stage alert stroke message activated movement significantly normal pattern recorded ML methods applied neuroimaging data assist disease evaluation predicting stroke treatment diagnosis Patient Monitoring Today market patient monitoring impressive monetarily enticing evolving artificial sensors technologies explores interfaces nanorobotics Companies engaged people perform remote monitoring patients obvious start wearable embedded sensors glucose monitors pulse monitors oximeters ECG monitors patient monitoring crucial finds numerous applications chronic conditions intensive care units operating rooms emergency rooms cardiac wards timeless clinical measured seconds advances started gain traction prosthetics implants play impeccable role patient management rehabilitation Demographics laboratory results vital signs predict cardiac arrest transfer intensive care unit death addition interpretable model assist anesthesiologists predicting hypoxaemia events surgery suggests algorithms raw data avoid information overload alert overload enabling accurate clinical prediction timely Conclusion vast tasks evident holds deep potential improving patient outcomes skyrocketing levels sophisticated algorithms bring revolution healthcare sector facing challenges technology deliver promises ethical measures training physicians standard regulations role transforming clinical practices biggest challenge integration practice overcome period technologies mature making system enhanced effective provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>71</v>
+      </c>
+      <c r="G30" t="n">
+        <v>33</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.3653846118713018</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.0984848483915863</v>
+      </c>
+      <c r="J30" t="n">
+        <v>24.4125</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.2724014336917563</v>
+      </c>
+      <c r="L30" t="n">
+        <v>9.873960573476703</v>
+      </c>
+      <c r="M30" t="n">
+        <v>27.875</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1250</v>
+      </c>
+      <c r="O30" t="n">
+        <v>532</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3922</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4.913862718707941</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>blackassign0030</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/what-if-the-creation-is-taking-over-the-creator/</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>What if the Creation is Taking Over the Creator?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Human minds, a fascination in itself carrying the potential of tinkering nature with the pixie dust intelligence, creating and solving the mysteries and wonders with anything but admiration. However, no matter how captivating a human mind can be, it could sometimes be appalled. It could be the hunger or maybe the desire to want more, to go beyond and unravel the limitations, or maybe something like pure greed. Humans have never stopped and always keep evolving when it comes to intelligence and this is what makes them the supreme.
+Intelligence calls out for supremacy and so, what if there was to evolve something that opposed a challenge to the very human minds, to their capabilities while making them question their own importance among themselves? Artificial Intelligence came as a revolution, havoc when it first came to the light. The concept of making machines does work on their own, like granting machines –The Intelligence.
+The idea of making machines work like humans came back in the 19s. Back then people didn’t believe in such a thing as making a non-living thing work, think, and carry tasks on its own, not to mention, to actually surpass humans themselves in those skills. The facts are it did. By 1997. The greatest chess player, Garry Kasparov was defeated in a chess game by a machine and this is where exactly, a top skilled human lost to a mere machine created by another who by himself could’ve never defeated him. It was a rule of power, of betterment, of skills, and the granted supremacy. Were AI and Machines just tools? Equipment?  Something that helped an unskilled person with his mind and intelligence creates something that could do the skilled work for him with perfection and precision? Well initially it was, however, as time passed as humans got drawn to the puzzle of AI, a lot changed. Human research went deeper and deeper and as a result, the machines evolved with it.
+At present, AI &amp; Machines is a growing field. As it develops and improves, it has become a part of the industrial revolution. In industries, most of the laborious work that was once taken care of by humans was now replaced by machines. Naturally, with the evolution in machines, its precision, mass productivity, quality control, time efficiencies, and all the other factors made it a better choice. A choice over humans.
+This led to fear, a fear of a not-so-distant future, a future where maybe machines will be so evolved that they’ll take over the need of a human employee leading to unemployment. With the population increase around the world, it became the new tech threat for the labor market. Then again… how true is it? Does AI really oppose a threat? Will adapting to technology make millions of people lose their jobs? Will it lead to mass unemployment? Will the machines really surpass humans? Will, the creation take over the creator?
+No matter how fearful the future with AI may seem, in reality, it is not that scary. Truth is AI is the present reality, it is the key that holds the power to unlock a whole next level of human evolution. Technology is growing. There was a time where technology was just an idea, but today that idea has been implemented, it’s working and is carried out. Nobody could stop the advancement and growth of Artificial Intelligence, it’s a wave that is already flowing and we as the present generation and the generations to come to have to learn, to learn to swim in this flow and avoid drowning.
+Many jobs will be replaced by machines, as AI evolves it’ll keep challenging human minds and their skills. With the present COVID 19 situation, contactless cashiers to robots delivering packages have already taken over the usual routine tasks. The jobs of Secretaries, Schedulers, and book-keeper are at risk too. Manufacturing units, agriculture, food services, retail, transportation &amp; logistic, and hospitality are all a part of the AI-affected automation. At an estimation, it is said that around 20 million jobs, especially including manufacturing will be lost to robots. As AI, robotics, 3D printing, and genetics make their way in, even the architects, medical docs, and music composers feel threatened by technology. Making us question that will AI even edge us out of our brain jobs too? Now that can be terrifying.
+However, as much as machines will be replacing few jobs, they’ll also be creating new jobs.  With the economic growth, innovation, and investment around 133 million jobs are said to be generated. These newly enhanced jobs are to create benefits and amplify one’s creativity, strategy, and entrepreneurial skills. So what is the catch?
+Well, it’s the skills. Even though AI is creating 3 times more jobs than it is destroying, it’s the skills that count. AI surged in new job opportunities, opportunities like Senior Data Scientist, Mobile Application Developer, and SEO specialist. These jobs were once never heard of but now with AI it’s born, however, to do these jobs or for its qualification, one needs high-level skills and to acquire those skills can be an expensive and time-consuming task. The future generation might be able to cope up with it but the real struggle is to be faced by the present two generations. It’s the vulnerability between the skill gap and unemployment and the youths are the ones to be crushed the most.
+Therefore, as the advancement of AI becomes inevitable there remains no choice but to adapt, learn, equip ourselves and grow with it. The companies have to work together to build an AI-ready workplace. They should collaborate with the government, educators, and non-profit organizations and work together to bring out policies that could help understand the technologies’ impacts faster while also providing the employees some security. The economic and business planning should be made considerable for minimizing the impact on local jobs and properly maximizing the opportunities.
+The employees should be provided with proper tools to carry along with the new opportunities while acquiring AI-based skills for their day-to-day work. New skills should be identified and implemented for the upskilling and continual learning initiatives. Employees will have to maximize their Robotic Quotient and learn core skills. They’ll have to adapt to new working models and understand their roles in the coming future.
+Howsoever, it’s not like AI will totally take over control, even though AI proves to be a better choice, it still has its limitations at present. First, it’s expensive, secondly, manufacturing machines in bulk is not good for the environment. Machines are also very high maintenance, therefore human labor will often come cheaper and so will be considered over machines. Underdeveloped countries will find it hard to equip their people with the upskilling and reskilling required for AI workplace and so for AI to play a role in those countries, might take years. AI can also be risky and unethical, as it’s hard to figure out who to be held responsible for in cases where an AI went wrong.
+No matter, how advanced AI gets, there are some skills where humans will always have an upper hand i.e., soft skills. Skills like teamwork, communication, creativity, and critical thinking are something that AI hasn’t been able to beat us up to yet and so the value of creativity, leadership, and emotional intelligence has increased. Although, with machines coming in between humans causing the lack of human-to-human interaction, the humans seem to fade away a little.
+With this era, comes the need for good leaders. Leaders who are capable of handling both machines and humans together, the ones who are organized enough to manage the skilled and the unskilled employees while providing the unskilled trainees with proper training. Leaders who hold profound soft skills and encourage teamwork while working along with machines. The ones who are patient, calm, and optimized.
+In conclusion, yes AI and machines are going to be very challenging but there’s nothing humans haven’t overcome. Adaptation and up-gradation are going to be the primary factor for survival. As we witness the onset of the 4th industrial revolution, let’s buckle up our seats and race along the highway with the essential fuels (skills) so as to not let ourselves eliminated. After all, this is an unending race with infinity as the end, all we could do is try not to run out of fuel. Try not to be outdated.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Creation Taking Creator Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Human minds fascination carrying potential tinkering nature pixie dust intelligence creating solving mysteries wonders admiration matter captivating human mind appalled hunger unravel limitations pure greed Humans stopped evolving intelligence makes supreme Intelligence calls supremacy evolve opposed challenge human minds capabilities making question importance Artificial Intelligence revolution havoc concept making machines work granting machines Intelligence idea making machines work humans 19s people thing making thing work tasks mention surpass humans skills facts 1997 greatest chess Kasparov defeated chess game machine top skilled human lost mere machine created defeated betterment skills granted supremacy Machines tools Equipment helped unskilled mind intelligence creates skilled work perfection precision initially time passed humans drawn puzzle lot changed Human research deeper deeper result machines evolved present Machines growing develops improves part industrial revolution industries laborious work care humans replaced machines Naturally evolution machines precision mass productivity quality control time efficiencies factors made choice choice humans led fear fear future future machines evolved human employee leading unemployment population increase world tech threat labor market oppose threat adapting technology make millions people lose jobs lead mass unemployment machines surpass humans creation creator matter fearful future reality scary Truth present reality holds unlock level human evolution Technology growing time technology idea today idea implemented working carried stop advancement growth Artificial Intelligence wave flowing present generation generations learn learn swim flow avoid drowning jobs replaced machines evolves challenging human minds skills present COVID 19 situation contactless cashiers robots delivering packages usual routine tasks jobs Secretaries Schedulers risk Manufacturing units agriculture food services retail transportation logistic hospitality part automation estimation 20 jobs including manufacturing lost robots robotics 3D printing genetics make architects medical docs composers feel threatened technology Making question jobs terrifying machines replacing jobs creating jobs economic growth innovation investment 133 jobs generated newly enhanced jobs create benefits amplify creativity strategy entrepreneurial skills catch skills creating 3 times jobs destroying skills count surged job opportunities opportunities Senior Data Scientist Mobile Application Developer SEO specialist jobs jobs qualification skills acquire skills expensive task future generation struggle faced present generations vulnerability skill gap unemployment youths crushed advancement inevitable remains choice adapt learn equip companies work build workplace collaborate government educators organizations work bring policies understand technologies impacts faster providing employees security economic business planning made considerable minimizing impact local jobs properly maximizing opportunities employees provided proper tools opportunities acquiring skills work skills identified implemented upskilling continual learning initiatives Employees maximize Robotic Quotient learn skills adapt working models understand roles coming future Howsoever totally control proves choice limitations present expensive manufacturing machines bulk environment Machines maintenance human labor cheaper considered machines Underdeveloped countries find hard equip people upskilling reskilling required workplace play role countries years risky unethical hard figure responsible cases wrong matter advanced skills humans upper soft skills Skills teamwork communication creativity critical thinking beat creativity leadership emotional intelligence increased machines coming humans causing lack interaction humans fade leaders Leaders capable handling machines humans organized manage skilled unskilled employees providing unskilled trainees proper training Leaders hold profound soft skills encourage teamwork working machines patient calm optimized conclusion machines challenging humans overcome Adaptation primary factor survival witness onset 4th industrial revolution buckle seats highway essential fuels skills eliminated unending infinity end run fuel outdated provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>65</v>
+      </c>
+      <c r="G31" t="n">
+        <v>38</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.2621359197850882</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.1546546544224404</v>
+      </c>
+      <c r="J31" t="n">
+        <v>18.89411764705882</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.1793275217932752</v>
+      </c>
+      <c r="L31" t="n">
+        <v>7.62937806754084</v>
+      </c>
+      <c r="M31" t="n">
+        <v>22.02352941176471</v>
+      </c>
+      <c r="N31" t="n">
+        <v>877</v>
+      </c>
+      <c r="O31" t="n">
+        <v>288</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2817</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4.21764705882353</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>blackassign0031</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/what-jobs-will-robots-take-from-humans-in-the-future/</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>What Jobs Will Robots Take From Humans in The Future?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Introduction
+AI is rapidly evolving in the employment sector, particularly in matters involving business and finance. Finance, management, economics, and accounting are now among the most popular university courses globally; particularly at the graduate level, due to their high employability. However, the evolution of machinery in industries is changing that. According to research, 230,000 jobs in these sectors may be replaced by AI agents in the next 5 years. This is due to the nature of the work, as employees are responsible for tasks such as data analysis and keeping track of numerical information; which machines excel at. Large, complicated data sets can be analyzed faster and more efficiently by AI-powered computers than by people. Algorithmic trading procedures that produce automated deals are less likely to be produced without minute errors when undertaken by humans. In such matters involving industrial work, a subsection of artificial intelligence is used; namely, machine learning.
+Machine learning is a term used for the application of artificial intelligence (AI) in systems, which involves them assimilating and processing information by gaining experience. It is mainly concerned with the development of technology and computer programs.
+Its improvement process is mainly divided into seven steps; which start with the collection of data. This data can be collected from an internal database or perhaps an IoT structure. The second and most time-consuming step is cleaning, preparing, and rearranging the data; which involves the recognition of outliers, trends, and missing information so that the outcome is as accurate as possible. The third step consists of formatting data; which is useful if you source your information from a variety of sources. Step four is where AI comes into place. Self-service data processing tools may be useful if they provide intelligent services for matching data attributes from distinct databases and intelligently integrating them. The data is then arranged to better represent a specific pattern. Lastly, the data is divided into two sets: one for training the algorithm and one for analysis.
+There are three types of machine learning; supervised, unsupervised, and reinforcement learning. The most common of the bunch is supervised machine learning; which is based on accurately labeled data. The machine is given a collection of information, including the outcome of the operation. The rest of the information is referred to as ‘input features’, which ‘supervises’ the machine by guiding it to establish the connections between the variants.
+In the case of unsupervised learning, the machine isn’t given labeled sets of data to be divided into, allowing it to recognize and create its own patterns within the information provided. Since computers have the capabilities of identifying distinguished similarities, this method helps with the classifying of such data.
+Reinforcement learning comprises experience-based learning. Similar to people, they learn due to a reward and punishment system based on their actions.
+These variations of system learning have recently been integrated into business and finance, which is elaborated on in the following passages.
+Machine learning in finance and banking
+There are many ways in which machine learning is used in finance and banking. The most common place it is used is to detect any frauds. Fraud is the most common problem in financial service companies and it accounts for billions of dollars in misfortune each year. The most common frauds are credit or debit card usage by a stranger, document forgery, and mortgage fraud.
+Usually, finance companies keep an enormous amount of their data stored online, and it increases the risk of information being accessed without authorization. With expanding innovative headway, misrepresentation in the monetary business is currently viewed as a high danger to significant information. Fraud recognition frameworks in the past were planned dependent on a bunch of rules, which could be effortlessly be bypassed by current fraudsters. Therefore, most companies today leverage machine learning to combat fraudulent financial transactions.
+Machine learning works by looking over enormous informational indexes to distinguish unique or suspicious activities for additional examination by security groups. It works by looking at an exchange against other information focuses – like the client’s record history, IP address, area, and so forth.  Depending on the type of exchange taking place, the program can automatically refuse a withdrawal or purchase until the person makes a decision.
+Examples of fraud detection software used by banks include Feedzai, Data visor, and Teradata
+Machine learning is also used in algorithmic trading, portfolio management, loan underwriting, chatbots, and improving customer service.
+Algorithmic trading is an interaction for executing orders using computerized and pre-modified exchanging guidelines to represent factors like value, timing, and volume. An algorithm is a set of directions for solving a problem. Computer calculations send little parts of the full request to the market over the long run.
+In contrast to human dealers, algorithmic exchanging can investigate enormous volumes of information every day and therefore make thousands of trades every day. Machine learning settles on quick exchanging choices, which gives human traders a benefit over the market normal. Likewise, algorithmic exchanging doesn’t settle on exchanging choices dependent on feelings, which is a typical constraint among human dealers whose judgment might be influenced by feelings or individual desires. The exchanging technique is generally utilized by multifaceted investment administrators and monetary foundations to automate trading activities.
+In the banking industry, organizations access a large number of shopper information, with which machine learning can be prepared to work in order to simplify the underwriting process. Machine learning calculations can settle on speedy choices on endorsing and credit scoring, and save organizations both time and monetary assets that are utilized by people.
+Data scientists can train algorithms on how to analyze millions of consumer data to coordinate with information records, search for interesting special cases, and settle on a choice on whether a shopper meets all requirements for an advance or protection. For instance, the calculation can be prepared on the most proficient method to examine shopper information, like age, pay, occupation, and the buyer’s credit conduct.
+The benefits of machine learning
+As with any form of revolutionary technology, the usage of machine learning has been debated over as its beneficial properties have been weighed against the possible disadvantages. It’s been observed that upon correct usage, it may be used to solve a wide range of business challenges and anticipate complicated customer behavior. We’ve also seen several of the largest IT conglomerates, such as Google, Amazon, and Microsoft, introduce Cloud Machine Learning platforms.
+In terms of business, ML can aid businesses by identifying consumer’s demands and formulate a pattern based on them; allowing companies to reach out to such consumers and maximize their sales. It eliminates the need for expenses on some maintenance by reducing the risks associated with unexpected breakdowns and minimizes wasteful costs to the firms.  Historical data, a process visualization tool, a flexible analytical environment, and a feedback loop may all be used to build an ML architecture. The input of data is another agitating chore for businesses in the present, which is where machine learning can step in for manual labor. This eradicates the possibility of errors caused by manual labor causing disruptions and provides employees with extra time to handle other tasks.
+In the financial sector, machine learning is already utilized for portfolio management, algorithmic trading, loan underwriting, and fraud detection. Chatbots and other conversational interfaces for security, customer support, and sentiment analysis will be among the future uses of ML in banking. Another aspect of business involving artificial intelligence includes image recognition, which entails a system or program that recognizes objects, people, places, and movements in photos. It identifies photographs using an imaging system and machine recognition tech with artificial intelligence and programmed algorithms.
+The downfalls of machine learning
+With all the benefits of its advancement, machine learning isn’t the most perfect thing. There are several disadvantages which are information acquisition, time and resources and high errors, and wrong interpretations. One of the major hurdles is the amount of finance needed to invest in machine learning for it to be a successful project. More issues have to do with the fact that AI requires gigantic informational indexes to train on, and these ought to be unbiased, and of good quality. There can likewise be times where they have to wait for that new information to be produced. Machine learning needs sufficient opportunity to do the calculations to learn and adequately to satisfy their accuracy and relevancy. It also needs huge resources to work. This can mean extra requirements for the computer to work. Another significant problem is the capacity to precisely decipher the results produced by the calculations. You should likewise cautiously pick the algorithms to get the wanted results.
+Conclusion
+There have been various reports in the past and current years which claim that a significant piece of the human labor force will be replaced via robots and machines in the years to come. With excessive innovative work being led in the field of computerized reasoning, many dread that a significant job crisis will unfurl since numerous positions are all the more precisely and productively performed with the use of machines. In countries like Japan, mainly computer programs and AI is used in the secondary and tertiary sectors. From cleaning the house to depositing money in banks, everything is done by AI. However, AI cannot replace humans in the future. Humans have several capabilities which, even after several technological advancements a machine would not be able to have. These capabilities include creative thinking and creative problem solving, and human connection. For example, when a child goes to a doctor to get an injection, a nurse always relaxes the child to not be afraid of the needle. A machine’s touch would not be able to soothe a child. Another example could be how humans tend to share things with each other and be open about it, a machine will not be able to do so since it is only programmed to things it has been told to do. Like computers, AI will not replace us but would however complement us to make daily work easier and less time-consuming. Without humans themselves, there is no future for AI.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Jobs Robots Humans Future Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Introduction rapidly evolving employment sector matters involving business finance Finance management economics accounting popular university courses globally graduate level due employability evolution machinery industries changing research jobs sectors replaced agents 5 years due nature work employees responsible tasks data analysis keeping track numerical information machines excel complicated data sets analyzed faster efficiently computers people Algorithmic trading procedures produce automated deals produced minute errors undertaken humans matters involving industrial work subsection artificial intelligence machine learning Machine learning term application artificial intelligence systems involves assimilating processing information gaining experience concerned development technology computer programs improvement process divided steps start collection data data collected internal database IoT structure step cleaning preparing rearranging data involves recognition outliers trends missing information outcome accurate step consists formatting data source information variety sources Step data processing tools provide intelligent services matching data attributes distinct databases intelligently integrating data arranged represent specific pattern Lastly data divided sets training algorithm analysis types machine learning supervised unsupervised reinforcement learning common supervised machine learning based accurately labeled data machine collection information including outcome operation rest information referred input features supervises machine guiding establish connections variants unsupervised learning machine labeled sets data divided allowing recognize create patterns information provided computers capabilities identifying distinguished similarities method helps classifying data Reinforcement learning comprises learning Similar people learn due reward punishment system based actions variations system learning recently integrated business finance elaborated passages Machine learning finance banking ways machine learning finance banking common detect frauds Fraud common problem financial service companies accounts billions dollars misfortune common frauds credit debit usage stranger document forgery mortgage fraud finance companies enormous amount data stored online increases risk information accessed authorization expanding innovative headway misrepresentation monetary business viewed danger significant information Fraud recognition frameworks past planned dependent rules effortlessly bypassed current fraudsters companies today leverage machine learning combat fraudulent financial transactions Machine learning works enormous informational indexes distinguish unique suspicious activities additional examination security groups works exchange information focuses client record history IP address area Depending type exchange taking program automatically refuse withdrawal purchase makes decision Examples fraud detection software include Feedzai Data visor Teradata Machine learning algorithmic trading portfolio management underwriting chatbots improving customer service Algorithmic trading interaction executing orders computerized exchanging guidelines represent factors timing volume algorithm set directions solving problem Computer calculations send parts full request market run contrast human dealers algorithmic exchanging investigate enormous volumes information make thousands trades Machine learning exchanging choices human traders benefit market normal Likewise algorithmic exchanging exchanging choices dependent feelings typical constraint human dealers judgment influenced feelings individual desires exchanging technique generally utilized multifaceted investment administrators monetary foundations automate trading activities banking industry organizations access number shopper information machine learning prepared work order simplify underwriting process Machine learning calculations speedy choices endorsing credit scoring save organizations time monetary assets utilized people Data scientists train algorithms analyze millions consumer data coordinate information records search interesting special cases choice shopper meets requirements advance protection instance calculation prepared proficient method examine shopper information age pay occupation buyer credit conduct benefits machine learning form revolutionary technology usage machine learning debated beneficial properties weighed disadvantages observed correct usage solve wide business challenges anticipate complicated customer behavior largest conglomerates Google Amazon Microsoft introduce Machine Learning platforms terms business ML aid businesses identifying consumer demands formulate pattern based allowing companies reach consumers maximize eliminates expenses maintenance reducing risks unexpected breakdowns minimizes wasteful costs firms Historical data process visualization tool flexible analytical environment feedback loop build ML architecture input data agitating chore businesses present machine learning step labor eradicates possibility errors caused labor causing disruptions employees extra time handle tasks financial sector machine learning utilized portfolio management algorithmic trading underwriting fraud detection Chatbots conversational interfaces security customer support sentiment analysis future ML banking aspect business involving artificial intelligence includes image recognition entails system program recognizes objects people places movements photos identifies photographs imaging system machine recognition tech artificial intelligence programmed algorithms downfalls machine learning benefits advancement machine learning perfect thing disadvantages information acquisition time resources errors wrong interpretations hurdles amount finance needed invest machine learning successful project issues fact requires gigantic informational indexes train unbiased quality likewise times wait information produced Machine learning sufficient opportunity calculations learn adequately satisfy accuracy relevancy huge resources work extra requirements computer work significant problem capacity precisely decipher results produced calculations likewise cautiously pick algorithms wanted results Conclusion reports past current years claim significant piece human labor force replaced robots machines years excessive innovative work led computerized reasoning dread significant job crisis unfurl numerous positions precisely productively performed machines countries computer programs secondary tertiary sectors cleaning depositing replace humans future Humans capabilities technological advancements machine capabilities include creative thinking creative problem solving human connection injection nurse relaxes afraid needle machine touch soothe humans tend share things open machine programmed things told computers replace complement make work easier humans future provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>71</v>
+      </c>
+      <c r="G32" t="n">
+        <v>36</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.3271028006812822</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.1146838155255265</v>
+      </c>
+      <c r="J32" t="n">
+        <v>20.98888888888889</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.2609846479618846</v>
+      </c>
+      <c r="L32" t="n">
+        <v>8.499949414740309</v>
+      </c>
+      <c r="M32" t="n">
+        <v>23.81111111111111</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1123</v>
+      </c>
+      <c r="O32" t="n">
+        <v>493</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3658</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4.795051353874883</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>blackassign0032</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/will-machine-replace-the-human-in-the-future-of-work/</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Will Machine Replace The Human in the Future of Work?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+“Anything that could give rise to smarter-than-human intelligence – in the form of Artificial Intelligence, brain-computer interfaces, or neuroscience-based human intelligence enhancement – wins hands down beyond contest as doing the most to change the world. Nothing else is even in the same league.”
+–Eliezer Yudkowsky, AI Researcher
+There’s no denying robots and automation are increasingly part of our daily lives. Just look around the grocery store, or the highway, they are everywhere. This makes us wonder what if AI can replace human intelligence? What can we do to make ourselves relevant tomorrow? Let us try to find the answers to all these questions and more.
+Let’s first understand what is Artificial Intelligence –
+Artificial Intelligenceor AI basically machines displaying intelligence. This can be seen from a machine playing chess or a robot answering questions on Facebook. Artificial Intelligence can be further broken down into many different types. There are AIs designed to do specific tasks, such as detecting a specific type of cancer. However, there are also AIs that can do multiple tasks, such as driving a car. There are many types of AIs. Among the top, most important fields are Machine Learning or ML, Neural Network, Computer Vision, and Natural Language Processing or NLP.
+Machine Learningis the idea of machines being able to prove themselves similar to how a human being learns a new skill. Machine Learning also allows for the optimization of an existing skill. Machine Learning is used in many different fields and one such application is entertainment. Netflix uses Machine Learning to recommend more shows that you can watch based on the shows that you have already seen.
+Neural Networksare algorithms that are modeled after the human brain. These algorithms think just like we do which can thereby give similar results to what a human being can give. Artificial Neural Networks are used in medical fields to diagnose cancers like lung cancer and prostate cancer.
+Computer Visionis the idea that computers have visions. This allows them to see things the way human beings do or potentially better than human beings do, depending on the programming, camera used, etc. Computer Vision is used in autonomous vehicles for navigation from one place to another.
+Natural Language Processingis the idea that computers can listen to what we say. An example of this isSiri. Siri is able to listen to our demands, process what it means, and provide you an answer based on what is researched.
+Now that we know what an AI is and what it can do, Let’s talk about the issue.
+AIs allow for the automation of jobs, thereby replacing what humans already do. This means more job loss and the concentration of wealth to the selected few people. This could mean a destabilization of society and social unrest. In addition to social unrest, AI improves over time. This means it becomes smarter, faster, and cheaper to implement and it will be better at doing repetitive things that humans currently do, such as preparing fast food. It is predicted that AI will improve so much over 50 to 100 years that AI will become super intelligent. This means that it will become even smarter than the most intelligent human on earth. According to many experts such as Elon Musk, this could cause the end of human civilization. AI could potentially start a war against humans, burn crops and do all sorts of tragedies once reserved for human functions. At that point, in theory, we can not stop it because AI would have already thought of all the obstacles that will prevent its goal. This means that we cannot unplug the machine, in effect AI will replace human intelligence.
+But, will this happen in next 10 to 30 years?
+NO! The field of Artificial Intelligence is sophisticated enough to do many human tasks that humans currently do. Currently, AI is not smart enough to be empathetic to humans and cannot think strategically enough to solve complex problems. AI solutions can be expensive and have to go through many different tests and standards to implement. It also takes time for AI to improve. For example, Boston Dynamics, one of the world’s top robotics company had a robot in 2009 that needed assistance to walk. Fast forward to 2019, not only the robot could walk by itself but it could jump over objects, do backflips and so much more. In addition to the timing, it takes time for the price of any new technological solution to drop to a point where it is affordable. For example, a desktop computer costs around $1000 in 1999 but now you can get a significantly more powerful laptop for the exact same price. AI will go through the same curve.
+But what happens after those 10 to 30 years? Will AI make human intelligence obsolete? Maybe. As we have proven earlier AI will become faster better and cheaper. As this happens, more and more companies will use AI technology to automate more and more jobs to save money, increase productivity, and most importantly, stay competitive. As we have demonstrated, AI will become better through repetition via the use of machine learning. The only difference is that AI will be able to learn faster as time progresses due to the amount of data that is available today. It will also be able to learn from other machines or similar machines to learn how to optimize its tasks or new important skills. However, AI also just not do repetitive and routine tasks better, it will also be able to understand emotional intelligence, ethics, and creativity. This seen in three distinct example-IBM
+IBM uses its IBM Watson to program the AI to create a movie trailer. Fox approached IBM and said they have a movie coming out on AI #Scifi horror. They asked IBM if their platform IBM Watson could a trailer by reviewing and watching the footage and searching for scary,
+Sad or happy or other moments in the movie that provoked quality emotions based on how the machine was programmed to identify such emotions in a quantifiable manner. IBM Watson was able to generate a trailer for the movie Morgan. The result, a movie trailer created by machines example – Google
+IN 2018 google demonstrated an AI assistance that could take calls and do simple stuff. The AI was able to set up an appointment! What was more fascinating was that it was able to understand the nuances of the conversation. The receptionist thought it was a human being that was calling her. That is a very primitive version of what is possible with this technology. Eventually, it will be able to have conversations just as human beings do, making many sales jobs obsolete. example – AI generated art
+In 2018, a Paris art collective consisting of three students used artificial intelligence to generate a portrait. It generated the portrait painting by studying a set of fifteen thousand art images on wiki art. It was estimated to be worth between seven thousand to ten thousand dollars. The painting sold at an auction for four thirty-five thousand US dollars.
+However, we cannot for sure say that AI will replace human intelligence. This is because we as a society have started asking hard questions and questioning ethics. Elon Musk founded Open AI, a research lab whose whole purpose is to promote and discover artificial intelligence in a way to benefits humanity. In addition to this, there are many factors that affect the long-term outcome of AI replacing human intelligence. Like, to what degree will other humans allow for AI to take over? Depending on the field, do people even want Artificial Intelligence to help them? Or will they prefer a human counterpart? While we may not be able to control what happens in the long run, we can definitely secure our short-term future.
+Strategic and creative thinking
+The ability to think outside the box is very human. There are thousands upon thousands of slightly different possible outcomes that may result from every distinguishable action that the human mind with its ability to judge from experience is programmed for these purposes in a far more sophisticated manner than AI can currently achieve. As the billionaire founder of Alibaba, Jack Ma famously said – “AI has logic, human beings have wisdom”.
+Conflict resolution and negotiations
+With our understanding of the complexities of human-related processes and our ability to improvise and judge, we are far better equipped to deal with conflicts than robots are ever likely to be.
+AI may be able to recognize faces and images but it can rarely successfully read the feelings of those faces. Humans, to lesser or greater degrees, are capable of an accurate analysis of emotional subtext. With the application of intuition and the use of delicately worded or elusive languages, through these methods, we are able to properly judge how a personfeels.
+Interpretation of Gray Areas
+Robots and computers function well when presented with quantifiable data. However, once the situation enters a gray area, whether this term refers to morals, processes, or definitions robots are more likely to falter.
+Critical thinking
+Humans are capable of responding to more indicators of quality than computers are. While an AI system may be able to analyze documents according to the true or false statements made within the text, we can judge whether or not it is well written and analyze the implication of the use of certain words and the overall meaning of the content.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Machine Replace Human Future Work Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist give rise intelligence form Artificial Intelligence interfaces human intelligence enhancement wins hands contest change world Yudkowsky Researcher denying robots automation increasingly part lives grocery store highway makes replace human intelligence make relevant tomorrow find answers questions understand Artificial Intelligence Artificial Intelligenceor basically machines displaying intelligence machine playing chess robot answering questions Facebook Artificial Intelligence broken types AIs designed specific tasks detecting specific type cancer AIs multiple tasks driving car types AIs top important Machine Learning ML Neural Network Computer Vision Natural Language Processing NLP Machine Learningis idea machines prove similar human learns skill Machine Learning optimization existing skill Machine Learning application entertainment Netflix Machine Learning recommend shows watch based shows Neural Networksare algorithms modeled human algorithms give similar results human give Artificial Neural Networks medical diagnose cancers lung cancer prostate cancer Computer Visionis idea computers visions things human beings potentially human beings depending programming camera Computer Vision autonomous vehicles navigation Natural Language Processingis idea computers listen isSiri Siri listen demands process provide answer based researched talk issue AIs automation jobs replacing humans job loss concentration wealth selected people destabilization society social unrest addition social unrest improves time smarter faster cheaper implement repetitive things humans preparing food predicted improve 50 100 years super intelligent smarter intelligent human earth experts Elon Musk end human civilization potentially start war humans burn crops sorts tragedies reserved human functions point theory stop thought obstacles prevent goal unplug machine effect replace human intelligence happen 10 30 years Artificial Intelligence sophisticated human tasks humans empathetic humans strategically solve complex problems solutions expensive tests standards implement takes time improve Dynamics world top robotics company robot 2009 needed assistance walk forward 2019 robot walk jump objects backflips addition timing takes time technological solution drop point affordable desktop computer costs 1000 1999 significantly powerful laptop exact curve 10 30 years make human intelligence obsolete proven earlier faster cheaper companies technology automate jobs save increase productivity importantly stay competitive demonstrated repetition machine learning difference learn faster time progresses due amount data today learn machines similar machines learn optimize tasks important skills repetitive routine tasks understand emotional intelligence ethics creativity distinct IBM IBM program create movie trailer approached IBM movie coming Scifi horror asked IBM platform IBM trailer reviewing watching footage searching scary Sad happy moments movie provoked quality emotions based machine programmed identify emotions quantifiable manner IBM generate trailer movie result movie trailer created machines Google 2018 google demonstrated assistance calls simple stuff set appointment fascinating understand nuances conversation receptionist thought human calling primitive version technology Eventually conversations human beings making jobs obsolete generated 2018 collective consisting students artificial intelligence generate portrait generated portrait painting studying set images wiki estimated dollars painting sold auction dollars replace human intelligence society started hard questions questioning ethics Elon Musk founded Open research lab purpose promote discover artificial intelligence benefits humanity addition factors affect outcome replacing human intelligence degree humans Depending people Artificial Intelligence prefer human counterpart control run secure future Strategic creative thinking ability human thousands thousands slightly outcomes result distinguishable action human mind ability experience programmed purposes sophisticated manner achieve billionaire founder Alibaba famously logic human beings Conflict resolution negotiations understanding complexities processes ability improvise equipped conflicts robots recognize faces images rarely successfully feelings faces Humans lesser greater degrees capable accurate analysis emotional subtext application intuition delicately worded elusive languages methods properly personfeels Interpretation Areas Robots computers function presented quantifiable data situation enters area term refers morals processes definitions robots falter Critical thinking Humans capable responding indicators quality computers system analyze documents false statements made text written analyze implication words meaning content provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>65</v>
+      </c>
+      <c r="G33" t="n">
+        <v>28</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.3978494580876403</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.1279229709382077</v>
+      </c>
+      <c r="J33" t="n">
+        <v>18.28865979381443</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1956031567080045</v>
+      </c>
+      <c r="L33" t="n">
+        <v>7.393705180208975</v>
+      </c>
+      <c r="M33" t="n">
+        <v>20.61855670103093</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1004</v>
+      </c>
+      <c r="O33" t="n">
+        <v>347</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3191</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>16</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4.383191595797899</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>blackassign0033</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/will-ai-replace-us-or-work-with-us/</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Will AI Replace Us or Work With Us?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+“Machine intelligence is the last invention that humanity will ever need to make”
+Nick Bostrom
+To put it frankly, Artificial Intelligence will eventually replace jobs. Workers in a variety of industries, from healthcare to agriculture and manufacturing, should expect to witness hiring disruptions as a result of Artificial Intelligence.
+If history has taught us anything, it is that disruptive paradigm-shifting business ideas not only make a fortune for the innovators, but they also build the groundwork for new business models, market entrants, and job opportunities which will inevitably follow. It is true that robots today or in future will eventually replace humans for many jobs, but so did innovative farming equipment for humans and horses during the industrial revolution. But that does not mean that our jobs as humans will end here. We, on the other hand, will be required to generate and provide value in whole new ways for entirely new business models as a result of these changes.
+According to 71% of the businesses worldwide, Artificial Intelligence can help people overcome critical and challenging problems and live better lives. Artificial Intelligence consultants at work will be more or equally fair, according to a whopping 83% of corporate leaders. These results demonstrate that Artificial Intelligence is steadily extending its measures, yielding societal benefits and allowing citizens to live more fulfilling lives.
+Since the advent of Industry 4.0, businesses are moving at a fast pace towards automation, be it any type of industry. In 2013, researchers at oxford university did a study on the future of work. They concluded that almost one in every two jobs have a high risk of being automated by machines. Machine learning is responsible for this disruption. It is the most powerful branch of artificial intelligence. It allows machines to learn from data and mimic some of the things that humans can do.
+A research was conducted by the employees of Kaggle wherein an algorithm was to be created to take images of a human eye and diagnose an eye disease known as diabetic retinopathy. Here, the winning algorithm could match the diagnosis given by human ophthalmologists. Another study was conducted wherein an algorithm should be created to grade high school essays. Here too, the winning algorithm could match the grade given by human teachers.
+Thus, we can safely conclude that given the right data, machines can easily outperform human beings in tasks like these. A teacher might read 10,000 essays over a 40-year career; an ophthalmologist might see 50,000 eyes but a machine can read a million essays and see a million eyes within minutes.
+Thus, it is convenient to conclude that we have no chance of competing with machines on frequent, high volume tasks.
+Tasks where machines don’t work
+But there are tasks where human beings have an upper hand, and that is, in novel tasks. Machines can’t handle things they haven’t seen many times before. The fundamental rule of machine learning is that it learns from large volumes of past data. But humans don’t; we have the ability of seemingly connecting disparate threads to solve problems we haven’t seen before.
+Percy Spencer was a physicist working on radar during world war 2 where he noticed that the magnetron was melting his chocolate bar. Here, he was able to connect his understanding of electromagnetic radiation with his knowledge of cooking in order to invent the microwave oven. Now this sort of cross pollination happens to each one of us several times in a day. Thus, machines cannot compete with us when it comes to tackling novel situations.
+Now as we all know that around 92% of talented professionals believe that soft skills such as human interactions and fostering relationships matter much more than hard skills in being successful in managing a workplace. Perhaps, these are the kind of tasks that machines can never compete with humans at.
+Also, creative tasks: the copy behind a marketing campaign needs to grab customers’ attention and will have to stand out of the crowd. Business strategy means finding gaps in the market and accordingly working on them. Since machines cannot outperform humans in novel tasks, it will be humans who would be creating these campaigns and strategies.
+Human contact would be essential in care-giving and educational-related work responsibilities, and technology would take a backseat. Health screenings and customer service face-to-face communication would advocate for human contact, with Artificial Intelligence playing a supporting role.
+So, what does this mean for the future of work? The future state of any single job lies in the answer to one single question: to what extent is the job reducible to tackling frequent high-volume tasks and to what extent does it involve tackling novel situations?
+Today machines diagnose diseases and grade exam papers, over the coming years they’re going to conduct audits, they’re going to read boilerplate from legal contracts. But does that mean we’re not going to be needing accountants and lawyers? Wrong. We’re still going to need them for complex tax structuring, for path breaking litigation. It will only get tougher to get these jobs as machine learning will shrink their ranks.
+Amazon has recruited more than 100,000 robots in its warehouses to help move goods and products around more effectively, and its warehouse workforce has expanded by more than 80,000 people. Humans pick and pack goods (Amazon has over 480,000,000 products on its “shelves”), while robots move orders throughout the enormous warehouses, therefore reducing “the amount of walking required of workers, making Amazon pickers more efficient and less exhausted.” Furthermore, because Amazon no longer requires aisle space for humans, the robots enable Amazon to pack shelves together like cars in rush-hour traffic.” More inventory under one roof offers better selection for customers, and a higher density of shelf space equals more inventory under one roof.
+Kodak, once an undisputed giant of the photography industry, had a 90% share in the USA market in 1976, and by 1984, they were employing 1,45,000 people. But in the year 2012, they had a net worth of negative $1 billion and they had to declare bankruptcy. Why? Because they failed to predict the importance of exponential trends when it comes to technology. On the other hand, Instagram, a digital photography company started in 2012 with 13 employees and later they were sold to Facebook for $1 billion. This is so ironic because Kodak pioneered digital photography and actually invented the first digital camera but unfortunately thought of it as a mere product and didn’t pay attention towards it and this created the problem.
+We live in an era of artificial intelligence (AI), which has given us tremendous computing power, storage space, and information access. We were given the spinning wheel in the first, electricity in the second, and computers in the third industrial revolution by the exponential growth of technology.
+Airbnb, which is a giant start-up and is known for enabling homeowners to rent out their homes and couches to travellers, for example, “is now creating a new Artificial Intelligence system that will empower its designers and product engineers to literally take ideas from the drawing board and convert them into actual products almost instantly.” This might be a significant breakthrough whether you’re a designer, engineer, or other type of technologist.
+Differences that Automation brings onto the table:
+There are three key changes that automation can bring about at the macro level:
+Artificial Intelligence isn’t just a fad. Tractica, a market research firm, published a report in 2016 that predicted “annual global revenue for artificial intelligence products and services will expand from 643.7 million in 2016 to $36.8 billion by 2025, a 57-fold increase over that time span.” As a result, it is the IT industry’s fastest-growing segment of any size.”
+The reduction in need for people as a result of Artificial Intelligence and related technologies, which resulted in job layoffs, was a cause of fear. In India alone, job losses in the IT sector have reportedly reached 1,000 in the last year, owing to the integration of new and advanced technologies like artificial intelligence and machine learning.
+Most of the IT companies such as Infosys, Wipro, TCS, and Cognizant have reduced their employee base in India and are recruiting less, while engaging more personnel in the United States and investing heavily in “centres of innovation.” Artificial Intelligence and data science, which are currently the trending aspects that require fewer people and are primarily located abroad, aren’t helping the prospects of local employees. Another factor is that the computer industry is continuously growing and would develop to a size of two million workers. Unfortunately, it’s a drop in the bucket compared to what robots are doing to Information Technology’s less-skilled brothers.
+Large e-commerce sites that used to be operated by armies of people are now manned by 200 robots produced by GreyOrange, which is an Indian company based out in Gurgaon. These indefatigable robots lift and stack boxes 24 hours a day, with only a 30-minute break for recharging, and have cut employees by up to 80%. For efficiency, this is a victory but a disaster for job prospects.
+Internal re-skilling and redeployment of staff is a critical requirement of the hour. Artificial intelligence has presented Indian policymakers with epistemological, scientific, and ethical issues. This requires us to abandon regular, linear, and non-disruptive mental patterns. The tale of artificial intelligence’s influence on individuals and their occupations will only be told over time. It is up to us to upskill ourselves and look for ways to stay current with the industry’s current trends and demands.
+So, will machines be able to take over many of our jobs? The answer is a resounding yes. However, for every job that is taken over by robots, there will be an equal number of positions available for people to do. Some of these human vocations will be artistic in nature. Others will necessitate humans honing superhuman cognitive abilities. Humans and machines can form symbiotic relationships, assisting each other in doing what they do best. In the future, people and machines may be able to collaborate and work together towards a common goal for any business they work for.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Replace Work Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Machine intelligence invention humanity make Bostrom put frankly Artificial Intelligence eventually replace jobs Workers variety industries healthcare agriculture manufacturing expect witness hiring disruptions result Artificial Intelligence history taught disruptive business ideas make innovators build groundwork business models market entrants job opportunities inevitably follow robots today future eventually replace humans jobs innovative farming equipment humans horses industrial revolution jobs humans end required generate provide ways business models result 71 businesses worldwide Artificial Intelligence people overcome critical challenging problems live lives Artificial Intelligence consultants work equally whopping 83 corporate leaders results demonstrate Artificial Intelligence steadily extending measures yielding societal benefits allowing citizens live fulfilling lives advent Industry businesses moving automation type industry 2013 researchers university study future work concluded jobs risk automated machines Machine learning responsible disruption powerful artificial intelligence machines learn data mimic things humans research conducted employees Kaggle algorithm created images human eye diagnose eye disease diabetic retinopathy winning algorithm match diagnosis human ophthalmologists study conducted algorithm created grade school essays winning algorithm match grade human teachers safely conclude data machines easily outperform human beings tasks teacher essays career ophthalmologist eyes machine essays eyes minutes convenient conclude competing machines frequent volume tasks Tasks machines work tasks human beings upper tasks Machines handle things times fundamental machine learning learns volumes past data humans ability seemingly connecting disparate threads solve problems physicist working radar world war 2 noticed magnetron melting chocolate bar connect understanding electromagnetic radiation knowledge cooking order invent microwave oven sort pollination times machines compete tackling situations 92 talented professionals soft skills human interactions fostering relationships matter hard skills successful managing workplace kind tasks machines compete humans creative tasks copy marketing campaign grab customers attention stand crowd Business strategy finding gaps market working machines outperform humans tasks humans creating campaigns strategies Human contact essential work responsibilities technology backseat Health screenings customer service communication advocate human contact Artificial Intelligence playing supporting role future work future single job lies answer single question extent job reducible tackling frequent tasks extent involve tackling situations Today machines diagnose diseases grade exam papers coming years conduct audits boilerplate legal contracts needing accountants lawyers Wrong complex tax structuring path breaking litigation tougher jobs machine learning shrink ranks Amazon recruited robots warehouses move goods products effectively warehouse workforce expanded people Humans pick goods Amazon products shelves robots move orders enormous warehouses reducing amount walking required workers making Amazon pickers efficient Amazon longer requires aisle space humans robots enable Amazon shelves cars inventory offers selection customers higher density shelf space equals inventory Kodak undisputed giant photography industry 90 share market 1976 1984 employing people 2012 net negative 1 declare bankruptcy failed predict importance exponential trends technology Instagram digital photography company started 2012 13 employees sold Facebook 1 ironic Kodak pioneered digital photography invented digital camera thought mere product pay attention created problem live artificial intelligence tremendous computing storage space information access spinning wheel electricity computers industrial revolution exponential growth technology Airbnb giant enabling homeowners rent homes couches travellers creating Artificial Intelligence system empower designers product engineers literally ideas drawing convert actual products significant breakthrough designer engineer type technologist Differences Automation brings table automation bring macro level Artificial Intelligence fad Tractica market research firm published report 2016 predicted global revenue artificial intelligence products services expand 2016 2025 increase time result industry segment reduction people result Artificial Intelligence related technologies resulted job layoffs fear job losses sector reportedly reached owing integration advanced technologies artificial intelligence machine learning companies Infosys Wipro TCS Cognizant reduced employee base recruiting engaging personnel United States investing heavily centres Artificial Intelligence data science trending aspects require fewer people primarily located abroad helping prospects local employees factor computer industry continuously growing develop size workers drop bucket compared robots Information Technology operated armies people manned 200 robots produced GreyOrange company based Gurgaon indefatigable robots lift boxes 24 hours break recharging cut employees 80 efficiency victory disaster job prospects Internal redeployment staff critical requirement hour Artificial intelligence presented policymakers epistemological scientific ethical issues requires abandon regular linear mental patterns tale artificial intelligence influence individuals occupations told time upskill ways stay current industry current trends demands machines jobs answer resounding job robots equal number positions people human vocations artistic nature necessitate humans honing superhuman cognitive abilities Humans machines form symbiotic relationships assisting future people machines collaborate work common goal business work provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>61</v>
+      </c>
+      <c r="G34" t="n">
+        <v>24</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.4352941125259516</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.1005917158572879</v>
+      </c>
+      <c r="J34" t="n">
+        <v>22.92682926829268</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.2101063829787234</v>
+      </c>
+      <c r="L34" t="n">
+        <v>9.254774260508562</v>
+      </c>
+      <c r="M34" t="n">
+        <v>26.41463414634146</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1064</v>
+      </c>
+      <c r="O34" t="n">
+        <v>395</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3478</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>11</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4.417551963048499</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>blackassign0034</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/man-and-machines-together-machines-are-more-diligent-than-humans-blackcoffe/</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Will machine replace the human in the future of work?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Where is this disruptive technology taking us? Take it or leave it, disruptive technology always creates new jobs much more than depleted jobs. You might notice certain jobs disappearing but those jobs are the jobs that transform humans to robots, to machines, and the technology is creating machines to replace them.  Technology creates the data analysis tools to manipulate and create custom scenarios using artificial intelligence (AI), Big Data and Machine Learning (ML) algorithms to predict and drive consumer behavior. Data Analytics tools, such as Google Analytics , and others are available today for free, and, if used correctly, can help organizations save millions, maybe billions of dollars of sales and marketing.
+Before I go on, I think it’s best to level set on what constitutesmachines. In the context of this article , machines describe computers and computerized equipment, like robots, that have been programmed to learn, sometimes like humans. Occasionally we call this Artificial Intelligence (AI), other times we call this machine learning, and still other times we call this robotics. And yes, these are technically different things. These bots are more efficient than humans in some specific domains and are growing smarter with each passing day. They can do some really tough tasks which are considered difficult for any human being.  But, within the broad discussion related to the future of work, these are totally interrelated. Factory floors deploy robots that are increasingly driven by machine learning algorithms such that they can adjust to people working alongside them. A machine can work efficiently only it has abundant data and information about the work which is being imparted daily to them. But with every forward step &amp; advancement in technology, a threat is proliferating, a threat of being replaced on our work front. Every passing day is sealing some jobs for humans all over the globe. Similarly, AI is being used to turn hand-drawn sketches (done by humans) into digital source code.
+Companies are clearly developing their AI and robotics expertise with the idea that through these technological innovations they’ll be able to
+Of course, it’s not just machines and creatives working together either. In another example, Amazon has employed more than 100,000 robots in its warehouses to efficiently move things around while it has increased its warehouse workforce by more than 80,000. Humans, in Amazon’s case, do the picking and packing of goods while robots move orders around the giant warehouses, essentially cutting “down on the walking required of workers, making Amazon pickers more efficient and less tired.” Plus, the robots “allow Amazon to pack shelves together like cars in rush-hour traffic because they no longer need aisle space for humans. The greater density of shelf space means more inventory under one roof, which means better selection for customers.”
+During the next few decades (or maybe sooner), the notion of work and whether it is handled by a human or a virtual being will hinge on predictability. As they are starting to do today, machines will manage the routine while humans take on the unpredictable – tasks that require creativity, problem-solving, and flexibility. In this context, robotics should be seen not only as a means to improve operations efficiency but also to improve the quality of life for workers.
+Although it is obvious that human factors involved in a work activity impact job automation, it is also true that highly repetitive tasks—and even mechanical ones—are ideal for robots. Besides greater efficiency and speed, automation leads to a lower risk of accidents, greater control and autonomy, and above all, fewer costs for organizations.
+Although artificial intelligence and machine learning make us believe that robots are endowed with superior intelligence, in fact they don’t yet have the ability to learn from experience and to respond to unknowns. So as things stand, however much processing speed and automatic learning a robot has, it doesn’t beat factors innate to the human brain. Humans are still a very essential part of the process. Think about delivering services to a client. Most customer challenges are routine, but humans play a very important role in addressing new issues, solving them the first time they appear, and then consolidating the process into the system.
+While machines and humans are placed in proximity,  robots can be expensive, but this doesn’t apply to all types, especially those based on Robotic Process Automation (RPA), where the development process incorporates algorithms that significantly reduce costs.
+Moreover, think of how domestic robots—be it a vacuum cleaner, a lawn mower or a pool cleaner—are increasingly part of our daily lives. This level of consumption that robotics has attained makes it affordable to automate tasks in modern homes to obtain greater control, security and comfort.
+The division between humans and machines has been clear – I’m here, the machine is there – but that boundary is getting fuzzier. Smart prosthetics fuse seamlessly with our bodies, making up for lost limbs or providing additional strength, stability, or resilience, as seen in exoskeletons donned by assembly line workers.
+We use our smartphones symbiotically, but what if they were integrated directly into our bodies? Think a smartphone in the form of a contact lens capable of transparently delivering augmented reality images straight to the brain. Think it sounds like science fiction? Think again. The first prototypes have already been built.
+Soon, brain-computer interfaces could become seamless as well, creating a new synergistic relationship between the cloud and us. At that point, the question of who knows what would be moot; you ask me a question and I know the answer. Sometimes that answer will be stored in my own neural circuitry, but most of the time it would come from the connection of my neurons to the web. Our brain’s decision process is influenced by the way it has been “educated” by the cultural context. These external factors are influencing our decision processes to the point that in certain situations, we can legitimately claim that influence has been so strong that our brains can’t be held accountable for the choices made. The point I’m trying to make is that we humans are in symbiosis with our cultural environment and the tools – both physical and conceptual – that we have been taught to use. My guess is that the transformation will be subtle.
+Practically speaking, robots growing to the point that they take over the world and then start creating smarter, better robots are impractical and should not even be a concern. None of this is expected in the near future, not by a long shot. If you’ve been to an ATM, waited for a PC to boot up after a catastrophic failure, or had a game crash on your X box just when you were about to reach a checkpoint, you understand that we are not in a world where machines do everything perfectly right. Before they can take over all of our jobs, they need to be able to do theirs’ flawlessly; until then, we can depend on humans to mess up our lives.
+This isn’t a win-or-lose situation. We’re going to wind up as a partner to our smarter machines, and that partnership will be fostered by our augmentation through technology. Machines will play an essential role in this augmentation and, as with any successful technology, they will fall below our level of perception. In the end, the revolution will be silent and invisible.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>machine replace human future work Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist disruptive technology taking leave disruptive technology creates jobs depleted jobs notice jobs disappearing jobs jobs transform humans robots machines technology creating machines replace Technology creates data analysis tools manipulate create custom scenarios artificial intelligence Big Data Machine Learning ML algorithms predict drive consumer behavior Data Analytics tools Google Analytics today correctly organizations save millions billions dollars marketing level set constitutesmachines context article machines describe computers computerized equipment robots programmed learn humans Occasionally Artificial Intelligence times machine learning times robotics technically things bots efficient humans specific domains growing smarter passing tough tasks considered difficult human broad discussion related future work totally interrelated Factory floors deploy robots increasingly driven machine learning algorithms adjust people working alongside machine work efficiently abundant data information work imparted forward step advancement technology threat proliferating threat replaced work front passing sealing jobs humans globe Similarly turn sketches humans digital source code Companies developing robotics expertise idea technological innovations machines creatives working Amazon employed robots warehouses efficiently move things increased warehouse workforce Humans Amazon picking packing goods robots move orders giant warehouses essentially cutting walking required workers making Amazon pickers efficient robots Amazon shelves cars traffic longer aisle space humans greater density shelf space inventory selection decades sooner notion work handled human virtual hinge predictability starting today machines manage routine humans unpredictable tasks require creativity flexibility context robotics improve operations efficiency improve quality life workers obvious human factors involved work activity impact job automation highly repetitive mechanical ideal robots greater efficiency automation leads risk accidents greater control autonomy fewer costs organizations artificial intelligence machine learning make robots endowed superior intelligence fact ability learn experience respond unknowns things stand processing automatic learning robot beat factors innate human Humans essential part process delivering services client customer challenges routine humans play important role addressing issues solving time consolidating process system machines humans proximity robots expensive apply types based Robotic Process Automation RPA development process incorporates algorithms significantly reduce costs domestic vacuum cleaner lawn mower increasingly part lives level consumption robotics attained makes affordable automate tasks modern homes obtain greater control security comfort division humans machines clear machine boundary fuzzier prosthetics fuse seamlessly bodies making lost limbs providing additional strength stability resilience exoskeletons donned assembly line workers smartphones symbiotically integrated directly bodies smartphone form contact lens capable transparently delivering augmented reality images sounds science fiction prototypes built interfaces seamless creating synergistic relationship point question moot question answer answer stored neural circuitry time connection neurons web decision process influenced educated cultural context external factors influencing decision processes point situations legitimately claim influence brains accountable choices made point make humans symbiosis cultural environment tools physical conceptual taught transformation subtle Practically speaking robots growing point world start creating smarter robots impractical concern expected future shot ATM waited PC boot catastrophic failure game crash reach checkpoint understand world machines perfectly jobs flawlessly depend humans mess lives situation wind partner smarter machines partnership fostered augmentation technology Machines play essential role augmentation successful technology fall level perception end revolution silent invisible provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>49</v>
+      </c>
+      <c r="G35" t="n">
+        <v>23</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.3611111060956791</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.1141045956987249</v>
+      </c>
+      <c r="J35" t="n">
+        <v>23.39344262295082</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.2039243167484233</v>
+      </c>
+      <c r="L35" t="n">
+        <v>9.438946775879698</v>
+      </c>
+      <c r="M35" t="n">
+        <v>27.11475409836066</v>
+      </c>
+      <c r="N35" t="n">
+        <v>784</v>
+      </c>
+      <c r="O35" t="n">
+        <v>291</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2614</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>14</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4.397699757869249</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>blackassign0035</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/in-future-or-in-upcoming-years-humans-and-machines-are-going-to-work-together-in-every-field-of-work/</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>How humans and machines are evolving to work together?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+In future or in upcoming years humans and machines are going to work together in every field of work. In upcoming days machines will be the need for every human being. Machines [AI technology] will do the work which humans are incapable of doing. Machines will partner and co-operate with humans.
+According to the professor at the university of Washington, he explained that, as a result of AI, there will be more demand for existing jobs and new jobs will be created that are unimaginable today. Human workers and machines will work together flawlessly, complementing each other. Machines will learn to carry out easier tasks such as following processes or crunching data. They will also help the humans while difficult. Machines or AI will create a great job opportunities for humans in future. John Kelly ll, executive vice president of IBM once said that “Man and Machines working together always beat or make a better decision than a man or a machine independently.”
+In future, the three sectors of our country like agriculture sector, industrial sector and service sector are going to utilize the machines. So, that their work becomes not difficult. As of now, we can only see that for agriculture purposes various kinds of machines are used which we called as a modern farming method. Some major technologies [machines] that are harvest automation, autonomous tractors, seeding, and weeing and drones. As a result, farms can do agriculture peacefully. In the industrial sector also humans and machines are working together to increase production. Various types of machines are used in industries such as packing machines, loading machine etc. humans provide instructions to the machines and maintain the management in the company. Soon robots [machines] will assist doctors with surgeries. For instance, a doctor at remote location could direct a surgical robot to perform an open heart surgery. But the approaches option and decision will be left to experience and wisdom of the doctor not the robot.
+What do you think of machines if they will make humans less or more in the field? Machines will push human professionals up the skillset ladder into uniquely human skills such as creativity, social abilities, empathy, and sense-making, which machines cannot automate. As a result, machines will make the workplace more, not less for humans. However, humans have to learn new skills throughout their lives. It is said that in the future 80% of process-oriented tasks will be done by machines. Quantitative reasoning tasks will be done approximately 50% by humans and 50% by machines, while humans will continue to do more than 80% of cross-functional reasoning tasks. According to Harvard research machines, algorithms can read diagnostic scans with 92% accuracy. Humans can do it with 96% accuracy. Together, it will be 99% accurate.
+Human-machine collaboration enables companies to interact with employees and customers in the novel, more effective ways. Smart machines are helping humans to expand their abilities in three ways. They can amplify our cognitive strengths; interact with customers and employees to free us from higher-level tasks, and embody human skills to extend our physical capabilities. In the research, it was found that 1,500 companies achieve the most significant performance improvement when humans and machines work together. New machine systems have beyond-human cognitive abilities, which many of us fear could potentially dehumanize the future of work. Machines will indeed automate most repetitive and physical tasks, and part of quantitative tasks such as programming and even data science. According to D.E Shaw Group and professor at the University of Washington, explained that, as a result of machines, there will be more demand for existing jobs, and new jobs will be created that are unimaginable today. This is similar to how we couldn’t imagine a web app developer decades ago, and now millions make a living doing that today.
+Machines are good at doing tasks with speed, precision, and accuracy. But machines are not very good at responding to unknown situations or making judgments. That part will be left to humans. Hence, the need for both humans and machines will be there in the future. Humans and machines have divergent skill sets that, when combined can transform the way we work. Machines have alreadyinfiltratedevery aspect of our lives, and we must learn to live with them. In the future, human workers will interact more closely with humans.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>humans machines evolving work Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist future upcoming years humans machines work work upcoming days machines human Machines technology work humans incapable Machines partner humans professor university explained result demand existing jobs jobs created unimaginable today Human workers machines work flawlessly complementing Machines learn easier tasks processes crunching data humans difficult Machines create great job opportunities humans future executive president IBM Machines working beat make decision machine future sectors agriculture sector industrial sector service sector utilize machines work difficult agriculture purposes kinds machines called modern farming method technologies machines harvest automation autonomous tractors seeding weeing drones result farms agriculture peacefully industrial sector humans machines working increase production types machines industries packing machines loading machine humans provide instructions machines maintain management company robots machines assist doctors surgeries instance remote location direct surgical robot perform open heart surgery approaches option decision left experience robot machines make humans Machines push human professionals skillset ladder uniquely human skills creativity social abilities empathy machines automate result machines make workplace humans humans learn skills lives future 80 tasks machines Quantitative reasoning tasks approximately 50 humans 50 machines humans continue 80 reasoning tasks Harvard research machines algorithms diagnostic scans 92 accuracy Humans 96 accuracy 99 accurate collaboration enables companies interact employees customers effective ways machines helping humans expand abilities ways amplify cognitive strengths interact customers employees tasks embody human skills extend physical capabilities research found companies achieve significant performance improvement humans machines work machine systems cognitive abilities fear potentially dehumanize future work Machines automate repetitive physical tasks part quantitative tasks programming data science Group professor University explained result machines demand existing jobs jobs created unimaginable today similar imagine web app developer decades ago millions make living today Machines tasks precision accuracy machines responding unknown situations making judgments part left humans humans machines future Humans machines divergent skill sets combined transform work Machines alreadyinfiltratedevery aspect lives learn live future human workers interact closely humans provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>29</v>
+      </c>
+      <c r="G36" t="n">
+        <v>12</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.4146341362284357</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.09172259487310382</v>
+      </c>
+      <c r="J36" t="n">
+        <v>18.36</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.2189542483660131</v>
+      </c>
+      <c r="L36" t="n">
+        <v>7.431581699346406</v>
+      </c>
+      <c r="M36" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="N36" t="n">
+        <v>539</v>
+      </c>
+      <c r="O36" t="n">
+        <v>201</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1727</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>6</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4.504672897196262</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>blackassign0037</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/how-machine-learning-will-affect-your-business/</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>How machine learning will affect your business?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Machine learning techniques may have been used for years, but recently there has been an explosion in their applications. In fact, in a recent Q3 earnings call, Google CEO Sundar Pichai said “Machine learning is a core, transformative way by which we’re re-thinking how we’re doing everything.” And they’re far from the only business making that claim.
+In the past, successful use of machine learning algorithms required bespoke algorithms and huge R&amp;D budgets, but all that is changing. IBM Watson, Microsoft Azure, Amazon, and Alibaba all launched turnkey cloud-based machine-learning SaaS solutions in 2015. At the same time startups like Idibon, MetaMind, Dato, and MonkeyLearn have built machine learning products that companies can take advantage of.
+Gartner already puts machine learning at the top of its hype curve, and no: machine learning won’t replace all of your employees with computers or suddenly double your revenue. But that doesn’t mean that it can’t give every business a competitive advantage. There are plenty of business processes that can significantly benefit from machine learning. So how does machine learning change the way businesses operate?
+First thing’s first: Machine learning needs training data and training data costs money. Especially training data labeled by humans. Let me explain. To make machine learning work for business, the algorithm needs to see lots and lots of examples of what it’s supposed to be doing. If you want an algorithm to tell you if a sales lead is good, you need to show it lots and lots of examples of good sales leads and bad sales leads. If you want an algorithm to tag the support tickets you need to show it many examples of support tickets. If you localize your algorithm to a new language you probably need to collect lots of examples in that language. In some instances, a company may have those training sets in-house. For example, a bunch of disqualified or qualified leads. But say you haven’t labeled each of your support tickets as they’ve come in over the year. You’d need to have people either in-house or en masse via a data enrichment platform -label those tickets. The machine will then look at those judgments and start finding connections and patterns it can learn from.
+Machine learning is much cheaper and more efficient than people when it works well. The downside is that it often works well in 80 percent of the cases and badly in 20 percent of the cases, and lowering the 20 percent error rate is hard, if not impossible. But even an 80 percent accurate algorithm can save you a lot of money because good machine learning algorithms know where they are accurate and where they are more likely to have errors. Smart companies take the cases where the algorithm has high confidence and uses those directly while sending low confidence cases to humans. Banks have been doing this for years. When you put a check in an ATM, an algorithm tries to decipher the numbers on the check. If you have really sloppy handwriting or the ink is smudged the algorithm passes the task to a human. This design pattern saves banks lots of money while preserving a very high level of accuracy.
+A huge benefit of machine learning is that it can turn part of your variable cost into more of a fixed cost. If you use humans to handle cases where that algorithm is struggling, you are creating the perfect training data to feed into your algorithm. This is a well-studied technique called active learning it turns out that training data labels collected on cases where the algorithm has low confidence help the algorithm learn much, much more efficiently.
+As the algorithm becomes increasingly more accurate, the unit economics of your business process become better and as machine learning becomes able to handle more cases, the expensive humans are only called in on the toughest, rarest situations. That means you use the best of both human and machine intelligence in tandem: leveraging the speed and reliability of computers for the easy judgments and the fluency and expertise of humans for the difficult ones. And if that sounds like smart business, it’s because it is.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>machine learning affect business Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Machine learning techniques years recently explosion applications fact recent Q3 earnings Google CEO Sundar Pichai Machine learning transformative business making claim past successful machine learning algorithms required bespoke algorithms huge budgets changing IBM Microsoft Azure Amazon Alibaba launched turnkey SaaS solutions 2015 time startups Idibon MetaMind Dato MonkeyLearn built machine learning products companies advantage puts machine learning top hype curve machine learning replace employees computers suddenly double revenue give business competitive advantage plenty business processes significantly benefit machine learning machine learning change businesses operate thing Machine learning training data training data costs training data labeled humans explain make machine learning work business algorithm lots lots examples supposed algorithm lead show lots lots examples leads bad leads algorithm tag support tickets show examples support tickets localize algorithm language collect lots examples language instances company training sets disqualified qualified leads labeled support tickets people en masse data enrichment platform tickets machine judgments start finding connections patterns learn Machine learning cheaper efficient people works downside works 80 percent cases badly 20 percent cases lowering 20 percent error rate hard impossible 80 percent accurate algorithm save lot machine learning algorithms accurate errors companies cases algorithm confidence directly sending confidence cases humans years put check ATM algorithm decipher check sloppy handwriting ink smudged algorithm passes task human design pattern saves lots preserving level accuracy huge benefit machine learning turn part variable cost fixed cost humans handle cases algorithm struggling creating perfect training data feed algorithm technique called active learning turns training data labels collected cases algorithm confidence algorithm learn efficiently algorithm increasingly accurate unit economics business process machine learning handle cases expensive humans called toughest rarest situations human machine intelligence tandem leveraging reliability computers easy judgments fluency expertise humans difficult sounds business provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>39</v>
+      </c>
+      <c r="G37" t="n">
+        <v>14</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.471698104307583</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.1249999997051887</v>
+      </c>
+      <c r="J37" t="n">
+        <v>22.02439024390244</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2048726467331118</v>
+      </c>
+      <c r="L37" t="n">
+        <v>8.89170515625422</v>
+      </c>
+      <c r="M37" t="n">
+        <v>25.14634146341463</v>
+      </c>
+      <c r="N37" t="n">
+        <v>520</v>
+      </c>
+      <c r="O37" t="n">
+        <v>185</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1637</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4.398445092322643</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>blackassign0038</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/deep-learning-impact-on-areas-of-e-learning/</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Deep learning impact on areas of e-learning?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+eLearning as technology becomes more affordable in higher education but having a big barrier in the cost of developing its resources. Deep learning using artificial intelligence continues to become more and more popular and having impacts on many areas of eLearning. It offers online learners of the future intuitive algorithms and automated delivery of eLearning content through modern LMS platforms. This paper aims to survey various applications of deep learning approaches for developing the resources of the eLearning platform, in which predictions, algorithms, and analytics come together to create more personalized future eLearning experiences. In addition, deep learning models for developing the contents of the eLearning platform, deep learning framework that enable deep learning systems into eLearning and its development, benefits &amp; future trends of deep learning in eLearning, the relevant deep learning-based artificial intelligence tools, and a platform enabling the developer and learners to quickly reuse resources are clearly summarized. Thus, deep learning has evolved into developing ways to re-purpose existing resources that can mitigate the expense of content development of future eLearning.
+It is natural to wonder where you might get AI tools to avoid the time and expense of developing your own. Don’t worry about the advert of AIaaS or “AI as a Service” even small education or learning &amp; development professionals can purchase the license of AI tools and components. However, such types of tools cannot be useful for every e-learning ecosystem but may offer some enticing benefits such as adding standard AI tasks (logic, decision making) to your toolbox. Here are some of the AIaaS tools and platforms offered by famous tech giants most of which are cloud-based.
+Microsoft Azure
+Cloud-based AI services that can be used to build and manage AI applications like image recognition or bot-based apps
+IBM’s Watson
+Cloud-based AI services that can be integrated into your applications; to store and manage your own data
+Google’s Tensor Flow
+An end-to-end open-source machine learning platform
+Amazon Web Services
+Offers a wide range of products and services on Amazon’s cloud
+There are other AIaaS platforms such as DataRobot, Petuum, and H2O which shows that the field is expanding.AI will probably not make human workers obsolete, at least not for a long time To put some of your fears to bed: the robots are probably not coming for your jobs, at least not yet. Given how artificial intelligence has been portrayed in the media, in particular in some of our favorite sci-fi movies, it’s clear that the advent of this technology has created fear that AI will one day make human beings obsolete in the workforce. After all, as technology has advanced, many tasks that were once executed by human hands have become automated. It’s only natural to fear that the leap toward creating intelligent computers could herald the beginning of the end of work as we know it. But, I don’t think there is any reason to be so fatalistic. A recent paper published by the MIT Task Force on the Work of the Future entitled “Artificial Intelligence And The Future of Work,” looked closely at developments in AI and their relation to the world of work. The paper paints a more optimistic picture.
+Rather than promoting the obsolescence of human labor, the paper predicts that AI will continue to drive massive innovation that will fuel many existing industries and could have the potential to create many new sectors for growth, ultimately leading to the creation of more jobs. While AI has made major strides toward replicating the efficacy of human intelligence in executing certain tasks, there are still major limitations. In particular, AI programs are typically only capable of “specialized” intelligence, meaning they can solve only one problem, and execute only one task at a time. Often, they can be rigid, and unable to respond to any changes in input, or perform any “thinking” outside of their prescribed programming. Humans, however, possess “generalized intelligence,” with the kind of problem-solving, abstract thinking, and critical judgment that will continue to be important in business. Human judgment will be relevant, if not in every task, then certainly throughout every level across all sectors. There are many other factors that could limit runaway advancement in AI. AI often requires “learning” which can involve massive amounts of data, calling into question the availability of the right kind of data, and highlighting the need for categorization and issues of privacy and security around such data. There is also the limitation of computation and processing power. The cost of electricity alone to power one supercharged language model AI was estimated at $4.6 million. Another important limitation of note is that data can itself carry bias, and be reflective of societal inequities or the implicit biases of the designers who create and input the data. If there is bias in the data that is inputted into an AI, this bias is likely to carry over to the results generated by the AI.
+There has even been a bill introduced into Congress entitled the Algorithmic Accountability Act with the goal of forcing the Federal Trade Commission to investigate the use of any new AI technology for the potential to perpetuate bias. Based on these factors and many others, the MIT CCI paper argues that we are a long way from reaching a point in which AI is comparable to human intelligence, and could theoretically replace human workers entirely.  Provided there is an investment at all levels, from education to the private sector and governmental organizations—anywhere that focuses on training and upskilling workers—AI has the potential to ultimately create more jobs, not less. The question should then become not “humans or computers” but “humans and computers” involved in complex systems that advance industry and prosperity. This paper is a fascinating read for anyone hoping to dive deeper into AI and the many potential directions in which it may lead.AI Is becoming standard in all businesses, not just in the world of tech A couple of times recently, AI has come up in conversation with a client or an associate, and I’m noticing a fallacy in how people are thinking about it. There seems to be a sense for many that it is a phenomenon that is only likely to have big impacts in the tech world. In case you hadn’t noticed, the tech world is the world these days. Don’t ever forget when economist Paul Krugman said in 1998 that “By 2005 or so, it will become clear that the Internet’s impact on the economy has been no greater than the fax machine’s.” You definitely don’t want to be behind the curve when it comes to AI.  In fact, 90% of leading businesses already have ongoing investments in AI technologies. More than half of businesses that have implemented some manner of AI-driven technology report experiencing greater productivity. AI is likely to have a strong impact on certain sectors in particular:
+Medical:
+The potential benefits of utilizing AI in the field of medicine are already being explored. The medical industry has a robust amount of data, which can be utilized to create predictive models related to healthcare. Additionally, AI has shown to be more effective than physicians in certain diagnostic contexts.
+Automotive:
+We’re already seeing how AI is impacting the world of transportation and automobiles with the advent of autonomous vehicles and autonomous navigation. AI will also have a major impact on manufacturing, including within the automotive sector.
+Cybersecurity:
+Cybersecurity is front of mind for many business leaders, especially considering the spike in cybersecurity breaches throughout 2020. Attacks rose 600% during the pandemic as hackers capitalized on people working from home, on less secure technological systems, and Wi-Fi networks. AI and machine learning will be critical tools in identifying and predicting threats in cybersecurity. AI will also be a crucial asset for security in the world of finance, given that it can process large amounts of data to predict and catch instances of fraud.
+E-Commerce:
+AI will play a pivotal role in e-commerce in the future, in every sector of the industry from user experience to marketing to fulfillment and distribution. We can expect that moving forward, AI will continue to drive e-commerce, including through the use of chat-bots, shopper personalization, image-based targeting advertising, and warehouse and inventory automation.
+AI can have a big impact on the job search
+If you are moving forward with the hope that a hiring manager may give you the benefit of the doubt on a small misstep within the application, you might be in for a rude awakening. AI already plays a major role in the hiring process, so much so that up to 75% of resumes are rejected by an automated applicant tracking system, or ATS before they even reach a human being.  In the past, recruiters have had to devote considerable time to poring over resumes to look for relevant candidates. Data from LinkedIn shows that recruiters can spend up to 23 hours looking over resumes for one successful hire.
+Increasingly, however, resume scanning is being done by AI-powered programs. In 2018, 67% of hiring managers stated that AI was making their jobs easier. Despite the increasing prevalence of automation and algorithms in the hiring process, many have been critical of the use of certain types of AI by hiring managers, based on the charge that it can perpetuate and ever create more bias in hiring. One particular example is illustrated by HireVue, a startup whose initial services included technology that aimed to use facial recognition software and psychology to determine the potential effectiveness of a candidate in a certain role. The Electronic Privacy Information Center filed a lawsuit with the Federal Trade Commission alleging that this software had the potential to perpetuate bias and prejudice. HireVue discontinued the use of facial recognition software in early 2021, and now uses audio analysis and natural language processing. It’s clear that the use of certain types of AI in the hiring process will likely be controversial as new technology develops. However, if potential employers are using AI to process your application, there is no reason that you cannot be utilizing similar technology to your advantage.
+Jobscan is an excellent resource that provides similar resume scanning to what would be used by a hiring manager. By comparing your resume to a job description, Jobscan will give you information on how to tweak your resume so that it is a good match for a certain position, with the goal of “beating” an applicant tracking system (ATS).
+Jobseer is a browser add-on, and another great AI-based tool for those on the job market. Based on a scan of your resume, as well as keywords and skills related to your desired jobs, Jobseer will help match you with the job listings that best fit your experience. For each listing, you get a rating based on how well you are aligned with the particular posting, as well as recommendations of skills to add to better position your resume and experience.
+Rezi: Now, as a disclaimer, I would never encourage you to turn your resume writing over to a bot. But Rezi is an awesome AI-based resume builder that includes templates to help you design a resume that is sure to check the boxes when it comes to applicant tracking systems. This is a great jumping-off point to kickstart a new resume.  Another great way to use this type of tool is to generate a new resume and compare it to your current resume to see how it stacks up, and identify some areas for improvement. AI is also a great place to focus your energy if you are looking to upskill in your career, or make your professional profile more competitive in the job market, especially when you consider that AI will have such far-reaching impacts across many industries.AI and machine learning are at the top of many lists of the most important skills in today’s job market. Jobs requesting AI or machine-learning skills are expected to increase by 71% in the next five years. If you’d like to expand your knowledge base in this arena, consider some of the great free online course offerings that focus on AI skills. If you are tech-savvy, it would be wise to dive deep and learn as much as you can about interacting in the AI space. If your skills lie elsewhere, it is important to recognize that AI will have a big impact, and to the extent of your abilities, you should try to understand the fundamentals of how it functions in different sectors. AI is definitely here to stay, whether we like it or not. Personally, I don’t think we have anything to be afraid of. The best way to move forward is to be aware of and adapt to the new technology around us, AI included. This article was updated on April 16, 2021, to reflect changes in HireVue’s assessment tools.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Deep learning impact areas Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist eLearning technology affordable higher education big cost developing resources Deep learning artificial intelligence continues popular impacts areas eLearning offers online learners future intuitive algorithms automated delivery eLearning content modern LMS platforms paper aims survey applications deep learning approaches developing resources eLearning platform predictions algorithms analytics create personalized future eLearning experiences addition deep learning models developing contents eLearning platform deep learning framework enable deep learning systems eLearning development benefits future trends deep learning eLearning relevant deep artificial intelligence tools platform enabling developer learners quickly reuse resources summarized deep learning evolved developing ways existing resources mitigate expense content development future eLearning natural tools avoid time expense developing worry advert AIaaS Service education learning development professionals purchase license tools components types tools ecosystem offer enticing benefits adding standard tasks logic decision making toolbox AIaaS tools platforms offered famous tech giants Microsoft Azure services build manage applications image recognition apps IBM services integrated applications store manage data Google Tensor Flow machine learning platform Amazon Web Services Offers wide products services Amazon AIaaS platforms DataRobot Petuum H2O shows make human workers obsolete time put bed robots coming jobs artificial intelligence portrayed media favorite movies clear advent technology created fear make human beings obsolete workforce technology advanced tasks executed human hands automated natural fear leap creating intelligent computers herald beginning end work reason fatalistic recent paper published MIT Task Force Work Future entitled Artificial Intelligence Future Work looked closely developments relation world work paper paints optimistic picture promoting obsolescence human labor paper predicts continue drive massive innovation fuel existing industries potential create sectors growth ultimately leading creation jobs made strides replicating efficacy human intelligence executing tasks limitations programs typically capable specialized intelligence meaning solve problem execute task time rigid unable respond input perform thinking prescribed programming Humans possess generalized intelligence kind abstract thinking critical judgment continue important business Human judgment relevant task level sectors factors limit runaway advancement requires learning involve massive amounts data calling question availability kind data highlighting categorization issues privacy security data limitation computation processing cost electricity supercharged language model estimated important limitation note data reflective societal inequities implicit biases designers create input data data inputted results generated introduced Congress entitled Algorithmic Accountability Act goal forcing Federal Trade Commission investigate technology potential perpetuate Based factors MIT CCI paper argues reaching point comparable human intelligence theoretically replace human workers Provided investment levels education private sector governmental focuses training upskilling potential ultimately create jobs question humans computers humans computers involved complex systems advance industry prosperity paper fascinating hoping dive deeper potential directions standard businesses world tech couple times recently conversation client associate noticing fallacy people thinking sense phenomenon big impacts tech world noticed tech world world days forget economist Krugman 1998 2005 clear Internet impact economy greater fax machine curve fact 90 leading businesses ongoing investments technologies half businesses implemented manner technology report experiencing greater productivity impact sectors Medical potential benefits utilizing medicine explored medical industry robust amount data utilized create predictive models related healthcare Additionally shown effective physicians diagnostic contexts Automotive impacting world transportation automobiles advent autonomous vehicles autonomous navigation impact manufacturing including automotive sector Cybersecurity Cybersecurity front mind business leaders spike cybersecurity breaches 2020 Attacks 600 pandemic hackers capitalized people working home secure technological systems networks machine learning critical tools identifying predicting threats cybersecurity crucial asset security world finance process amounts data predict catch instances fraud play pivotal role future sector industry user experience marketing fulfillment distribution expect moving forward continue drive including shopper personalization targeting advertising warehouse inventory automation big impact job search moving forward hiring manager give benefit doubt misstep application rude awakening plays role hiring process 75 resumes rejected automated applicant tracking system ATS reach human past recruiters devote considerable time poring resumes relevant candidates Data LinkedIn shows recruiters spend 23 hours resumes successful hire Increasingly resume scanning programs 2018 67 hiring managers stated making jobs easier increasing prevalence automation algorithms hiring process critical types hiring managers based charge perpetuate create hiring illustrated HireVue startup initial services included technology aimed facial recognition software psychology determine potential effectiveness candidate role Electronic Privacy Information Center filed lawsuit Federal Trade Commission alleging software potential perpetuate prejudice HireVue discontinued facial recognition software 2021 audio analysis natural language processing clear types hiring process controversial technology develops potential employers process application reason utilizing similar technology advantage Jobscan excellent resource similar resume scanning hiring manager comparing resume job description Jobscan give information tweak resume match position goal beating applicant tracking system ATS Jobseer browser great tool job market Based scan resume keywords skills related desired jobs Jobseer match job listings fit experience listing rating based aligned posting recommendations skills add position resume experience Rezi disclaimer encourage turn resume writing bot Rezi awesome resume builder includes templates design resume check boxes applicant tracking systems great point kickstart resume great type tool generate resume compare current resume stacks identify areas improvement great focus energy upskill career make professional profile competitive job market impacts machine learning top lists important skills today job market Jobs requesting skills expected increase 71 years expand knowledge base great online offerings focus skills dive deep learn interacting space skills lie important recognize big impact extent abilities understand fundamentals functions sectors stay Personally afraid move forward aware adapt technology included article updated 16 2021 reflect HireVue assessment tools provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>70</v>
+      </c>
+      <c r="G38" t="n">
+        <v>34</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.3461538428254438</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.1030723487581047</v>
+      </c>
+      <c r="J38" t="n">
+        <v>27.12790697674419</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.2190312901843121</v>
+      </c>
+      <c r="L38" t="n">
+        <v>10.9387753067714</v>
+      </c>
+      <c r="M38" t="n">
+        <v>30.76744186046512</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1296</v>
+      </c>
+      <c r="O38" t="n">
+        <v>511</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4313</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>7</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4.350983358547655</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>blackassign0039</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/how-to-protect-future-data-and-its-privacy-blackcoffer/</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>How to protect future data and its privacy?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Before the internet, information was in some ways restricted and more centralized. The only mediums of information were books, newspapers, and word of mouth, etc. But now with the advent of the internet and improvements to computer technology (Moore’s Law), information and data skyrocketed, and it has become this open-system, where information can be distributed to people without any kind of limits.
+Various publicly available tools have taken the rocket science out of encrypting (and decrypting) email and files. Data encryption isn’t just for technology geeks; modern tools make it possible for anyone to encrypt emails and other information. “Encryption used to be the sole province of geeks and mathematicians, but a lot has changed in recent years. In particular, various publicly available tools have taken the rocket science out of encrypting (and decrypting) email and files. GPG for Mail, for example, is an open-source plug-in for the Apple Mail program that makes it easy to encrypt, decrypt, sign and verify emails using the OpenPGP standard. And for protecting files, newer versions of Apple’s OS X operating system come with FileVault, a program that encrypts the hard drive of a computer. Those running Microsoft Windows have a similar program. This software will scramble your data, but won’t protect you from government authorities demanding your encryption key under the Regulation of Investigatory Powers Act (2000), which is why some aficionados recommend TrueCrypt, a program with some very interesting facilities, which might have been useful to David Miranda,” explains John Naughton in an article for The Guardian.
+One of the most basic, yet often overlooked, data protection tips is backing up your data. Basically, this creates a duplicate copy of your data so that if a device is lost, stolen, or compromised, you don’t also lose your important information. As the U.S. Chamber of Commerce and insurance company Nationwide points out, “According to Nationwide, 68% of small businesses don’t have a disaster recovery plan. The problem with this is the longer it takes you to restore your data, the more money you’ll lose. Gartner found that this downtime can cost companies as much as $300,000 an hour.”
+While you should use sound security practices when you’re making use of the cloud, it can provide an ideal solution for backing up your data. Since data is not stored on a local device, it’s easily accessible even when your hardware becomes compromised. “Cloud storage, where data is kept offsite by a provider, is a guarantee of adequate disaster recovery,” according to this post on TechRadar. Twitter: @techradar
+Scammers are sneaky: sometimes malware is cleverly disguised as an email from a friend or a useful website. Malware is a serious issue plaguing many computer users, and it’s known for cropping up in inconspicuous places, unbeknownst to users. Anti-malware protection is essential for laying a foundation of security for your devices. “Malware (short for malicious software) is software designed to infiltrate or damage a computer without your consent. Malware includes computer viruses, worms, trojan horses, spyware, scareware, and more. It can be present on websites and emails or hidden in downloadable files, photos, videos, freeware, or shareware. (However, it should be noted that most websites, shareware, or freeware applications do not come with malware.) The best way to avoid getting infected is to run a good anti-virus protection program, do periodic scans for spyware, avoid clicking on suspicious email links or websites. But scammers are sneaky: sometimes malware is cleverly disguised as an email from a friend or a useful website. Even the most cautious of web-surfers will likely pick up an infection at some point.,” explains Clark Howard. Twitter: @ClarkHoward
+Much information can be gleaned through old computing devices, but you can protect your personal data by making hard drives unreadable before disposing of them. “Make old computers’ hard drives unreadable. After you back up your data and transfer the files elsewhere, you should sanitize by disk shredding, magnetically cleaning the disk, or using software to wipe the disk clean. Destroy old computer disks and backup tapes,” according to the Florida Office of the Attorney General. Twitter: @AGPamBondi
+Operating system updates are a gigantic pain for users; it’s the honest truth. But they’re a necessary evil, as these updates contain critical security patches that will protect your computer from recently discovered threats. Failing to install these updates means your computer is at risk. “No matter which operating system you use, it’s important that you update it regularly. Windows operating systems are typically updated at least monthly, typically on so-called ‘Patch Tuesday.’ Other operating systems may not be updated quite as frequently or on a regular schedule. It’s best to set your operating system to update automatically. The method for doing so will vary depending upon your particular operating system,” says PrivacyRights.org. Twitter: @PrivacyToday
+Many software programs will automatically connect and update to defend against known risks.
+In order to ensure that you’re downloading the latest security updates from operating systems and other software, enable automatic updates. “Many software programs will automatically connect and update to defend against known risks. Turn on automatic updates if that’s an available option,” suggests StaySafeOnline.org. Twitter: @StaySafeOnline
+A valuable tip for both small business owners and individuals or families, it’s always recommended to secure your wireless network with a password. This prevents unauthorized individuals within proximity to hijack your wireless network. Even if they’re merely attempting to get free Wi-Fi access, you don’t want to inadvertently share private information with other people who are using your network without permission. “If you have a Wi-Fi network for your workplace, make sure it is secure, encrypted, and hidden. To hide your Wi-Fi network, set up your wireless access point or router so it does not broadcast the network name, known as the Service Set Identifier (SSID). Password protect access to the router,” says FCC.gov in an article offering data protection tips for small businesses. Twitter: @FCC
+When you’re finished using your computer or laptop, power it off. Leaving computing devices on, and most often, connected to the Internet, opens the door for rogue attacks. “Leaving your computer connected to the Internet when it’s not in use gives scammers 24/7 access to install malware and commit cybercrimes. To be safe, turn off your computer when it’s not in use,” suggests CSID, a division of Experian. Twitter: @ExperianPS_NA
+Firewalls assist in blocking dangerous programs, viruses, or spyware before they infiltrate your system.”Firewalls assist in blocking dangerous programs, viruses, or spyware before they infiltrate your system. Various software companies offer firewall protection, but hardware-based firewalls, like those frequently built into network routers, provide a better level of security,” says Geek Squad. Twitter: @GeekSquad
+Indiana University Information Technology recommends following the Principle of Least Privilege (PoLP): “Do not log into a computer with administrator rights unless you must do so to perform specific tasks. Running your computer as an administrator (or as a Power User in Windows) leaves your computer vulnerable to security risks and exploits. Simply visiting an unfamiliar Internet site with these high-privilege accounts can cause extreme damage to your computer, such as reformatting your hard drive, deleting all your files, and creating a new user account with administrative access. When you do need to perform tasks as an administrator, always follow security procedures.” Twitter: @IndianaUniv
+What’s the difference? “…we recommend you use passphrases–a series of random words or a sentence. The more characters your passphrase has, the stronger it is.  The advantage is these are much easier to remember and type, but still hard for cyber attackers to hack.” explains SANS. Twitter: @SANSAwareness
+Encrypt your SIM card in case your phone is ever stolen, or take it out if you are selling your old cell phone. Encrypting your data on your removable storage devices can make it more difficult (albeit not impossible) for criminals to interpret your personal data should your device become lost or stolen. USB drives and SIM cards are excellent examples of removable storage devices that can simply be plugged into another device, enabling the user to access all the data stored on it. Unless, of course, it’s encrypted. “Your USB drive could easily be stolen and put into another computer, where they can steal all of your files and even install malware or viruses onto your flash drive that will infect any computer it is plugged in to. Encrypt your SIM card in case your phone is ever stolen, or take it out if you are selling your old cell phone,” according to Mike Juba in an article on Business2Community. Twitter: @EZSolutionCorp
+A Post-It note stuck to the outside of your laptop or tablet is “akin to leaving your keys in your car,” says The Ohio State University’s Office of the Chief Information Officer. Likewise, you shouldn’t leave your laptop in your car. It’s a magnet for identity thieves. Twitter: @OhioState
+If you don’t really need your files to be visible to other machines, disable file and media sharing completely. If you have a home wireless network with multiple devices connected, you might find it convenient to share files between machines. However, there’s no reason to make files publicly available if it’s not necessary. “Make sure that you share some of your folders only on the home network. If you don’t really need your files to be visible to other machines, disable file and media sharing completely,” says Kaspersky. Twitter: @kaspersky
+HowToGeek offers a series of articles with tips, tricks, and tools for encrypting files or sets of files using various programs and tools. This article covers a method for creating an encrypted volume to easily transport private, sensitive data for access on multiple computers. Twitter: @howtogeeksite
+Deleting your information on a computing device rarely means it’s truly deleted permanently. Often, this data still exists on disk and can be recovered by someone who knows what they’re doing (such as, say, a savvy criminal determined to find your personal information). The only way to really ensure that your old data is gone forever is to overwrite it. Luckily, there are tools to streamline this process. PCWorld covers a tool and process for overwriting old data on Windows operating systems. Twitter: @pcworld
+If you back up your files to the cloud, remember that even though you delete them on your computer or mobile device, they’re still stored in your cloud account. If you’re diligent about backing up your data and use a secure cloud storage service to do so, you’re headed in the right direction. That said, cloud backups, and any data backups really, create an added step when it comes to deleting old information. Don’t forget to delete files from your backup services in addition to those you remove (or overwrite) on your local devices. “If you back up your files to the cloud, remember that even though you delete them on your computer or mobile device, they’re still stored in your cloud account. To completely delete the file, you’ll also need to remove it from your backup cloud account,” says re/code. Twitter: @Recode
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>protect future data privacy Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist internet information ways restricted centralized mediums information books newspapers mouth advent internet improvements computer technology information data skyrocketed information distributed people kind limits publicly tools rocket science encrypting decrypting email files Data encryption technology geeks modern tools make encrypt emails information Encryption sole province geeks mathematicians lot changed recent years publicly tools rocket science encrypting decrypting email files GPG Mail Mail program makes easy encrypt decrypt sign verify emails OpenPGP standard protecting files newer versions OS operating system FileVault program encrypts hard drive computer running Microsoft Windows similar program software scramble data protect government authorities demanding encryption Regulation Investigatory Act 2000 aficionados recommend TrueCrypt program interesting facilities explains Naughton article Guardian basic overlooked data protection tips backing data Basically creates duplicate copy data device lost stolen compromised lose important information Chamber Commerce insurance company Nationwide points Nationwide 68 businesses disaster recovery plan problem longer takes restore data lose found downtime cost companies sound security practices making provide ideal solution backing data data stored local device easily accessible hardware compromised storage data offsite provider guarantee adequate disaster recovery TechRadar Twitter techradar Scammers sneaky malware cleverly disguised email website Malware issue plaguing computer users cropping inconspicuous places unbeknownst users protection essential laying foundation security devices Malware malicious software software designed infiltrate damage computer consent Malware includes computer viruses worms trojan horses spyware scareware present websites emails hidden downloadable files photos videos freeware shareware noted websites shareware freeware applications malware avoid infected run protection program periodic scans spyware avoid clicking suspicious email links websites scammers sneaky malware cleverly disguised email website cautious pick infection explains Twitter ClarkHoward information gleaned computing devices protect personal data making hard drives unreadable disposing Make computers hard drives unreadable data transfer files sanitize disk shredding magnetically cleaning disk software wipe disk clean Destroy computer disks backup tapes Office Attorney General Twitter AGPamBondi Operating system updates gigantic pain users honest truth evil updates critical security patches protect computer recently discovered threats Failing install updates computer risk matter operating system important update regularly Windows operating systems typically updated typically operating systems updated frequently regular schedule set operating system update automatically method vary depending operating system Twitter PrivacyToday software programs automatically connect update defend risks order ensure downloading latest security updates operating systems software enable automatic updates software programs automatically connect update defend risks Turn automatic updates option suggests Twitter StaySafeOnline valuable tip business owners individuals families recommended secure wireless network password prevents unauthorized individuals proximity hijack wireless network attempting access inadvertently share private information people network permission network workplace make secure encrypted hidden hide network set wireless access point router broadcast network Service Set Identifier SSID Password protect access router article offering data protection tips businesses Twitter FCC finished computer laptop Leaving computing devices connected Internet opens door rogue attacks Leaving computer connected Internet scammers access install malware commit cybercrimes safe turn computer suggests CSID division Experian Twitter Firewalls assist blocking dangerous programs viruses spyware infiltrate Firewalls assist blocking dangerous programs viruses spyware infiltrate system software companies offer firewall protection firewalls frequently built network routers provide level security Geek Squad Twitter GeekSquad University Information Technology recommends Principle Privilege PoLP log computer administrator rights perform specific tasks Running computer administrator User Windows leaves computer vulnerable security risks exploits Simply visiting unfamiliar Internet site accounts extreme damage computer reformatting hard drive deleting files creating user account administrative access perform tasks administrator follow security Twitter IndianaUniv difference recommend series random words sentence characters passphrase stronger advantage easier remember type hard cyber attackers explains SANS Twitter SANSAwareness Encrypt phone stolen selling cell phone Encrypting data removable storage devices make difficult albeit impossible criminals interpret personal data device lost stolen USB drives cards excellent examples removable storage devices simply plugged device enabling user access data stored encrypted USB drive easily stolen put computer steal files install malware viruses flash drive infect computer plugged Encrypt phone stolen selling cell phone Juba article Business2Community Twitter EZSolutionCorp note stuck laptop tablet leaving car University Office Chief Information Officer Likewise leave laptop car magnet identity thieves Twitter OhioState files visible machines disable file media sharing completely home wireless network multiple devices connected find convenient share files machines reason make files publicly Make share folders home network files visible machines disable file media sharing completely Kaspersky Twitter kaspersky HowToGeek offers series articles tips tricks tools encrypting files sets files programs tools article covers method creating encrypted volume easily transport private sensitive data access multiple computers Twitter howtogeeksite Deleting information computing device rarely deleted permanently data exists disk recovered savvy criminal determined find personal information ensure data forever overwrite Luckily tools streamline process PCWorld covers tool process overwriting data Windows operating systems Twitter pcworld files remember delete computer mobile device stored account diligent backing data secure storage service headed direction backups data backups create added step deleting information forget delete files backup services addition remove overwrite local devices files remember delete computer mobile device stored account completely delete file remove backup account Twitter Recode provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>50</v>
+      </c>
+      <c r="G39" t="n">
+        <v>55</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-0.04761904716553288</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.1093749998860677</v>
+      </c>
+      <c r="J39" t="n">
+        <v>21.54736842105263</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.230581338544211</v>
+      </c>
+      <c r="L39" t="n">
+        <v>8.711179903838739</v>
+      </c>
+      <c r="M39" t="n">
+        <v>25.94736842105263</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1181</v>
+      </c>
+      <c r="O39" t="n">
+        <v>472</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3871</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4.23538961038961</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>blackassign0040</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/how-machines-ai-automations-and-robo-human-are-effective-in-finance-and-banking/</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>How Machines, AI, Automations, and Robo-human are Effective in Finance and Banking?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+We all hear day in and day out that we amidst atechnological revolution. But do we know what this really means?
+Before we understand how its going to impact us, let us first discuss what these terms really mean.
+A technological revolution simply means that we are in a period where better and newer technologies replace the others to get the job done faster and better. We are in an era with rapid innovations where machines are being compared to humans.
+So, then what is Machine Learning?
+Machine Learningis basically the application of artificial intelligence into electronic systems to enable them to learn and enhance themselves without being programmed by humans. It is the evolution and development of computer programs that can access data and then use it to advance themselves. Whether you know it or not, you use machine learning-powered applications daily.
+Now, what is Artificial intelligence?
+At its simplest form,artificial intelligenceis a field, which combines computer science and robust datasets, to enable problem-solving.
+In simple words, Artificial Intelligence is the technology that facilitates these machines to perform human like behaviour.
+Just like every other industry, machine learning is playing its role in the finance and banking industry too. In most cases where a human would perform the same task by performing the same calculations or following the same process can be taught to the machine which can now perform it by itself.
+Let us discuss a few examples of the applications that we might have come in our day to day running which are a result of machine learning in this industry:
+Portfolio Management
+In earlier days, an investor would need to consult a financial advisor to understand his/her risk appetite and advise accordingly. Today, using machine learning algorithms there exists the concept of a“Robo-Advisor”that requires any user to give certain inputs about their financial status and goals and calculates their risk tolerance and constructs and idle portfolio allocation for them. Young users today find this extremely useful rather than physically visiting an advisor and paying a fee for doing so.
+Risk Underwriting
+Underwriting is one of the core functions for most financial institutions especially banks and insurance companies where they are required to underwrite the risk of the customers before loaning out money or insurance policies. These underwriting activities are based on trends and thumb rules industrywide. The same has been introduced through machine learning which is able to underwrite risks today on a larger and more accurate scale.
+Algorithmic Trading
+Machine learning is a mathematical model that tracks market information, analyses massive data sources and study market conditions simultaneously to detect patterns which can be used for trading. This is humanly impossible to do in a fraction of time. Algorithmic systems can make millions of trades daily, often known as “high-frequency trading”. It is highly believed that deep learning is playing its role in calibrating real-time trading decisions.
+Fraud Detection
+With the increase in use and dependency on computers for financial transactions came the data security risk. There is an ample amount of valuable data stored online available to create potential risk. Machine learning thus helped in fraud detection by detecting anomalies in transactions and flagging them for scrutiny based on the risk factors defined by the institutions. Fraud identification in insurance claims, credit card payments, identity theft, account theft, are all areas in fraud detection that machine learning can help in.
+Process Automation
+Process automation is one of the most common applications of machine learning in finance. The technology has helped in replacing manual work, automate repetitive tasks to avoid redundancy, and as a result, increase productivity. Machine learning has benefitted these organizations to optimize costs, improve customer experiences, and scale up their services. Some examples of financial and banking firms using process automation are the use of chatbots, automated calls, paperwork automation, and gamified employee training.
+Customer onboarding
+In this highly competitive industry, customer acquisition and the customer onboarding process is highly relevant in building a good customer relationship. At any stage, during the onboarding, a slight inconvenience or delay can act as a barrier. Machine learning-enabled complete automation in this process for these financial and banking institutions. Today, from opening an account, filing for any application can be completed within a few minutes with utmost ease. With AI, customers’ behavioral patterns have been studied to improvise and make the whole process efficient and user-friendly.
+Customer churn
+With the multitude of offerings and availability of a plethora of options, customer stickiness is a big problem faced by financial firms. Customer churn forecasting is one of the best big data use cases. It helps in detecting customers who cancel their subscription and analyses the same to tailor products as per customer needs. Video streaming application, Netflix’s subscribers worldwide has continued to grow to reach 167 million through using machine learning analytics on their customer database.
+Decision Making
+Financial and banking institutions function on facilitating investments made by their customers. Organizations are constantly in search of customers from whom they can get more revenue. This is now possible through performing machine learning analysis on both structured and unstructured data which helps them make more informed decisions. It also analyses data from the website and mobile application to construct effective marketing campaigns for the targeted customers.
+Future of Machine Learning in Finance
+Financial monitoring, security analysis, prevention of money laundering, network security, investment predictions, personalization of customer service everything comes under the realm of the applications of machine learning in the financial and banking industry. Yet, this is just the tip of the iceberg, there is a lot more that is going to change in the future. It is now visibly imperative that while AI is beginning to create a wave of transformation across these industries and adapting to these changes s important for one’s survival. With smart technology applied everywhere, all financial firms are bound to turn into FinTech’s to stay relevant to the“silver tech generation”consisting of millennials and the GenZs.
+Final thoughts
+The financial services industry has entered the space of artificial intelligence and machine learning, and the pace is not surprising knowing the positive changes it has brought. Machine learning has the most use cases in finance than any other industry because of the available computer power and new machine learning tools. The greatest applications include simplifying customer engagement and accurate sales forecasting. It is only making this industry better and more efficient with each new adaptation. Machine learning algorithms have the capability to deal with a lot more than human capacity along with eliminating human error. As even the algorithms are constantly learning and innovating, they can serve as a bridge to a completely flawless automated financial system in the future. Nonetheless, the challenges of high cost and lack of resources that come along play a significant role in how early these firms can adopt these technologies. But even then, the future seems bright as the industry has enough adopters and prospects ready to explore.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Machines Automations Effective Finance Banking Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist hear amidst atechnological revolution understand impact discuss terms technological revolution simply period newer technologies replace job faster rapid innovations machines compared humans Machine Learning Machine Learningis basically application artificial intelligence electronic systems enable learn enhance programmed humans evolution development computer programs access data advance machine applications Artificial intelligence simplest form artificial intelligenceis combines computer science robust datasets enable simple words Artificial Intelligence technology facilitates machines perform human behaviour industry machine learning playing role finance banking industry cases human perform task performing calculations process taught machine perform discuss examples applications running result machine learning industry Portfolio Management earlier days investor consult financial advisor understand risk appetite advise Today machine learning algorithms exists concept requires user give inputs financial status goals calculates risk tolerance constructs idle portfolio allocation users today find extremely physically visiting advisor paying Risk Underwriting Underwriting functions financial institutions insurance companies required underwrite risk customers loaning insurance policies underwriting activities based trends thumb rules industrywide introduced machine learning underwrite risks today larger accurate scale Algorithmic Trading Machine learning mathematical model tracks market information analyses massive data sources study market conditions simultaneously detect patterns trading humanly impossible fraction time Algorithmic systems make millions trades trading highly believed deep learning playing role calibrating trading decisions Fraud Detection increase dependency computers financial transactions data security risk ample amount valuable data stored online create potential risk Machine learning helped fraud detection detecting anomalies transactions flagging scrutiny based risk factors defined institutions Fraud identification insurance claims credit payments identity theft account theft areas fraud detection machine learning Process Automation Process automation common applications machine learning finance technology helped replacing work automate repetitive tasks avoid redundancy result increase productivity Machine learning benefitted organizations optimize costs improve customer experiences scale services examples financial banking firms process automation chatbots automated calls paperwork automation gamified employee training Customer onboarding highly competitive industry customer acquisition customer onboarding process highly relevant building customer relationship stage onboarding slight inconvenience delay act Machine complete automation process financial banking institutions Today opening account filing application completed minutes utmost ease customers behavioral patterns studied improvise make process efficient Customer churn multitude offerings availability plethora options customer stickiness big problem faced financial firms Customer churn forecasting big data cases helps detecting customers cancel subscription analyses tailor products customer Video streaming application Netflix subscribers worldwide continued reach 167 machine learning analytics customer database Decision Making Financial banking institutions function facilitating investments made customers Organizations constantly search customers revenue performing machine learning analysis structured unstructured data helps make informed decisions analyses data website mobile application construct effective marketing campaigns targeted customers Future Machine Learning Finance Financial monitoring security analysis prevention laundering network security investment predictions personalization customer service realm applications machine learning financial banking industry tip iceberg lot change future visibly imperative beginning create wave transformation industries adapting important survival technology applied financial firms bound turn FinTech stay relevant tech generation consisting millennials GenZs Final thoughts financial services industry entered space artificial intelligence machine learning surprising knowing positive brought Machine learning cases finance industry computer machine learning tools greatest applications include simplifying customer engagement accurate forecasting making industry efficient adaptation Machine learning algorithms capability lot human capacity eliminating human error algorithms constantly learning innovating serve completely flawless automated financial system future Nonetheless challenges cost lack resources play significant role firms adopt technologies future industry adopters prospects explore provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>38</v>
+      </c>
+      <c r="G40" t="n">
+        <v>23</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.245901635313088</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.08866279056880408</v>
+      </c>
+      <c r="J40" t="n">
+        <v>21.68253968253968</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.2745241581259151</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.782825536266239</v>
+      </c>
+      <c r="M40" t="n">
+        <v>24.31746031746032</v>
+      </c>
+      <c r="N40" t="n">
+        <v>815</v>
+      </c>
+      <c r="O40" t="n">
+        <v>375</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2716</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>8</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4.915088177661659</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>blackassign0041</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-human-robotics-machine-future-planet-blackcoffer-thinking-jobs-workplace/</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>How Robo Human will Impact the Future?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+It’s the year 2060. An automaton in a Research Laboratory says to a Scientist, “Warning! Error Occurred Reformatting Hard Disk Now!” The scientist panics. Automaton says again,” Ha! Ha! Just Kidding! “.
+Funny Right. Before some of you say that this joke isn’t realistic, “How can an Automaton tell you a joke?” But what if I tell you in 2017, “Sofia” the robot made a joke on the show Good Morning Britain! Who thought computers could tell us a joke? Hard to believe? Well, the idea of giving computers human-enjoy thinking has now become a reality. Thanks to the technological advancement in AI in the last decade.
+Before diving deep into how AI can impact the future of work, let’s begin with the simple question: what’s AI? Artificial Intelligence provides machines the power to think from data. The machine uses the patterns and trends found in data and makes its decision, but cannot create thought beyond these patterns and trends.
+With the rise of AI, humans are divided into one question. Are machines human’s friend or foe? Tech executives and politicians on conference stages, campaign rallies, and even science fiction Hollywood movies like Carbon Black, Westworld, Minority Report, and Ex Machina have given their take on this question. Some believe AI will help us solve problems while others believe that the rise of AI will result in destruction and maybe the end of the world, we all know.
+Stephen Hawking made it no secret of his concern about the rise of superhuman AI that eventually would escape earth to a new planet. No, this isn’t a plot of Black Mirror. Right now, Superhumans may not be a reality, but AI is.
+“Homo Deus”, the emergence of the new Digital God using AI. God must also worry, as AI might take his job.
+Here’s some Career Advice, have you thought about being a Robot? The fear that AI would automate all jobs in the future eventually leaving all humans jobless has been daunting for many workers today. Statistics show that nearly 37% of workers worry about losing their jobs to robots. While another thought that many people believe is that though the rise of AI with result in automating most of the jobs in the future, however, it also will create millions of new job opportunities.
+AI is already replacing most manual and repetitive tasks. For example, buying a metro ticket or a movie ticket is now almost a human-less interaction. Each year the number of industrial robot jobs increases by 14 %. At this rate, it’s predicted that the 20 million jobs in the manufacturing industry will be replaced by robots due to automation.
+The coronavirus pandemic and recession have boosted the demand for automation. The Robotic Process Automation (RPA) Software industry has experienced an increase of 19.53% in the year 2021. Coronavirus pandemic has increased interest in technology that reduces human contact as minimal for making workplaces safe.
+Our workplaces will look much different in the next five to ten years. AI will help humans in simplifying repetitive processes. The two most important catalysts for the future of work are the two D’s- Digitization and Datafication. Digitalization is converting data to digital formats (computer-readable). For example, text to Html, analog video to YouTube video. Digitization helps in increasing data exponentially. Datafication is quantifying human life to data and improving the data-driven business model. By 2025, it is forecasted that the digital transformation space will build in a $3,294 billion industry!
+One thing is clear, no data, no future of work. What we find is that the future of data and the future of work will go hand in hand. The total volume of data in the datasphere that is created, captured, copied, and consumed in the world is predicted to reach 175 zettabytes by 2025. To give you a much better picture for understanding, if we represent the digital universe as stacks of tablets, there would be 27.25 stacks from earth to the moon.
+It’s time to prepare for the data-dominated future as Industry 4.0/Fourth Industrial Revolution has begun. So, let’s see how artificial intelligence will affect the following fields:
+Human Resource: Nowadays, recruiters use AI-powered tools for hiring workers. Using these tools, recruiters get insights into a candidate’s skills, personality and even check whether the candidate is fit for the organization. For example, the company AllyO first identifies high-potential candidates through assessment and smart screening, and then automatically schedules interviews using AI. HR departments at large companies receive hundreds of resumes for a job opening. Entry-level roles focusing on screening and scheduling will be automated. AI will automate specific HR jobs, not HR roles. A Deloitte study found that AI has already eliminated 800,000 low-skilled jobs in the UK, but 3.5 million new jobs were also created. Roles that focus on complex decisions like resolving disputes within a department will continue to be a very human endeavor.
+Finance and Accounting: In 2015, a report from Accenture named “Finance 2020: death by digital” predicted that 40 percent of transactional accounting work would be automated by 2020. Has technology replaced the human factor? Well, AI has created new jobs involving managing the AI system and using the information to create insights. For example, accounting software has already automated bookkeeping tasks that used to be done by humans, but that’s only opened the door for former bookkeepers to learn skills needed to run and manage the software for employers and clients. Advisors are another crucial role of the accounting and finance team. Using the information gained from transactions in books, the team creates insights to improve business strategy. Owing to automation, the team spends more time analyzing numbers.
+Marketing and Sales: Marketing automation has helped companies strategize the proper utilization of the company’s resources, managing time, and achieving budget targets. Marketing automation has helped to draw conclusions at a scale no marketer ever would. In this process, marketers and machines both excel in different parts. Marketers using AI tools drive more conversions in less time. Human Intelligence with technology can help identify the right customers to talk to and at the right time. Modern Marketers understand the insights from any marketing campaign and create it into effective messaging.
+Engineering: Technology is changing in a blink of an eye. The technologies used five years ago in the industry have become obsolete today. Engineers will have to keep up with the technological advancements and keep upgrading their skills to stay relevant in the industry. Learning to work alongside machines and designing work such that interaction better humans and machines are better are going to be important skills for engineers in the future.
+In the 18th and 19th centuries, the rise of the industrial revolution centuries led to millions of people losing their jobs because of scientific advancements. But that also ended in creating millions of other jobs. Statisticians have said, when automation destroys jobs, people find new ones. Thus, AI holds a more optimistic picture for the future.
+In the future, AI is not going to replace humans, rather make jobs more humane. AI will disrupt millions of middle and entry-level jobs in the next few years but will also create millions of additional jobs and help to boost economies.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Robo Human Impact Future Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist 2060 automaton Research Laboratory Scientist Warning Error Occurred Reformatting Hard Disk scientist panics Automaton Kidding Funny joke realistic Automaton joke 2017 robot made joke show Morning Britain thought computers joke Hard idea giving computers thinking reality technological advancement decade diving deep impact future work begin simple question Artificial Intelligence machines data machine patterns trends found data makes decision create thought patterns trends rise humans divided question machines human foe Tech executives politicians conference stages campaign rallies science fiction movies Carbon Westworld Minority Report Machina question solve problems rise result destruction end world Hawking made secret concern rise superhuman eventually escape earth planet plot Mirror Superhumans reality Homo Deus emergence Digital God God worry job Career Advice thought Robot fear automate jobs future eventually leaving humans jobless daunting workers today Statistics show 37 workers worry losing jobs robots thought people rise result automating jobs future create millions job opportunities replacing repetitive tasks buying metro ticket movie ticket interaction number industrial robot jobs increases 14 rate predicted 20 jobs manufacturing industry replaced robots due automation coronavirus pandemic recession boosted demand automation Robotic Process Automation RPA Software industry experienced increase 2021 Coronavirus pandemic increased interest technology reduces human contact minimal making workplaces safe workplaces years humans simplifying repetitive processes important catalysts future work Digitization Datafication Digitalization converting data digital formats text Html analog video YouTube video Digitization helps increasing data exponentially Datafication quantifying human life data improving business model 2025 forecasted digital transformation space build industry thing clear data future work find future data future work total volume data datasphere created captured copied consumed world predicted reach 175 zettabytes 2025 give picture understanding represent digital universe stacks tablets stacks earth time prepare future Industry Industrial Revolution begun artificial intelligence affect Human Resource Nowadays recruiters tools hiring workers tools recruiters insights candidate skills personality check candidate fit organization company AllyO identifies candidates assessment screening automatically schedules interviews HR departments companies receive hundreds resumes job opening roles focusing screening scheduling automated automate specific HR jobs HR roles study found eliminated jobs UK jobs created Roles focus complex decisions resolving disputes department continue human endeavor Finance Accounting 2015 report Accenture named Finance 2020 death digital predicted 40 percent transactional accounting work automated 2020 technology replaced human factor created jobs involving managing system information create insights accounting software automated bookkeeping tasks humans opened door bookkeepers learn skills needed run manage software employers clients Advisors crucial role accounting finance team information gained transactions books team creates insights improve business strategy Owing automation team spends time analyzing Marketing Marketing automation helped companies strategize proper utilization company resources managing time achieving budget targets Marketing automation helped draw conclusions scale marketer process marketers machines excel parts Marketers tools drive conversions time Human Intelligence technology identify customers talk time Modern Marketers understand insights marketing campaign create effective messaging Engineering Technology changing blink eye technologies years ago industry obsolete today Engineers technological advancements upgrading skills stay relevant industry Learning work alongside machines designing work interaction humans machines important skills engineers future 18th 19th centuries rise industrial revolution centuries led millions people losing jobs scientific advancements ended creating millions jobs Statisticians automation destroys jobs people find holds optimistic picture future future replace humans make jobs humane disrupt millions middle jobs years create millions additional jobs boost economies provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>36</v>
+      </c>
+      <c r="G41" t="n">
+        <v>30</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.09090908953168046</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.09705882338667821</v>
+      </c>
+      <c r="J41" t="n">
+        <v>16.31395348837209</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.225231646471846</v>
+      </c>
+      <c r="L41" t="n">
+        <v>6.615674053937576</v>
+      </c>
+      <c r="M41" t="n">
+        <v>19.08139534883721</v>
+      </c>
+      <c r="N41" t="n">
+        <v>858</v>
+      </c>
+      <c r="O41" t="n">
+        <v>316</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2597</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4.360635696821516</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>blackassign0042</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/how-ai-will-change-the-world-blackcoffer/</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>How AI will change the World?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+The way work is being done now is destined to undergo massive transformational changes which will impact humans and their ways of working dramatically. With the development of the new machine programs, A.I. is all set to take over the humans in their workplace as no other did. Now we are not only in competition with other beings but with robots too. And robots will overcome us in our fields of work.
+At present we are being surrounded by A.I. from dusk till dawn, from facial recognition present in our mobile application to dating websites/applications which uses decision making as their algorithms and learn from the past data as well. It is believed that A.I. has grown over 270% over the last years.
+First, let us know what A.I. is and all the fuss going on about it?A.I. as defined by the internet is simply ‘simulation of human intelligence in machines that are programmed to think like humans and mimic their actions’. This translates to, it can work as a human being just at fast speed and with 100% accuracy.In my definition I would define A.I. as the god form of human beings.
+Now the question that arises is, what does A.I. entails for the future?
+A.I. is fancy enough to continue existing in our minds all the time, but it does come with certain limitations and threats which is a cause for a peaceful sleep for most of the workers. With its introduction to different areas of the workplace, it is clear that half of the human jobs would be taken up by A.I. and then there would arise a need for more jobs for humans in new upcoming AI-based ventures in different industries. Thereby giving us our fair share back to us.
+In a survey, it was found that some believed that AI will be devastating for humans and while some professionals and tech-savvy people believed that inculcating AI technology into business and our daily lives would be a remarkable step as it will lead to the flourishment of business in the future and give them a competitive edge over their rivals.
+People believed that when these advanced technologies would come together to work with humans, they will produce a smarter strategic decision with productive collaborative practices. More modern technology prevailing in the organization will lead to stress reduction and produce more satisfying results thereby making the organization more efficient.
+The Organizations who are in use of the AI technology responds by saying that their managers are more comfortable using A.I. and are accustomed to it and the organizations are now looking forward to having integration of higher-end technology systems, as it is believed that new technology will result in more productivity thereby making more profits in the long run.
+Many jobs today require AI and humans working in collaboration, which creates a positive signal that in the future to humans would be working closely with the technology. Beyond just training and developing these machines, humans would be working in close vicinity with them and making decisions on how to act on the result that is given by the machine.
+It can be said that both the AI advanced technology and human can’t remain in the workforce without each other, as the technology will produce accurate and top-notch results but it requires someone to make delivery.e.g., in a firm, an AI-based system produces results based on historical data but there is a need for someone to analyze and communicate and present this data to the respective stakeholders whether inside or outside of the organization.
+Various uses of artificial intelligence technology in day-to-day functions in regards to interactions with humans are:
+Artificial intelligence as we know works on algorithms, neural networks, and deep learning which all are analytical tools that help AI in taking analytical decisions based on the data provided.
+Whereas, humans on the other hand take higher-level decisions based on ‘Intuition’ sometimes, which refers to the gut feeling that generates in humans concerning any situation or challenge.
+AI alone can’t work to handle critical situations on its own as it needs humans for it to reciprocate them and share the information with stakeholders, and humans alone can’t anticipate much on the accurate and fast-paced analytical solutions to the problems persisting in place of the situation.
+The strength of humans and AI working in synergy can be surprisingly beneficial and advantageous to organizations.
+It is believed that machines in the future would be eating up our traditional jobs. But the reality seems to be turning otherwise.
+The future trend shows that in future the AI-powered technology would take up jobs that were being done by humans but in return would produce more jobs that would require human interference with them. As and when the newer technology is approaching more and more countries are now proceeding towards GIG Economies, and so in the future, we can witness an increase in freelance jobs and the permanent labor market norms could reduce drastically.
+Some of the jobs today will be replaced by AI which is in the transportation or retail commerce sector that can be 100% automated in the future years. There is an ‘Amazon Go’ store that uses this technology which goes by the name ‘Just walk out technology’ wherein there is no need for any human-induced workforce and all the operations are carried out by AI-powered technologies, which is indeed a breakthrough technology in today’s world.
+Rather than eating up our jobs AI in return will be creating more jobs in the future by creating massive innovations thereby fueling up many new industries and thereby giving us our fair share of jobs back.
+There will be a lot of demand placed on the upcoming young workforce which is also categorized as ‘Gen Z’. They are expected to know more about technology and would be high in demand.  These young generations are required to learn new skills which are needed to survive in the dynamic changing environment, and as most of the activities that are carried out by workers will be automated, there will be demand for people working in the back office and maintaining and developing the technology to its best versions.
+AI powered technology has its limitations which makes it a rigid system to hold on to and also which makes it a costly affair at the initial stage.
+It was predicted that the cost of electricity to power a supercharged AI model was around $4.6 million. So, this super-powered AI can be purchased only by big fortune firms and thereby creating more value to their net worth.
+One of the major limitations of AI is that it can contain biased data as the scientists who put in the data can create biasedness and so the resultant output of the same would have a biased report.
+These machines as do not have neuroscience-based technology in them yet which enables them to carry human emotions to understand complex situations and a creative way out of that, they tend to have a lack of out of box thinking which in the case is rigid in themselves as they are programmed to work on a single task and they cannot perform more than a single task at the same time.
+It is also believed that there exists no creativity among the computer, no matter it is fast-paced, but they are not intelligent.
+Businesses and organizations need to understand and anticipate the opportunities that the future holds for them and they need to start training their employees based on today’s dynamic changing technology. While it’s still unclear what does the future holds for us, but the anticipation of it could benefit us in several ways.
+As we are unclear about what the future looks like, we need to think in probable terms how it could turn out to be and then employ specific training programs for the employees of the organization.The training the employees are needed to be done on a continuous and lifetime basis which means that education won’t be only limited to PG degrees but will be now a lifetime process of learning.
+As the Covid-19 changed the scenario of the work patterns around the world, we now need to think strategically about the working dynamics of the future and how does it look like compared to the pre-covid and post-covid scenario.
+Employees will be playing a major role in transforming the organizations and work practices in the upcoming future, so organizations need to select and recruit the best candidates among the pool and then provide them with best practices of the new machines and make proficient in their area of work. Policies need to be developed to hire the best people and then retaining the talent in the organization.
+There needs to be a continuous scanning of the environment by the organizations to comprehend any new trends and assess them, not all trends will be beneficial for organizations, they must be aware of the prospects and plan for the future systematically and consistently.
+There lies a possibility in future certain years from now, we could have machines who will have general human intelligence who would be able to answer deep meaningful questions asking ‘Why are the curtains blue?’, would be able to clean cars, play politics and tell jokes to us, and by using deep and machine learning programs their level of intelligence would be beyond mathematical calculations to us. That’s how good machines will be in the future, but to make ourselves competitive with machines, we would need to train ourselves for the impending ambiguous future ahead of us.
+Humans and machines need to work in synergy to get beneficial and satisfying results for both parties.
+Machines are indeed going take away many of our jobs, but let me make you sleep peacefully tonight, the machines aren’t arriving until we’re retired.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>change World Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist work destined undergo massive transformational impact humans ways working dramatically development machine programs set humans workplace competition beings robots robots overcome work present surrounded dusk till facial recognition present mobile application dating decision making algorithms learn past data believed grown 270 years fuss defined internet simply simulation human intelligence machines programmed humans mimic actions translates work human 100 definition define god form human beings question arises entails future fancy continue existing minds time limitations threats peaceful sleep workers introduction areas workplace clear half human jobs arise jobs humans upcoming ventures industries giving share survey found believed devastating humans professionals people believed inculcating technology business lives remarkable step lead flourishment business future give competitive rivals People believed advanced technologies work humans produce smarter strategic decision productive collaborative practices modern technology prevailing organization lead stress reduction produce satisfying results making organization efficient Organizations technology responds managers comfortable accustomed organizations forward integration technology systems believed technology result productivity making profits run jobs today require humans working collaboration creates positive signal future humans working closely technology training developing machines humans working vicinity making decisions act result machine advanced technology human remain workforce technology produce accurate results requires make firm system produces results based historical data analyze communicate present data respective stakeholders inside organization artificial intelligence technology functions interactions humans Artificial intelligence works algorithms neural networks deep learning analytical tools taking analytical decisions based data provided humans decisions based Intuition refers gut feeling generates humans situation challenge work handle critical situations humans reciprocate share information stakeholders humans anticipate accurate analytical solutions problems persisting situation strength humans working synergy surprisingly beneficial advantageous organizations believed machines future eating traditional jobs reality turning future trend shows future technology jobs humans return produce jobs require human interference newer technology approaching countries proceeding GIG Economies future witness increase freelance jobs permanent labor market norms reduce drastically jobs today replaced transportation retail commerce sector 100 automated future years Amazon store technology walk technology workforce operations carried technologies breakthrough technology today world eating jobs return creating jobs future creating massive innovations fueling industries giving share jobs lot demand upcoming workforce categorized Gen expected technology demand generations required learn skills needed survive dynamic changing environment activities carried workers automated demand people working office maintaining developing technology versions powered technology limitations makes rigid system hold makes costly affair initial stage predicted cost electricity supercharged model purchased big firms creating net limitations biased data scientists put data create biasedness resultant output biased report machines technology enables human emotions understand complex situations creative tend lack thinking rigid programmed work single task perform single task time believed exists creativity computer matter intelligent Businesses organizations understand anticipate opportunities future holds start training employees based today dynamic changing technology unclear future holds anticipation benefit ways unclear future probable terms turn employ specific training programs employees training employees needed continuous lifetime basis education limited PG degrees lifetime process learning changed scenario work patterns world strategically working dynamics future compared scenario Employees playing role transforming organizations work practices upcoming future organizations select recruit candidates provide practices machines make proficient area work Policies developed hire people retaining talent organization continuous scanning environment organizations comprehend trends assess trends beneficial organizations aware prospects plan future systematically consistently lies possibility future years machines general human intelligence answer deep meaningful questions curtains clean cars play politics jokes deep machine learning programs level intelligence mathematical calculations machines future make competitive machines train impending ambiguous future ahead Humans machines work synergy beneficial satisfying results parties Machines jobs make sleep peacefully tonight machines arriving retired provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>59</v>
+      </c>
+      <c r="G42" t="n">
+        <v>25</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.4047618999433107</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.1165048542073442</v>
+      </c>
+      <c r="J42" t="n">
+        <v>27.60606060606061</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.1893523600439078</v>
+      </c>
+      <c r="L42" t="n">
+        <v>11.11816518644181</v>
+      </c>
+      <c r="M42" t="n">
+        <v>30.71212121212121</v>
+      </c>
+      <c r="N42" t="n">
+        <v>937</v>
+      </c>
+      <c r="O42" t="n">
+        <v>345</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3243</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>12</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4.390424481737414</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>blackassign0043</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/future-of-work-how-ai-has-entered-the-workplace/</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Future of Work: How AI Has Entered the Workplace
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Artificial intelligence and employment are the burning issues nowadays workers need clarity on as we head into the longer term. This article focuses on the various impact of AI on our jobs and explains the benefits of AI in our workplace. That right there must have hit a nerve. However, everything is about to change because this article highlights some of the reasons we should not fear AI.
+AI is the abbreviation of Artificial Intelligence. Artificial intelligence is often defined as a set of various technologies which will be brought together to permit machines to act with what appears to be human-like levels of intelligence. This includes learning rules required to make certain decisions and reasoning to arrive at certain conclusions, learning from past experiences, and self-correction.
+AI is of two types.
+1940
+Expectations that machines could match humans in terms of general intelligence. By that, we mean machines could have the capability to find out, Reason, and React.
+1950
+Alan Turing develops the Turing Test; a test to determine whether a machine is intelligent.However, it wasn’t for another 60 years or so that any program was deemed to have passed.
+1955
+The first time a computer virus defeats a person’s World Champion during a parlor game.
+1956
+John McCarthy invents the new term ‘Artificial Intelligence’ when he held the primary Academic Conference on the subject of AI.
+1962
+Arthur Samuel‘s machine learning checkers (draughts) program, beat a checkers master.
+1980
+Reinforcement Learning is introduced. This is a kind of programming that uses rewards and punishments to coach a machine to interact with its environment.
+2012
+A research group led by Geoffrey Hinton wins the Image Net competition – this competition requires AI to categorize about 1.2 million images into any of 10,000 different categories. The level of accuracy was adequate to that of the typical human completing an equivalent task manually.
+2014
+Eugene Goostman’s chatbot, a bot pretending to be a 13-year-old boy, supposedly passes the Turing Test, a test which nobody has passed before! But controversy arose with this claim as:
+1. Experts claim it only lasted five minutes.
+2. It had been deemed biased as Eugene’s mother tongue (Ukrainian) wasn’t equivalent to the judge’s (English), which is a plus as language is one among the few ways we will tell the difference between a person’s and machine.
+2018
+Alibaba’s AI Model performs better than humans during a reading and comprehension test at Stanford University, scoring 82.44 against the 82.304 scored by humans!
+Artificial Intelligence (AI) is here to remain, and lots of people aren’t happy. After all, it’s hard to embrace something that would displace about 40 percent of human jobs within the next 15 years. In an interview for CBS’s hour, Kai-Fu Lee (a Chinese AI expert) also mentioned truck drivers, chauffeurs, waiters, and chefs as a number of the professions that will be disrupted.
+But if you were to ask the experts, they might unwaveringly confirm that no matter all the noise, AI is here to profit us all. Case in point, an executive briefing by the McKinsey Global Institute revealed that AI and automation are creating opportunities for the economy, society, and business.
+That said, it’s time to repress the widespread idea of artificial intelligence taking jobs. So, let’s highlight a number of the useful developments you’ll expect from this technological phenomenon.
+While the relationship between artificial intelligence and jobs is a matter of hot debate, it is still safe to say that AI will indeed offer new opportunities. According to the planet Economic Forum report, robots and AI will create as many AI jobs as they displace. This conclusion is entirely viable as it is easy to identify some of the many careers in artificial intelligence, for example, data scientists, who evaluate the decisions made by AI algorithms to eliminate any biases. Apart from that, some other AI occupations include:
+Transparency analysts: people tasked with classifying the varied sorts of opacity for algorithms. Smart-system interaction modelers: experts who develop machine behavior based on employee behavior. Machine-relations managers: people that champion the greater use of algorithms that perform well. As far because the competition for jobs between humans and robots goes, worth noting is that there are jobs that AI can’t replace. Roles that need leadership, empathy, and delegation are samples of the various jobs that are safe from automation.
+Automation will stir positive change in the workplace. When AI is employed during recruitment or maybe performance management, all workers are going to be evaluated in an unbiased, fact-based manner. In turn, Human Resources managers can get to consider other essential strategic undertakings that ensure balance within the workplace.
+AI can help HR departments to use machine learning (ML) in discovering where issues like bias stem from and assist them to act accordingly faster. ML shines in identifying instances of bias. In turn, this may promote fairness and variety within the work setting.
+The impact of AI in business is already felt, and this is often expected to continue through to the longer term. A few years from now, AI-oriented architecture is forecasted to require the lead in assisting businesses to hold out operations in additional comprehensive ways, thus shifting them from traditional data science and machine learning models. It will be necessary to maneuver to business outcomes because AI will play an important role in multiple aspects of the business. While there is no way of telling the future of artificial intelligence in business for sure, it makes sense for owners to keep up with the evolution to avoid being left behind.
+The workforce of the longer term will lean more towards innovation and creativity. Businesses have spent higher a part of the previous couple of years studying AI automation and the way they will leverage it to realize results fast. With statistics showing that workers spend up to 40 percent of their hours at work performing repetitive tasks, every business should consider automating any functions which will be automated. Automation is not new; machines have been replacing human labor in different areas for decades.
+However, within the coming years, mundane daily tasks will become fully automated. Already, 39 percent of organizations were completely reliant on automation in 2018. With repetitive tasks taken care of, employees can focus their energies on high-value customer-oriented tasks and collaboration. The designs of workplaces and workflows will also change with the implementation of AI technology. More people will begin to figure more closely with machines as companies will strive to become more agile.
+Companies that implement AI in their business strategy will experience dramatic improvements in their customer experiences, and their employees are going to be more motivated. Encouraging creativity rather than the performance of repetitive tasks gives workers more fulfillment in their jobs as well.
+With the web of things and AI working hand in hand, identifying trends and solving problems within the business world will become more convenient and also sustainable. AI, alongside other technologies, is predicted to vary the planet by impacting the way businesses run. With time, we’ll be ready to combine both human and artificial brains to seek out solutions to major global problems.
+It will even be easier to foresee problems with more accuracy and nip them at the bud with the help of AI. But these positive impacts can only be felt if stakeholders are transparent and mindful in their use of the technology for the greater good of everyone else.
+According to a report by PWC, 54 percent of companies confirm that the implementation of AI-driven solutions in their companies has already improved productivity. AI and automation, even once they are implemented partially, have unlimited potential for any business. Workers’ skills, attitude, training, command chain, and workflows protocols are a number of the leading productivity challenges that companies face.
+Apart from increasing productivity, AI systems will help businesses to chop down on costs, improve the standard of their products or services, and make better customer profiles. As a result, companies also will get higher profits, which may be shared among stakeholders as dividends, or reinvest it back within the business. Improved productivity also means firms are going to be ready to sell their products at lower prices, thereby creating more demand among customers and more job opportunities for workers. Businesses can, therefore, use human labor to take up those jobs that have been created by AI and cannot be automated.
+Artificial Intelligence isn’t showing any signs of slowing down. Soon, it’ll become another necessity of life, a bit like the web. But for now, more and more businesses are beginning to realize how invaluable AI automation and data interpretation are. Though machines will take some jobs initially, the roles created by automation will also keep soaring within the next few years.
+Will, we’ve reached the purpose of accelerating human intelligence by artificial means? Who knows? What we all know, however, is that those that are going to be sought-after in AI and employment are individuals who have the relevant skills. There’s work that not even the machines can do; so, we should make ourselves as valuable as we can be in our field and we will be irreplaceable.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Future Work Entered Workplace Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Artificial intelligence employment burning issues nowadays workers clarity longer term article focuses impact jobs explains benefits workplace hit nerve change article highlights reasons fear abbreviation Artificial Intelligence Artificial intelligence defined set technologies brought permit machines act appears levels intelligence includes learning rules required make decisions reasoning arrive conclusions learning past experiences types 1940 Expectations machines match humans terms general intelligence machines capability find Reason React 1950 Turing develops Turing Test test determine machine 60 years program deemed passed 1955 time computer virus defeats World parlor game 1956 invents term Artificial Intelligence primary Academic Conference subject 1962 machine learning checkers draughts program beat checkers master 1980 Reinforcement Learning introduced kind programming rewards punishments coach machine interact environment 2012 research group led wins Image Net competition competition requires categorize images categories level accuracy adequate typical human completing equivalent task manually 2014 Goostman chatbot bot pretending boy supposedly passes Turing Test test passed controversy arose claim 1 Experts claim lasted minutes 2 deemed biased mother tongue Ukrainian equivalent language ways difference machine 2018 Alibaba Model performs humans reading comprehension test University scoring scored humans Artificial Intelligence remain lots people happy hard embrace displace 40 percent human jobs 15 years interview CBS hour expert mentioned truck drivers chauffeurs waiters chefs number professions disrupted experts unwaveringly confirm matter noise profit point executive briefing McKinsey Global Institute revealed automation creating opportunities economy society business time repress widespread idea artificial intelligence taking jobs highlight number developments expect technological phenomenon relationship artificial intelligence jobs matter hot debate safe offer opportunities planet Economic Forum report robots create jobs displace conclusion viable easy identify careers artificial intelligence data scientists evaluate decisions made algorithms eliminate biases occupations include Transparency analysts people tasked classifying varied sorts opacity algorithms interaction modelers experts develop machine behavior based employee behavior managers people greater algorithms perform competition jobs humans robots noting jobs replace Roles leadership empathy delegation jobs safe automation Automation stir positive change workplace employed recruitment performance management workers evaluated unbiased manner turn Human Resources managers essential strategic undertakings ensure balance workplace HR departments machine learning ML discovering issues stem assist act faster ML shines identifying instances turn promote fairness variety work setting impact business felt expected continue longer term years architecture forecasted require lead assisting businesses hold operations additional comprehensive ways shifting traditional data science machine learning models maneuver business outcomes play important role multiple aspects business telling future artificial intelligence business makes sense owners evolution avoid left workforce longer term innovation creativity Businesses spent higher part previous couple years studying automation leverage realize results statistics showing workers spend 40 percent hours work performing repetitive tasks business automating functions automated Automation machines replacing human labor areas decades coming years mundane tasks fully automated 39 percent organizations completely reliant automation 2018 repetitive tasks care employees focus energies tasks collaboration designs workplaces workflows change implementation technology people begin figure closely machines companies strive agile Companies implement business strategy experience dramatic improvements customer experiences employees motivated Encouraging creativity performance repetitive tasks workers fulfillment jobs web things working identifying trends solving problems business world convenient sustainable alongside technologies predicted vary planet impacting businesses run time combine human artificial brains seek solutions global problems easier foresee problems accuracy nip positive impacts felt stakeholders transparent mindful technology greater report PWC 54 percent companies confirm implementation solutions companies improved productivity automation implemented partially unlimited potential business Workers skills attitude training command chain workflows protocols number leading productivity challenges companies face increasing productivity systems businesses chop costs improve standard products services make customer profiles result companies higher profits shared stakeholders dividends reinvest business Improved productivity firms products prices creating demand customers job opportunities workers Businesses human labor jobs created automated Artificial Intelligence showing signs slowing necessity life bit web businesses beginning realize invaluable automation data interpretation machines jobs initially roles created automation soaring years reached purpose accelerating human intelligence artificial employment individuals relevant skills work machines make valuable irreplaceable provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>66</v>
+      </c>
+      <c r="G43" t="n">
+        <v>21</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.5172413733650417</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.1109693876135595</v>
+      </c>
+      <c r="J43" t="n">
+        <v>20.41176470588235</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.2219020172910663</v>
+      </c>
+      <c r="L43" t="n">
+        <v>8.253466689269366</v>
+      </c>
+      <c r="M43" t="n">
+        <v>23.47058823529412</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O43" t="n">
+        <v>385</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3232</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>11</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4.474133601205424</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>blackassign0044</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-tool-alexa-google-assistant-finance-banking-tool-future/</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>How machine learning used in finance and banking?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Through AI tools like natural language processing, Alexa and google assistant has led the retail industry in its rise towards conversational commerce. As if a customer was interacting with a clerk in a retail store, conversational commerce makes it possible for users to engage with software to research, purchase, or get customer assistance with products and services across a wide range of industries. With Alexa, for example, users can ask any Alexa-enabled device to add an item to an Amazon shopping cart, set a purchasing reminder when a product is running low, or carry out a complete purchase without having to access a shopping cart. The result is a seamless conversational experience that enables consumers to carry out transactions as quickly as it takes to speak a sentence.
+Through AI tools like natural language processing, Alexa has led the retail industry in its rise towards conversational commerce. As if a customer was interacting with a clerk in a retail store, conversational commerce makes it possible for users to engage with software to research, purchase, or get customer assistance with products and services across a wide range of industries.
+With the advent of personalized products and on-call delivery, customers have come to expect a new standard experience: fast, easy, accurate, and personalized. Accomplishing this without sacrificing your workday can be a challenge, since the data processing required to meet these needs is immense. Luckily, virtual agents (VAs), powered by conversational AI, can utilize this information faster and more accurately than humans, finding insights and automating communication to deliver an enriched customer experience. If you invest based on these improvements, you’ll find that implementing these tools delivers a powerful competitive advantage. AI has helped in automobile, education, retail and commerce, finance and banking and healthcare.
+Voice AI has powered the wheels of conversational e-commerce, which has impacted the way the customer communicates with the brand in multiple industries. Brands generally build a campaign to emotionally connect with customers, for long-term growth. With Voice, brand campaigns need to be short and ones that can lead to immediate buying. Conversational e-commerce is still in its nascent stage and it is expected to grow manifold in the coming years. The future of shopping is going to Voice AI and marketers have to get on the bandwagon fast to increase their brand value and visibility. Targeting will have to be highly personalized for success.
+Despite its narrow focus, conversation AI is an extremely lucrative technology for enterprises, helping businesses more profitable. While an AI chatbot is the most popular form of conversational AI, there are still many other use cases across the enterprise.
+While an exclusively chat- or voice-based shopping experience for all scenarios may never completely replace the in-person experience, conversational commerce will continue to grow as an added method of convenient and efficient communication. As users continue to become more accustomed to engaging with chatbots and voice-driven interfaces, expect more innovations in the space as brands continue to develop their unique conversation-based solutions.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>machine learning finance banking Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist tools natural language processing google assistant led retail industry rise conversational commerce customer interacting clerk retail store conversational commerce makes users engage software research purchase customer assistance products services wide industries users device add item Amazon shopping cart set purchasing reminder product running complete purchase access shopping cart result seamless conversational experience enables consumers transactions quickly takes speak sentence tools natural language processing led retail industry rise conversational commerce customer interacting clerk retail store conversational commerce makes users engage software research purchase customer assistance products services wide industries advent personalized products delivery customers expect standard experience easy accurate personalized Accomplishing sacrificing workday challenge data processing required meet immense Luckily virtual agents VAs powered conversational utilize information faster accurately humans finding insights automating communication deliver enriched customer experience invest based improvements find implementing tools delivers powerful competitive advantage helped automobile education retail commerce finance banking healthcare Voice powered wheels conversational impacted customer communicates multiple industries Brands generally build campaign emotionally connect customers growth Voice campaigns lead buying Conversational nascent stage expected manifold coming years future shopping Voice marketers bandwagon increase visibility Targeting highly personalized success narrow focus conversation extremely lucrative technology enterprises helping businesses profitable chatbot popular form conversational cases enterprise exclusively shopping experience scenarios completely replace experience conversational commerce continue added method convenient efficient communication users continue accustomed engaging chatbots interfaces expect innovations space brands continue develop unique solutions provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>31</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.937499970703126</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.08743169375018663</v>
+      </c>
+      <c r="J44" t="n">
+        <v>25.59259259259259</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3010130246020261</v>
+      </c>
+      <c r="L44" t="n">
+        <v>10.35744224687785</v>
+      </c>
+      <c r="M44" t="n">
+        <v>29.62962962962963</v>
+      </c>
+      <c r="N44" t="n">
+        <v>436</v>
+      </c>
+      <c r="O44" t="n">
+        <v>208</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1435</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4.8360450563204</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>blackassign0045</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-healthcare-revolution-ml-technology-algorithm-google-analytics-industrialrevolution/</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>How AI will impact the future of work?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+AI experts believe it’s going to be one of the maindriversof the fourthIndustrial Revolutionand that it has the potential to not just transform the tech sectors and going to open a new chapter of the society of the world that people try to understand themselves better rather than the outside world with AI because people who are naysayer and kind of try to drum up these doomsday scenarios are pretty irresponsible. After all, In the next, five to ten years AI is going to deliver so many improvements and the quality of our lives it is arenaissance, a golden age ofmachine- learningandartificial intelligencethat was the realm of science fiction for the last several decades. AI is probably the most important thing humanities that have ever worked which is more profound than any work with technology, as it is important to harness the benefits and while minimizing the downside is focusing on autonomous systems like self-driving cars seen as the mother of all AI projects and has made applications likeself-driving technologyviable for the first time, three things happen at the same time number one data collection and data processing became easier because of better technologies right um you need data to fuel AI training and that’s been one of the big drivers the second thing that has happened is thatcomputer processinghas become faster that’s like the engine so no matter how much fuel you have if you don’t have that engine and processing the data on a timeframe that’s reasonable was just not possible and the third thing that’s happened is thatnew algorithmshave been developed which has made AI much more powerful so #technology has been changing and developing at a pace that’s much faster than ever before and we have not been used to this rapid pace of change which means that we have not been used to thinking about how it’s going to impact our immediate future. The most important factor responsible for the growth of AI isGoogleand its AI what Google’s done is given all of us the power to get the relevant information we want at our fingertips this has created a shift in how things are bought but it didn’t happen overnight this started in 2004 but the major change only happens to start 2012 onwards Google’s taken away about 65% of sales people’s jobs that were primarily order takers and the ones that are remaining are likely to be gone over the next decade.
+In present several AI projects are helping in diagnosing diseases better match up drugs with people depending on what they’re sick they can get treated better so it’s going to help a whole lot of people get treated and get better #healthcare than would have had access to it before if you look at self-driving cars they’re going to be safer than people driving cars and the value that machine learning is providing is actually happening beneath the surface and it is things like improved search results improved product recommendations for customers improve forecasting for inventory management and literally hundreds of other things including speech-recognition or image-recognition that the performance levels are phenomenal  or drug discovery as these biological systems are very complicated because vaccines for TB and HIV developing that’s notably enabled by this rich data advanced in biology and machine learning and recent invention in which is an application we just launched for anybody with visual impairment ass it uses the latest cutting-edge computer vision technology to give anyone the ability to see, so anyone who has dyslexia can now use AI to be able to read better and with the  latest release of Windows 10 has this capability called IJ’s which enable the eye muscle that the gaze can help to type. Like the two sides of the coin, there are negative impacts of AI as well  Bill Gates Ellen Musk also tech giants in a way their views are pessimistic, to say the least, they warned against the potential of AI to replace humans in the workplace and Ella masks even went as far as to claim that AI is the biggest existential threat to mankind. because of the loss of a job, when you think about a job or a career choice if a majority of the tasks that comprise that career choice is likely to be these vulnerable tasks then that is a career at risk in the future so what are the tasks that AI will find? hard to do anything unpredictable anything that requires skills like creative thinking or empathy or interpersonal skills but it’s important to understand tomorrow whether Google is there or not, artificial intelligence is going to progress you know technology has just nature it’s that it’s going to evolve as  technology and in particular AI can, in fact, bring more empowerment more inclusiveness and at the same time it is important to be clear-eyed about displacement and unintended consequences like any other technology and work both skills so that people can find the jobs of the future create new jobs also the policy decisions that help people as they go through this change people already unhappy because of machine learning artificial intelligence as they think  if they’re not innovative enough or not creative enough your job will be taking away by a lot of machines AI for business going to affect the future of work specifically there are jobs that are at more risk of being taken over by AI and automation there is very wide dissonance on this, there are different reports that have been shared by  Oxford study that says 47% of US jobs are at risk of automation over the next few years meanwhile the general population and workers think differently a recent study conducted by college actually identifies that 97% of workers believe that most jobs will be automated but not their own this suggests that the general public needs to be educated on which jobs are  susceptible to this risk which are not and businesses need to be aware of the forthcoming skills gap of course not all jobs are equal the Oxford study that highlights this they examined 700 participants and found the generalist occupations that require creative knowledge or innovation are at least risk the same is true for occupations in education healthcare media and arts jobs on the flip side jobs like telemarketers junior lawyers accountants are at most risk in short there is a simple rule of thumb if your job is in some way predictable or routine the risk of automation is much higher if a job doesn’t require innovation or creativity then the return on investment for companies is higher on machines than real-time employees machines are faster can’t be distracted and can work 24/7 this is actually good for creative marketers because AI and automation can serve to augment their jobs rather than substituting them as impact of emerging technologies on the creative economy they stated that artificial intelligence is changing  creative content from beginning to end by 2030 AI will be able to write high school essays code in Python composed top 40s chart songs and make creative videos but all of these advancements also come with risks and costs take a look at this report by the global Commission on the future of work in the absence of effective transition policies many people will have to accept lower skilled and lower paying jobs high-skilled workers are taking less cognitively demanding jobs displacing less educated workers and this is already happening also technological dividends are being unevenly distributed among firms a very limited amount of companies tend to dominate when it comes to big data just think about Google and Facebook today they alone are responsible for 70% of the referral marketing traffic and  receive more than 50% of total global advertising budget so the question is in businesses workers and social institutions go into the same direction if companies and public policy leaders can understand the evolving landscape they can help the workforce anticipate the upcoming challenges technology and the demographic changes are leading to a smaller workforce compared to the previous generation and a workforce that has to pursue many careers during their time of work we need to provide workers with an environment where they can continuously upskill and grow governments will have to re-evaluate the educational system we will have to continuously learn and grow and companies will have to redesign their structure and their culture around technology just like during the Industrial Revolution we are heading into a new age and the great transformation that we’re about to see by 2022 it is estimated that 20 to 25 percent of the labor force will be displaced within 10 to 20 years however this is also an opportunity for people to get ahead for which different ways have to be find to attract and retain highly skilled workers and allow them the time to up skill themselves even during work hours and it is a  good way  to develop a learning community to benefit from each other and also to use technology to supplement goal tracking and  efforts instead of as a distraction in short what we are doing is  to bridge the dissonance and it is imperative to build a  map of how AI and automation will affect  industry and  company if this is an economic imperative how do people feel about committing itself to a lifelong approach to knowledge as  these risks are important but it is important to do things like from being upfront to have ethical charters like AI safety and to be very transparent and open and how we perceive progress there and figure out global frameworks by which we can engage just like Paris agreement and climate change by using  such forums bring people together as they engage on the hard questions and it will emerge answers and on the question of whether AI is a threat or not, artificial intelligence is not  a threat because there is a rare case where people need to be proactive in regulation instead of reactive because I think by the time we are reactive in AI regulation it’s too late right now we have machine learning algorithms that can solve an incredibly complex problem beyond any human intelligence  as they are mere machines that can be given enormous data set and they come up with brilliant correlations and insights but they’re not going threaten the human population anytime soon because fish intelligent isn’t terrible but human being a smart enough to learn that skills at least to have a complete toolbox to be prepared volatility of the future adaptability.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>impact future work Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist experts maindriversof fourthIndustrial Revolutionand potential transform tech sectors open chapter society world people understand world people naysayer kind doomsday scenarios pretty irresponsible years deliver improvements quality lives arenaissance age learningandartificial intelligencethat realm science fiction decades important thing humanities worked profound work technology important benefits minimizing downside focusing autonomous systems cars mother projects made applications technologyviable time things happen time number data collection data processing easier technologies um data fuel training big drivers thing happened thatcomputer processinghas faster engine matter fuel engine processing data timeframe reasonable thing happened thatnew algorithmshave developed made powerful technology changing developing faster rapid change thinking impact future important factor responsible growth isGoogleand Google relevant information fingertips created shift things bought happen overnight started 2004 change start 2012 onwards Google 65 people jobs primarily order takers remaining decade present projects helping diagnosing diseases match drugs people depending sick treated lot people treated healthcare access cars safer people driving cars machine learning providing happening beneath things improved search results improved product recommendations customers improve forecasting inventory management literally hundreds things including performance levels phenomenal drug discovery biological systems complicated vaccines TB HIV developing notably enabled data advanced biology machine learning recent invention application launched visual impairment ass latest computer vision technology give ability dyslexia latest release Windows 10 capability called IJ enable eye muscle gaze type coin negative impacts Musk tech giants views pessimistic warned potential replace humans workplace masks claim biggest existential threat mankind loss job job career choice majority tasks comprise career choice vulnerable tasks career risk future tasks find hard unpredictable requires skills creative thinking empathy interpersonal skills important understand tomorrow Google artificial intelligence progress technology nature evolve technology fact bring empowerment inclusiveness time important displacement unintended consequences technology work skills people find jobs future create jobs policy decisions people change people unhappy machine learning artificial intelligence innovative creative job taking lot machines business affect future work specifically jobs risk automation wide dissonance reports shared study 47 jobs risk automation years general population workers differently recent study conducted college identifies 97 workers jobs automated suggests general public educated jobs susceptible risk businesses aware forthcoming skills gap jobs equal study highlights examined 700 participants found generalist occupations require creative knowledge innovation risk occupations education healthcare media arts jobs flip side jobs telemarketers lawyers accountants risk simple thumb job predictable routine risk automation higher job require innovation creativity return investment companies higher machines employees machines faster distracted work creative marketers automation serve augment jobs substituting impact emerging technologies creative economy stated artificial intelligence changing creative content beginning end 2030 write school essays code Python composed top 40s chart songs make creative videos advancements risks costs report global Commission future work absence effective transition policies people accept skilled paying jobs workers taking cognitively demanding jobs displacing educated workers happening technological dividends unevenly distributed firms limited amount companies tend dominate big data Google Facebook today responsible 70 referral marketing traffic receive 50 total global advertising budget question businesses workers social institutions direction companies public policy leaders understand evolving landscape workforce anticipate upcoming challenges technology demographic leading smaller workforce compared previous generation workforce pursue careers time work provide workers environment continuously upskill governments educational system continuously learn companies redesign structure culture technology Industrial Revolution heading age great transformation 2022 estimated 20 25 percent labor force displaced 10 20 years opportunity people ahead ways find attract retain highly skilled workers time skill work hours develop learning community benefit technology supplement goal tracking efforts distraction dissonance imperative build map automation affect industry company economic imperative people feel committing lifelong approach knowledge risks important important things upfront ethical charters safety transparent open perceive progress figure global frameworks engage agreement climate change forums bring people engage hard questions emerge answers question threat artificial intelligence threat rare people proactive regulation reactive time reactive regulation late machine learning algorithms solve incredibly complex problem human intelligence mere machines enormous data set brilliant correlations insights threaten human population anytime intelligent terrible human learn skills complete toolbox prepared volatility future adaptability provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>80</v>
+      </c>
+      <c r="G45" t="n">
+        <v>40</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.3333333305555556</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.150375939661183</v>
+      </c>
+      <c r="J45" t="n">
+        <v>142.5714285714286</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.1983967935871744</v>
+      </c>
+      <c r="L45" t="n">
+        <v>57.1079301460063</v>
+      </c>
+      <c r="M45" t="n">
+        <v>150.4285714285714</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1048</v>
+      </c>
+      <c r="O45" t="n">
+        <v>396</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3538</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>14</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4.601425178147268</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>blackassign0046</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/all-you-need-to-know-about-online-marketing/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>All you need to know about online marketing
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Ever wondered how you get notified of the products or services you want or you have been looking for for a long time. Now how does this happen? Let me start with the simple and the most known fact- Marketing,
+Marketing is a common term which everyone knows and is aware of. Marketing is the action of promoting products and services, including market research andadvertising.
+Traditional Marketing was working fine for all these years. So why there was a need for online marketing?
+The story begins from the internet era, The online presence of customers-
+There are 4.72 billion people are on internet users in the world today and the number is increasing day by day. So if the companies want to create awareness about their products and services their is a huge audience present online.
+There are a lot of benefits of online marketing like a large audience, benefits of targeting on the basis of demographics, location, age, gender, and many more. Because of this diversity, almost every type of company can use the Internet to reach any audience. All would find something of their liking.
+Let’s take a look at what does online marketing involves.
+These days, almost everybody is on social media. The majority of people use Facebook, Twitter, Instagram, and other social media platforms to communicate with their friends and relatives. Some people have created companies solely based on their social media activity.
+You can, however, promote your Knowledge Commerce products through social media. Whether or not you advertise on these sites.
+The best social media networks for advertising-
+Facebook advertising
+Instagram advertising
+Twitter advertising
+Pinterest advertising
+LinkedIn advertising
+Snapchat advertising
+Content marketing is a strategic marketing strategy that focuses on producing and delivering useful, appropriate, and reliable content in order to attract and maintain a specific audience — and, eventually, to drive profitable consumer action.
+In simple words, content marketing is a marketing strategy that producers and delivers relevant and reliable content to attract potential clients and to also retain existing clients.
+About half of all website traffic originates from a search engine. People who use searches are often high-intent buyers. This indicates that they are searching for a particular item. They’re all set to buy the products and services.
+The majority of online marketing is focused on pay-per-click (PPC). However, when you hear the word “PPC,” it refers to search ads.
+Pay-per-click (PPC) advertising on search engines, social media sites, and other online venues can be extremely successful.
+So the next time when you search for a product and services and you find similar ads on the internet this is a kind of internet marketing.
+Email marketing is the highly successful digital marketing technique of sending emails to prospects and consumers. It allows communicating directly with the present, former, and potential customers. businesses will inform the audience about new products as they become aware of them.
+Banner ads are rectangular or square advertisements that appear above, in the sidebar, or below the content on websites. Usually, a banner ad leads to a sales or landing page. You will get great results by running banner ads on websites that attract members of the target audience.
+An affiliate marketer, like a car salesperson, only gets paid when someone buys the stuff. You may not have to pay if there are no purchases.
+Affiliates are free to sell your goods anywhere they choose (as long as the material follows the terms of service of the website). It’s a fantastic way to reach new markets.
+Anyone can start their affiliate marketing career by registering on the different affiliate websites.
+Influencer marketing is a new trend for online marketing. They have a strong following, can inspire people to buy your goods, and are loved by their viewers.
+The type of online marketing that will work best for the company will be determined by many factors, including the nature of your industry, the tastes and demographics of the target market, and budget. Market analysis will guide to the best strategy or combination of strategies for your offerings, and comprehensive performance metrics will show you which are the most effective.
+Online marketing is a rapidly expanding industry that benefits companies in a variety of ways. The number of people who purchase goods and services online is on the rise. As a result, an increasing number of businesses around the world are turning to internet marketing to communicate with consumers and advertise their goods and services.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>online marketing Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist wondered notified products services time happen start simple Marketing Marketing common term aware Marketing action promoting products services including market research andadvertising Traditional Marketing working years online marketing begins internet online presence people internet users world today number increasing companies create awareness products services huge audience present online lot benefits online marketing audience benefits targeting basis demographics location age gender diversity type company Internet reach audience find liking online marketing involves days social media majority people Facebook Twitter Instagram social media platforms communicate friends relatives people created companies solely based social media activity promote Knowledge Commerce products social media advertise social media networks Facebook advertising Instagram advertising Twitter advertising Pinterest advertising LinkedIn advertising Snapchat advertising Content marketing strategic marketing strategy focuses producing delivering reliable content order attract maintain specific audience eventually drive profitable consumer action simple words content marketing marketing strategy producers delivers relevant reliable content attract potential clients retain existing clients half website traffic originates search engine People searches buyers searching item set buy products services majority online marketing focused PPC hear PPC refers search ads PPC advertising search engines social media online venues extremely successful time search product services find similar ads internet kind internet marketing Email marketing highly successful digital marketing technique sending emails prospects consumers communicating directly present potential customers businesses inform audience products aware ads rectangular square advertisements sidebar content websites ad leads landing great results running ads websites attract members target audience affiliate marketer car salesperson paid buys stuff pay purchases Affiliates goods choose material terms service website fantastic reach markets start affiliate marketing career registering affiliate websites Influencer marketing trend online marketing inspire people buy goods loved viewers type online marketing work company determined factors including nature industry tastes demographics target market budget Market analysis guide strategy combination strategies offerings comprehensive performance metrics show effective Online marketing rapidly expanding industry benefits companies variety ways number people purchase goods services online rise result increasing number businesses world turning internet marketing communicate consumers advertise goods services provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>24</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9199999632000014</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.05364806855440329</v>
+      </c>
+      <c r="J46" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.2648936170212766</v>
+      </c>
+      <c r="L46" t="n">
+        <v>7.625957446808511</v>
+      </c>
+      <c r="M46" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="N46" t="n">
+        <v>556</v>
+      </c>
+      <c r="O46" t="n">
+        <v>249</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1807</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4.603145235892692</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>blackassign0047</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/evolution-of-advertising-industry/</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Evolution of Advertising Industry
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Advertising can be described as a type of specific content broadcasting to a larger audience; the form can take several different forms, and the intended message can differ from genre to genre. The target for each medium could be different. Advertised content could be in print, radio, TV, or digital formats.
+We’ll look at how the advertising market has changed over the last ten decade.
+Advertising is a form of communication that aims to persuade a target audience. Typical advertising messages endorse programs, goods, concepts, people, and companies.
+First, conventional types of advertising were used to carry out advertising. Let’s take a look at the traditional forms of advertising.
+Advertising can include in-flight advertising, street furniture, passenger displays, billboards, skywriting, posters, wall paintings, banners, taxi cabs, passenger screens, television, and newspaper advertisements.
+Other types of advertising include press advertisements in magazines and newspapers. Advertising in the classified section of a newspaper is an example of press advertising. A billboard or digital screen placed on a moving vehicle is often referred to as a mobile billboard.
+When a brand or product is used in a large entertainment venue, it is known as convert ads or guerrilla advertising.
+When a soft drink, a watch, or a pair of sneakers is seen or mentioned in a common film, this is an example of this.
+Ad in supermarket videos, aisles, and on the inside of shopping carts is referred to as in-store advertising.
+Consumers are influenced by celebrity advertisements because of the power of wealth, fame, and popularity. However, if a celebrity falls out of favor, the use of that celebrity may be detrimental to a company.
+Religious organizations,political parties, political candidates, and special interest groups are examples of noncommercial ads.
+These were the conventional forms of advertisement, but as the internet and technology progressed, the advertising industry began to play a role in helping brands establish a digital presence and advertising their products in a new way.
+The advertising industry is a multibillion-dollar global company that connects producers with customers. According to the research firm eMarkerter, global media advertising spending totaled nearly $629 billion in 2018, with digital advertising accounting for nearly 44% of that amount.
+For more than a decade, consumers’ perspectives have been shifted in favor of commercials. Advertisements are created based on the preferences of the target audience, and as the population has become more tech-savvy, advertising agencies have shifted their focus from conventional to digital advertising. The internet, as well as the devices, used to access it.
+Internet advertising has evolved from a risky gamble to the main marketing medium for most businesses. Digital advertising continues to expand by double digits on an annual revenue basis in the United States, with overall spending exceeding $129 billion in 2019.
+Mobile advertising is a form of advertising that uses wireless devices such as smartphones, tablets, and personal digital assistants to view advertisements. In the consumer goods and retail industries, it is extremely necessary.
+Mobile advertising contents tailored to particular age groups present an opportunity for the mobile advertising industry. The challenges that the mobile advertising industry faces pose a significant risk of new entrants.
+Content marketing is an old trend that has resurfaced. Many marketers have struggled to determine how powerful banners and display advertising on other people’s content are.
+Companies are embedding theirmarketing pitch within the content itself, rather than serving an ad. This can take the form of publisher-tailored content that the advertiser can support or content that the advertiser publishes directly.
+There are different kinds of businesses and websites that have used content marketing to grow and flourish in the industry. Content marketing is a trend that has contributed a large amount of income to the advertisement industry.
+To summarise, the advertising industry has evolved through time and will continue to do so as technology advances, allowing advertisers to reach a wider audience and gain a greater understanding of the people to whom they are delivering material.
+The advertising industry will continue to develop in tandem with innovation. People are also becoming more jaded when it comes to advertisements, pushing businesses to come up with new ways to convey their messages. However,advertisement has a promising future.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Evolution Advertising Industry Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Advertising type specific content broadcasting larger audience form forms intended message differ genre genre target medium Advertised content print radio TV digital formats advertising market changed decade Advertising form communication aims persuade target audience Typical advertising messages endorse programs goods concepts people companies conventional types advertising advertising traditional forms advertising Advertising include advertising furniture passenger displays billboards skywriting posters paintings banners taxi cabs passenger screens television newspaper advertisements types advertising include press advertisements magazines newspapers Advertising classified section newspaper press advertising billboard digital screen moving vehicle referred mobile billboard product entertainment venue convert ads guerrilla advertising soft drink watch pair sneakers mentioned common film Ad supermarket videos aisles inside shopping carts referred advertising Consumers influenced celebrity advertisements wealth fame popularity celebrity favor celebrity detrimental company Religious organizations political parties political candidates special interest groups examples noncommercial ads conventional forms advertisement internet technology progressed advertising industry began play role helping brands establish digital presence advertising products advertising industry global company connects producers customers research firm eMarkerter global media advertising spending totaled 629 2018 digital advertising accounting 44 amount decade consumers perspectives shifted favor commercials Advertisements created based preferences target audience population advertising agencies shifted focus conventional digital advertising internet devices access Internet advertising evolved risky marketing medium businesses Digital advertising continues expand double digits revenue basis United States spending exceeding 129 2019 Mobile advertising form advertising wireless devices smartphones tablets personal digital assistants view advertisements consumer goods retail industries extremely Mobile advertising contents tailored age groups present opportunity mobile advertising industry challenges mobile advertising industry faces pose significant risk entrants Content marketing trend resurfaced marketers struggled determine powerful banners display advertising people content Companies embedding theirmarketing pitch content serving ad form content advertiser support content advertiser publishes directly kinds businesses websites content marketing flourish industry Content marketing trend contributed amount income advertisement industry summarise advertising industry evolved time continue technology advances allowing advertisers reach wider audience gain greater understanding people delivering material advertising industry continue develop tandem innovation People jaded advertisements pushing businesses ways convey messages advertisement promising future provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>21</v>
+      </c>
+      <c r="G47" t="n">
+        <v>6</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.5555555349794246</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.05696202519628265</v>
+      </c>
+      <c r="J47" t="n">
+        <v>19.88888888888889</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2849162011173184</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8.069522036002484</v>
+      </c>
+      <c r="M47" t="n">
+        <v>23.08888888888889</v>
+      </c>
+      <c r="N47" t="n">
+        <v>548</v>
+      </c>
+      <c r="O47" t="n">
+        <v>255</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1792</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4.808100289296046</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>blackassign0048</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/how-data-analytics-can-help-your-business-respond-to-the-impact-of-covid-19/</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>How Data Analytics can help your business respond to the impact of COVID-19?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Before we get into the whole discussion, let’s first discuss the basic working of data analysis.
+Data analysisis defined as a process of cleaning, transforming, and modeling data to discover useful information for business decision-making.
+Using data analysis, we can extract useful information from the given data and then take corresponding decisions based upon the analyzed data.
+During the pandemic known as COVID-19, many businesses failed to grow whereas many touched the sky, for example, the transportation of raw materials was drastically low because:
+On the other hand, new business/startups got a chance to compete in the market by getting early responses from the companies they wanted to tie up with or from the head of the companies that they wanted investments from.
+The data analysis can help businesses in many ways such as:
+Data analysis provides different analytical techniques such as:
+Using these techniques, businesses can analyze everything and predict almost anything.
+These techniques, tools, and models, can help businesses tackle this horrendous situation that is COVID-19.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Data Analytics business respond impact Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist discussion discuss basic working data analysis Data analysisis defined process cleaning transforming modeling data discover information business data analysis extract information data decisions based analyzed data pandemic businesses failed touched sky transportation raw materials drastically compete market responses companies wanted tie companies wanted investments data analysis businesses ways Data analysis analytical techniques techniques businesses analyze predict techniques tools models businesses tackle horrendous situation provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>7</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.2727272479338866</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.0547263678869335</v>
+      </c>
+      <c r="J48" t="n">
+        <v>30.83333333333333</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2972972972972973</v>
+      </c>
+      <c r="L48" t="n">
+        <v>12.45225225225225</v>
+      </c>
+      <c r="M48" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="N48" t="n">
+        <v>246</v>
+      </c>
+      <c r="O48" t="n">
+        <v>110</v>
+      </c>
+      <c r="P48" t="n">
+        <v>790</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4.871853546910756</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>blackassign0050</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/environmental-impact-of-the-covid-19-pandemic-lesson-for-the-future/</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Environmental impact of the COVID-19 pandemic – Lesson for the Future
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+The Covid- 19 pandemics forced factories to shut down, flights getting canceled and a massive decrease in the global economy, with a significant decrease in Green House Gases (GHG) in many developed and developing countries.
+The SARS- CoV2 came into the spotlight in December 2019 and has impacted most of the countries till then. Nearly 131 million peoples were infected worldwide and resulting in deaths of around 2.9 Million according to World Health Organisation (WHO). Most of the countries dealt with the new virus by imposing strict lockdowns and social distancing to control the spread of the virus. These policies caused adverse effects worldwide. One of the most important impacts of the Covid-19 Pandemic is on the environment.
+There have been few positive impacts on the environment due to lockdown like, air pollution has decreased dramatically, as people were asked to stay in their houses due to the lockdowns. There has also been a sharp decline in environmental noise. Environmental noise can be well defined as the unwanted or harmful outdoor sounds caused by human activities like noise emitted by road traffics, air traffics, rail traffics, and industrial activities. It is one of the most important challenges in the modern era as noise pollution can cause adverse effects on humans as well as harm many animals too. The imposition of lockdown and quarantine by various nation’s governments has caused people to remain back at their homes. Because of this, the movement of people from one place to a different place has reduced significantly and the use of personal and public transport has also decreased. Due to all these changes, the environmental noise generated in most of the cities has dropped substantially.
+Water Pollution at beaches have reduced significantly and many animals were spotted back in the cities, but the covid-19 virus has also generated many negative and indirect effect on the environment.
+To begin with, some of the developed countries have halted their sustainability program during the pandemic. In the United States and in many other European nation-States, waste recycling plants have been suspended in many municipalities and cities due to the concern of the virus getting spread at the recycling centers. This has resulted in an increase in the use of single-use plastic bags instead of the re-usable bags by many leading restaurants, firms, and corporations. For instance, Starbucks, a leading coffee company during the month of March 2020, has announced a short-lived ban on the utilization of recyclable and reusable cups.
+Furthermore, with most of the people staying indoors because of the lockdown majority of the department stores, shops, restaurants, and food outlets are closed, making an online purchase and food delivery are quite high. This has created more consumption and demand for fossil fuels due to the transportation and mobility of these goods to each individual. There has been an enormous upsurge of medical waste- because most of the products employed by healthcare professionals are usually single-use items that can be used only once before they are disposed of. Some of these wastes include used masks, personal protection kits, and gloves. For instance, nearly 200 tons of medical waste were generated during the peak of the pandemic breakout in Wuhan, China. This is 50 tones more than the average waste generated before the outbreak in Wuhan.
+These organic and inorganic wastes generated due to the policies crafted by the government takes a heavy toll on the environment and can cause environmental issues like water pollution, air pollution, soil erosion, and can harm the local flora and fauna.
+The demand for masks during the pandemic has become skyrocketing but the materials required for the production of these masks are highly dangerous for the environment as they are generally composed of non-woven fabrics. Polyester, Polystyrene, polyethylene, and polycarbonate, are some common materials used for the surgical mask with density lying between 20grams to 25 grams/sq. meter. These materials are mostly resistant to liquids and are plastic-based products with a really high afterlife after being discarded. If not treated properly without discarding, they end up filling the landfills and the oceans making it dangerous to aquatic lifeforms. For example, recently the environment in Hong Kong has started degrading drastically during the pandemic with the accumulation of these clinical wastes.
+With recycling plants on hold, piles of small mountains of wastes and their depositions at open areas are formed due to the increasing number of unrecycled wastes generated every day. This makes the surrounding more vulnerable and also creating a high risk of air pollutions as the dumped open wastes decays into Methane (CH4), a greenhouse gas, hence increasing the risk of global warming too.  Not only the surroundings are getting affected by these careless methods, but the local people are also getting affected. If the excess methane gets accumulated in the Earth’s atmosphere due to piles of unrecycled wastes, this could result in increases in Earth’s average temperature and can be harmful to future generations.
+Many protected and endangered flora and fauna are facing much greater risks due to the imposition of the lockdown. Many countries under lockdown have made people stay inside their homes. The employees, NGOs, and volunteers working in these protected areas like National Parks, Marine Conservation Zones, and wildlife sanctuaries are made to stay at home making these protected and endangered flora and fauna unattended. This has also led to an increase in many illegal activities like wildlife hunting, illegal deforestation, and fishing activities due to the absence of these people. The prohibition of eco-tourism has also led to a significant financial drop in the economy of these protected areas.
+Some nations like China have asked the local authorities and native government bodies to increase the amount of disinfection routine, mainly to increase the dosage of chlorine in the wastewater treatment plant to prevent the spread of the COVID-19 virus. However, according to WHO (2020), no solid evidence has been found on the survival of the virus on the lifespan of the virus in wastewater as well as in drinking water. Despite the fact that excessive amounts of chlorine in water can cause harmful problems and issues associated with people’s health like bladder cancer and it also damages its cells.
+The COVID-19 is a reminder that the health of the planet is also linked to the health of humans. Evidence proves that the virus is zoonotic, meaning it can be transmitted between people and animals. They are accountable for seventy-five percent of all emerging infectious diseases in the World. With the Virus infecting millions of people every day across the globe, Various governments and agencies’ top priority is to regulate the spread of the virus by shifting the spotlight on the management and treatment of wastes (especially the clinical and medical waste).  Likewise, at the same time, we as responsible individuals need to step up and follow the necessary guideline and precautions for the disposal of the waste and medical gears.
+In Spite of various data showing that the pollutions have reduced significantly during the pandemic, History has witnessed a rise in pollution during any “post-financial crisis”.  A similar case was observed during the 2008 financial crash – although there was a temporary decrease in emissions of 1.3% was observed, but as the economy recovered in 2010, emissions were at an all-time high. After all, only through sheer mutual empathy and goodwill that the world will emerge stronger after this global pandemic. To prevent future outbreaks, we must address regularly the threats to the ecosystems and wildlife, including habitat loss, illegal trade, pollution, and climate change as human life depends on Earth’s life.
+If you live near a spacious outdoor area, like the desert or an empty road lined with trees and you realize it’s the only safe, surface-less space to take a walk in, then you begin to realize the beauty of nature. The point is not to remain indoors, but to avoid being in close contact with others. When you do leave your home, whether it is for a walk in the desert or a run on your street, make sure to wipe down any surfaces you come into contact with, avoid touching your face, and frequently wash your hands.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Environmental impact pandemic Lesson Future Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist 19 pandemics forced factories shut flights canceled massive decrease global economy significant decrease Gases GHG developed developing countries CoV2 spotlight 2019 impacted countries till 131 infected worldwide resulting deaths World Health Organisation countries dealt virus imposing strict lockdowns social distancing control spread virus policies caused adverse effects worldwide important impacts Pandemic environment positive impacts environment due lockdown air pollution decreased dramatically people asked stay houses due lockdowns decline environmental noise Environmental noise defined unwanted harmful outdoor sounds caused human activities noise emitted road traffics air traffics rail traffics industrial activities important challenges modern noise pollution adverse effects humans harm animals imposition lockdown quarantine governments caused people remain homes movement people reduced significantly personal public transport decreased Due environmental noise generated cities dropped substantially Water Pollution beaches reduced significantly animals spotted cities virus generated negative indirect effect environment begin developed countries halted sustainability program pandemic United States waste recycling plants suspended municipalities cities due concern virus spread recycling centers resulted increase plastic bags bags leading restaurants firms corporations instance Starbucks leading company 2020 announced ban utilization recyclable reusable cups people staying indoors lockdown majority department stores shops restaurants food outlets closed making online purchase food delivery created consumption demand fossil fuels due transportation mobility goods individual enormous upsurge medical products employed healthcare professionals items disposed wastes include masks personal protection kits gloves instance 200 tons medical waste generated pandemic breakout Wuhan 50 tones average waste generated outbreak Wuhan organic inorganic wastes generated due policies crafted government takes heavy toll environment environmental issues water pollution air pollution soil erosion harm local fauna demand masks pandemic skyrocketing materials required production masks highly dangerous environment generally composed fabrics Polyester Polystyrene polyethylene polycarbonate common materials surgical density lying 20grams 25 meter materials resistant liquids products afterlife discarded treated properly discarding end filling landfills oceans making dangerous aquatic lifeforms recently environment started degrading drastically pandemic accumulation clinical wastes recycling plants hold piles mountains wastes depositions open areas formed due increasing number unrecycled wastes generated makes surrounding vulnerable creating risk air pollutions dumped open wastes decays Methane CH4 greenhouse gas increasing risk global warming surroundings affected careless methods local people affected excess methane accumulated Earth atmosphere due piles unrecycled wastes result increases Earth average temperature harmful future generations protected endangered fauna facing greater risks due imposition lockdown countries lockdown made people stay inside homes employees NGOs volunteers working protected areas National Conservation Zones wildlife sanctuaries made stay home making protected endangered fauna unattended led increase illegal activities wildlife hunting illegal deforestation fishing activities due absence people prohibition led significant financial drop economy protected areas asked local authorities native government bodies increase amount disinfection routine increase dosage chlorine wastewater treatment prevent spread virus 2020 solid evidence found survival virus lifespan virus wastewater drinking water fact excessive amounts chlorine water harmful problems issues people health bladder cancer damages cells reminder health planet linked health humans Evidence proves virus zoonotic meaning transmitted people animals accountable percent emerging infectious diseases World Virus infecting millions people globe governments agencies top priority regulate spread virus shifting spotlight management treatment wastes clinical medical waste Likewise time responsible individuals step follow guideline precautions disposal waste medical gears Spite data showing pollutions reduced significantly pandemic History witnessed rise pollution crisis similar observed 2008 financial crash temporary decrease emissions observed economy recovered 2010 emissions sheer mutual empathy goodwill world emerge stronger global pandemic prevent future outbreaks address regularly threats ecosystems wildlife including habitat loss illegal trade pollution climate change human life depends Earth life live spacious outdoor area desert empty road lined trees realize safe space walk begin realize beauty nature point remain indoors avoid contact leave home walk desert run make wipe surfaces contact avoid touching face frequently wash hands provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>30</v>
+      </c>
+      <c r="G49" t="n">
+        <v>69</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.3939393899602082</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.1316489359951477</v>
+      </c>
+      <c r="J49" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.2172791747259832</v>
+      </c>
+      <c r="L49" t="n">
+        <v>10.42691166989039</v>
+      </c>
+      <c r="M49" t="n">
+        <v>29.35</v>
+      </c>
+      <c r="N49" t="n">
+        <v>890</v>
+      </c>
+      <c r="O49" t="n">
+        <v>337</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2875</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4.569886363636364</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>blackassign0051</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/how-data-analytics-and-ai-are-used-to-halt-the-covid-19-pandemic/</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>How Data Analytics and AI are used to halt the COVID-19 Pandemic?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Even though COVID-19 has not yet halted and we are facing the nth wave of the coronavirus outbreak across several countries, most notably the US, India, and Brazil. It is a fact that Data Analytics and AI are the big guns of our artillery in this fight against the COVID-19 pandemic. It has helped us in several stages of this outbreak, like the detection of its first outbreak, vaccine development and manufacturing contact tracing, and future hotspot detection. Some of these interesting applications are discussed in this article.
+A lesser-known fact is that the COVID-19 outbreak was first detected in Toronto, Canada, nearly 7,230 miles away from the first outbreak, nine days before the WHO issued its warning. It was with the help of Big Data Analytics and AI, more specifically Deep Learnings (DL, a subset of Machine Learning) application in Natural Language Processing (NLP) to analyze text inputs that traced the surge of pneumonia cases in the Wuhan province of China. The specialty of DL algorithms is that they mimic the brain cells called neurons and can identify patterns in Big Data. This DL-backed software is used as inputs, reports from public health organizations, global airline ticketing data, etc. These were used to flag unusual surges and potential spreads of infectious diseases.
+The next application of Big Data Analytics and AI was in the Research and Development of drugs to halt COVID-19. AI was used to analyze the protein structure of the virus, findings that were significant in the progress of vaccine development. In preliminary studies, it was found that it does not mutate as fast as other viruses such as HIV, which means that a prophylactic vaccine is a better way to proceed rather than a therapy. But there is also some evidence supporting the fact that when we find any kind of cure for it, there is a chance of the virus mutating, which is what happened and major mutations have been found in the UK, Brazil, and South Africa. AI also assisted scientists in rapidly shortlisting a set of already available vaccines that could be effective against the coronavirus.
+Another interesting application of AI can be found in the selection of the right candidates, i.e. most likely to test positive for testing coronavirus in case of insufficient testing resources. This method was first exercised on Greek borders and was called project EVA. Whenever a traveler wanted to come into Greece, he had to fill out a form known as Passenger Locator Form (PLF) at least 24 hours prior to arrival, containing information on their origin country, demographics, point, and date of entry, and the intended destination. EVA then allocated testing resources according to the size of the set of passengers to be tested. After the test results, if found positive, they are put in quarantine. The results were sent back to the program for real-time learning.
+The question remains how EVA made allocations, It was found that, statistically, only the origin country and the city were significant factors for screening. Ultimately, from a variety of countries and city pairs, EVA had to predict how many testing resources were to be allocated at each entry point and to particular passengers from a location is technically called the Multi-Armed Bandit (MAB) problem, and the chosen method to solve this problem was an AI algorithm called optimistic Gittins index. This algorithm identified on average 1.85x as many asymptomatic, infected travelers as random surveillance testing, and up to 2-4x as many during peak travel. After the test results, if found positive, they are put in quarantine. Following the collection of significant data through the aforementioned process, after a certain period, policies were made categorizing them separately and imposing restrictions on travelers from the specific location. This EVA as presented above was in operation from August 6th to November 1stprocessing around 38,500 PLFs each day and testing on an average 18.5% of households entering the country every day.
+Above mentioned applications just show the tip of the iceberg and there is more to get into some of the other developments to watch for include the use of Image Recognition to identify covid based on x-ray images, the use of Deep Learning to predict the 3-D protein structure associated with COVID-19 and so on.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Data Analytics halt Pandemic Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist halted facing nth wave coronavirus outbreak countries notably fact Data Analytics big guns artillery fight pandemic helped stages outbreak detection outbreak vaccine development manufacturing contact tracing future hotspot detection interesting applications discussed article fact outbreak detected outbreak days issued warning Big Data Analytics specifically Deep Learnings DL subset Machine Learning application Natural Language Processing NLP analyze text inputs traced surge pneumonia cases Wuhan province specialty DL algorithms mimic cells called neurons identify patterns Big Data software inputs reports public health organizations global airline ticketing data flag unusual surges potential spreads infectious diseases application Big Data Analytics Research Development drugs halt analyze protein structure virus findings significant progress vaccine development preliminary studies found mutate viruses HIV prophylactic vaccine proceed therapy evidence supporting fact find kind cure virus mutating happened mutations found UK assisted scientists rapidly shortlisting set vaccines effective coronavirus interesting application found selection candidates test positive testing coronavirus insufficient testing resources method exercised Greek called project traveler wanted Greece fill form Passenger Locator Form PLF 24 hours arrival information origin demographics point date entry intended destination allocated testing resources size set passengers tested test results found positive put quarantine results program learning question remains made allocations found statistically origin significant factors screening Ultimately variety countries pairs predict testing resources allocated entry point passengers location technically called Bandit MAB problem chosen method solve problem algorithm called optimistic Gittins index algorithm identified average asymptomatic infected travelers random surveillance testing travel test results found positive put quarantine collection significant data aforementioned process period policies made categorizing separately imposing restrictions travelers specific location presented operation 6th 1stprocessing PLFs testing average households entering mentioned applications show tip iceberg developments watch include Image Recognition identify covid based images Deep Learning predict protein structure provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>23</v>
+      </c>
+      <c r="G50" t="n">
+        <v>15</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.2105263102493077</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.0896226412980598</v>
+      </c>
+      <c r="J50" t="n">
+        <v>26.44117647058824</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.235817575083426</v>
+      </c>
+      <c r="L50" t="n">
+        <v>10.67079761826867</v>
+      </c>
+      <c r="M50" t="n">
+        <v>30.52941176470588</v>
+      </c>
+      <c r="N50" t="n">
+        <v>528</v>
+      </c>
+      <c r="O50" t="n">
+        <v>212</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1710</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4.518804243008679</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>blackassign0052</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/difference-between-artificial-intelligence-machine-learning-statistics-and-data-mining/</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>What is the difference between Artificial Intelligence, Machine Learning, Statistics, and Data Mining?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+“Data is the new oil” has become the most important trendline of the 21stcentury. The reason for this is the advancements in the fields related to data analysis. The field of AI Machine Learning Statistics and Data Mining all deal with data and are developing at such a staggering pace, that these fields have become the most popular buzzwords these days.
+Buzzwords are originated through technical terms but often the underlying essence is ignored through fashionable use and mainly used to impress. This is the main reason for the misconception amongst people. AI, ML, Stats, Data Mining, and many other fields related to the analysis of data are most often mistook for one and the same thing, thus all these words are often used interchangeably to convey one and the same thing. But this is not true at all!
+The only similarity between these disciplines is that all of these disciplines are related to the analysis of the data and converting this data into “information”.
+In academics, while learning AI Machine Learning Statistics and Data Mining, the academic approach only wander in the technical definitions and concepts but the underlying essence and the aim of the discipline remain unexplored, same is the case with most of the articles out there which try to explain the difference. Thus, becoming the primary cause of confusion between learners. Hence, this article explains the difference by explaining the philosophy and the aims of each of the disciplines rather than wandering in the technical definitions.
+The essential difference between these disciplines lies in their “aims” and the approach taken to achieve those aims.
+The aim of Artificial intelligence is to understand intelligent entities. Then to satisfy this aim, we must first understand what is intelligence and what makes an agent intelligent agent? The answer to all these questions can be found by studying intelligent agents and the best example of an intelligent agent can be found by just standing in front of a mirror! Yes! Humans are the best examples of intelligent entities. Thus, in the 1900s, researchers began exploring the thought process, the reasoning process of humans as human beings were considered as an ideal intelligent agent. Mimicking human behavior became the aim of AI in the initial years of the research. After setting this goal, studies and experiments began and the most famous experiment conducted in the initial years to achieve this aim was the Turing Test! Turing defined intelligent behavior as the ability to achieve human-level performance in all cognitive tasks, sufficient to fool an interrogator. But this test received criticism as only mimicking human behavior is not exactly intelligence. Because intelligence should be related to the working of the human brain as without the human brain, intelligence has no meaning!
+Thus, mimicking human thought processes and reasoning became the transformed aim. The field of Psychology and philosophy also resonate with this aim that is to understand the human thought process. The difference is that AI not only tries to understand the thought process but to mimic it, build it. The collaboration of these fields resulted in models such as Neural Networks which try to mimic the function of neurons present in the human brain. So, basically, this initial aim was human-centered and humans were considered as the ideal intelligent agent.
+Concurrently, the field of computer science was developing at a greater pace. With the advances in computer science, the experiments and theories could be easily tested and validated. As programs were being applied to solve real-life problems, it was found that computers performed better than humans at some tasks that are really complex for humans. One of the best examples of this could be the chess-playing program. An AI program defeated the world’s best chess player Garry Kasparov. This incident indicated that human intelligence is not the ultimate intelligence or else a human would have been able to defeat the AI program. This leads to a question, is human intelligence the ideal intelligence?
+As computers became more advanced, they proved to be better than humans at certain complex tasks. That is why thenew definition of intelligencewas being related to the ability to solve cognitive tasks or problems. So, rather than considering the nature of agents, researchers began to study the nature of intelligence itself. Then the question comes how to test or validate intelligence? The best way to test intelligence is to solve cognitive problems. An agent can be said intelligent only if it can solve a complex problem. The problem-solving approach can be easily tested and validated on computers. Thus, some researchers began studying the ideal intelligence, and the selected agent to validate the experiments was the computer. So, a computer and problem-solving approach were adopted. So, the human-centered approach and computer, problem-solving approach are the two main aims of AI. Both of these fields have contributed to the field by giving valuable insights.
+Both the aims are important and both of these collaboratively form the main aim of AI!
+In the problem-solving approach, there is a big challenge that AI has to overcome in order to achieve its aim. Consider the example of solving a math problem. There are two cases by which intelligence can be tested in this problem-solving approach. Let us say two math problems are given for you to solve. The first problem is familiar to you and the second problem is not.
+Consider the first problem. The first problem is familiar to you, that means you know how to solve such kind of problems as you have already solved some similar problems in the past. So, there comes a question, how our mind is able to solve that problem? The answer is, that you have solved similar problems in the past, thus you have learned from the past data, how to solve such problems, thus even if you haven’t seen that problem in the past, you will still be able to solve similar problems. This is one form of intelligence.
+Consider another case where you are given a second problem where you have not solved such kind of problems in the past. Then to solve this problem, you will try to consciously gather and manipulate the given information so that you reach a certain conclusion. This kind of approach does not necessarily rely on the past data but completely on the reasoning process. This is the second kind of intelligence.
+For AI to build intelligent agents, both of these kinds of intelligence must be developed in the agent. But, the reality is that AI has reached the point where it is able to build agents which can only learn from past data and find some useful information. AI today has not reached a point where it can build agents who can think on their own. That is the second type of intelligence.
+So, the way AI is able to implement the first type of intelligence is through Machine Learning! So, the domain of AI which focuses solely on implementing the first kind of intelligence is in fact Machine Learning. That is the reason why ML is called the subset of AI! So, this is the main difference between AI and ML.
+Technically speaking, “It is the field of study that gives computers the ability to learn from past data and find some meaningful conclusions, patterns without being explicitly programmed”. This statement needs some elaboration. The essence of ML is related to the process of “Generalization” and learning from past data. Generalization is an abstraction by which common properties of specific instances are formulated as general concepts or claims. Consider how we humans recognize daily life objects. If we see an animal, then we can easily recognize if it is a “dog” or a “cat”. It is a very trivial task for us but have you ever wondered how our mind is able to do it? The answer is Generalization!
+If you were given a picture of a dog, you can easily recognize that it is a picture of a dog, because, our minds have abstracted the description of a dog and formulated it into a “concept” of what a dog is and these concepts became better and better as we learned from the past experiences of a dog. So, the way we think is dependent on the fact that things are represented as generalized concepts in our minds.
+With generalization only, can come real “information”. So, we try to give computers the ability to generalize the “raw data” and convert it into “information” which can be patterns and trends in the data on their own.
+This is the discipline that concerns the collection, organization, analysis, interpretation, and presentation of data. Statistics tries to deal with data with the only aim that is to explain it. So, it is the study of explaining the data itself! Statistics has two main domains which are Descriptive statistics and Inferential statistics.
+Descriptive statisticsdeals with the explanation or description of data thus the name “Descriptive” statistics. It tries to explain as much information as possible, easily about the whole large data which would be a very complex task otherwise.
+Inferential statistics try to make accurate inferences from the available small data. We use inference in many tasks in our daily lives. Consider a simple case of cooking a soup. After completing the recipe, you will taste a small sample, that is, a spoonful of the soup to check if the soup tastes good or bad. Depending upon the result of the sample, you make an inference about the whole soup that if the soup as a whole, good or bad. Similarly, in statistics, there are cases where you have to apply inference to have meaningful information. For example, consider a case where you cannot gather the whole data because it is very time-consuming and costly. In these cases, applying inference based on the available sample introduces uncertainty. That is where inferential statistics come for help.
+So, the use of data in the context of uncertainty and decision-making in the face of uncertainty is what statistics deals with. So, however, and whatever the data, statistics tries to explain that data. This aim does not resonate with that of AI and ML, but statistics helpthese fields to correctly interpret the data!
+“Data”, is not useful at all in its raw form. Consider examples of sensors used in industrial applications. These sensors might be used in a manufacturing plant to sense different properties like temperature, pressure, etc. The raw data generated by these sensors are not useful until and unless it is converted to a suitable form, then processed, analyzed to gather valuable insights, which can be used to solve a problem!
+Due to its unique aim of capturing the essence of very large datasets, to gather insights, Data Mining is also referred to as “Knowledge Discovery”. That is why, Carly Fiorina, former CEO of Hewlett-Packard once said, “The goal is to turn data into information and information into Insight”. This statement completely explains the aim of Data Mining!
+So, the difference between AI Machine Learning Statistics and Data Mining lies in their aims. But the approaches taken in all of these fields, help in one way or the other in fulfilling the aims of the other fields. This is the beauty of these fields!
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>difference Artificial Intelligence Machine Learning Statistics Data Mining Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Data oil important trendline 21stcentury reason advancements related data analysis Machine Learning Statistics Data Mining data developing staggering popular buzzwords days Buzzwords originated technical terms underlying essence fashionable impress reason misconception people ML Stats Data Mining related analysis data mistook thing words interchangeably convey thing similarity disciplines disciplines related analysis data converting data information academics learning Machine Learning Statistics Data Mining academic approach wander technical definitions concepts underlying essence aim discipline remain unexplored articles explain difference primary confusion learners article explains difference explaining philosophy aims disciplines wandering technical definitions essential difference disciplines lies aims approach achieve aims aim Artificial intelligence understand intelligent entities satisfy aim understand intelligence makes agent intelligent agent answer questions found studying intelligent agents intelligent agent found standing front mirror Humans examples intelligent entities 1900s researchers began exploring thought process reasoning process humans human beings considered ideal intelligent agent Mimicking human behavior aim initial years research setting goal studies experiments began famous experiment conducted initial years achieve aim Turing Test Turing defined intelligent behavior ability achieve performance cognitive tasks sufficient fool interrogator test received criticism mimicking human behavior intelligence intelligence related working human human intelligence meaning mimicking human thought processes reasoning transformed aim Psychology philosophy resonate aim understand human thought process difference understand thought process mimic build collaboration resulted models Neural Networks mimic function neurons present human basically initial aim humans considered ideal intelligent agent Concurrently computer science developing greater advances computer science experiments theories easily tested validated programs applied solve problems found computers performed humans tasks complex humans examples program program defeated world chess Kasparov incident human intelligence ultimate intelligence human defeat program leads question human intelligence ideal intelligence computers advanced proved humans complex tasks thenew definition intelligencewas related ability solve cognitive tasks problems nature agents researchers began study nature intelligence question test validate intelligence test intelligence solve cognitive problems agent intelligent solve complex problem approach easily tested validated computers researchers began studying ideal intelligence selected agent validate experiments computer computer approach adopted approach computer approach aims contributed giving valuable insights aims important collaboratively form aim approach big challenge overcome order achieve aim solving math problem cases intelligence tested approach math problems solve problem familiar problem problem problem familiar solve kind problems solved similar problems past question mind solve problem answer solved similar problems past learned past data solve problems problem past solve similar problems form intelligence problem solved kind problems past solve problem consciously gather manipulate information reach conclusion kind approach necessarily rely past data completely reasoning process kind intelligence build intelligent agents kinds intelligence developed agent reality reached point build agents learn past data find information today reached point build agents type intelligence implement type intelligence Machine Learning domain focuses solely implementing kind intelligence fact Machine Learning reason ML called subset difference ML Technically speaking study computers ability learn past data find meaningful conclusions patterns explicitly programmed statement elaboration essence ML related process Generalization learning past data Generalization abstraction common properties specific instances formulated general concepts claims humans recognize life objects animal easily recognize dog cat trivial task wondered mind answer Generalization picture dog easily recognize picture dog minds abstracted description dog formulated concept dog concepts learned past experiences dog dependent fact things represented generalized concepts minds generalization information give computers ability generalize raw data convert information patterns trends data discipline concerns collection organization analysis interpretation presentation data Statistics data aim explain study explaining data Statistics domains Descriptive statistics Inferential statistics Descriptive statisticsdeals explanation description data Descriptive statistics explain information easily data complex task Inferential statistics make accurate inferences data inference tasks lives simple cooking soup completing recipe taste spoonful soup check soup tastes bad Depending result make inference soup soup bad Similarly statistics cases apply inference meaningful information gather data costly cases applying inference based introduces uncertainty inferential statistics data context uncertainty face uncertainty statistics deals data statistics explain data aim resonate ML statistics helpthese correctly interpret data Data raw form examples sensors industrial applications sensors manufacturing sense properties temperature pressure raw data generated sensors converted suitable form processed analyzed gather valuable insights solve problem Due unique aim capturing essence datasets gather insights Data Mining referred Knowledge Discovery Fiorina CEO goal turn data information information Insight statement completely explains aim Data Mining difference Machine Learning Statistics Data Mining lies aims approaches fulfilling aims beauty provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>62</v>
+      </c>
+      <c r="G51" t="n">
+        <v>38</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.2399999976</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.1173708918810201</v>
+      </c>
+      <c r="J51" t="n">
+        <v>18.0695652173913</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1944177093358999</v>
+      </c>
+      <c r="L51" t="n">
+        <v>7.305593170690883</v>
+      </c>
+      <c r="M51" t="n">
+        <v>20.58260869565217</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1092</v>
+      </c>
+      <c r="O51" t="n">
+        <v>404</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3719</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>9</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4.331360946745562</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>blackassign0053</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/how-python-became-the-first-choice-for-data-science/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>How Python became the first choice for Data Science.
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Data Science is gaining popularity exponentially over the past decade, and thanks to that we are now enjoying better products, recommendations, and smoother life. Data science is an interdisciplinary subject that includes statistics, math, IT, etc.
+Now there is so much to do in Data Science,  so we need an arrangement where all this can be accessible in one place. It will be very hectic to go to hundreds of different resources while doing analysis or building models. But don’t worry, PYTHON is there for you.
+Yes, you read it right, Python is ageneral programming languagethat can provide everything you need for Data Science. Several features that have made Python become the choice of data science in past times are:
+1.Python is a progressively typed language, so the variables are defined automatically.
+2.Python is more readable and uses lesser code to play out a similar task when contrasted with other programming languages.
+3.Python is specifically typed. In this way, developers need to cast types manually.
+4.Python is an interpreted language. This implies the program need not have complied.
+5.Python is flexible, convenient, and can run on any platform effectively. It is adaptable and can be integrated with other third-party software effectively.
+This library available in python makes it very easier to analyze the data, you can read a variety of data sets like CSV, XML, XLSX, JSON, etc. You can perform several operations like Groupby, sorting with the help of easily accessible objects from pandas.
+This package helps you with any numerical operation that is needed to be performed in Data science, for example calculating Euclidean distance, finding ranks of the matrix, etc.
+These are excellent data visualization libraries available in python that produce some excellent visualization like shown here,
+It provides you state of the art machine learning algorithms for your accurate predictive analysis.Scikit–Learnis characterized by a clean, uniform, and streamlined API, as well as by very useful and complete online documentation. It provides a selection of efficient tools for machine learning and statistical modeling including classification, regression, clustering, and dimensionality reduction via a consistent interface in Python.
+Keras is an open-source software library that provides a Python interface for artificial neural networks. Keras acts as an interface for the TensorFlow library.Kerasis an industry-strengthframeworkthat can scale to large clusters of GPUs or an entire TPU pod.
+See, Now that you have a variety of resources available here in python, then why go anywhere else. Python I also becoming the world’s most loved and most wanted programming language and it will surely help to get you the job. Data science consulting organizations are empowering theirgroup of developers and data scientiststo utilize Python as a programming language. Python has gotten well-known and the most significant programming language in an extremely brief timeframe. Data Scientists need to manage a large amount of data known as big data. With simple utilization and a huge arrangement of python libraries, Python has become a popular choiceto deal with big data.
+Seeing the stats we can clearly see that Python has taken over other Languages needed for data science. It has also surpassed R which is exclusively built for Data science. Isn’t this exciting.
+Python in Data science has empowered data scientists to accomplish more in less time. Python is an adaptable programming language that can be effectively understood and is exceptionally amazing as well.
+Python is highly adaptable and can work in any environment effectively. Additionally, with negligible changes, it can run on any operating system and can be integrated with other programming languages. These qualities have settled on Python as the top choice for developers &amp; data scientists.
+So next time you do analysis or work on any Data Science project, feel proud cause you are working with the most loved language of the world.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Python choice Data Science Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Data Science gaining popularity exponentially past decade enjoying products recommendations smoother life Data science interdisciplinary subject includes statistics math Data Science arrangement accessible hectic hundreds resources analysis building models worry PYTHON Python ageneral programming languagethat provide Data Science features made Python choice data science past times progressively typed language variables defined automatically readable lesser code play similar task contrasted programming languages specifically typed developers cast types manually interpreted language implies program complied flexible convenient run platform effectively adaptable integrated software effectively library python makes easier analyze data variety data sets CSV XML XLSX JSON perform operations Groupby sorting easily accessible objects pandas package helps numerical operation needed performed Data science calculating Euclidean distance finding ranks matrix excellent data visualization libraries python produce excellent visualization shown machine learning algorithms accurate predictive characterized clean uniform streamlined API complete online documentation selection efficient tools machine learning statistical modeling including classification regression clustering dimensionality reduction consistent interface Python Keras software library Python interface artificial neural networks Keras acts interface TensorFlow scale clusters GPUs entire TPU pod variety resources python Python world loved wanted programming language surely job Data science consulting organizations empowering theirgroup developers data scientiststo utilize Python programming language Python significant programming language extremely timeframe Data Scientists manage amount data big data simple utilization huge arrangement python libraries Python popular choiceto big data stats Python Languages needed data science surpassed exclusively built Data science exciting Python Data science empowered data scientists accomplish time Python adaptable programming language effectively understood exceptionally amazing Python highly adaptable work environment effectively Additionally negligible run operating system integrated programming languages qualities settled Python top choice developers data scientists time analysis work Data Science project feel proud working loved language world provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>47</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.8431372383698581</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.1217183767978082</v>
+      </c>
+      <c r="J52" t="n">
+        <v>19.61904761904762</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.2536407766990291</v>
+      </c>
+      <c r="L52" t="n">
+        <v>7.949075358298661</v>
+      </c>
+      <c r="M52" t="n">
+        <v>22.69047619047619</v>
+      </c>
+      <c r="N52" t="n">
+        <v>498</v>
+      </c>
+      <c r="O52" t="n">
+        <v>209</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1657</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4.658613445378151</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>blackassign0054</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/how-google-fit-measure-heart-and-respiratory-rates-using-a-phone/</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>How Google fit measure heart and respiratory rates using a phone camera?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+It was in March that Tech giant Google came up with a ground-breaking announcement of Google Fit able to measure one’s heart and respiratory rates using their smartphones. This news spread like wildfire. Instantly became the talk of the town. This feature was said to be available to the Google Fit app exclusively to its Pixel phone users. Google also plans to expand to its other Android devices in the future.
+This was after Google’s newest endeavor of acquiring the Fitbit for a whopping $2.1 billion. This acquisition not only does steps up a stage for a potential Google Smartwatch but also gives Google the ownerships to Fitbit’shealth business and wealth of data assets.Users just need to place their head and upper torso in view of the front-facing phone camera for those who wish to measure their respiratory rate. For measuring Heart rate the user just has to place their finger on the rear-facing camera lens. Mind-blowing right!
+Once the measurements have been taken the users simply have to store and save them in the Google Fit app to monitor and track their day-to-day wellness. On asked how it’s measuring these heart rate and respiratory rate, GoogleHealth director of health technologiesShwethak Patel explained that these features rely on the sensors that have been built into the smartphone, such as its camera, microphone, and accelerometer. Thanks to increasingly power sensors even in affordable smartphones and advancements in computer vision, these features let use one smartphone’s camera to track even tiny physical signals like your chest movement to measure your respiratory rate and subtlechanges in the color of your fingerfor your heart rate.
+Pixel underwent and completed initial clinical trials to validate the algorithm cloud work in a variety of different world conditions and that too with many people while developing the features. Since our heart rate relies on approximating blood flow from color changes in someone’s fingertip, it has to account for factors such as lighting, skin tone, age. Adding to be able to measure heart and respiratory rate soon Google Fit also displays user daily stats such as daily goals, weekly goals, heart points, workout, and also sleep monitor.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Google fit measure heart respiratory rates phone camera Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Tech giant Google announcement Google Fit measure heart respiratory rates smartphones news spread wildfire Instantly talk town feature Google Fit app exclusively Pixel phone users Google plans expand Android devices future Google newest endeavor acquiring Fitbit whopping acquisition steps stage potential Google Smartwatch Google ownerships Fitbit shealth business wealth data upper torso view phone camera measure respiratory rate measuring Heart rate user finger camera lens measurements users simply store save Google Fit app monitor track wellness asked measuring heart rate respiratory rate GoogleHealth director health technologiesShwethak explained features rely sensors built smartphone camera microphone accelerometer increasingly sensors affordable smartphones advancements computer vision features smartphone camera track physical signals chest movement measure respiratory rate subtlechanges color fingerfor heart rate Pixel underwent completed initial clinical trials validate algorithm work variety world conditions people developing features heart rate relies approximating flow color fingertip account factors lighting skin tone age Adding measure heart respiratory rate Google Fit displays user stats goals goals heart points workout sleep monitor provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>11</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.8333332638888947</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.03947368408067867</v>
+      </c>
+      <c r="J53" t="n">
+        <v>26.80952380952381</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2433392539964476</v>
+      </c>
+      <c r="L53" t="n">
+        <v>10.8211452254081</v>
+      </c>
+      <c r="M53" t="n">
+        <v>30.71428571428572</v>
+      </c>
+      <c r="N53" t="n">
+        <v>359</v>
+      </c>
+      <c r="O53" t="n">
+        <v>137</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1114</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4.692546583850931</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>blackassign0055</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/what-is-the-future-of-mobile-apps/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>What is the future of mobile apps?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+From what I have learned on the mobile apps development market recently, it is becoming harder for an Android or iOS developer to find a suitable and well-paying job in the market.
+Some major reasons include the increasing supply of mobile engineers, people generally stop downloading apps, and many more.
+In this article, I will go through a more detailed explanation of the recent trend mentioned above and my two cents on what mobile engineers could do to prepare themself for the upcoming challenge! and the future of mobile apps.
+Although the demand for mobile developers has not fallen sharply compared with previous years, the growth rate has slowed. On the other hand, owing to a great number of coding boot camps that target to bring up mobile and frontend engineers, a great number of developers are flooding into the developer job market.
+The supply side for mobile engineers has increased rapidly in recent years, raising the standards for qualified mobile engineers. The days of a mobile engineer easily getting over 10 job offers are over.
+Recode ran an article in mid-2016, that begins: “The mobile app boom kicked off in July 2008, when Apple introduced the App Store. Now it is over.”
+According to data gathered and analyzed by the CakeResume team, JavaScript and Python are now the most in-demand programming languages for companies who post product development jobs on CakeResume, both together taking up almost half of the job opportunities, while mobile engineers taking up merely 10% of the job opportunities.
+While App usage continues to grow and revenue also ascends, the majority of consumers actually download zero apps per month
+let’s face the truth, born and raised up in the era of the information explosion, individuals don’t have the leisure to check on what’s new on the app store every day. When it comes to choosing an App to download, many people feel overwhelmed by the sheer number of options available.
+Take the productivity category of the App Store as an example, there are over thousands of Apps in this category, and new Apps popping up almost every week. It is almost impossible for users to dig through and learn all the apps. They just choose what is on top then click Install.
+And not to mention that if you could build an awesome productivity app, Google and Apple could do it 10 times better and faster than you. In the end, there’s not as much need for individual apps to accomplish similar convenience factors.
+Although the bull run for mobile development has ended, there are still over 2 billion smartphone users, 27.5 billion mobile apps downloaded, and time spent per day on mobile devices has increased rapidly in recent years. Moreover, apps offer a user experience that even ‘Responsive Websites’ are unable to provide.
+In order to stay on top of the game, you will have to differentiate yourself from the pack — other mobile engineers. If you are a mobile engineer who only knows how to code and tweak your App’s UI, you aren’t that different from others after all. Below I listed a few ways that you could implement so that you could stay competitive in the job market.
+If you are an Android developer, you could start choosing a job involving Kotlin or Flutter, which are backed by Google. If you are an iOS developer, try to look for a job to get involved with using Swift.
+Although older mobile coding languages, such as Java and Objective-C, still have their upsides, the main reason why Kotlin and Swift are created at first is to address the older languages issue. It means that Kotlin and swift provide many safety mechanisms available out-of-the-box while being more concise and expressive than Java and Objective-C at the same time.
+This point is especially crucial. Each industry has its specific skills to learn and refine. For example, if you are building a stock, foreign exchange, future, or options market app, you will have to understand theWebSocketprotocol, which lets you transfer as much data as you like without incurring the overhead associated with traditional HTTP requests.
+For the streaming media industry, possessing experience with live streaming protocols such as HLS, RTMP, WebRTC will be a must to deal with streaming-related apps.
+These industry skills can really make you stand out, and adds another layer of expertise to your already pretty impressive mobile engineer title, making you more valuable in the job market.
+The future of mobile app development will be shaped by how businesses harness mobile technology to solve people’s everyday problems.
+Don’t try to fight the irresistible trend, see how you can surf the trend! Exposing yourself or trying to get a job in the field mentioned below will absolutely give you more opportunities as a mobile developer.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>future mobile apps Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist learned mobile apps development market recently Android iOS developer find suitable job market reasons include increasing supply mobile engineers people generally stop downloading apps article detailed explanation recent trend mentioned cents mobile engineers prepare themself upcoming challenge future mobile apps demand mobile developers fallen sharply compared previous years growth rate slowed owing great number coding boot camps target bring mobile frontend engineers great number developers flooding developer job market supply side mobile engineers increased rapidly recent years raising standards qualified mobile engineers days mobile engineer easily 10 job offers Recode ran article begins mobile app boom kicked 2008 introduced App Store data gathered analyzed CakeResume team JavaScript Python programming languages companies product development jobs CakeResume taking half job opportunities mobile engineers taking 10 job opportunities App usage continues revenue ascends majority consumers download apps face truth raised information explosion individuals leisure check app store choosing App download people feel overwhelmed sheer number options productivity category App Store thousands Apps category Apps popping impossible users dig learn apps choose top Install mention build awesome productivity app Google 10 times faster end individual apps accomplish similar convenience factors run mobile development ended 2 smartphone users mobile apps downloaded time spent mobile devices increased rapidly recent years apps offer user experience Responsive Websites unable provide order stay top game differentiate mobile engineers mobile engineer code tweak App UI listed ways implement stay competitive job market Android developer start choosing job involving Kotlin Flutter backed Google iOS developer job involved older mobile coding languages Java upsides reason Kotlin created address older languages issue Kotlin provide safety mechanisms concise expressive Java time point crucial industry specific skills learn refine building foreign exchange future options market app understand theWebSocketprotocol lets transfer data incurring overhead traditional HTTP requests streaming media industry possessing experience live streaming protocols HLS RTMP WebRTC apps industry skills make stand adds layer expertise pretty impressive mobile engineer title making valuable job market future mobile app development shaped businesses mobile technology solve people everyday problems fight irresistible trend surf trend Exposing job mentioned absolutely give opportunities mobile developer provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>27</v>
+      </c>
+      <c r="G54" t="n">
+        <v>9</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.4999999861111115</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.07499999984375</v>
+      </c>
+      <c r="J54" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2204408817635271</v>
+      </c>
+      <c r="L54" t="n">
+        <v>10.06817635270541</v>
+      </c>
+      <c r="M54" t="n">
+        <v>28.55</v>
+      </c>
+      <c r="N54" t="n">
+        <v>584</v>
+      </c>
+      <c r="O54" t="n">
+        <v>220</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1837</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4.391761612620508</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>blackassign0056</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/impact-of-ai-in-health-and-medicine/</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Impact of AI in health and medicine
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+AI allows those in training to go through naturalistic simulations in a way that simple computer-driven algorithms cannot. The advent of natural speech and the ability of an AI  computer to draw instantly on a large database of scenarios means the response to questions, decisions, or advice from a trainee can challenge in a way that humans cannot in health and medicine
+Wearable health trackers-like those fromFitBit,Apple,Garmin, and others- monitor health rate and activity levels. They can send alerts to the user to get more exercise and can share this information with doctors.
+Machine learning algorithmscan process unimaginable amounts of information in the blink of an eye and provide more precision than humans in spotting even the smallest detail in medical imaging.  A few of them areBlackford,Zebra,Enlitic,Lunit.
+The company “Zebra Medical Vision” developed a new platform called profound, which analyzes all types of medical imaging reports that are able to find every sign of potential conditions such as osteoporosis, aortic aneurysms, and many more with a 90% accuracy rate.
+For eg,the digital health firm #HealthTapdeveloped “Dr. AI”, and apps like Babylon in the UK use AI to give medical consultations based on personal medical history and common medical knowledge. Users report their symptoms into the app, which uses speech recognition to compare against a database of illness and asks patients to specify symptoms to triage whether they should go to the ED, urgent care, or a primary care doctor.
+AI robot-assisted surgery: Robots have been used in medicine for more than 30 years. Surgical robots can either aid a human surgeon or execute operations by themselves. They’re also used in hospitals and labs for repetitive tasks, in rehabilitation, physical therapy, and in support of those with long-term conditions.
+Health chatbots such asBabylon,Ada,and mostly close-ended communications.
+#MICROSOFT: Predictive analysis in vision care
+#GOOGLE: clinical decision support in breast cancer diagnosis
+#IBM WATSON: precision medicine in population health management
+Actionable medical insights:  An ever-increasing amount of medical data are being digitized at all public and private healthcare institutions. However, by its very nature, this kind of data is messy and unstructured. Unlike other types of business data, where traditional statistical methods can be used for quick insights, patient data is not particularly amenable to simple modeling and analytics tools.
+For eg.-Enlitic, a San Francisco-basedstart-up, has a mission of mixing intelligence with empathy and leverage the power of AI in health and medicine for precisely generating.
+Therefore, a massive parallel effort to rationalize the legal and policy-making is needed to bring the full benefit of advancement in AI technologies into the healthcare space. As technologies and AI/ML enthusiasts, we can only hope for such a bright future where the power of this intelligence.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Impact health medicine Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist training naturalistic simulations simple algorithms advent natural speech ability computer draw instantly database scenarios response questions decisions advice trainee challenge humans health medicine Wearable health fromFitBit Garmin monitor health rate activity levels send alerts user exercise share information doctors Machine learning algorithmscan process unimaginable amounts information blink eye provide precision humans spotting smallest detail medical imaging areBlackford Zebra Enlitic Lunit company Zebra Medical Vision developed platform called profound analyzes types medical imaging reports find sign potential conditions osteoporosis aortic aneurysms 90 accuracy rate digital health firm HealthTapdeveloped Dr apps Babylon UK give medical consultations based personal medical history common medical knowledge Users report symptoms app speech recognition compare database illness asks patients symptoms triage urgent care primary care surgery Robots medicine 30 years Surgical robots aid human surgeon execute operations hospitals labs repetitive tasks rehabilitation physical therapy support conditions Health chatbots asBabylon communications MICROSOFT Predictive analysis vision care GOOGLE clinical decision support breast cancer diagnosis IBM precision medicine population health management Actionable medical insights amount medical data digitized public private healthcare institutions nature kind data messy unstructured Unlike types business data traditional statistical methods insights patient data amenable simple modeling analytics tools mission mixing intelligence empathy leverage health medicine precisely generating massive parallel effort rationalize legal needed bring full benefit advancement technologies healthcare space technologies enthusiasts future intelligence provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>19</v>
+      </c>
+      <c r="G55" t="n">
+        <v>9</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.3571428443877556</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.07909604497430496</v>
+      </c>
+      <c r="J55" t="n">
+        <v>27.08333333333333</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.2984615384615384</v>
+      </c>
+      <c r="L55" t="n">
+        <v>10.95271794871795</v>
+      </c>
+      <c r="M55" t="n">
+        <v>31.83333333333333</v>
+      </c>
+      <c r="N55" t="n">
+        <v>411</v>
+      </c>
+      <c r="O55" t="n">
+        <v>194</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1359</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4.657929226736567</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>blackassign0057</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/telemedicine-what-patients-like-and-dislike-about-it/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>What patients like and dislike about telemedicine?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+In today’s world, telemedicine technology is one of those technologies which has brought about a change. Compared to the early days there have been remarkable differences in the methods of consultation with a doctor. In the years that have passed by, consultation for a disease with a doctor was quite hectic. It involved waiting, traveling, etc. But with the advent of telemedicine opportunities, this has completely changed.
+It is a rural area that has been completely blessed with the invention of telemedicine. Today a considerable amount of people are able to consult doctors remotely. Not just doctors, but specialistsin various fields of medicine.This has been of great importance as far as rural people are concerned. There are a lot of telemedicine tools that have been found. There are a lot of areas likeophthalmology, oncology, dermatology,etc where the facility of telemedicine has been practiced.
+Most of the patients are truly benefitting from telemedicine. Patients are pretty satisfied with the consultation they are getting. They don’t have to travel now. They can consult doctors and other specialists from remote areas. The cost of consultation has become pretty much affordable. Moreover, they get exposed to highly efficient and qualified experts in the field of medicine.
+On the other hand, there can be patients who do not fully get satisfiedthrough a virtual consultation. Rather they might feel that they need to have a direct talk with the doctor, which can boost up their confidence and also it helps to maintain a better relationship with the doctor and patient. The patients feel trust when they talk to doctors face to face. Moreover, doctors also might be able to console their patients when they have direct interaction with their patients. There could also be patients who doubt if these virtual methodologies are really trusted worthy or not. It is so because, while the patients have direct contact with their patients, the qualifications are visible to the patients. So there shall be no question of distrust.
+There are major challenges like better connectivity of the internet, without which the patients will not be able to have continuous interaction with the doctors. Technical glitches may hinder the consultation too. Moreover, emergency situations cannot be addressed beyond a limit through telemedicine.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>patients dislike telemedicine Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist today world telemedicine technology technologies brought change Compared days remarkable differences methods consultation years passed consultation disease hectic involved waiting traveling advent telemedicine opportunities completely changed rural area completely blessed invention telemedicine Today considerable amount people consult doctors remotely doctors specialistsin great importance rural people concerned lot telemedicine tools found lot areas likeophthalmology oncology dermatology facility telemedicine practiced patients benefitting telemedicine Patients pretty satisfied consultation travel consult doctors specialists remote areas cost consultation pretty affordable exposed highly efficient qualified experts medicine patients fully satisfiedthrough virtual consultation feel direct talk boost confidence helps maintain relationship patient patients feel trust talk doctors face face doctors console patients direct interaction patients patients doubt virtual methodologies trusted patients direct contact patients qualifications visible patients question distrust challenges connectivity internet patients continuous interaction doctors Technical glitches hinder consultation emergency situations addressed limit telemedicine provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>20</v>
+      </c>
+      <c r="G56" t="n">
+        <v>10</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.3333333222222226</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.1094890506952954</v>
+      </c>
+      <c r="J56" t="n">
+        <v>17.96875</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2243478260869565</v>
+      </c>
+      <c r="L56" t="n">
+        <v>7.277239130434783</v>
+      </c>
+      <c r="M56" t="n">
+        <v>20.6875</v>
+      </c>
+      <c r="N56" t="n">
+        <v>329</v>
+      </c>
+      <c r="O56" t="n">
+        <v>129</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1144</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4.800302571860817</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>blackassign0058</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/how-we-forecast-future-technologies/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>How we forecast future technologies?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+TECHNOLOGY is playing a dominant role in human life. And as in our daily lifestyle technology is used each and every place where human beings are present. so How we forecast future technologies?
+So, the fact is that technology is not a single immutable piece of hardware orbit chemistry. It is simplyknowledge of physical relationshipsand it systematically applied to the useful arts. This knowledge can vary continuously over time. It can range basic phenomenon can be applied to an end product, device, or production machinein a mature operating system.Even as time passes, the performancecharacteristics of any machine, product, or operating system are normally improved in small continuous increments over time.
+Advance in technology is usually nothing more than an accumulation of small advances not worth introducing individually to make a significant change in total technology. Forecast future technologies no matter how accurate – unless they eventually influence action.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>forecast future technologies Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist TECHNOLOGY playing dominant role human life lifestyle technology human beings present forecast future technologies fact technology single immutable piece hardware orbit chemistry simplyknowledge physical relationshipsand systematically applied arts knowledge vary continuously time basic phenomenon applied end product device production machinein mature operating time passes performancecharacteristics machine product operating system improved continuous increments time Advance technology accumulation advances introducing individually make significant change total technology Forecast future technologies matter accurate eventually influence action provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>11</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.8333332638888947</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.05769230741494083</v>
+      </c>
+      <c r="J57" t="n">
+        <v>22.93333333333333</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.3430232558139535</v>
+      </c>
+      <c r="L57" t="n">
+        <v>9.310542635658916</v>
+      </c>
+      <c r="M57" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="N57" t="n">
+        <v>231</v>
+      </c>
+      <c r="O57" t="n">
+        <v>118</v>
+      </c>
+      <c r="P57" t="n">
+        <v>773</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5.107231920199501</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>blackassign0059</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/can-robots-tackle-late-life-loneliness/</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Can robots tackle late-life loneliness?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+In this era, everyone is busy in his life. No one spares time for someone. so robots tackle life loneliness? We have no time to stand and stare. This causes loneliness. Loneliness is due to fast-moving life and hurry and worry. In the 21st century, everyone is spending most of their time earning money. They are day-by-day transforming into money-earning machines. Due to his perception, we are losing our relations as we can’t give enough time to our families. They are busy earning their livelihood. They never get satisfies and always want more. Everyone is in a race of earning and then sends his children far away from himself to make them well settled in order to maintain their status. But one faces the consequences of this kind of lifestyle in his old age. People usually don’t spend time with their children when their children are in their childhood but they yearn for the company of their children in their old age. They feel lonely but have none to talk with. They are still attached to people, places, belongings, and memorable events from the past, although they understand that life cannot continue the same way as earlier, and this may easily result in feelings of loneliness and social isolation. As they become older, they need to be attended to in order to meet their daily needs. Robots can indeed serve the purpose but they can aid only mechanical care. They are just emotionless, feeling fewer entities. Robots aren’t creative. They can work only according to a pre-programmed system and till now no such software has been created that can transfer human feelings into robots. This is the major loophole of using robots to tackle late-life loneliness. They can undoubtedly serve their masters but their masters can’t share their feelings with them as they are incapable to understand or react to them. They can’t change their activity according to the occasion. They can provide anything except emotional satisfaction and without emotional gratification, loneliness can’t be tackled. A master can be attached to his robot but that attachment is only due to their service. They can’t share their thoughts with them. In this era, we are rendered lonely and in late- life feel the need for a companion with whom we can talk. We feel a need for someone who can listen to us, react, and advise us to tackle our day-to-day life problems. But we can’t find one. We have, undoubtedly, achieved great progress in terms of technology but we can never fill the void in the heart of a person struggling with his late-life loneliness with our advancements. We are in a kind of mental trance in which we experience fame, progress, wealth, etc. but when we gain our consciousness, we find ourselves lonely in this world. Relations in life are actual wealth in a person’s life. We can never enjoy such a bond with a robot. It will follow our commands, take our appropriate care but can’t react to our emotions. It can’t console us. When a man lives in loneliness for a long time, it eats up his conscience and transforms him into a machine. Robots can never become our friends, crack jokes, weep our tears, or establish an emotional connection with us. They can’t understand our feelings. Many people go into depression. Depression or the occurrence of depressive symptoms is a prominent condition amongst older people, with a significant impact on their well-being and quality of life. They remain sick and loneliness directly impacts longevity. Lonely people often think that they are no longer needed in this world and thus they want to die. It impacts their mental, psychological, social, and physical health. Robots prove to be useless in these matters. They can provide motivation, only if they have the software to do so but can’t, themselves, react to such a situation. They don’t know about anger, happiness, or sadness. They don’t themselves bring food when their master is hungry until commanded to do so. They can’t even offer a glass of water themselves. A man living without relations and without fellow feeling no longer remains a human being. He becomes none less than a machine as, due to his loneliness, he becomes mentally ill and goes into a condition like trauma where he no longer enjoys nature’s blessings, becomes happy or sad as he loses the ability to react and hence can’t act. It’s a dangerous situation. We face a plethora of challenges in assisted living facilities such as not being addressed to emotional needs, being neglected, and forcing a withdrawal from social activities. Relations in life, interaction with fellow beings, sharing of joy and happiness, and fellow feeling make a man from mere a ‘being’ to a ‘social being’ and finally ahuman being.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>robots tackle loneliness Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist busy life spares time robots tackle life loneliness time stand stare loneliness Loneliness due life hurry worry 21st century spending time earning transforming machines Due perception losing relations give time families busy earning livelihood satisfies earning sends children make settled order maintain status faces consequences kind lifestyle age People spend time children children childhood yearn company children age feel lonely talk attached people places belongings memorable events past understand life continue earlier easily result feelings loneliness social isolation older attended order meet Robots serve purpose aid mechanical care emotionless feeling fewer entities Robots creative work system till software created transfer human feelings robots loophole robots tackle loneliness undoubtedly serve share feelings incapable understand react change activity occasion provide emotional satisfaction emotional gratification loneliness tackled master attached robot attachment due service share thoughts rendered lonely life feel companion talk feel listen react advise tackle life problems find undoubtedly achieved great progress terms technology fill void heart struggling loneliness advancements kind mental trance experience fame progress wealth gain consciousness find lonely world Relations life actual wealth life enjoy robot follow commands care react emotions console lives loneliness time eats conscience transforms machine Robots friends crack jokes weep tears establish emotional connection understand feelings people depression Depression occurrence depressive symptoms prominent condition older people significant impact quality life remain sick loneliness directly impacts longevity Lonely people longer needed world die impacts mental psychological social physical health Robots prove useless matters provide motivation software react situation anger happiness sadness bring food master hungry commanded offer water living relations fellow feeling longer remains human machine due loneliness mentally ill condition trauma longer enjoys nature blessings happy sad loses ability react act dangerous situation face plethora challenges assisted living facilities addressed emotional neglected forcing withdrawal social activities Relations life interaction fellow beings sharing happiness fellow feeling make mere social finally ahuman provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>26</v>
+      </c>
+      <c r="G58" t="n">
+        <v>38</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-0.1874999970703126</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.145124716224207</v>
+      </c>
+      <c r="J58" t="n">
+        <v>16.49180327868853</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.1868787276341948</v>
+      </c>
+      <c r="L58" t="n">
+        <v>6.671472802529088</v>
+      </c>
+      <c r="M58" t="n">
+        <v>19.29508196721311</v>
+      </c>
+      <c r="N58" t="n">
+        <v>536</v>
+      </c>
+      <c r="O58" t="n">
+        <v>188</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1808</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>16</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4.185374149659864</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>blackassign0060</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/embedding-care-robots-into-society-socio-technical-considerations/</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Embedding care robots into society and practice: Socio-technical considerations
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Care Robots, as the name suggests, are robots that are used for hospitality purposes like fetching water, cracking jokes and keeping a patient in good harmony, etc.
+The senior care industry has been at the forefront for quite a period. The reason being, Nuclear families becoming very busy in their schedule that one day when the parents of this nuclear family areold, children are nowhere to take care of. Instead, nursing homes have become a trend.  Parents with mental illness are being put in rehab.
+As observed for a few decadesrobots are taking care of many activitiesand they are even dominating a few fields like the automobile industry. So, Machines can indeed help humankind in achieving remarkable success in many fields.
+Do senior citizenslove machines?, You should look at them when they watch TV when they love to play video games on a smartphone. So, If we give them a human-like structure with the ability of a smartphone to make these people happy then it would be quite a monstrous feat.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Embedding care robots society practice considerations Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Care Robots suggests robots hospitality purposes fetching water cracking jokes keeping patient senior care industry forefront period reason Nuclear families busy schedule parents nuclear family areold children care nursing homes trend Parents mental illness put rehab observed decadesrobots taking care activitiesand dominating automobile industry Machines humankind achieving remarkable success senior citizenslove machines watch TV play video games smartphone give structure ability smartphone make people happy monstrous feat provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>12</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.5999999600000027</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.07281553362710906</v>
+      </c>
+      <c r="J59" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.261455525606469</v>
+      </c>
+      <c r="L59" t="n">
+        <v>10.70458221024259</v>
+      </c>
+      <c r="M59" t="n">
+        <v>31</v>
+      </c>
+      <c r="N59" t="n">
+        <v>242</v>
+      </c>
+      <c r="O59" t="n">
+        <v>97</v>
+      </c>
+      <c r="P59" t="n">
+        <v>772</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4.780600461893765</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>blackassign0061</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/management-challenges-for-future-digitalization-of-healthcare-services/</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Management challenges for future digitalization of healthcare services
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Management acts as a guide to a group of people working in the organization and coordinating their efforts, towards the attainment of the common objective.Management challenges for future digitalization of healthcare services
+In the current day and age, a wave of digitization has taken over the world. All the emerging technologies like Artificial Intelligence and others are helping people live better and easier life. The service sector has also benefited a lot from digitization. It got further boost when Prime Minister Narendra Modi, in the year 2015, launched a campaign known as ‘Digital India.’ Among the various industries in the service sector, digitization has had a massive impact on the operation of thehealthcare and diagnostic industry.It has helped in the development of this industry and enhances life for millions of people. The condition of India in terms of healthcare has been quite grim. Patients who need attention are neglected and are unable to avail proper treatment or diagnosis. However, with the coming up of digitization, there has been hoped for this industry also.
+According to Dr. Keshab Panda, CEO &amp; MD, L&amp;T Technology Services,
+This is a model of healthcare where doctors and hospitals are paid based on patient health outcomes. The coming up of digital tools in this segment of healthcare can be considered as the starting tool. Dr. Panda further says that the implementation of advanced digital technologies in patient-care domains like-mobile health apps,telehealth, wearables, and remote monitoring can help in enhancing accessibility, boost efficiency and augment the effectiveness of treatment and preventive care.
+The healthcare industry over the past few decades has changed drastically. With the coming of emerging technologies, new surgical procedures and medical devices have been made available.
+While talking about connectivity in healthcare, Dr. Panda said that with digitization taking over the industry, it is only a matter of time when with the help of the internet and smartphones, digital healthcare will be everywhere. The internet for once has helped doctors connect to their patients and also with one another. This has helped in enhancing the doctor-patient engagement by increasing their interaction time.
+Big data aggregates information about a business through formats such as social media, eCommerce, online transactions, and financial transactions, and identifies patterns and trends for future use.
+Although ransomware, data breaches, and other cybersecurity concerns are nothing new to the healthcare industry, the 2020 Covid-19 pandemic revealed just how vulnerable sensitive patient health information really is.
+The recent growth of digital health initiatives- like telehealth doctor visits — is a major contributor to the severe increase in breached patient records. As more healthcare functions continue to move online over the next year, it’s extremely important to ensure these processes are protected from outside threats.
+Medical practices are citing patient collections as their top revenue cycle management struggle as patients are becoming responsible for a larger portion of their medical bills. In order to help encourage patients to submit payments in a timely manner, providers must adhere to patient payment preferences.
+To meet patient expectations and improve the user experience, ensure billing statements are patient-friendly. You should offer paperless statements and a variety of payment options (e.g. credit card, etc.) via an online patient portal and utilize the latest payment technologies, such as mobile and text-to-pay. New features like text or email reminders help effectively communicate with patients and encourage them to pay their financial obligations.
+The medical insurance landscape has experienced some significant changes in recent years. As more patients are responsible for a larger portion of their healthcare bill, they naturally demand better services from their providers.
+Healthcare organizations will face tougher competition in attracting and retaining patients who demand an experience that matches the level of customer service they expect from other consumer brands.
+They demand a streamlined patient experience so they can “self-service” to resolve most questions, issues, or concerns (e.g., downloading an immunization record, booking an appointment, paying their bills, or checking their account/insurance status) whenever, wherever, and however is most convenient for them.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Management challenges future digitalization healthcare services Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Management acts guide group people working organization coordinating efforts attainment common challenges future digitalization healthcare services current age wave digitization world emerging technologies Artificial Intelligence helping people live easier life service sector benefited lot digitization boost Prime Minister Narendra Modi 2015 launched campaign Digital industries service sector digitization massive impact operation thehealthcare diagnostic helped development industry enhances life millions people condition terms healthcare Patients attention neglected unable avail proper treatment diagnosis coming digitization hoped industry Keshab Panda CEO MD Technology Services model healthcare doctors hospitals paid based patient health outcomes coming digital tools segment healthcare considered starting tool Panda implementation advanced digital technologies domains health apps telehealth wearables remote monitoring enhancing accessibility boost efficiency augment effectiveness treatment preventive care healthcare industry past decades changed drastically coming emerging technologies surgical procedures medical devices made talking connectivity healthcare Panda digitization taking industry matter time internet smartphones digital healthcare internet helped doctors connect patients helped enhancing engagement increasing interaction time Big data aggregates information business formats social media eCommerce online transactions financial transactions identifies patterns trends future ransomware data breaches cybersecurity concerns healthcare industry 2020 pandemic revealed vulnerable sensitive patient health information recent growth digital health telehealth visits contributor severe increase breached patient records healthcare functions continue move online extremely important ensure processes protected threats Medical practices citing patient collections top revenue cycle management struggle patients responsible larger portion medical order encourage patients submit payments timely manner providers adhere patient payment preferences meet patient expectations improve user experience ensure billing statements offer paperless statements variety payment options credit online patient portal utilize latest payment technologies mobile features text email reminders effectively communicate patients encourage pay financial obligations medical insurance landscape experienced significant recent years patients responsible larger portion healthcare naturally demand services providers Healthcare organizations face tougher competition attracting retaining patients demand experience matches level customer service expect consumer brands demand streamlined patient experience resolve questions issues concerns downloading immunization record booking appointment paying checking status convenient provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>40</v>
+      </c>
+      <c r="G60" t="n">
+        <v>11</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.5686274398308345</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.1101511876670601</v>
+      </c>
+      <c r="J60" t="n">
+        <v>24.34285714285714</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.2875586854460094</v>
+      </c>
+      <c r="L60" t="n">
+        <v>9.852166331321261</v>
+      </c>
+      <c r="M60" t="n">
+        <v>28.28571428571428</v>
+      </c>
+      <c r="N60" t="n">
+        <v>531</v>
+      </c>
+      <c r="O60" t="n">
+        <v>245</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1770</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4.911021233569262</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>blackassign0062</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/are-we-any-closer-to-preventing-a-nuclear-holocaust/</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Are we any closer to preventing a nuclear holocaust?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+One thought always comes to my mind…What if we lived without that dander hanging over our heads?And you all know what is that danger is. For more than 70 years the world has faced the very real threat of nuclear war.Nuclear war is a real and growing threat. The United States and Russia have left critical agreements and treaties, while actively planning to add new types of weapons to their arsenals.Meanwhile, US nuclear policy remains rooted in the Cold War, increasing the risk that nuclear weapons could be used again.It doesn’t have to be this way. With the right policy changes and a commitment to diplomacy, the United States can be a leader in reducing the nuclear threat and we can also help them. But the question arises is what are the activities are being done for the prevention of nuclear holocaust?And they are :
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>closer preventing nuclear holocaust Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist thought lived dander hanging heads danger 70 years world faced threat nuclear war growing threat United States left critical agreements treaties actively planning add types weapons nuclear policy remains rooted Cold War increasing risk nuclear weapons policy commitment diplomacy United States leader reducing nuclear threat question arises activities prevention nuclear holocaust provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>8</v>
+      </c>
+      <c r="G61" t="n">
+        <v>8</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.08510638252602988</v>
+      </c>
+      <c r="J61" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.2492753623188406</v>
+      </c>
+      <c r="L61" t="n">
+        <v>13.89971014492754</v>
+      </c>
+      <c r="M61" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="N61" t="n">
+        <v>216</v>
+      </c>
+      <c r="O61" t="n">
+        <v>86</v>
+      </c>
+      <c r="P61" t="n">
+        <v>688</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4.688279301745636</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>blackassign0063</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/will-technology-eliminate-the-need-for-animal-testing-in-drug-development/</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Will technology eliminate the need for animal testing in drug development?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Imagine yourself as a being who can speak but no one can comprehend you. You are kept in captivity, in a place where you can hardly breathe. You are finally selected and taken out of that place, it is a happy moment for you. You can finally have your freedom but sadly instead of being free, you are prodded by rods and fed toxic substances against your will. The only thing you can do is scream in vain. Your voice is heard by everyone but it gets lost in the noise of scientific advancement. You writhe in pain as the substances take effect on your body, the pain slowly creeps into your body and you slowly succumb to it, never to wake up again.
+Since the time of Aristotle, animals have been subjected to various inhumane experiments for the sake of knowledge. These experiments though unethical were very necessary for the advancement of science. Animal testing has become an important part of experimenting on living organisms to ensure that a product is safe for humans to consume. The lab animals are generally subjected to high levels of toxicity while being kept in isolation due to which they have to suffer a lot of stress and discomfort. Animal testing has a large number of drawbacks:
+All of these things make us question ourselves. Is it even worth it? Is it possible to stop this cruelty without hampering our growth?
+With the advancement in science, it can be made possible that we don’t have to use animals ever again.
+These bio-printed models can also be used by the researchers to conduct experiments on them without using animals for it. A French company is working on a bio-printed liver model to test liver toxicity without having to use animals at all. This is a breakthrough in the field of bio-technology as it can bring down animal experimentation by a large percentage.
+These alternatives can help in bringing down animal experimentation to a large extent. If science can progress without harming animals then we should go for it rather than putting them through excruciating pain. We must protect the animals as much as we can or else we would soon be living in a world without them.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>technology eliminate animal testing drug development Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Imagine speak comprehend captivity breathe finally selected happy moment finally freedom sadly prodded rods fed toxic substances thing scream vain voice lost noise scientific advancement writhe pain substances effect body pain slowly creeps body slowly succumb wake time Aristotle animals subjected inhumane experiments sake knowledge experiments unethical advancement science Animal testing important part experimenting living organisms ensure product safe humans consume lab animals generally subjected levels toxicity isolation due suffer lot stress discomfort Animal testing number drawbacks things make question stop cruelty hampering growth advancement science made animals models researchers conduct experiments animals company working liver model test liver toxicity animals breakthrough bring animal experimentation percentage alternatives bringing animal experimentation extent science progress harming animals putting excruciating pain protect animals living world provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>14</v>
+      </c>
+      <c r="G62" t="n">
+        <v>26</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-0.2999999925000002</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.1532567043936525</v>
+      </c>
+      <c r="J62" t="n">
+        <v>21.2962962962963</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.2156521739130435</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8.604779388083736</v>
+      </c>
+      <c r="M62" t="n">
+        <v>24.03703703703704</v>
+      </c>
+      <c r="N62" t="n">
+        <v>321</v>
+      </c>
+      <c r="O62" t="n">
+        <v>124</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1091</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>6</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4.549382716049383</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>blackassign0064</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/will-we-ever-understand-the-nature-of-consciousness/</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Will we ever understand the nature of consciousness?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Introduction
+The definition of consciousness has been controversial for centuries, hence it is given the title of the ‘most familiar and yet mysterious aspects of our lives’. An idea of this concept would be an awareness in beings of their surroundings, themselves, and their own perception. The reason this part of our mind remains unascertained is that consciousness isn’t observable, unlike brain matter that is studied scientifically. the physical clarification of awareness is in a general sense incomplete: it doesn’t include what it feels to be the subject, for the subject. There likewise is by all accounts an unbridgeable illustrative gap between the physical world and our consciousness. As suggested by an incident of Eastern and Shamir traditions, consciousness is both universal and primal. Whilst we have made tremendous progress in understanding brain activity over the years, this research hasn’t been able to answer all the questions relating to the nature of emotions and experiences.
+History
+Beginning within the late nineteenth century, this was a time that once had psychological queries driven by a philosophical understanding of the mind, which was typically equated with consciousness. As a result, the analysis of brain and behavior naturally thought of the role of consciousness in behavioral management by the brain.
+The Ancient Mayans were among the first to propose a sorted out feeling of each degree of consciousness, its purpose, and its worldly association with mankind. Since consciousness incorporates stimuli from nature as well as interior stimuli, the Mayans trusted it to be the most essential type of existence, equipped for evolution. The Incas, however, thought about consciousness as a movement of mindfulness as well as of worry for others too.
+John Locke, an early philosopher, said that consciousness, and so individuality, are freelanced of all substances. He also detected that there is no reason to believe that consciousness is stuck to any specific body or mind, or that consciousness cannot be transferred from one body or mind to a different one. Karl Marx, another early thinker, denies the mind-body classification and holds that consciousness is jeopardized by the material eventualities of one’s settings. William James, an American psychologist, differentiated consciousness to a stream – unbroken and continuous despite several changes and shifts.
+While the main center of a lot of the analysis moved to strictly note cable behaviors throughout the primary half of the twentieth century, analysis of human consciousness has grown staggeringly after the 1950s.
+In Sigmund Freud’s psychoanalytic theory, we can see that he believed that all three levels of awareness- preconscious, conscious, and unconscious were responsible for one’s behavior and thinking. He believed that the mid itself was divided into three parts- the id, the ego, and the superego. The Id is present at birth, instinctual, and operates according to the pleasure principle. The ego underseals reality and logic and develops out of the id in infancy. Finally, the superego is an internalization of society’s moral standards and responsible for guilt. Now, the Id is regarded as unconscious, whereas the ego and superego are also conscious and preconscious. Freud constantly revised his own clinical qualities researches, however, and didn’t conduct scientific experiments and hence his work is heavily scrutinized, leaving the questions unanswered.
+Sigmund Freud’s theory differed from the other psychologists since his theories were more understandable and very easily conveyed to the people. Sigmund Freud’s work and hypotheses helped people shape their perspectives on youth, character, memory, sexuality, and therapy. However, his theories were subject to considerable criticism both now and during his own life. Whilst John Locke and William James took a more practical approach to the mystery by conducting experiments, Sigmund Freud didn’t provide any evidence to support his claims.
+Brain
+Today, the essential focal point of consciousness research is on understanding what consciousness implies both biologically and mentally. Issues of interest include phenomena such as perception, blindsight, brainwaves during sleep, and altered states of consciousness produced by psychoactive drugs.
+A greater part of the test assesses consciousness by approaching human subjects for a verbal report of their encounters. However, to confirm the criticalness of these verbal reports, researchers must contrast them with the action that all the while happens in the brain —that is, they should search for the neural connections of consciousness.
+Hope is to locate that noticeable action in a specific aspect of the brain, or a particular pattern of global brain activity, will be greatly predictive of consciousness mindfulness. A few brain imaging strategies, for example, EEG and MRI scans, have been utilized for physical proportions of brain activities in these examinations.
+A few investigations have shown that movement in essential primary sensory areas of the brain isn’t adequate to create consciousness: it is workable for subjects to report an absence of awareness in any event, when areas, for example, the primary visual cortex show clear electrical reactions to a stimulus. Higher brain areas are viewed as all the more encouraging, particularly the prefrontal cortex, which is involved in a range of high order functions.
+One mainstream theory implicates various examples of brain waves in creating various conditions of consciousness. Analysts can record mind waves, or drawings of electrical movement inside the cerebrum, using an electroencephalograph (EEG) and placing electrodes on the scalp. The four types of brain waves (alpha, beta, theta, and delta) each correspond with one mental state (relaxed, alert, lightly asleep, and deeply asleep)
+Memory
+Episodic memory can be regarded as the only form of conscious memory. This is because it is the capacity to consciously remember personally experienced events and situations in the past. The hippocampus located in the brain’s temporal lobe is responsible for this type of memory.
+Consciousness also plays a part in important memory distinctions. One such distinction is the implicit and explicit characteristics; in which explicit memory is what you consciously know and implicit memory includes events you may not be conscious of.
+Furthermore, several empirical findings suggest that declarative memory is related to consciousness as well; meaning that the retrieval and formation of this memory are connected to awareness. Working memory operates/maintains consciously perceived information as well since it temporarily stores and tampers with information whilst working on tasks.
+The current ways of testing this information are lacking in several essential aspects, including spatial resolution, temporal resolution, or scope. Examples of such methods are PET, fMRI, EEG, implanted electrodes, etc.
+PET and fMRI have temporal resolution problems, EEG is well-known to have localizability difficulties, and implanted electrodes whilst great in temporal and spatial resolution can only test a set number of neurons; that is, they are restricted in scope. Hence, huge numbers of our speculations, while testable on a fundamental level, appear to be difficult to test as of now.
+Mental illness
+Consciousness has an influence on the way we see objects around us, which encourages us to settle on choices about how to communicate with them. Experiencing difficulty perceiving objects is connected to a few problems, for example, agnosia (a failure to decipher visual data), Alzheimer’s disease, and autism. However, we actually don’t comprehend what visual data is basic for the mind to intentionally perceive an object.
+Several different disorders of consciousness include locked-in syndrome, minimally conscious state, persistent vegetative state, chronic coma, and brain death.
+Locked-in syndrome, otherwise called pseudo coma, is a condition wherein a patient is aware however can’t move or impart verbally because of complete loss of motion of essentially all voluntary muscles in the body aside from vertical eye developments and squinting. The individual is conscious and is able to speak with eye movements.
+In a minimally conscious state, the patient has intermittent periods of awareness and wakefulness. Patients need to give restricted, however reproducible indications of consciousness of themself or their current circumstance. This could be following straightforward orders, comprehensible speech, or purposeful conduct.
+In a persistent vegetative state, the patient has sleep-wake cycles, but lacks awareness, is not able to communicate, and only displays reflexive and non-purposeful behavior. The term refers to an organic body that is able to grow and develop devoid of intellectual activity or social intercourse
+Like coma, chronic coma results generally from cortical or white-matter harm after neuronal or axonal injury, or from central brainstem sores. Usually, the metabolism in the grey matter decreases to 50-70% of the normal range. The patient lies with eyes shut and doesn’t know about self or environmental factors.
+Brain death is the irreversible end of all brain activity, and function (including involuntary activity necessary to sustain life). The main cause is total necrosis of the cerebral neurons following loss of brain oxygenation. After brain death the patient lacks any sense of awareness; sleep-wake cycles or behavior, and typically look as if they are dead or are in a deep sleep state.
+Future predictions and conclusion
+As we can see from the history of scholar’s endeavors to study consciousness empirically, its nature is not one that can be defined using scientific methods. In the past, psychologists such as Descartes came up with dualistic theories that did not line up with the fundamental laws of physics. In the battle between realists and illusionists, taking sides is fundamentally impossible as the topic doesn’t allow for concrete evidence.
+As we can observe from neural examinations of the brain to detect the causes of consciousness, there is no sensory sector of the brain that is the cause for one to be aware during a certain event even if there are clear signs of a reaction to a stimulus. Similarly, even though consciousness plays a major role in memory, we currently lack the facilities to research it fully. In the future, there is a possibility that we will be able to access such facilities, however, which could allow us to find the neural connections and its ties to mental illness as well. Not only would this help several people by making us aware of the causes of our perspective on certain things, but it would also give us a better chance of recognizing signs of possible mental illness or other issues beforehand.
+As it seems, researchers continue to study this unknown part of our mind and once we are able to fund and recover from the global pandemic, we will be able to answer one of psychology’s most difficult questions.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>understand nature consciousness Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Introduction definition consciousness controversial centuries title familiar mysterious aspects lives idea concept awareness beings surroundings perception reason part mind remains unascertained consciousness observable unlike matter studied scientifically physical clarification awareness general sense incomplete include feels subject subject likewise accounts unbridgeable illustrative gap physical world consciousness suggested incident Eastern Shamir traditions consciousness universal primal Whilst made tremendous progress understanding activity years research answer questions relating nature emotions experiences History Beginning late nineteenth century time psychological queries driven philosophical understanding mind typically equated consciousness result analysis behavior naturally thought role consciousness behavioral management Ancient Mayans propose sorted feeling degree consciousness purpose worldly association mankind consciousness incorporates stimuli nature interior stimuli Mayans trusted essential type existence equipped evolution Incas thought consciousness movement mindfulness worry philosopher consciousness individuality freelanced substances detected reason consciousness stuck specific body mind consciousness transferred body mind thinker denies classification holds consciousness jeopardized material eventualities settings psychologist differentiated consciousness stream unbroken continuous shifts center lot analysis moved strictly note behaviors primary half twentieth century analysis human consciousness grown staggeringly 1950s Sigmund Freud psychoanalytic theory believed levels preconscious conscious unconscious responsible behavior thinking believed mid divided id ego superego Id present birth instinctual operates pleasure principle ego underseals reality logic develops id infancy Finally superego internalization society moral standards responsible guilt Id regarded unconscious ego superego conscious preconscious Freud constantly revised clinical qualities researches conduct scientific experiments work heavily scrutinized leaving questions unanswered Sigmund Freud theory differed psychologists theories understandable easily conveyed people Sigmund Freud work hypotheses helped people shape perspectives youth character memory sexuality therapy theories subject considerable criticism life Whilst practical approach mystery conducting experiments Sigmund Freud provide evidence support claims Today essential focal point consciousness research understanding consciousness implies biologically mentally Issues interest include phenomena perception blindsight brainwaves sleep altered states consciousness produced psychoactive drugs greater part test assesses consciousness approaching human subjects verbal report encounters confirm criticalness verbal reports researchers contrast action search neural connections consciousness locate noticeable action specific aspect pattern global activity greatly predictive consciousness mindfulness imaging strategies EEG MRI scans utilized physical proportions activities examinations investigations shown movement essential primary sensory areas adequate create consciousness workable subjects report absence awareness event areas primary visual cortex show clear electrical reactions stimulus Higher areas viewed encouraging prefrontal cortex involved order functions mainstream theory implicates examples waves creating conditions consciousness Analysts record mind waves drawings electrical movement inside cerebrum electroencephalograph EEG placing electrodes scalp types waves beta theta correspond mental relaxed alert lightly asleep deeply asleep Memory Episodic memory regarded form conscious memory capacity consciously remember personally experienced events situations past hippocampus located temporal lobe responsible type memory Consciousness plays part important memory distinctions distinction implicit explicit characteristics explicit memory consciously implicit memory includes events conscious empirical findings suggest declarative memory related consciousness meaning retrieval formation memory connected awareness Working memory consciously perceived information temporarily stores tampers information whilst working tasks current ways testing information lacking essential aspects including spatial resolution temporal resolution scope Examples methods PET fMRI EEG implanted electrodes PET fMRI temporal resolution problems EEG localizability difficulties implanted electrodes whilst great temporal spatial resolution test set number neurons restricted scope huge speculations testable fundamental level difficult test Mental illness Consciousness influence objects encourages choices communicate Experiencing difficulty perceiving objects connected problems agnosia failure decipher visual data Alzheimer disease autism comprehend visual data basic mind intentionally perceive object disorders consciousness include syndrome minimally conscious persistent vegetative chronic coma death syndrome called pseudo coma condition patient aware move impart verbally complete loss motion essentially voluntary muscles body vertical eye developments squinting individual conscious speak eye movements minimally conscious patient intermittent periods awareness wakefulness Patients give restricted reproducible indications consciousness themself current circumstance straightforward orders comprehensible speech purposeful conduct persistent vegetative patient cycles lacks awareness communicate displays reflexive behavior term refers organic body develop devoid intellectual activity social intercourse coma chronic coma results generally cortical harm neuronal axonal injury central brainstem sores metabolism matter decreases normal patient lies eyes shut environmental factors death irreversible end activity function including involuntary activity sustain life total necrosis cerebral neurons loss oxygenation death patient lacks sense awareness cycles behavior typically dead deep sleep Future predictions conclusion history scholar endeavors study consciousness empirically nature defined scientific methods past psychologists Descartes dualistic theories line fundamental physics realists illusionists taking fundamentally impossible topic concrete evidence observe neural examinations detect consciousness sensory sector aware event clear signs reaction stimulus Similarly consciousness plays role memory lack facilities research fully future possibility access facilities find neural connections ties mental illness people making aware perspective things give recognizing signs mental illness issues researchers continue study unknown part mind fund recover global pandemic answer psychology difficult questions provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>32</v>
+      </c>
+      <c r="G63" t="n">
+        <v>50</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.2195121924449733</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.09080841628924871</v>
+      </c>
+      <c r="J63" t="n">
+        <v>24.26582278481013</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.2524778299426187</v>
+      </c>
+      <c r="L63" t="n">
+        <v>9.807320245901099</v>
+      </c>
+      <c r="M63" t="n">
+        <v>27.91139240506329</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1100</v>
+      </c>
+      <c r="O63" t="n">
+        <v>484</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3641</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>12</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4.666515426497278</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>blackassign0065</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/will-we-ever-colonize-outer-space/</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Will we ever colonize outer space?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Nature has blessed humanity with earth, a rounded globe where all essential necessity lies in the hand of a human. Though in this 21st-century building Space shuttle and exploring space has become an obvious activity among the human raise, now with the inclusion of Start-ups like Space X once dreamed for reaching out at space now is coming true. We all have to agree upon a fact that in the Growth of industrialization we have generated a humungous carbon footprint and colonize at outer space will create a much-needed area for our survival.
+With time the human race has visualized and has undergone many transformations, and these transformations may for starters were not that effective but were a major role at existence to this age. Be it a natural transformation like shifting of tectonic plates or manmade like Dumping water and damaging water bodies, somehow have affected usual life of humans so creating space of humans is what next humans are eyeing for.
+All this idea for Colonizing in outer space emerged when NASA was able to launch a space shuttle with a heavy payload in the late 1990s this idea didn’t stir brain at that time but later was like apple eyes when various articles from astronauts and their writeup came into limelight and this idea saw its progression, space exploration was not a new normal, companies were petrified by the number of investments that these kinds of projects ask for. But things change with the entry of PayPal’s owner Elon Musk, in 2002 where he laid stones of Space X, with NASA providing the launchpad for their exploration.
+Being space travel legitimate there where many bottlenecks knowing the nature of outer space will boost the idea of colonizing, here one has to realize the optimum. But the main target that these company put forward with themself was to not just get into other planet but to get back at earth safely, earlier these projects due to high fund was always subdued and priority was given to the rocket technology. Thus, this unimaginable quest for the search of space was far-fetched though.
+Now being in 2020 we do not find it out of a place of colonizing outside of space, the kind of emergence of technologies has led to the escalation of spreading the roots of human existence, the plan for reaching out to outer space too plays a key role for this idea too. Proper Planning, Analysing, Organising, and Executing were required for these projects to be successful for deeper know how I would like to mention here an example of Space X, According to them they wud be successful for sending Rockets by 2022 and would able to colonize by 2050, For achieving these vision they have planned a total of 36 times pre-launch of the same rocket which they will be launching by 2020. Not only that they have already placed their star link satellites which will provide the basic network connectivity for their colonized world, they have planned this to that extent that they have targeted a profit of $ 22 billion yearly by 2025. Already they have sent the first manned rocket successfully what Elon musk plan is to create that infrastructure by which going to Mars with cost as a regular air flight ticket all this will lead to better chances for colonizing at another planet. With setting up their commercial flight once started to the red planet it wud just be a stepping stone for the colonizing at the outer space.
+But the fundamental change that people have to undergo while living on another planet will be a change in gravity and being able to be near to live support if any technical issues arise to their suit until unless we find a similar place like the earth that is the change which humans have to adjust. Aspects like Ultraviolet rays too will play an immense role in the survival, but with the rate of technology expanding and challenging at very boundaries there are not many days left when we find solutions to these aspects but this idea of colonizing has more to do with monetary terms it has been projected that building a colony at space will cost at about $10 Trillian which is more than many countries GDP. Placing that much of an amount and getting funding for such highly anticipated projects is tough. Elon to have addressed with these questions with an open Door he believes that this cost is nothing when we find a route to colonize space and these costs will be justifiable when space exploration will reach new heights.
+Also, our world is around water and the percentage of land comparison to water is too less. Whereas the population is increasing with the speed and the level of excitement in order to search for new things and the obsession with the new and innovative things never going to finish. Because in the end, we do not satisfy what we have achieved, we are only looking for other things and crave to achieve that.
+In order to achieve that planning is most crucial stage. As of now we have searched 9 planets but still didn’t shortlisted the outcomes. But according to the 3-decade theory of ELON MUSK, it seems to be possible.
+As the most important thing to survive is the atmospheric environment, whether is this suitable or not, and in order to make it suitable what steps had to take and maintain the suitable level of oxygen.  The missions are now what everyone is focusing about. Finding the source of water, because its 2ndcrucial thing which is needed to survive.
+Apart from the excitement and the things, the threats or the uncertainties are bound to happen like any kind of mammal which could occur during construction or after that. So the security for that or any protection so that uncertainties could be replicated.
+After the basic things, other factors like what are the natural habitats available there, whether the plants could be grown over there or not. If yes, then what types of plants could survive there.
+The environment for the animals is safe or not. Because to balance the nature we need all types of animals, natural habitat, even insects and other small things which seems to be ignorable but plays an important role in maintaining the environmental balance. For e.g.  – Ants are among the leading predators of other insects, helping to keep pest populations low.  Ants move approximately the same amount of soil as earthworms, loosening the soil in the process and increasing air and water movement into the ground.  They keep the ecosystem clean of dead insect carcasses and aid in the destruction and decomposition of plant and animal matter. So, every small thing contributes in its own way.
+Another matter of concern is the level of artificial intelligence and machine learning required to maintain that kind of requirement. Because as the current scenario, we need energy to run any vehicle or even for the robotics. So, the availability of the energy and the source of energy is needed.
+And apart from this, the heat of sun is equally important in order to maintain the level. Because with artificial air we can survive but not for so long. So, in order to remain healthy as well the calculation has to be done. When thinking about disease, you may have heard in the news about the concern that antibiotics (such as penicillin) – which help fight infections – may eventually stop working. Global health organisations are trying to reduce the use of antibiotics, especially for conditions that aren’t serious. This is because their overuse in recent years means that they’re becoming less effective.
+But still we can survive without antibiotics. Because there are ways of dealing with diseases caused by bacteria such as isolation which is how they were treated before penicillin.
+It might sound like something set firmly in the realm of fantasy, but experts in private industry and governments around the world are trying to understand how feasible it would be to establish a lunar base. Some scientists think humans could survive comfortably on the moon. In some ways, the very minimal gravity of the moon might actually be more conducive to life than the microgravity astronauts experience on the International Space Station.
+Although it hasn’t been formally tested, some experts hypothesize that the small amount of gravitational force put on an astronaut’s body when on the moon could help stem some of the adverse effects like bone-density and muscle loss that space flyers experience while living in microgravity on the International Space Station.
+By using the moon’s indigenous material, space agencies can save money on the cost of flying pricey missions to and from the moon’s surface. Once on the moon, instead of having to stage costly missions aimed at delivering oxygen and other necessary resources from Earth, experts might be able to actually use the material to manufacture gasses needed to sustain life on the satellite.
+On earth, we are protected from radioactive solar winds and cosmic rays by our own magnet field known as the magnetosphere. But out in the space, we can’t rely on this type of protection, and in order to make that protection, it could take a lot but yes with more upgraded technology it could achieve.
+Although till now the approximate value of the project is $10 trillion. But the aim is to make the fare equivalent to the normal air fare.
+As once we are comfortable with all the resources, securities for uncertainties, risk analysis, and the probability of survival of the human being and many other factors after consideration, then development won’t take much time.
+Because to construct a building it take normally 8-9 months. Which is totally acceptable.
+But the main concern is the density of the land, i.e. whether the land has the capacity to bear that much weight or not. And the type of land is adaptable for cultivation or nor. Although land can be converted into different types of cultivation but with the help of upgraded technology.
+In order to transport the equipments on the regular basis, a large amount of fuel Is required, and other factors as well and Built the propellor depo for rocket landing building various infrastructure for the city one by one will create a way forward for idea of Colonizing at outer space.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>colonize outer space Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Nature blessed humanity earth rounded globe essential necessity lies human building Space shuttle exploring space obvious activity human raise inclusion Space dreamed reaching space coming agree fact Growth industrialization generated humungous carbon footprint colonize outer space create area survival time human visualized undergone transformations transformations starters effective role existence age natural transformation shifting tectonic plates manmade Dumping water damaging water bodies affected usual life humans creating space humans humans eyeing idea Colonizing outer space emerged NASA launch space shuttle heavy payload late 1990s idea stir time eyes articles astronauts writeup limelight idea progression space exploration normal companies petrified number investments kinds projects things change entry PayPal owner Elon Musk 2002 laid stones Space NASA providing launchpad exploration space travel legitimate bottlenecks knowing nature outer space boost idea colonizing realize optimum target company put forward themself planet earth safely earlier projects due fund subdued priority rocket technology unimaginable quest search space 2020 find colonizing space kind emergence technologies led escalation spreading roots human existence plan reaching outer space plays role idea Proper Planning Analysing Organising Executing required projects successful deeper mention Space wud successful sending Rockets 2022 colonize 2050 achieving vision planned total 36 times rocket launching 2020 satellites provide basic network connectivity colonized world planned extent targeted profit 22 2025 manned rocket successfully Elon musk plan create infrastructure cost regular air flight ticket lead chances colonizing planet setting commercial flight started planet wud stepping colonizing outer space fundamental change people undergo living planet change gravity live support technical issues arise suit find similar earth change humans adjust Aspects Ultraviolet rays play immense role survival rate technology expanding challenging boundaries days left find solutions aspects idea colonizing monetary terms projected building colony space cost 10 Trillian countries GDP Placing amount funding highly anticipated projects tough Elon addressed questions open Door believes cost find route colonize space costs justifiable space exploration reach heights world water percentage comparison water population increasing level excitement order search things obsession innovative things finish end satisfy achieved things crave achieve order achieve planning crucial stage searched 9 planets shortlisted outcomes theory ELON MUSK important thing survive atmospheric environment suitable order make suitable steps maintain suitable level oxygen missions focusing Finding source water 2ndcrucial thing needed survive excitement things threats uncertainties bound happen kind mammal occur construction security protection uncertainties replicated basic things factors natural habitats plants grown types plants survive environment animals safe balance nature types animals natural habitat insects things ignorable plays important role maintaining environmental balance Ants leading predators insects helping pest populations Ants move approximately amount soil earthworms loosening soil process increasing air water movement ground ecosystem clean dead insect carcasses aid destruction decomposition animal matter thing contributes matter concern level artificial intelligence machine learning required maintain kind requirement current scenario energy run vehicle robotics availability energy source energy needed heat equally important order maintain level artificial air survive order remain healthy calculation thinking disease news concern antibiotics penicillin fight infections eventually stop working Global health organisations reduce antibiotics conditions overuse recent years effective survive antibiotics ways dealing diseases caused bacteria isolation treated penicillin sound set firmly realm fantasy experts private industry governments world understand feasible establish lunar base scientists humans survive comfortably ways minimal gravity conducive life microgravity astronauts experience International Space Station formally tested experts hypothesize amount gravitational force put astronaut body stem adverse effects muscle loss space flyers experience living microgravity International Space Station indigenous material space agencies save cost flying pricey missions stage costly missions aimed delivering oxygen resources Earth experts material manufacture gasses needed sustain life satellite earth protected radioactive solar winds cosmic rays magnet magnetosphere space rely type protection order make protection lot upgraded technology achieve till approximate project 10 aim make fare equivalent normal air fare comfortable resources securities uncertainties risk analysis probability survival human factors consideration development time construct building months totally acceptable concern density capacity weight type adaptable cultivation converted types cultivation upgraded technology order transport equipments regular basis amount fuel required factors Built propellor depo rocket landing building infrastructure create forward idea Colonizing outer space provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>49</v>
+      </c>
+      <c r="G64" t="n">
+        <v>23</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.3611111060956791</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.0892193307444618</v>
+      </c>
+      <c r="J64" t="n">
+        <v>26.16216216216216</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.1730371900826446</v>
+      </c>
+      <c r="L64" t="n">
+        <v>10.53407974089792</v>
+      </c>
+      <c r="M64" t="n">
+        <v>28.82432432432432</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1016</v>
+      </c>
+      <c r="O64" t="n">
+        <v>335</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3360</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>19</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4.404694835680751</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>blackassign0066</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/what-is-the-chance-homo-sapiens-will-survive-for-the-next-500-years/</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>What is the chance Homo sapiens will survive for the next 500 years?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+We’ve really done it this year. Like an insatiable glutton, the law of averages has come home to roost. We should’ve taken the hint when on the 1stof January, 66 people lost their lives in the Jakarta floods. What followed was like the highlights reel of a disaster movie franchise – a volcanic eruption in The Philippines, irrepressible bushfires in Australia, earthquakes in Russia, Iran, Turkey, India, and China. And speaking of China.
+2020 has brought home the fragile mortality of the human race into sharp focus. As global Covid-19 deaths stoutly push past the grim 1 million marks, we have no choice but to question our place in the universe – are we the all-conquering masters of our domain, or mere tourists in a ruthlessly apathetic ecosystem? Is the human race on the ubiquitous three-part literary arc that defines every story, every life, every civilization – ascent, apex, and descent? Maybe when Michael Jackson unveiled his moonwalk in 1983, or when Barack Obama stepped into the White House as President of the United States in 2008, or indeed when MS Dhoni lifted the Cricket World Cup in 2011, we peaked, as a species, and everything since then has been a steady unraveling.
+500 years is a long time. For context, the world population in 1500 AD was a mere 461 million. The 16-fold explosion since then is unprecedented in history, but we might just be at the tip of an iceberg. Though fertility rates are dropping and more and more people are foregoing the chance to have babies, we might just have crossed the threshold – the population projections for the year 2050 is 9.8 billion, and for 2100 is a whopping 11.2 billion1. Somewhere out there, Malthus is cackling in his grave. The year 2500 suddenly seems a long way off, and this conversation seems ever-more pertinent today. The Bulletin of Atomic Scientists is not optimistic – the famed Doomsday Clock they maintain is the closest to ‘midnight’ (our proximity to global catastrophe), since its inception in 1947. Global warming? Check. The threat of nuclear war? Check. Ongoing pandemic? Check, check, check.
+And yet, hope floats, for three reasons. Mankind may just have its back to the wall right now, but there are three shoots of potential that might just help us make it to 2500 AD – the advent of a basket of disruptive technologies (artificial intelligence, bio-enhancement, genetic engineering), the private sector focus on space exploration and terraforming, and good old fashioned human resilience. While the first two factors will no doubt be critical to human survival, it is the third one that we must pin our hopes on – our long-demonstrated history of surviving whatever nature, the universe, or our own self-destructive tendency, throws our way.
+The Next Superman?
+In the 13thcentury, in the Italian town of Pisa, an enterprising tinkerer developed the first eyeglasses, for a local friar with weakening eyesight2. All of a sudden, there existed an external device that could amplify our senses, a tool that gave us an advantage in survival. Today, LASIK surgeries obviate the need for eyeglasses entirely. Hearing aids give the gift of auditory perception back to those who had gotten used to a world of muffled voices and unheard sounds. The iPhone routinely comes with an augmented reality tool that allows us to measure the length of objects in front of us.
+But the real science starts where the imagination ends – augmented reality glasses, smart wearables, and virtual reality tools will be ubiquitous in the next few decades. But what after that? Science has the answer, and it’s both thrilling and scary. Artificial intelligence has become the stuff of fable, the filler for all questions left unanswered. But AI, combined with bio-enhancement and genetic engineering, might just lead to the evolution of what some are calling Homonouveau3. Homonouveauwill be smarter, faster, more agile, and better equipped to adapt to what promises to be a world that is VUCA beyond our imaginations. What might such a human being look like?
+They might have a small chip embedded in their brain that utilizes artificial intelligence for enhanced sensory perception. What does that mean? It means that they would be able to see better, focuses their attention for longer, hears what they want to hear, and communicate the appropriate reaction to the rest of the body. Through a chemical in the blood, this AI chip would be able to demand the appropriate response from the body. Bio-augmentation of limbs and organs, internal and external, would mean that what a person can or cannot do is no longer determined at birth, but can simply be bought. All of a sudden, the average Joe can run faster than Usain Bolt, swim better than Michael Phelps, and…fly? Maybe. Genetic engineering will be the missing link. Already there are feverish conversations about a dystopian future featuring designer babies and a digital divide that simply cannot be overcome because it is inbuilt into one’s DNA. The breakthrough with CRISPR-Cas9 might just be the key to unlock the mysteries of DNA manipulation. So what if there’s no food left? Our body AI will adjust our appetite accordingly. No water? Absorb humidity from the air through specialized pores in the skin. The human being in 2500 AD may not be how we recognize one today. That may be our only shot.
+Galactic Dominance
+SpaceX, led by its mercurial leader Elon Musk, has been the leader here. The SpaceX Mars Programme is based on a very simple premise – as the earth’s closest planet in terms of distance and terrestrial conditions, Mars would be our best bet for colonization. Musk has invested billions of dollars in the Mars Space Programme and remains a fervent believer in the concept. And among tech visionaries, Musk is not alone. Jeff Bezos, the richest man in the world, owns Blue Origin, which simply aims to make spaceflight cheaper through incremental technological growth. Bezos, who took an online retailer of books and turned it into an ever-expanding behemoth, is not a man who thinks small. With more and more business leaders finding spaceflight and planetary colonization a tantalizing prospect, there will inevitably be a concerted push to developing an actual colony on another planet. And when the pull-factor to this development starts hitting diminishing returns, there will be the inevitable push factor as global warming and the possible increase in the eruption of pandemics begin to take their toll. It might just become a more feasible option for people to find an alternate home, if not on Mars, then on one of Saturn’s moons.
+A human colony on Mars sounds like a concept straight out of science fiction, but so did a permanent station in Antarctica until a few decades ago. Mount Everest seemed like an unapproachable summit until someone went ahead and planted a flag at the peak. Today, hundreds of people every year attempt the climb. As spaceflight becomes more reasonable, as the urge to explore supersedes the inertia of investment, we become closer to our best chance of survival – leaving planet earth behind and finding another home, perhaps one more forgiving of our follies.
+The Human Spirit
+The introduction to this article includes an illustrative list of disasters and misfortunes that have struck the global communitythis year. And yet, we survive. Businesses surge ahead, people adapt to a world of masks and social distancing, the world goes on. Earthquakes, tsunamis, pandemics, we’ve seen them all before and survived, and the human race, in its intrepid exploration of the world, pushes onward and upward. Technological visionaries envision a future that the rest of us cannot see, and then invest money in their vision. Gradually, what seemed unthinkable suddenly becomes real – the moon landing is the best possible example of that. Google launched Google Glass as the first augmented reality wearable technology, and suddenly we could foresee a future with smart eyewear. While the product didn’t quite catch on, that doesn’t mean other companies aren’t trying. Bio-augmentation is already a fast-developing industry, while CRISPR-Cas9, the “genetic scissors” is being held back only by regulatory bottlenecks. How long before the prospect of fiddling with the gene code becomes not a luxury but a necessity? The human spirit, the tendency to survive and thrive at all costs, will eventually win.
+The human race will survive to 2500, of that there is no doubt. The real question is, will the person who exists in 2500, with bionic chips and a bio-enhanced body structure and a modified genetic code, be called a Homosapien?Or is Homonouveauthe way forward?
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Homo sapiens survive 500 years Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist insatiable glutton averages home roost hint 1stof 66 people lost lives floods highlights disaster movie franchise volcanic eruption irrepressible bushfires earthquakes Iran speaking 2020 brought home fragile mortality human focus global deaths stoutly push past 1 choice question universe domain mere tourists ruthlessly apathetic ecosystem human ubiquitous literary arc defines life civilization ascent apex descent unveiled moonwalk 1983 Barack Obama stepped President United States 2008 MS Dhoni lifted Cricket World Cup 2011 peaked species steady unraveling 500 years time context world population 1500 AD mere 461 explosion unprecedented history tip iceberg fertility rates dropping people foregoing babies crossed threshold population projections 2050 2100 whopping billion1 Malthus cackling grave 2500 suddenly conversation pertinent today Bulletin Atomic Scientists optimistic famed Doomsday Clock maintain closest midnight proximity global catastrophe inception 1947 Global warming Check threat nuclear war Check Ongoing pandemic Check check check floats reasons Mankind shoots potential make 2500 AD advent basket disruptive technologies artificial intelligence genetic engineering private sector focus space exploration terraforming fashioned human resilience factors doubt critical human survival pin hopes history surviving nature universe tendency throws Superman 13thcentury town Pisa enterprising tinkerer developed eyeglasses local friar weakening eyesight2 sudden existed external device amplify senses tool gave advantage survival Today LASIK surgeries obviate eyeglasses Hearing aids give gift auditory perception world muffled voices unheard sounds iPhone routinely augmented reality tool measure length objects front science starts imagination ends augmented reality glasses wearables virtual reality tools ubiquitous decades Science answer thrilling scary Artificial intelligence stuff fable filler questions left unanswered combined genetic engineering lead evolution calling Homonouveau3 Homonouveauwill smarter faster agile equipped adapt promises world VUCA imaginations human chip embedded utilizes artificial intelligence enhanced sensory perception focuses attention longer hears hear communicate reaction rest body chemical chip demand response body limbs organs internal external longer determined birth simply bought sudden average run faster Usain swim Genetic engineering missing feverish conversations dystopian future featuring designer babies digital divide simply overcome inbuilt DNA breakthrough unlock mysteries DNA manipulation food left body adjust appetite water Absorb humidity air specialized pores skin human 2500 AD recognize today shot Galactic Dominance SpaceX led mercurial leader Elon Musk leader SpaceX Programme based simple premise earth closest planet terms distance terrestrial conditions bet colonization Musk invested billions dollars Space Programme remains fervent believer concept tech visionaries Musk Bezos richest world owns Origin simply aims make spaceflight cheaper incremental technological growth Bezos online retailer books turned behemoth thinks business leaders finding spaceflight planetary colonization tantalizing prospect inevitably concerted push developing actual colony planet development starts hitting diminishing returns inevitable push factor global warming increase eruption pandemics begin toll feasible option people find alternate home Saturn moons human colony sounds concept science fiction permanent station Antarctica decades ago Everest unapproachable summit ahead planted flag Today hundreds people attempt climb spaceflight reasonable urge explore supersedes inertia investment closer survival leaving planet earth finding home forgiving follies Human Spirit introduction article includes illustrative list disasters misfortunes global communitythis survive Businesses surge ahead people adapt world masks social distancing world Earthquakes tsunamis pandemics survived human intrepid exploration world pushes onward upward Technological visionaries envision future rest invest vision Gradually unthinkable suddenly landing Google launched Google augmented reality wearable technology suddenly foresee future eyewear product catch companies industry genetic scissors regulatory bottlenecks prospect fiddling code luxury necessity human spirit tendency survive thrive costs eventually win human survive 2500 doubt question exists 2500 bionic chips body structure modified genetic code called Homosapien Homonouveauthe forward provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>36</v>
+      </c>
+      <c r="G65" t="n">
+        <v>24</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.1999999966666667</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.084745762592167</v>
+      </c>
+      <c r="J65" t="n">
+        <v>18.88372093023256</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.1958128078817734</v>
+      </c>
+      <c r="L65" t="n">
+        <v>7.631813495245733</v>
+      </c>
+      <c r="M65" t="n">
+        <v>22.08139534883721</v>
+      </c>
+      <c r="N65" t="n">
+        <v>926</v>
+      </c>
+      <c r="O65" t="n">
+        <v>318</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2892</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>14</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4.230363732208751</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>blackassign0067</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/why-does-your-business-need-a-chatbot/</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Why does your business need a chatbot?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Mr. Sakamoto is a bonsai artist, lives downtown Kyoto, Japan. Bonsai is a Japanese art form that is the cultivation of small trees in a small or medium container. He is in this field of business for the last ten years and he loves what he does on a daily basis. People from different cities in Japan, come to buy his artwork. But, in the early stage of his business, he was just another regular Bosai artist. His popularity has increased because of the stories he tells for every art he is selling. His customer immediately loved him for this while buying A Bonsai art. He loved to sell his customer with his artwork and a story related to that product which resurrects his presence through his art in customers. Soon enough his business thrived and nowadays he is always busy. After the digital revolution, although his sales increased, he was not happy. He was not satisfied. Something is eating up his mind day by day. He could not understand what’s the reason behind his remorse.
+A chatbot is an awesome invention of the digital revolution. It is the real-life embodiment of Customer Engagement. Every business needs this feature- will be an understatement. Because Customer engagement is the base of any business. The chatbot does the exact thing digitally. It helps customers to answer the queries and tell about the product that the business has to offer is a fully automated way with vibrant customizations.
+Mr. Sakamoto is running his business for the last fifteen years now. And now he is happy that he was not for the past couple of years. The rationale behind his happiness is the chatbot. Though he has a website and app to sell his Bonsai art, he could not engage with the customers in the way he wanted to. He has trained his employees and apprentices, but they are not providing the same service in the way he does. He was unsatisfied and the chatbot relives him from his sadness. He has done all that at affordable prices in no time.
+Let’s understand the Mr. Sakamoto’s “Mondai Nai”- perspective about why chatbot is the answer of his problems.
+This is the fundamental and root cause for which Mr. Sakamoto has to implement the chatbot in the first place. His stories are embedded with each art. The product which he sells needs this story to be with it. His stories which were not been told to all the customers before are now sharing with this chatbot and building the trust between them. We all can agree on this one statement that trust is the most impactful aspect, maybe the best of aspects, in the relation between any customer and business-owner, whether the business is small, medium, or large.
+Millennials, a word that was not introduced before 1990. The generation which is stuck in between Gen-x and Gen-y. A generation of people accustomed to both digitization and old culture. They are the most targeted audience in this era. What else would be more approachable to this generation than a chatbot? It’s easy, less time consuming to use. Mr. Sakamoto is now one of the few Gen-x persons who can do business with the millennial so easily.
+Mr. Sakamoto has some employees and apprentices. He has trained them as per his needs. But there is a limit. They can’t deliver the exact things that he can or the way he does. Neither chatbot can do that exactly, it will accurately follow the instructions. Not only the chatbot solve the queries of the customer in his way, but also give a recommendation to the product in the way he wants too. Is there any more attribute he would care about that? Absolutely no!
+The most expensive thing for any businessman is the return of their customer with an empty hand because of his unavailability. A chatbot is a perfect way to solve it. For Mr. Sakamoto’s customized chatbot is not only present for customers in their availability, but also It was giving the response to the customer in all the time zone, all over the world. Mr. Sakamoto wouldn’t be happier for this feature.
+In the era of globalization, what is more, helpful than a chatbot? It can be customized in any language. It can be accessed by any human being residing in any part of the world. And at the end of the day, when that foreigner is happy with the buy and the felicitation and says “Arigato” but in his own language, at that moment he feels so warm and happy.
+Handling a lot of customers is really hard. He assigned employees, but the rate is growing fast. So, in the competition of the market, Mr. Sakamoto took the help of a chatbot. Now this automated customized application is handling a greater number of customers than his employees can do. His business is growing exponentially.
+Now, when you found out why Mr. Sakamoto is happy and his business is growing in this competitive industry then, do you still have a question in mind that why does your business need a chatbot?
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>business chatbot Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Sakamoto bonsai artist lives downtown Kyoto Bonsai form cultivation trees medium container business years loves basis People cities buy artwork stage business regular Bosai artist popularity increased stories tells selling customer immediately loved buying Bonsai loved customer artwork related product resurrects presence customers business thrived nowadays busy digital revolution increased happy satisfied eating mind understand reason remorse chatbot awesome invention digital revolution embodiment Customer Engagement business understatement Customer engagement base business chatbot exact thing digitally helps customers answer queries product business offer fully automated vibrant customizations Sakamoto running business years happy past couple years rationale happiness chatbot website app Bonsai engage customers wanted trained employees apprentices providing service unsatisfied chatbot relives sadness affordable prices time understand Sakamoto Mondai Nai perspective chatbot answer problems fundamental Sakamoto implement chatbot stories embedded product stories told customers sharing chatbot building trust agree statement trust impactful aspect aspects relation customer business medium Millennials introduced 1990 generation stuck generation people accustomed digitization culture targeted audience approachable generation chatbot easy time consuming Sakamoto persons business millennial easily Sakamoto employees apprentices trained limit deliver exact things chatbot accurately follow instructions chatbot solve queries customer give recommendation product attribute care Absolutely expensive thing businessman return customer empty unavailability chatbot perfect solve Sakamoto customized chatbot present customers availability giving response customer time zone world Sakamoto happier feature globalization helpful chatbot customized language accessed human residing part world end foreigner happy buy felicitation Arigato language moment feels warm happy Handling lot customers hard assigned employees rate growing competition market Sakamoto chatbot automated customized application handling greater number customers employees business growing exponentially found Sakamoto happy business growing competitive industry question mind business chatbot provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>30</v>
+      </c>
+      <c r="G66" t="n">
+        <v>8</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.578947353185596</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.09336609313669264</v>
+      </c>
+      <c r="J66" t="n">
+        <v>15.61194029850746</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.1940726577437858</v>
+      </c>
+      <c r="L66" t="n">
+        <v>6.3224051825005</v>
+      </c>
+      <c r="M66" t="n">
+        <v>17.98507462686567</v>
+      </c>
+      <c r="N66" t="n">
+        <v>506</v>
+      </c>
+      <c r="O66" t="n">
+        <v>203</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1833</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4.172901080631754</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>blackassign0068</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/how-you-lead-a-project-or-a-team-without-any-technical-expertise/</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>How you lead a project or a team without any technical expertise?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Have you ever wondered what’s common between Sir Alex Ferguson, Pep Guardiola, and Jose Mourinho? I know it might look a lame question, especially to the ardent football followers. At first instinct, the answer is that they are regarded as the top managers in the football universe. #UCLwinners. But when given a closer look, these managers, weren’t that great when it came to their careers as football players. Any naïve observer can build a fallacy of causation and correlation that those who don’t have a great career as a football player will go on to become a great football manager. But is this restricted just to football? Mike Brearley, one of the greatest captains in the history of cricket and the author of the book the art of captaincy, wasn’t the prolific batsman of his time. Our former President, A P J Abdul Kalam didn’t have a political background, but was still appointed as the president of our country and went to become one of the finest presidents our country has ever had. So, can it be stated with confidence that great leaders need not be the expert in their respective fields?Let’s understand the leadership role, types of leaders, and explore a few more perspectives before we arrive at a conclusion.
+Let’s start by first understanding what or who is a leader. A leader is not a position or a designation. It’s a virtue if employed correctly. From a janitor to the CEO, from a student to a researcher, from a content writer to a philosopher everybody is a leader. (#leadersareeverywhere) So, what are the virtues of a leader? One of the famous personality trait theories, the Big 5 personality trait theory is always linked closely with leadership. As per the various researches, the personality traits of extraversion, openness, and conscientiousness are associated with leaders more often than the other two traits. Not just these humble and empathetic are also considered as the adjectives that are frequently associated with leaders. But nowhere is technical expertise related to a leader.#NOTSOTECHNICAL
+As stated by Colin Powell Leadership is the art of accomplishing more than the science of management says is possible.#It’sARTIf leadership is an art and leaders are the artists then more or less the leaders can be viewed as directors of the films who are organizing, arranging, managing, and directing the scenes. Another analogy for that can be the orchestra where the conductor is using the baton/stick to set the rhythm of the band. So, is it necessary for the conductor to himself or herself by a great violinist? No. When it comes to the corporate sector the leader need not be an expert on the technology but should know how the technology functions so that he/she can utilize it in the best possible way. They can allocate the task of building technology to the right technical experts. And how do the leaders identify the right person for that job? Or how do leaders know what qualities to look for in a person? #Experience. Every great leader once started off as one of the frontline workers or at the bottom of the pyramid in the hierarchical structure. Even though they might not have had the technical expertise in their respective fields, their visionary outlook, their management skills, and the experience they gathered helped them in achieving their targets. Leaders can always take the assistance of the subject matter experts to guide them in situations of technical difficulties. As per the great man, situational and trait theory of leadership, leadership is innate to the person. Leadership though can be conditioned or can be brought out in a person by rewarding him, great leaders show unconditional attachment towards their vision. Everyone knows how to read a map, but which path to choose isn’t something that can be taught. Leaders give the direction or vision to the company and drive it closer to the target that the company wants to achieve. Leadership theories don’t focus on the technical knowledge of the leaders, but rather more on people skills, their approach towards a problem, and how well they guide and hire others to get the job done, which is also evident as per the managerial skills required as per Robert Katz.
+Though it can be argued that technical experts are also the great leaders in their areas, but these leaders are generally at the middle management level. As per the different leadership styles, a servant leader is the one who always tries to achieve the goal of the team. These leaders are the ones who have a management objective laid out in front of them and they drive the team closer to achieving the target by having the people-first mindset, a collaborative approach towards solving the problem. These are the people or the leaders needed at the execution level of the project or those who are too close to the employees at the bottom-most level. Since the managers at the top of the pyramid don’t get much time to invest in people they appoint the right people on their behalf to get the job done.
+Consider an IT firm. So as per the points mentioned above, does it mean that a leader or the manager shouldn’t know how to code? Depends. If the person is the first line manager then he or she should probably know how to code so that he or she can help the team in achieving the target of producing less garbage which might be one of the project’s KPIs. The project manager, who might be an operations manager, (#MBA) from an IT background, probably need not know what line of code is to be written but should know the algorithms or the logic behind the code so that he or she can validate the code from the client’s perspective. The CEO, might not be from an IT background but should know how to run an IT firm rather than the syntax of the code.
+But in today’s competitive world leaders can’t be one dimensional. They need to have expertise in multiple areas to be at the top. Mike Brearley if got a chance to play a T20 match, won’t even get picked into aside, not because of his age, but because of his not so great looking batting statistics(#Thegamehaschanged). His leadership skills won’t be enough to get him into the squad. But he can be a great leader if selected to coach the top 15 captains in the world today. As we have already discussed the film directors, their job isn’t to teach the cameramen on how to set up or operate (lens settings, etc) the camera. Their job is to guide the cameramen on what angle it should be held and how he or she should coordinate with the lights crew so that a perfect shot is captured. So even if a leader may not be a technical expert of his field, but if he or she has the right approach and mindset, understands the system and its process, then he or she can hire the best talent for the job and can get the work done by guiding the talent, with his or her vision.
+So, the answer to the question, which we came across in the first paragraph, is yes and no. Depending upon the position in the hierarchy (yes for a front-line manager and no for a CXO) and the type of the leader you are, the level of technical expertise needed varies. Though as stated earlier by Robert Katz, the CXO’s need to have the least amount of technical expertise, the CXO should know how the technology functions or what are the applications. What processes are to be followed to build the technology.  He or she should now what is to be done rather than how it is to be done, (#itsnothowitswhat). Otherwise, even though the company might be sitting on a gold mine but If the leader isn’t aware of that or isn’t learned enough to know what to do with it, no company can succeed even with having all the resources at their disposal. Leaders command respect and don’t demand it and that’s possible when they give value to their front-line employees, seek timely advice from the technical experts, and put the resources to the best of its uses. Otherwise, you will be surrounded by technical experts like dilberts.(#dilbert)
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>lead project team technical expertise Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist wondered common Sir Pep Guardiola Mourinho lame question ardent football followers instinct answer regarded top managers football universe UCLwinners closer managers great careers football players naïve observer build fallacy causation correlation great career football great football manager restricted football Brearley greatest captains history cricket author captaincy prolific batsman time President Kalam political background appointed president finest presidents stated confidence great leaders expert respective understand leadership role types leaders explore perspectives arrive conclusion start understanding leader leader position designation virtue employed correctly janitor CEO student researcher content writer philosopher leader leadersareeverywhere virtues leader famous personality trait theories Big 5 personality trait theory linked closely leadership researches personality traits extraversion openness conscientiousness leaders traits empathetic considered adjectives frequently leaders technical expertise related NOTSOTECHNICAL stated Leadership accomplishing science management sARTIf leadership leaders artists leaders viewed directors films organizing arranging managing directing scenes analogy orchestra conductor set rhythm band conductor great violinist corporate sector leader expert technology technology functions utilize allocate task building technology technical experts leaders identify job leaders qualities Experience great leader started frontline workers bottom pyramid hierarchical structure technical expertise respective visionary outlook management skills experience gathered helped achieving targets Leaders assistance subject matter experts guide situations technical difficulties great situational trait theory leadership leadership innate Leadership conditioned brought rewarding great leaders show unconditional attachment vision map path choose taught Leaders give direction vision company drive closer target company achieve Leadership theories focus technical knowledge leaders people skills approach problem guide hire job evident managerial skills required argued technical experts great leaders areas leaders generally middle management level leadership servant leader achieve goal team leaders management objective laid front drive team closer achieving target mindset collaborative approach solving problem people leaders needed execution level project employees level managers top pyramid time invest people appoint people behalf job firm points mentioned leader manager code Depends line manager code team achieving target producing garbage project KPIs project manager operations manager MBA background line code written algorithms logic code validate code client perspective CEO background run firm syntax code today competitive world leaders dimensional expertise multiple areas top Brearley play T20 match picked age great batting statistics Thegamehaschanged leadership skills squad great leader selected coach top 15 captains world today discussed film directors job teach cameramen set operate lens settings camera job guide cameramen coordinate lights crew perfect shot captured leader technical expert approach mindset understands system process hire talent job work guiding talent vision answer question paragraph Depending position hierarchy manager CXO type leader level technical expertise needed varies stated earlier CXO amount technical expertise CXO technology functions applications processes build technology itsnothowitswhat company sitting mine leader aware learned company succeed resources disposal Leaders command respect demand give employees seek timely advice technical experts put resources surrounded technical experts dilberts dilbert provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>45</v>
+      </c>
+      <c r="G67" t="n">
+        <v>9</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.6666666543209879</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0906040266936174</v>
+      </c>
+      <c r="J67" t="n">
+        <v>23.86764705882353</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1657424522489218</v>
+      </c>
+      <c r="L67" t="n">
+        <v>9.613355804428981</v>
+      </c>
+      <c r="M67" t="n">
+        <v>27.16176470588235</v>
+      </c>
+      <c r="N67" t="n">
+        <v>795</v>
+      </c>
+      <c r="O67" t="n">
+        <v>269</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2710</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4.095882990249187</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>blackassign0069</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/can-you-be-great-leader-without-technical-expertise/</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Can You Be Great Leader Without Technical Expertise
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+The word “leadership” can bring to mind a variety of images. For example, A political leader, pursuing a passionate, personal cause or An executive, developing his/her company’s strategy to beat the competition. Leaders help themselves and others to do the right things. They set direction, build an inspiring vision, and create something new. Leadership is about mapping out where you need to go to “win” as a team or an organization; and it is dynamic, exciting, and inspiring.
+In my point of view we cannot become a good leader without technical expertise because every task in the organization it’s required a lot of skills, knowledge, consistent, enthusiastic, patience, motivating, inspiring, industrious, and critical thinking on the basis of the field we are doing. A leader should have the ability to motivate self and others, effective oral and written communication, critical thinking skills at the working team and delegating a task. Good leaders do have these abilities and if we wanted to create a future leader. They need to take in a large volume of information and to take the essential elements that define the core problem to solve. They need to organize a team to solve these problems and to communicate to a group, they need to established trust with a group and use the trust to allow the team to accomplish the work more than it could be done alone. Though all these skills we have but it’s would not sufficient to make us a great leader because to excel and utilize these abilities in practice we need a lot of technical expertise in a particular domain. For example, Like in a hospital if the head of the hospital is lead by other people rather than Doctor then the hospital would become worse at a point because the person from other fields he could not lead and understand the real scenario and mechanism that the hospital is functioning and he would not understand the staff and the patient as well. Hence, to lead the hospital Doctor is deserved who knows his own field how to lead and understand the real scenario of it. That’s why being a leader requires technical expertise to have great knowledge and understanding about his own organization. Every person if they want to become a leader they should have technical expertise on their own organization so that their organization would run smoothly, hence nobody could run other organization if we do not have the technical expertise on that field.
+So, be a leader, not a boss which makes your life much better, as they’re a saying that “ A good objective of leadership is to help those who are doing poorly to do well and to help those who are doing well to do even better.”
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Great Leader Technical Expertise Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist leadership bring mind variety images political leader pursuing passionate personal executive developing company strategy beat competition Leaders things set direction build inspiring vision create Leadership mapping win team organization dynamic exciting inspiring point view leader technical expertise task organization required lot skills knowledge consistent enthusiastic motivating inspiring industrious critical thinking basis leader ability motivate effective oral written communication critical thinking skills working team delegating task leaders abilities wanted create future leader volume information essential elements define problem solve organize team solve problems communicate group established trust group trust team accomplish work skills sufficient make great leader excel utilize abilities practice lot technical expertise domain hospital hospital lead people hospital worse point lead understand scenario mechanism hospital functioning understand staff patient lead hospital deserved lead understand scenario leader requires technical expertise great knowledge understanding organization leader technical expertise organization organization run smoothly run organization technical expertise leader makes life objective leadership poorly provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>34</v>
+      </c>
+      <c r="G68" t="n">
+        <v>7</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.6585365693039862</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.1423611106168017</v>
+      </c>
+      <c r="J68" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.243609022556391</v>
+      </c>
+      <c r="L68" t="n">
+        <v>13.39744360902256</v>
+      </c>
+      <c r="M68" t="n">
+        <v>37.95</v>
+      </c>
+      <c r="N68" t="n">
+        <v>372</v>
+      </c>
+      <c r="O68" t="n">
+        <v>162</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1251</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>8</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4.465699208443271</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>blackassign0070</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/how-does-artificial-intelligence-affect-the-environment/</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>How does artificial intelligence affect the environment
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+When we talk about AI, different people have different perspectives about it. There is one group of people, having good knowledge about the real potential of AI, who believe that AI can be a novel solution to many problems that the world is facing today. There is another group of people who are merely threatened by the thought of AI taking over the world.
+The field of AI took birth when Alan Turing in 1950 had this thought “Can machines think?”. Later in the 1980s, with the adoption of “expert systems” by the companies around the world, the booming of the field of AI was initiated. Initially, it was a matter of awe for everyone to see the results of what AI can achieve. AI’s growth in the past few decades has been exponential and it has transformed the way we live, work and solve challenges. AI has made its impact in a wide variety of areas including healthcare, education, business and many more. But, one of the areas of highest impact that AI has made recently is in the environment and climate change.
+Is AI Revolutionizing the way we deal with Environment and Climate Change?
+AI can strengthen climate predictions, enable smarter decision-making for decarbonising industries from building to transport, and work out how to allocate renewable energy. In recent years, AI has been a game-changer in how many people, as well as organizations, deal with climate change. Microsoft believes that artificial intelligence, often encompassing machine learning and deep learning, is a “game-changer” for climate change and environmental issues. The company’s ‘AI for Earth’ program has committed $50 million over five years to create and test new applications for AI.
+AI is increasingly used to manage the intermittency of renewable energy so that more can be incorporated into the grid; it can handle power fluctuations and improve energy storage as well. Wind companies are using AI to get each turbine’s propeller to produce more electricity per rotation by incorporating real-time weather and operational data.
+AI can also improve energy efficiency on the city scale by incorporating data from smart meters and the Internet of Things (the internet of computing devices that are embedded in everyday objects, enabling them to send and receive data) to forecast energy demand. Besides, artificial intelligence systems can simulate potential zoning laws, building ordinances, and flood plains to help with urban planning and disaster preparedness. One vision for a sustainable city is to create an “urban dashboard” consisting of real-time data on energy and water use and availability, traffic and weather to make cities more energy-efficient and livable.
+Hotter temperatures will have significant impacts on agriculture as well. Data from sensors in the field that monitor crop moisture, soil composition and temperature help AI improve production and know when crops need watering. Incorporating this information with that from drones, which are also used to monitor conditions, can help increasingly automatic AI systems know the best times to plant, spray and harvest crops, and when to head off diseases and other problems. This will result in increased efficiency, enhanced yields, and lower use of water, fertilizer and pesticides.
+But, is AI as good as it looks or does it have a downside?
+When we talk about the effect of AI in the environment and climate, both sides of the coin must be elucidated. So, apart from all the positives discussed above, the usage of AI also has a downside.
+Last year’s World Economic Forum report showed that while AI can address some of Earth’s environmental challenges, it is important to manage it properly. According to the forum and experts in the field, AI has the potential to accelerate environmental degradation. The use of power-intensive GPUs to run machine learning training has already been cited as contributing to increased C02 emissions.
+Although AI has been around for about half a century, the question of environmental impact – and other ethical issues – is only arising now because the techniques developed over decades can now be used in combination with an explosion in data and strong computational power.
+For all the advances enabled by artificial intelligence, from speech recognition to self-driving cars, AI systems consume a lot of power and can generate high volumes of climate-changing carbon emissions.
+A study last year found that training an off-the-shelf AI language-processing system produced 1,400 pounds of emissions – about the amount produced by flying one person roundtrip between New York and San Francisco. But there are ways to make machine learning cleaner and greener, a movement that has been called “Green AI.” Some algorithms are less power-hungry than others, for example, and many training sessions can be moved to remote locations that get most of their power from renewable sources.
+The key, however, is for AI developers and companies to know how much their machine learning experiments are spewing and how much those volumes could be reduced.
+What can be done?
+To prevent this, the proposition by the World Economic Forum report is that advancements in “safe” AI should be pursued, to ensure that humanity is not developing AI that is harmful to the environment. Specifically, the World Economic Forum said in its report that AI developers “must incorporate the health of the natural environment as a fundamental dimension.” This means safeguarding against models that will demand the consumption of energy or natural resources beyond what is sustainable, among other factors. In a sense, all programs need to be designed with the dimension of environmental protection and improvement in mind.
+In the future development of AI programs, it will also be important to note the environmental impact of creating these systems in the first place. According to an academic study on energy usage for deep learning processes, the creation of an effective AI might be costly to the environment. Nearly 300,000 kilograms of carbon dioxide equivalent emissions are created during the process of training a single model. This is basically equal to the emissions of five average cars in the United States. Considering the negative environmental impact in addition to the positive implications of AI and climate change will be crucial, moving forward.
+There is always room for improvement, some pioneers of machine learning recently published a paper calledTackling Climate Change with Machine Learningwas discussed at a major AI conference. David Rolnick, a postdoctoral fellow of the University of Pennsylvania said “call to arms” which means to bring researchers together.
+This paper covers thirteen areas of research where machine learning can be used, including energy production, CO2 removal, education, solar geoengineering, finance and many more. The main idea is to build more energy-efficient buildings, creating new low-carbon materials, high tech monitoring of deforestation and greener transportation sources. Artificial intelligence and machine learning can be a medium but the real work is to be done by us as a caretaker of mother earth.
+How about better forecasting of climate change?
+The kick start was already done byclimate informaticsin 2011 which regulates the collaboration of data science and climate science. It covers a wide range of topics like improving prediction of extreme events such as hurricanes, paleoclimatology, collecting data from ice cores, climate up-down scaling and its impact on us.
+“There’s a lot of uncertainty,” Monteleoni
+Claire Monteleoni, a computer science professor at the University of Colorado concludes that AI/ ML models generally forecast for the short-term. There is a significant difference when it comes to long-term forecasting.
+The first system was developed at Princeton in the 1960s. All the AI/ ML models developed till now revolve around atmosphere, oceans, land, cryosphere or ice. AI can help to achieve new heights with the amount of data collected at this point of time, and compute more complex climate conditions using climate modeling algorithms.
+What about showing the effects of extreme weather?
+We all know that climate change is real and the rise in atmospheric temperature the proof, but to make it more realistic, Montreal Institute of Learning Algorithms (MILA), Microsoft and ConscientAI Labs uses Generative Adversarial Networks popularly know as GANs to simulate what mother earth will look like with the rising sea levels, atmospheric temperature, air pollution and intensive storms.
+“Our goal is not to convince people climate change is real, it’s to get people who do believe it is real to do more about that,” said Victor Schmidt, a co-author of the paper and Ph.D. candidate at MILA
+The project is deployed for the people to look at what their places will look like in the future when there will be a significant climate change.
+Can we track carbon emissions?
+Short answer, yes. Tracking of carbon emission is one of the agendas of the UN. For this year 2020, the UN’s goal is to prevent new coal plants from being built. Satellite images come into picture using deep learning techniques, data science researchers can analyze these high quality satellite images and track the emission. Google is expanding its horizon of nonprofit’s satellite imagery, including gas-powered plants emissions which can be used by researchers to track the pollution. There are countries organizations which govern CO2 emission on the ground level but these data are unreachable by global monitoring associations.
+AI can automate the analysis of images of power plants to get regular updates on emissions. It also introduces new ways to measure a plant’s impact, by crunching numbers of nearby infrastructure and electricity use. That’s beneficial for gas-powered plants that don’t have the easy-to-measure plumes that coal-powered plants have.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>artificial intelligence affect environment Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist talk people perspectives group people knowledge potential solution problems world facing today group people threatened thought taking world birth Turing 1950 thought machines 1980s adoption expert systems companies world booming initiated Initially matter awe results achieve growth past decades exponential transformed live work solve challenges made impact wide variety areas including healthcare education business areas highest impact made recently environment climate change Revolutionizing Environment Climate Change strengthen climate predictions enable smarter decarbonising industries building transport work allocate renewable energy recent years people organizations climate change Microsoft believes artificial intelligence encompassing machine learning deep learning climate change environmental issues company Earth program committed 50 years create test applications increasingly manage intermittency renewable energy incorporated grid handle fluctuations improve energy storage Wind companies turbine propeller produce electricity rotation incorporating weather operational data improve energy efficiency scale incorporating data meters Internet Things internet computing devices embedded everyday objects enabling send receive data forecast energy demand artificial intelligence systems simulate potential zoning building ordinances plains planning disaster preparedness vision sustainable create dashboard consisting data energy water availability traffic weather make cities livable Hotter temperatures significant impacts agriculture Data sensors monitor crop moisture soil composition temperature improve production crops watering Incorporating information drones monitor conditions increasingly automatic systems times spray harvest crops diseases problems result increased efficiency enhanced yields water fertilizer pesticides downside talk effect environment climate coin elucidated positives discussed usage downside World Economic Forum report showed address Earth environmental challenges important manage properly forum experts potential accelerate environmental degradation GPUs run machine learning training cited contributing increased C02 emissions half century question environmental impact ethical issues arising techniques developed decades combination explosion data computational advances enabled artificial intelligence speech recognition cars systems consume lot generate volumes carbon emissions study found training system produced emissions amount produced flying roundtrip ways make machine learning cleaner greener movement called algorithms training moved remote locations renewable sources developers companies machine learning experiments spewing volumes reduced prevent proposition World Economic Forum report advancements safe pursued ensure humanity developing harmful environment Specifically World Economic Forum report developers incorporate health natural environment fundamental safeguarding models demand consumption energy natural resources sustainable factors sense programs designed dimension environmental protection improvement mind future development programs important note environmental impact creating systems academic study energy usage deep learning processes creation effective costly environment kilograms carbon dioxide equivalent emissions created process training single model basically equal emissions average cars United States negative environmental impact addition positive implications climate change crucial moving forward room improvement pioneers machine learning recently published paper calledTackling Climate Change Machine Learningwas discussed conference Rolnick postdoctoral fellow University arms bring researchers paper covers areas research machine learning including energy production CO2 removal education solar geoengineering finance idea build buildings creating materials tech monitoring deforestation greener transportation sources Artificial intelligence machine learning medium work caretaker mother earth forecasting climate change kick start byclimate informaticsin 2011 regulates collaboration data science climate science covers wide topics improving prediction extreme events hurricanes paleoclimatology collecting data ice cores climate scaling impact lot uncertainty Monteleoni Monteleoni computer science professor University concludes ML models generally forecast significant difference forecasting system developed Princeton 1960s ML models developed till revolve atmosphere oceans cryosphere ice achieve heights amount data collected point time compute complex climate conditions climate modeling algorithms showing effects extreme weather climate change rise atmospheric temperature proof make realistic Montreal Institute Learning Algorithms Microsoft ConscientAI Labs Generative Adversarial Networks popularly GANs simulate mother earth rising levels atmospheric temperature air pollution intensive goal convince people climate change people paper candidate project deployed people places future significant climate change track carbon emissions answer Tracking carbon emission agendas 2020 goal prevent coal plants built Satellite images picture deep learning techniques data science researchers analyze quality satellite images track emission Google expanding horizon nonprofit satellite imagery including plants emissions researchers track pollution countries organizations govern CO2 emission ground level data unreachable global monitoring associations automate analysis images plants regular updates emissions introduces ways measure impact crunching nearby infrastructure electricity beneficial plants plumes plants provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>43</v>
+      </c>
+      <c r="G69" t="n">
+        <v>17</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.4333333261111112</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0752823085630084</v>
+      </c>
+      <c r="J69" t="n">
+        <v>23.74324324324324</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.2384746727376209</v>
+      </c>
+      <c r="L69" t="n">
+        <v>9.592687166392345</v>
+      </c>
+      <c r="M69" t="n">
+        <v>27.32432432432432</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1035</v>
+      </c>
+      <c r="O69" t="n">
+        <v>419</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3376</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>7</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4.493320138545275</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>blackassign0071</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/how-to-overcome-your-fear-of-making-mistakes-2/</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>How to Overcome Your Fear of Making Mistakes
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+No one can reduce mistakes to zero, but you can learn to harness your drive to prevent them and channel it into better decision making. Use these tips to become a more effective worrier.
+Don’t be afraid or ashamed of your fear.
+Our culture glorifies fearlessness. The traditional image of a leader is one who is smart, tough, and unafraid. But fear, like any emotion, has an evolutionary purpose and upside. Your concern about making mistakes is there to remind you that we’re in a challenging situation. A cautious leader has value. This is especially true in times like these. So don’t get caught up in ruminating: “I shouldn’t be so fearful.”
+Don’t be ashamed or afraid of your fear of making mistakes and don’t interpret it as evidence that you’re an indecisive leader, or not bold, not visionary. If you have a natural tendency to be prevention-focused, channel it to be bold and visionary! (If you struggle to believe this, identify leaders who have done just that by figuring out how to prevent disasters.)
+Use emotional agility skills.
+Fear of mistakes can paralyze people. Emotional agility skills are an antidote to this paralysis. This process starts with labeling your thoughts and feelings, such as “I feel anxious I’m not going to be able to control my customers enough to keep my staff safe.” Stating your fears out loud helps diffuse them. It’s like turning the light on in a dark room. Next comes accepting reality. For example, “I understand that people will not always behave in ideal ways.” List off every truth you need to accept. Then comes acting your values. Let’s say one of your highest values is conscientiousness. How might that value apply in this situation? For example, it might involve making sure your employees all have masks that fit them well or feel comfortable airing any grievances they have. Identify your five most important values related to decision-making in a crisis. Then ask yourself how each of those is relevant to the important choices you face.
+Repeat this process for each of your fears. It will help you tolerate the fact that we sometimes need to act when the course of action isn’t clear and avoid the common anxiety trap whereby people try to reduce uncertainty to zero.
+Focus on your processes.
+Worrying can help you make better decisions if you do it effectively. Most people don’t. When you worry, it should be solutions-focused, not just perseverating on the presence of a threat. Direct your worry towards behaviors that will realistically reduce the chances of failure.
+We can control systems, not outcomes. What are your systems and processes for avoiding making mistakes? Direct your worries into answering questions like these: Is the data you’re relying on reliable? What are the limitations of it? How do your systems help prevent groupthink? What procedures do you have in place to help you see your blind spots? How do you ensure that you hear valuable perspectives from underrepresented stakeholders? What are your processes for being alerted to a problem quickly and rectifying it if a decision has unexpected consequences?
+Broaden your thinking.
+When we’re scared of making a mistake, our thinking can narrow around that particular scenario. Imagine you’re out walking at night. You’re worried about tripping, so you keep looking down at your feet. Next thing you know you’ve walked into a lamp post. Or, imagine the person who is scared of flying. They drive everywhere, even though driving is objectively more dangerous. When you open the aperture, it can help you see your greatest fears in the broader context of all the other threats out there. This can help you get a better perspective on what you fear the most.
+It might seem illogical that you could reduce your fear of making a mistake by thinking about other negative outcomes. But this strategy can help kick you into problem-solving mode and lessen the mental grip a particular fear has on you. A leader might be so highly focused on minimizing or optimizing for one particular thing, they don’t realize that other people care most about something else. Find out what other people’s priorities are.
+Recognize the value of leisure.
+Fear grabs us. It makes it difficult to direct our attention away. This is how it is designed to work so that we don’t ignore threats. Some people react to fear with extreme hypervigilance. They want to be on guard, at their command post, at all times. This might manifest as behavior like staying up all night to work.
+That type of adrenalin-fueled behavior can have short-term value, but it can also be myopic. A different approach can be more useful for bigger picture thinking. We need leisure (and sleep!) to step back, integrate the threads of our thinking, see blindspots, and think creatively. Get some silent time. Although much maligned, a game of golf might be exactly what you need to think about tough problems holistically.
+Detach from judgment-clouding noise.
+As mentioned, when people are fearful they can go into always-on monitoring mode. You may have the urge to constantly look at what everyone else is doing, to always be on social media, or check data too frequently. This can result in information overload. Your mind can become so overwhelmed that you start to feel cloudy or shut down. Recognize if you’re doing this and limit over-monitoring or over checking. Avoid panicked, frenzied behavior.
+On its own, being afraid of making mistakes doesn’t make you more or less likely to make good decisions. If you worry excessively in a way that focuses only on how bad the experience of stress and uncertainty feels, you might make do or say the wrong things. However, if you understand how anxiety works at a cognitive level, you can use it to motivate careful but bold and well-reasoned choices.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Overcome Fear Making Mistakes Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist reduce mistakes learn drive prevent channel decision making tips effective worrier afraid ashamed fear culture glorifies fearlessness traditional image leader tough unafraid fear emotion evolutionary purpose upside concern making mistakes remind challenging situation cautious leader times caught ruminating ashamed afraid fear making mistakes interpret evidence indecisive leader bold visionary natural tendency channel bold visionary struggle identify leaders figuring prevent disasters emotional agility skills Fear mistakes paralyze people Emotional agility skills antidote paralysis process starts labeling thoughts feelings feel anxious control customers staff Stating loud helps diffuse turning dark room accepting reality understand people behave ideal List truth accept acting values highest values conscientiousness apply situation involve making employees masks fit feel comfortable airing grievances Identify important values related crisis relevant important choices face Repeat process tolerate fact act action clear avoid common anxiety trap people reduce uncertainty Focus processes Worrying make decisions effectively people worry perseverating presence threat Direct worry behaviors realistically reduce chances failure control systems outcomes systems processes avoiding making mistakes Direct worries answering questions data relying reliable limitations systems prevent groupthink procedures blind spots ensure hear valuable perspectives underrepresented stakeholders processes alerted problem quickly rectifying decision unexpected consequences Broaden thinking scared making mistake thinking narrow scenario Imagine walking night worried tripping feet thing walked imagine scared flying drive driving objectively dangerous open aperture greatest broader context threats perspective fear illogical reduce fear making mistake thinking negative outcomes strategy kick mode lessen mental grip fear leader highly focused minimizing optimizing thing realize people care Find people priorities Recognize leisure Fear grabs makes difficult direct attention designed work ignore threats people react fear extreme hypervigilance guard command times manifest behavior staying night work type behavior myopic approach bigger picture thinking leisure sleep step integrate threads thinking blindspots creatively silent time maligned game golf tough problems holistically Detach noise mentioned people fearful monitoring mode urge constantly social media check data frequently result information overload mind overwhelmed start feel cloudy shut Recognize limit checking Avoid panicked frenzied behavior afraid making mistakes make make decisions worry excessively focuses bad experience stress uncertainty feels make wrong things understand anxiety works cognitive level motivate careful bold choices provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>28</v>
+      </c>
+      <c r="G70" t="n">
+        <v>71</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-0.434343429956127</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.2020408159142024</v>
+      </c>
+      <c r="J70" t="n">
+        <v>14.66666666666667</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="L70" t="n">
+        <v>5.940740740740741</v>
+      </c>
+      <c r="M70" t="n">
+        <v>17.12345679012346</v>
+      </c>
+      <c r="N70" t="n">
+        <v>623</v>
+      </c>
+      <c r="O70" t="n">
+        <v>220</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2108</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>9</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4.145021645021645</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>blackassign0072</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/is-perfection-the-greatest-enemy-of-productivity/</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Is Perfection the Greatest enemy of Productivity?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+What’s perfection really? Does every person expect perfection from oneself or someone else? Or is it in certain amounts? Many times the certain question comes to the mind when we think about what we deem perfect. But how do we verify it?
+Let us understand this through the work of three individuals who know are to be put on a task in carpentry on a budget. All are given Rs. 5000 (Assumed) to complete this task. They can’t go beyond this budget.
+Manish, Vinay, and Sameer need to make a stool for themselves each. Manish has no understanding of carpentry; he learns from YouTube. Vinay took his carpentry lessons during engineering, so he has a practical idea of how to make a stool. But Sameer is a Carpenter, so he has a total understanding of the material, process, and final product.
+Let us start with Manish. Understand that the task is to get their jobs done. Manish has two options here. He can either order parts and assemble it himself or order the material required such as wood, glue, nails, etc and then work on it before the assembly of the final product. The only difference is his lack of expertise in this field.
+Vinay has the same options but has practical experience from his carpentry classes during the workshop in Engineering. Sameer has an advantage since he has both skill and experience perfected over a course of time.
+All three are given three days for the task. Since Manish finds it easy to assemble the stool using parts procured from another carpenter; he talks to a carpenter he knows and orders 3 leg parts, 6 horizontal support bars, and one circular base which will sit on the top. Vinay thinks he will be able to shape the parts because of his experience as a student and orders several cylindrical wooden leg parts, cuboidal bars, and a thick sheet. Sameer has all the required material in his shop and he begins to work on the stool on the first day.
+Manish and Vinay wait for a day for the parts to come. They begin to work on the second day. Manish uses the tricks learned from YouTube videos; uses a hammer to place the nails purchased from a nearby shop in the pre-made hole, applies glue in certain areas as directed in the video, and places weight on the assembled stool. He waits for the glue to cure.
+Vinay uses borrowed drill bits, drill machines, cutters, sandpapers purchased from a shop, etc, and starts working on the wooden parts as soon as the parts arrive in the morning. He is able to recall his carpentry instructions and attempts to shape the parts based on drawing of his product he made last night. Sameer meanwhile has completed his assembly and has put the assembly to rest for the glue to cure.
+On the third day, each of them has the stool ready. They evaluate their own work and notice certain facts.
+Manish notices that he did complete the task but, his stool was wobbly and not glued well. It could fall the moment he sits on it. Also, he forgets to polish the wooden parts and give it a professional finish since he forgot to watch that bit of video over YouTube.
+Vinay completes the task his stool is sturdy and cured well overnight. But there are minor issues with it. One of the three legs is cut short by a few mm and the stool, a tad unstable.
+Sameer on the other hand completes the task with a good product. The stool is well-balanced, and polished, as heexpectedfrom him. Sameer issatisfiedwith his work and finds it to stoolPerfect. Manish thinks he did hisbestconsidering he had no experience of the task to be done. He issatisfiedwith his work. But Vinay is unhappy, he could have done better and made the product better. He doesn’t find his efforts well put and thinks hewasn’tproductiveenough and hence his stool is nowhereperfect.
+Understand that all of them had a set of skills and experience, but only Sameer had the right skills and experience to produce a perfect product. Manish and Sameer were satisfied and happy with their work. Manish made a wobbly stool which could break the moment someone sat on it but happy he gave the task a go. He thinks put the efforts and he did a good job. It was only Vinay who could not overcome the fact that his work was not perfect.
+In Vinay’s case, it can be observed that he could not deliver what he learned from carpentry classes. The reason is simple, he put effort but didn’t have the experience. Experience mattered. Since Vinay thinks otherwise, he believes he has the perfect skills to complete the task but he could not deliver the results. He is not satisfied with his results and wishes to spend another day working on the stool on his own to get to his idea of the perfect result.
+In this case, the idea of perfection itself is misplaced. You see, the end product made by Vinay and Manish would not match Sameer’s but the task could have been completed had they understood where their shortcomings lied. For both, it was their skill. Sameer had the perfect skill to get the expected result which resulted in better productivity, others didn’t.
+And in this story, every individual put effort regardless of the result. But some were satisfied and some dissatisfied. Their satisfaction made their creations perfect in their eyes and dissatisfaction made one believe he wasn’t productive enough.
+“Perfection issubjectiveand productivity isutilityextractedgiven a certain amount of effort”.
+You can try to be as productive to achieve something but ultimately, it’s the satisfaction you get that defines the boundary of perfection.If you aren’t satisfied, you won’t find anything perfect. You would just waste both your time and effort over something that doesn’t suit you in the first place, as explained in the story before.
+“It isn’t productivity that will be the greatest enemy but your satisfaction”.
+Satisfaction will determine how you perceive perfection and defines where your threshold for perfection lies. The real enemy is dissatisfaction. You get demotivated and restless. You lose sight and discontinue only because you are unable to pass your own expectation. So, it’s the only obstacle that comes in between productivity, from time to time.
+If you are looking for perfection in the world of online gambling, then checkice casino. A diverse range of games, attractive promotions, easy banking options, and premium customer support will be responsible for your satisfaction. Explore the platform today for an unforgettable journey brimming with excitement and entertainment, and it will surpass all your expectations.
+Productivity is far from being your enemy. The greatest enemy will be your expectations which lead to dissatisfaction. It will play a major role in crafting your idea of Perfection in every day.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Perfection Greatest enemy Productivity Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist perfection expect perfection oneself amounts times question mind deem perfect verify understand work individuals put task carpentry budget Rs 5000 Assumed complete task budget Manish Vinay Sameer make stool Manish understanding carpentry learns YouTube Vinay carpentry lessons engineering practical idea make stool Sameer total understanding material process final product start Manish Understand task jobs Manish options order parts assemble order material required glue nails work assembly final product difference lack expertise Vinay options practical experience carpentry classes workshop Engineering Sameer advantage skill experience perfected time days task Manish finds easy assemble stool parts procured talks orders 3 leg parts 6 horizontal support bars circular base sit top Vinay thinks shape parts experience student orders cylindrical leg parts cuboidal bars thick sheet Sameer required material shop begins work stool Manish Vinay wait parts begin work Manish tricks learned YouTube videos nails purchased nearby shop hole applies glue areas directed video places weight assembled stool glue cure Vinay borrowed drill bits drill machines cutters sandpapers purchased shop starts working parts parts arrive morning recall carpentry instructions attempts shape parts based drawing product made night Sameer completed assembly put assembly rest glue cure stool evaluate work notice facts Manish notices complete task stool wobbly glued fall moment sits forgets polish parts give professional finish forgot watch bit video YouTube Vinay completes task stool sturdy cured overnight issues legs cut mm stool unstable Sameer completes task product stool polished heexpectedfrom Sameer issatisfiedwith work finds stoolPerfect Manish thinks hisbestconsidering experience task issatisfiedwith work Vinay unhappy made product find efforts put thinks hewasn tproductiveenough stool nowhereperfect Understand set skills experience Sameer skills experience produce perfect product Manish Sameer satisfied happy work Manish made wobbly stool break moment sat happy gave task thinks put efforts job Vinay overcome fact work perfect Vinay observed deliver learned carpentry classes reason simple put effort experience Experience mattered Vinay thinks believes perfect skills complete task deliver results satisfied results wishes spend working stool idea perfect result idea perfection misplaced end product made Vinay Manish match Sameer task completed understood shortcomings lied skill Sameer perfect skill expected result resulted productivity individual put effort result satisfied dissatisfied satisfaction made creations perfect eyes dissatisfaction made productive Perfection issubjectiveand productivity isutilityextractedgiven amount effort productive achieve ultimately satisfaction defines boundary satisfied find perfect waste time effort suit explained productivity greatest enemy satisfaction Satisfaction determine perceive perfection defines threshold perfection lies enemy dissatisfaction demotivated restless lose sight discontinue unable expectation obstacle productivity time time perfection world online gambling checkice casino diverse games attractive promotions easy banking options premium customer support responsible satisfaction Explore platform today unforgettable journey brimming excitement entertainment surpass expectations Productivity enemy greatest enemy expectations lead dissatisfaction play role crafting idea Perfection provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>62</v>
+      </c>
+      <c r="G71" t="n">
+        <v>24</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.4418604599783668</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.1472602737204447</v>
+      </c>
+      <c r="J71" t="n">
+        <v>16.23809523809524</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.1620234604105572</v>
+      </c>
+      <c r="L71" t="n">
+        <v>6.560047479402318</v>
+      </c>
+      <c r="M71" t="n">
+        <v>18.52380952380953</v>
+      </c>
+      <c r="N71" t="n">
+        <v>728</v>
+      </c>
+      <c r="O71" t="n">
+        <v>221</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2304</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4.227009646302251</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>blackassign0073</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/global-financial-crisis-2008-causes-effects-and-its-solution/</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Global financial crisis 2008 causes/effects and its solution
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+The Financial Crisis of 2008 started as a crisis in the subprime mortgage market (i.e. in a market where lending of loans is done to people who may have difficulty in maintaining the repayment schedule or in simple terms, loans were given out to people without proper checks and low credit scores) which ultimately led onto a huge global collapse.
+TheFinancial Crisis of 2008orGreat Recessionis considered the worst economic crisis since the Great Depression.
+In the year 1996, there was a dot-com boom (or otherwise known as the dot com bubble) in the United States, a period of massive growth in the use of the internet because of which the stock market prices started increasing rapidly. However, around the year 2000, it dropped which led people and investors to withdraw their investments from the stock market rapidly. It led to the decline of the price of shares in stock markets and the interest rate plummeted to around 1% very quickly in a short span.
+Investors were now looking for a brighter option than investing in stock markets.
+Fig –Rise and fall of the Dot Com Bubble
+As interest rates went lower and lower, real estate prices started rising and the US Govt also encouraged people to buy houses and properties. The demand for the same started rising rapidly and investors now found a great option to invest in (i.e. in Real Estate).
+During that same time, Investment Banks saw an opportunity, chimed in and started buying loans from Banks in bulk and clubbed multiple loans under a complex derivative called CDO (Collateralized Debt Obligations) and started providing it to these Investors after getting a credit rating of “AAA” (Very Safe Investment) from the Credit Rating Agencies. Investors naturally fell for it and started buying these CDOs.
+So now, the risk factor of these loans got transferred from the Banks to the Investment Banks and then again to the CDO Investors.
+With the high buying demand of CDOs, Investment banks started demanding or pressurizing Banks to provide even more Loans so that they can provide more CDOs to the Investors. However, Banks had already provided loans to people with good credit history and regular income people. But in the hope of getting even more credit from Investment Banks, these same banks then started giving out subprime housing loans to people with low credit scores.Approximately $174Bn worth of loans were given out during the period 2000-2007 and most of them were clubbed as CDOs with a “AAA” rating from the Credit Rating Agencies. Approximately 70% of these CDO’s were marked with a “AAA” rating.
+Investment Banks and Credit Rating Agencies were now enjoying large profits during this time. Moody’s (a credit rating agency) profits increased 4x times during that period (2000-2007).
+Looking at the huge profits being made by the Investment Banks and Credit Rating Agencies, Insurance companies (like AIG) now started giving out insurance on these CDOs to the investors and they called it CDS (Credit Default Swap). AIG believed that since the CDOs were rated as “AAA” (Very Safe Investment), the failure chances of these CDOs were very minimal. They misjudged or were unaware of the fact that some of the loans that were clubbed under these CDOs were Sub Prime loans.
+Now CDO Investors started buying out CDS from AIG and other companies to safeguard and protect them from any losses. AIG then started making huge profits because of the premiums that the investors had to pay. But they never realized the outcome if by any chance the CDOs fail at some point in time. Thus, the risk factor again got transferred from the CDO investors to the Insurance Companies.
+Fig –Flow Diagram showing how the Risk Factors got transferred
+Coming to the loan borrowers now, Sub Prime Borrowers from banks were unaware of the fact of Adjustable Rate Loans (interest rate of these loans keeps changing) and thus had to pay lower interests at the start but more interest rates later on.
+The borrowers started defaulting on these loans when the interest rates increased dramatically around 2007 and thus banks had to then resell those houses to make up for the loans defaulted.  Added to the problem was the fact that borrowers were not spending any amount of money from their pockets while taking loans and banks were providing the full amount of loans. Almost 50% of the borrowers did not pay anything from their own pocket and bought the home only using the housing loan.
+This led to a huge increase in the defaulters of borrowers and ultimately banks had to auction houses to gain credit back. With the high-interest rates and no one to buy the auctioned houses, this ultimately caused a chain reaction and banks were no longer receiving credit. The prices of Real Estate started falling drastically and people with good credit scores who had earlier taken housing loans also started defaulting because the price of their houses/homes fell below the loan amount that they had taken earlier. Banks stopped receiving money and also because of this chain reaction, the value of CDOs ultimately came down to 0.
+Some Investors went for huge losses and few Investment companies went bankrupt (ex – Lehman Brothers). Moreover, insurance companies had to pay back those investors who had taken insurance. As a result, some of the insurance companies also went bankrupt. AIG too almost lost about $100Bn in paying back the investors who had earlier insured their CDOs. However, the US Govt. finally decided to bail out AIG in order to save them from going bankrupt.
+CDOs and CDSs were not regulated during that time by the Federal Reserve and thus this whole situation ultimately led to credit crunch (became very difficult to get loans) and the whole economy of the US underwent a crisis that led to a global impact all around the world. Unemployment increased manifold and many new businesses had to shut down. Global trades all around the world also saw a crisis and finally, Global Recession hit the World.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Global financial crisis 2008 solution Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Financial Crisis 2008 started crisis subprime mortgage market market lending loans people difficulty maintaining repayment schedule simple terms loans people proper checks credit scores ultimately led huge global collapse TheFinancial Crisis 2008orGreat Recessionis considered worst economic crisis Great Depression 1996 boom bubble United States period massive growth internet market prices started increasing rapidly 2000 dropped led people investors withdraw investments market rapidly led decline shares markets interest rate plummeted 1 quickly span Investors brighter option investing markets Fig fall Bubble interest rates estate prices started rising Govt encouraged people buy houses properties demand started rising rapidly investors found great option invest Estate time Investment opportunity chimed started buying loans bulk clubbed multiple loans complex derivative called CDO Collateralized Debt Obligations started providing Investors credit rating AAA Safe Investment Credit Rating Agencies Investors naturally started buying CDOs risk factor loans transferred Investment CDO Investors buying demand CDOs Investment started demanding pressurizing provide Loans provide CDOs Investors provided loans people credit history regular income people credit Investment started giving subprime housing loans people credit 174Bn loans period clubbed CDOs AAA rating Credit Rating Agencies Approximately 70 CDO marked AAA rating Investment Credit Rating Agencies enjoying profits time credit rating agency profits increased 4x times period huge profits made Investment Credit Rating Agencies Insurance companies AIG started giving insurance CDOs investors called CDS Credit Default Swap AIG believed CDOs rated AAA Safe Investment failure chances CDOs minimal misjudged unaware fact loans clubbed CDOs Prime loans CDO Investors started buying CDS AIG companies safeguard protect losses AIG started making huge profits premiums investors pay realized outcome CDOs fail point time risk factor transferred CDO investors Insurance Companies Fig Diagram showing Risk Factors transferred Coming borrowers Prime Borrowers unaware fact Adjustable Rate Loans interest rate loans changing pay interests start interest rates borrowers started defaulting loans interest rates increased dramatically 2007 resell houses make loans defaulted Added problem fact borrowers spending amount pockets taking loans providing full amount loans 50 borrowers pay pocket bought home housing led huge increase defaulters borrowers ultimately auction houses gain credit rates buy auctioned houses ultimately caused chain reaction longer receiving credit prices Estate started falling drastically people credit scores earlier housing loans started defaulting amount earlier stopped receiving chain reaction CDOs ultimately 0 Investors huge losses Investment companies bankrupt insurance companies pay investors insurance result insurance companies bankrupt AIG lost 100Bn paying investors earlier insured CDOs Govt finally decided bail AIG order save bankrupt CDOs CDSs regulated time Federal Reserve situation ultimately led credit crunch difficult loans economy underwent crisis led global impact world Unemployment increased manifold businesses shut Global trades world crisis finally Global Recession hit World provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>25</v>
+      </c>
+      <c r="G72" t="n">
+        <v>32</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-0.1228070153893506</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.09878682825166928</v>
+      </c>
+      <c r="J72" t="n">
+        <v>24.9375</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.1712614870509607</v>
+      </c>
+      <c r="L72" t="n">
+        <v>10.04350459482038</v>
+      </c>
+      <c r="M72" t="n">
+        <v>28.22916666666667</v>
+      </c>
+      <c r="N72" t="n">
+        <v>716</v>
+      </c>
+      <c r="O72" t="n">
+        <v>205</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2081</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4.44419807834442</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>blackassign0074</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/gender-diversity-and-equality-in-the-tech-industry/</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Gender diversity and Equality in the tech industry
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Gender diversity is an equal representation of all genders in workplaces. One of the most important sectors where there is under-representation of gender diversity is the technological industry. Gender diversity means you have an equal opportunity which is not limited by gender. But, the true reality is gender diversity is a far outcry in the world.
+Gender diversity isn’t a new topic but an old and global phenomenon and technology industry is not a stranger to it.  Women are often underrepresented in the technology sector. To understand the gap, let’s look at some statistics.
+After looking at these staggering numbers, we see how biased gender diversity is even in the technological sector.
+With rapid industrialization and education about the importance of rights, gender diversity is very important in today’s world. Gender equality represents a society that has lesser violence and provides a safer world for everyone. It is also directly proportional to sustainable development and ensures human rights to everyone. As today’s markets are increasing along with customers’ preferences, to understand customer profiles and build products we need gender diversity in our organizations. Equal representation helps in a better decision-making process for a positive impact.
+Men and Women invest back into their families and having gender equality and diversity helps build values into families and households. Empowering individuals not only help themselves but also the economy of the nations. Gender equality and diversity should be built into organizations’ beliefs and values.
+Global Gender Gap Report (2017)
+Perception: If we see the word “gender”, it is a socially constructed definition. And this definition changes as per different cultural norms. In a much broader term, our society is also not aware of the concept of binary and non-binary gender, which includes queer, Trans, and Intersex individuals as well. The socially acceptable thing is to have gender expressions as per our gender identity. So, when it comes to choosing their career, people tend to choose a job role that gives them higher social belongingness. E.g. We see more women(as compared to men) in nursing careers as it requires more feminine qualities.
+There are different versions of this perception: which we can see either in the society(in terms of socially assigned gender roles) or in the workplace(in the form of gender discrimination, stereotypical thinking, sexism, etc.). E.g. As per their assigned roles in society, women are most likely to take care of their family and children, and this affects their income and career growth. The motherhood penalty is a term defined by sociologists which states about the inverse correlation between income level and the number of children, i.e. there is also an income difference between a mother and a non-mother employee. As per OECD data(2012), there is a 7% reduction in wages for women per child.
+Lack of economic opportunities: Even in the tech industry, women are paid less than men. As per ILO data(2019), on average women are paid 20% less than men worldwide.
+Even when it comes to promotion, men are preferred more. It is to be noted that the numbers are even worse when there is intersectionality involved. E.g., a transgender woman will be paid less than a white woman and so on. As per the National Centre for Transgender equality, one out of two transgender people faces adverse effects: including 23% were denied a promotion, 44% were passed over for a particular job position and 26% are fired from their workplace just because they are transgender.
+We can improve this scenario from the perspective of different stakeholders who are involved.
+For Society :
+Creating Tech awareness from School level: As per the HDR report( 2017), no. of boys pursuing STEM program is 97% higher than girls. One way to improve this is to introduce more strong role models to advocate for this issue. Minority gender communities should be aware of the multiple job opportunities and career growth available in this field. These job roles are not even gender-specific anymore. For developing countries like India, STEM scholarship programs can be introduced from the secondary education level.
+Address Bias/Stereotypes: It is to be noted that perceptions, stereotypes, and biases are not just something we learn in school but our upbringing also creates these, the things we watch, listen, and read daily. So, it also becomes the duty of the society to create a more inclusive environment. E.g. A more privileged person should fight for the fundamental right of the less empowered or less privileged person in society.
+There should be active encouragement from parents, teachers, and educators for students in STEM programs regardless of their gender identity.
+For Companies:
+To promote gender diversity in the workplace, companies need to focus on three things:
+Unbiased Recruitment policies:
+Generally, there is a lot of unconscious bias and prejudices when hiring women, trans, intersex, and queer individuals. There needs to be a diversity and inclusivity team in the HR itself that addresses these issues. A blind recruitment drive can be conducted where there is no need to mention gender in any of the documents.
+Having structured questions during the interview might help to remove any unconscious biases.
+Diversity sensitivity training: Workplace policies need to create a company image that hires everyone irrespective of their gender identity and can even keep it optional in all the job formalities and documents.
+Conducting proper sensitivity training to employees is essential as they need to use correct pronoun/gender-neutral language.
+Not just sensitivity training, strong workplace policies need to be in place which deal with any form of harassment or gender discrimination.
+To create accountability and transparency in their process, companies can also share diversity and inclusivity company data.
+Retention policies:
+Creating Mentorship models:
+Including proper maternity leaves, child care facilities, and flexibility of working hours/remote working arrangements can be helpful for minority gender in keeping their work-life balance.
+Develop support programs for these communities who are joining after maternity leave. It might be in terms of psychiatric or mentorship support.
+Increase Pay parities: It can be done in the following ways:
+Lastly, there needs to be proper government policies in place which provide a constitutional or legal framework starting from the basic education level. It may begin from increasing the gross enrollment rates of all students in schools (irrespective of their gender identity) for developing countries( like India) to have proper compensation policies in the workplace(as similar to what states like California, New York has adopted) to ensure pay parity.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Gender diversity Equality tech industry Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Gender diversity equal representation genders workplaces important sectors gender diversity technological industry Gender diversity equal opportunity limited gender reality gender diversity outcry world Gender diversity topic global phenomenon technology industry stranger Women underrepresented technology sector understand gap statistics staggering biased gender diversity technological sector rapid industrialization education importance rights gender diversity important today world Gender equality represents society lesser violence safer world directly proportional sustainable development ensures human rights today markets increasing customers preferences understand customer profiles build products gender diversity organizations Equal representation helps process positive impact Men Women invest families gender equality diversity helps build values families households Empowering individuals economy Gender equality diversity built organizations beliefs values Global Gender Gap Report 2017 Perception gender socially constructed definition definition cultural norms broader term society aware concept binary gender includes queer Trans Intersex individuals socially acceptable thing gender expressions gender identity choosing career people tend choose job role higher social belongingness women compared men nursing careers requires feminine qualities versions perception society terms socially assigned gender roles workplace form gender discrimination stereotypical thinking sexism assigned roles society women care family children affects income career growth motherhood penalty term defined sociologists states inverse correlation income level number children income difference mother employee OECD data 2012 7 reduction women Lack economic opportunities tech industry women paid men ILO data 2019 average women paid 20 men worldwide promotion men preferred noted worse intersectionality involved transgender woman paid woman National Centre Transgender equality transgender people faces adverse effects including 23 denied promotion 44 passed job position 26 fired workplace transgender improve scenario perspective stakeholders involved Society Creating Tech awareness School level HDR report 2017 boys pursuing STEM program 97 higher girls improve introduce role models advocate issue Minority gender communities aware multiple job opportunities career growth job roles anymore developing countries STEM scholarship programs introduced secondary education level Address noted perceptions stereotypes biases learn school upbringing creates things watch listen society create inclusive environment privileged fight fundamental empowered privileged society active encouragement parents teachers educators students STEM programs gender identity Companies promote gender diversity workplace companies focus things Unbiased Recruitment policies Generally lot unconscious prejudices hiring women trans intersex queer individuals diversity inclusivity team HR addresses issues blind recruitment drive conducted mention gender documents structured questions interview remove unconscious biases Diversity sensitivity training Workplace policies create company image hires irrespective gender identity optional job formalities documents Conducting proper sensitivity training employees essential correct language sensitivity training workplace policies form harassment gender discrimination create accountability transparency process companies share diversity inclusivity company data Retention policies Creating Mentorship models Including proper maternity leaves care facilities flexibility working working arrangements helpful minority gender keeping balance Develop support programs communities joining maternity leave terms psychiatric mentorship support Increase Pay parities ways Lastly proper government policies provide constitutional legal framework starting basic education level begin increasing enrollment rates students schools irrespective gender identity developing countries proper compensation policies workplace similar states adopted ensure pay parity provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>28</v>
+      </c>
+      <c r="G73" t="n">
+        <v>22</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.1199999976000001</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.079999999872</v>
+      </c>
+      <c r="J73" t="n">
+        <v>19.47692307692308</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.2393364928909953</v>
+      </c>
+      <c r="L73" t="n">
+        <v>7.886503827925629</v>
+      </c>
+      <c r="M73" t="n">
+        <v>22.70769230769231</v>
+      </c>
+      <c r="N73" t="n">
+        <v>751</v>
+      </c>
+      <c r="O73" t="n">
+        <v>303</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2449</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>9</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4.562033898305085</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>blackassign0075</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/how-to-overcome-your-fear-of-making-mistakes/</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>How to overcome your fear of making mistakes?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+The Covid-19 crisis and its fallout including recession, layoffs, and uneven economic pain-as well as recent protests over police brutality and demands for racial justice, have presented many of us with challenges that we’ve not encountered before. The high-stakes and unfamiliar nature of these situations have left many people feeling fearful of missteps. No one can reduce mistakes to zero, but you can learn to harness your drive to prevent them and channel it into better decision making. Use these tips to become a more effective worrier.
+Our culture glorifies fearlessness. The traditional image of a leader is one who is smart, tough, and unafraid. But fear, like any emotion, has an evolutionary purpose and upside. Your concern about making mistakes is there to remind you that we’re in a challenging situation. A cautious leader has value. This is especially true in times like these. So don’t get caught up in ruminating: “I shouldn’t be so fearful.”
+Don’t be ashamed or afraid of your fear of making mistakes and don’t interpret it as evidence that you’re an indecisive leader, or not bold, not visionary. If you have a natural tendency to be prevention-focused, channel it to be bold and visionary! (If you struggle to believe this, identify leaders who have done just that by figuring out how to prevent disasters.)
+Fear of mistakes can paralyze people. Emotional agility skills are an antidote to this paralysis. This process starts with labeling your thoughts and feelings, such as “I feel anxious I’m not going to be able to control my customers enough to keep my staff safe.” Stating your fears out loud helps diffuse them. It’s like turning the light on in a dark room. Next comes accepting reality. For example, “I understand that people will not always behave in ideal ways.” List off every truth you need to accept. Then comes acting your values. Let’s say one of your highest values is conscientiousness. How might that value apply in this situation? For example, it might involve making sure your employees all have masks that fit them well or feel comfortable airing any grievances they have. Identify your five most important values related to decision-making in a crisis. Then ask yourself how each of those is relevant to the important choices you face.
+Repeat this process for each of your fears. It will help you tolerate the fact that we sometimes need to act when the course of action isn’t clear and avoid the common anxiety trap whereby people try to reduce uncertainty to zero.
+Worrying can help you make better decisions if you do it effectively. Most people don’t . When you worry, it should be solutions-focused, not just perseverating on the presence of a threat. Direct your worry towards behaviors that will realistically reduce the chances of failure.
+We can control systems, not outcomes. What are your systems and processes for avoiding making mistakes? Direct your worries into answering questions like these: Is the data you’re relying on reliable? What are the limitations of it? How do your systems help prevent groupthink? What procedures do you have in place to help you see your blind spots? How do you ensure that you hear valuable perspectives from underrepresented stakeholders? What are your processes for being alerted to a problem quickly and rectifying it if a decision has unexpected consequences?
+When we’re scared of making a mistake, our thinking can narrow around that particular scenario. Imagine you’re out walking at night. You’re worried about tripping, so you keep looking down at your feet. Next thing you know you’ve walked into a lamp post. Or, imagine the person who is scared of flying. They drive everywhere, even though driving is objectively more dangerous. When you open the aperture, it can help you see your greatest fears in the broader context of all the other threats out there. This can help you get a better perspective on what you fear the most.
+It might seem illogical that you could reduce your fear of making a mistake by thinking about other negative outcomes. But this strategy can help kick you into problem-solving mode and lessen the mental grip a particular fear has on you. A leader might be so highly focused on minimizing or optimizing for one particular thing, they don’t realize that other people care most about something else. Find out what other people’s priorities are.
+Fear grabs us. It makes it difficult to direct our attention away. This is how it is designed to work, so that we don’t ignore threats. Some people react to fear with extreme hypervigilance. They want to be on guard, at their command post, at all times. This might manifest as behavior like staying up all night to work.
+That type of adrenalin-fueled behavior can have short-term value, but it can also be myopic. A different approach can be more useful for bigger picture thinking. We need leisure (and sleep!) to step back, integrate the threads of our thinking, see blindspots, and think creatively. Get some silent time. Although much maligned, a game of golf might be exactly what you need to think about tough problems holistically.
+As mentioned, when people are fearful they can go into always-on monitoring mode. You may have the urge to constantly look at what everyone else is doing, to always be on social media, or check data too frequently. This can result in information overload. Your mind can become so overwhelmed that you start to feel cloudy or shut down. Recognize if you’re doing this and limit over-monitoring or overchecking. Avoid panicked, frenzied behavior.
+On its own, being afraid of making mistakes doesn’t make you more or less likely to make good decisions. If you worry excessively in a way that focuses only on how bad the experience of stress and uncertainty feels, you might make do or say the wrong things. However, if you understand how anxiety works at a cognitive level, you can use it to motivate careful but bold and well-reasoned choices.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>overcome fear making mistakes Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist crisis fallout including recession layoffs uneven economic recent protests police brutality demands racial presented challenges encountered unfamiliar nature situations left people feeling fearful missteps reduce mistakes learn drive prevent channel decision making tips effective worrier culture glorifies fearlessness traditional image leader tough unafraid fear emotion evolutionary purpose upside concern making mistakes remind challenging situation cautious leader times caught ruminating ashamed afraid fear making mistakes interpret evidence indecisive leader bold visionary natural tendency channel bold visionary struggle identify leaders figuring prevent disasters Fear mistakes paralyze people Emotional agility skills antidote paralysis process starts labeling thoughts feelings feel anxious control customers staff Stating loud helps diffuse turning dark room accepting reality understand people behave ideal List truth accept acting values highest values conscientiousness apply situation involve making employees masks fit feel comfortable airing grievances Identify important values related crisis relevant important choices face Repeat process tolerate fact act action clear avoid common anxiety trap people reduce uncertainty Worrying make decisions effectively people worry perseverating presence threat Direct worry behaviors realistically reduce chances failure control systems outcomes systems processes avoiding making mistakes Direct worries answering questions data relying reliable limitations systems prevent groupthink procedures blind spots ensure hear valuable perspectives underrepresented stakeholders processes alerted problem quickly rectifying decision unexpected consequences scared making mistake thinking narrow scenario Imagine walking night worried tripping feet thing walked imagine scared flying drive driving objectively dangerous open aperture greatest broader context threats perspective fear illogical reduce fear making mistake thinking negative outcomes strategy kick mode lessen mental grip fear leader highly focused minimizing optimizing thing realize people care Find people priorities Fear grabs makes difficult direct attention designed work ignore threats people react fear extreme hypervigilance guard command times manifest behavior staying night work type behavior myopic approach bigger picture thinking leisure sleep step integrate threads thinking blindspots creatively silent time maligned game golf tough problems holistically mentioned people fearful monitoring mode urge constantly social media check data frequently result information overload mind overwhelmed start feel cloudy shut Recognize limit overchecking Avoid panicked frenzied behavior afraid making mistakes make make decisions worry excessively focuses bad experience stress uncertainty feels make wrong things understand anxiety works cognitive level motivate careful bold choices provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>27</v>
+      </c>
+      <c r="G74" t="n">
+        <v>75</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-0.4705882306805075</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.203999999592</v>
+      </c>
+      <c r="J74" t="n">
+        <v>15.51282051282051</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1884297520661157</v>
+      </c>
+      <c r="L74" t="n">
+        <v>6.280500105954651</v>
+      </c>
+      <c r="M74" t="n">
+        <v>18.1025641025641</v>
+      </c>
+      <c r="N74" t="n">
+        <v>636</v>
+      </c>
+      <c r="O74" t="n">
+        <v>228</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2157</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>10</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4.168674698795181</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>blackassign0076</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/how-small-business-can-survive-the-coronavirus-crisis/</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>How Small Business can survive the Coronavirus Crisis
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+The word pandemic may be the most used word for the last decade, and we know why. The year 2020 comes with a lot of unprecedented threats to humans as well as to nature. While no business was left insulated from its effect, small businesses were one of the most affected, as they rely on day to day sales and keep the inventory minimum, based on the demand of customers and have a low margin to maneuver.
+In an article by HSBC’s Navigator, which described the preparedness and contingency plan for the future, Indian business rated high among its peers. The businesses in India have shown resilience to face adversity which can be attributed to varying degrees of adjustment and adaptability. The businesses, while able to adhere to government guidelines have managed to facilitate their customers efficiently and effectively. However, the impact on micro, small, and medium enterprises cannot be left unattended.
+The Indian subcontinent has an estimated₹ 633.88 lakhof MSME, out of which51.2%are in rural areas whichemploy 44.84%of the total employment provided by this Sector. The MSME sector with1170 lakhpeople constitutes 40% of the total workforce. As per the ministry of commerce MSME contribution inGross Domestic Product (GDP) and export are 37% and 43% respectively.
+With the huge contribution toward GDP as well as export, the impact on the national economy due to the shock in the MSME sector from the pandemic will be equally devastating. While different businesses face different types of obstacles, we have pointed out 8 of the most common issues faced by them.
+For any business, cash in hand is oxygen. The small business which usually has at most 1-month cash to run the business if the revenue stream dries up, which in this tough time has to improve gradually. To manage the optimal cash balance is the key to success in this tough time. The optimal cash balance here, defined as “the less of the amount of cash outflow in form rent, employee salaries, and raw material without postponing the payable as they are doing what banks have to do, to the inflow from sale”.
+In any given situation, business is likejuggling between multiple tasks to optimize the performance while maximizing the revenue. The current situation has added another layer of challenge. This challenge will test management skills in various aspects of our business owner.
+With this article, we have pointed out the major challenges and possible ways to alleviate the impact. AsAnthony Robbinsquotes, “Every problem is a gift—without problems we would not grow”, the current market has wiped out their share in the market which gives an opportunity to other businesses to grow and lower the expense.
+While there may be many facets that need to be handled precisely, communication is one of the major tools that will create a positive environment among workers or teams which will influence the customer behavior and result in terms of revenue. The communication will also help to increase productivity and create trust in a supply chain which will improve the cash conversion cycles and working capital ratio.
+Marketing through word of mouth has no added cost but the benefit can be scaled too much-required revenue. The choice of an effective marketing tool can also influence our target customer and will influence their will to buy the product or service(s) strategically.
+Cash from operating activity improves if we were able to lower our expenses. To lower these expenses, small business owners have to create a different plan (good, average, and worst) keeping the 6-month frame in mind. Breaking down them in monthly targets would further help them to identify the actual scenario and update the strategy accordingly.
+AsWarren Buffetquotes, “You only have to do a few things right in your life so long as you don’t do too many things wrong.” this is the right time to do the right thing and over time businesses will ripe its benefits.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Business survive Coronavirus Crisis Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist pandemic decade 2020 lot unprecedented threats humans nature business left insulated effect businesses affected rely inventory minimum based demand customers margin maneuver article HSBC Navigator preparedness contingency plan future business rated peers businesses shown resilience face adversity attributed varying degrees adjustment adaptability businesses adhere government guidelines managed facilitate customers efficiently effectively impact micro medium enterprises left unattended subcontinent lakhof MSME rural areas whichemploy total employment provided Sector MSME sector with1170 lakhpeople constitutes 40 total workforce ministry commerce MSME contribution inGross Domestic Product GDP export 37 43 huge contribution GDP export impact national economy due shock MSME sector pandemic equally devastating businesses face types obstacles pointed 8 common issues faced business oxygen business run business revenue stream dries tough time improve gradually manage optimal balance success tough time optimal balance defined amount outflow form rent employee salaries raw material postponing payable inflow situation business likejuggling multiple tasks optimize performance maximizing revenue current situation added layer challenge challenge test management skills aspects business owner article pointed challenges ways alleviate impact AsAnthony Robbinsquotes problem problems current market wiped share market opportunity businesses expense facets handled precisely communication tools create positive environment workers teams influence customer behavior result terms revenue communication increase productivity create trust supply chain improve conversion cycles working capital ratio Marketing mouth added cost benefit scaled revenue choice effective marketing tool influence target customer influence buy product service strategically operating activity improves expenses expenses business owners create plan average worst keeping mind Breaking targets identify actual scenario update strategy AsWarren Buffetquotes things life things time thing time businesses ripe benefits provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>26</v>
+      </c>
+      <c r="G75" t="n">
+        <v>11</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.4054053944485029</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.09343434319839812</v>
+      </c>
+      <c r="J75" t="n">
+        <v>25</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.2411764705882353</v>
+      </c>
+      <c r="L75" t="n">
+        <v>10.0964705882353</v>
+      </c>
+      <c r="M75" t="n">
+        <v>28.67647058823529</v>
+      </c>
+      <c r="N75" t="n">
+        <v>490</v>
+      </c>
+      <c r="O75" t="n">
+        <v>205</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1581</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>6</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4.503080082135524</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>blackassign0077</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/impacts-of-covid-19-on-vegetable-vendors-and-food-stalls/</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Impacts of COVID 19 on Food products
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Some vendors (fruit and vegetable sellers) began venturing out after a few days without explicit permission and immediately faced police harassment. After a few weeks, the government eased restrictions and essential vendors were being permitted to vend (due in large part to the advocacy of vendor organizations and activist networks). However, the cost of doing business, as well as the risk, has gone up significantly, with vendors not having access to wholesale markets and suppliers and having to spend more on travel costs due to travel restrictions in place in the city. Also, with the lockdown still partially in place, the number of buyers has gone down and so have earnings. Due to the harsh summer heat, perishable fruits and vegetables also have a reduced shelf life so vendors are unable to capitalize on whatever produce they do have.
+The state has recently announced a stimulus package of INR 5000 crore for nearly 50 lakh vendors, acknowledging the grave impact of their loss of livelihood. The intended relief for vendors will be a credit loan that will provide an initial working capital of INR 10,000 for all vendors, but this is not sufficient. Instead of credit, the government should think of converting it into direct income benefit, a cash grant, as livelihood support to start the income activity regularly. The vendors need income support to be able to restart work, and if they are not able to do so, how will they return the loan. In the face of the ever-changing crisis, vendor organizations have to step forward and advocate for vendors to be provided the resources they need to be able to resume their livelihoods. To this end, vendors organizations could consider the following for an advocacy agenda:
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Impacts COVID 19 Food products Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist vendors fruit vegetable began venturing days explicit permission immediately faced police harassment government eased restrictions essential vendors permitted vend due part advocacy vendor organizations activist networks cost business risk significantly vendors access wholesale markets suppliers spend travel costs due travel restrictions lockdown partially number buyers earnings Due harsh heat perishable fruits vegetables reduced shelf life vendors unable capitalize produce recently announced stimulus package INR 5000 crore 50 lakh vendors acknowledging grave impact loss livelihood intended relief vendors credit provide initial working capital INR vendors sufficient credit government converting direct income benefit livelihood support start income activity regularly vendors income support restart work return face crisis vendor organizations step forward advocate vendors provided resources resume livelihoods end vendors organizations advocacy agenda provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>15</v>
+      </c>
+      <c r="G76" t="n">
+        <v>7</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.3636363471074388</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.08527131749894838</v>
+      </c>
+      <c r="J76" t="n">
+        <v>32.46666666666667</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2505133470225873</v>
+      </c>
+      <c r="L76" t="n">
+        <v>13.0868720054757</v>
+      </c>
+      <c r="M76" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="N76" t="n">
+        <v>300</v>
+      </c>
+      <c r="O76" t="n">
+        <v>122</v>
+      </c>
+      <c r="P76" t="n">
+        <v>959</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4.703571428571428</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>blackassign0078</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/impacts-of-covid-19-on-vegetable-vendors/</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Impacts of COVID 19 on Vegetable Vendors
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+TheCOVID-19pandemic has grown into one of the most major and socially disruptivehealthcrises in recent memory, with growing worried about how the pandemic’s catastrophiceconomicand social repercussions are affecting food systems at both the global and local levels. Given the importance of the retail food environment in establishing and sustaining healthy diets, interruptions to specific aspects of it, such as the availability of fresh vegetables, could have a negative influence on population health, which has already been noted as a source of worry.
+Despite the dominance of national and international supermarket chains, warehouse clubs, and supercenters in groceryretail, vegetables are offered in a number of other food retail settings. Fresh vegetable #vendors are typically smaller and more community-oriented than other restaurant or retail food outlets and can include chain or independent grocery stores, greengrocers, storefront stands, street carts, and even makeshift platforms dedicated to the sale of fresh vegetables. Smaller community fresh vegetable vendors who may conduct business on the sides of major streets or on storefronts have played an integral role in the food environment in large urban centers such as New York City (NYC), particularly in ethnic enclaves, despite the fact that fresh produce does not have a significantly higher nutritional value and fresh produce can also be purchased at these larger food retailers.
+Since the COVID-19 pandemic began, many fresh fruit and vegetable vendors, notably street carts selling fresh vegetables in cities across the United States, including New York City, have been forced to close owing to a combination of falling demand and fear of catching COVID-19. The importance of fresh vegetable vendors varies by neighborhood within cities. Furthermore, these fresh vegetable vendors attract visitors and interborough shoppers from a variety of cultural backgrounds not only Asian ones who are looking for things that are not available elsewhere in the city or for the same low prices.
+These fresh vegetable vendors, unlike larger, well-established grocery store vendors, may not have the financial infrastructure to sustain the shifts insupplyanddemandproduced by the COVID-19 epidemic; consequently, the danger of closure or modifications in services may be greater for these vendors.
+In order to assess the impact of the COVID-19 pandemic onservicesoffered by fresh vegetable vendors, surveillance #data from both before and after the pandemic’s inception is required.
+After a few days, vegetable dealers began venturing out without explicit permission and were quickly harassed by police. After a few weeks, the government relaxed the limitations, allowing vital traders to sell their wares (due in large part to the advocacy of vendor organizations and activist networks). However, the cost of doing business has increased dramatically, as vendors no longer have access to wholesale markets and suppliers, and they must spend more on travel expenditures owing to city-imposed travel limitations. Furthermore, with the partial lockdown still in place, the number of buyers has decreased, as have earnings. Perishable vegetables have a shorter shelf life in the summer heat, thus vendors are unable to capitalize on whatever produce they do have.
+Consider the situation of Delhi at the starting of COVID 19. The state has launched an INR 5000 crore stimulus package for over 50 lakh vendors, realizing the serious consequences of their loss of livelihood. The targeted relief for vendors is a credit facility that will provide all sellers with an initial working capital of INR 10,000, but this will not be enough. Instead of credit, the government should consider changing it into a direct income benefit, such as a cash grant, to help people start earning money on a regular basis. The vendors require income support in order to resume work, and how will they repay the loan if they are unable to do so? Vendor organizations must step forth in the face of the ever-changing crises and lobby for vendors to be given the resources they need to continue their livelihoods. Vendor organizations could use the following as part of their advocacy agenda:
+Finally, some fresh vegetable sellers may have shuttered for a period of time early in the epidemic, only to reopen recently. Alternatively, vendors may have launched soon after the in-person checks were completed, but still within the June-July 2020 endpoint timeframe. This is a drawback of the method; in order to offer the most reliable COVID-19 pandemic monitoring data, data must be collected in a short period of time.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Impacts COVID 19 Vegetable Vendors Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist grown socially disruptivehealthcrises recent memory growing worried pandemic catastrophiceconomicand social repercussions affecting food systems global local levels importance retail food environment establishing sustaining healthy diets interruptions specific aspects availability fresh vegetables negative influence population health noted source worry dominance national international supermarket chains warehouse clubs supercenters groceryretail vegetables offered number food retail settings Fresh vegetable vendors typically smaller restaurant retail food outlets include chain independent grocery stores greengrocers storefront stands carts makeshift platforms dedicated fresh vegetables Smaller community fresh vegetable vendors conduct business streets storefronts played integral role food environment centers NYC ethnic enclaves fact fresh produce significantly higher nutritional fresh produce purchased larger food retailers pandemic began fresh fruit vegetable vendors notably carts selling fresh vegetables cities United States including forced owing combination falling demand fear catching importance fresh vegetable vendors varies neighborhood cities fresh vegetable vendors attract visitors interborough shoppers variety cultural backgrounds Asian things prices fresh vegetable vendors unlike larger grocery store vendors financial infrastructure sustain shifts insupplyanddemandproduced epidemic danger closure modifications services greater vendors order assess impact pandemic onservicesoffered fresh vegetable vendors surveillance data pandemic inception required days vegetable dealers began venturing explicit permission quickly harassed police government relaxed limitations allowing vital traders wares due part advocacy vendor organizations activist networks cost business increased dramatically vendors longer access wholesale markets suppliers spend travel expenditures owing travel limitations partial lockdown number buyers decreased earnings Perishable vegetables shelf life heat vendors unable capitalize produce situation starting COVID 19 launched INR 5000 crore stimulus package 50 lakh vendors realizing consequences loss livelihood targeted relief vendors credit facility provide initial working capital INR credit government changing direct income benefit people start earning regular basis vendors require income support order resume work repay unable Vendor organizations step face crises lobby vendors resources continue livelihoods Vendor organizations part advocacy agenda Finally fresh vegetable shuttered period time epidemic reopen recently Alternatively vendors launched checks completed 2020 endpoint timeframe drawback method order offer reliable pandemic monitoring data data collected period time provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>31</v>
+      </c>
+      <c r="G77" t="n">
+        <v>17</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.2916666605902779</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.1032258062296219</v>
+      </c>
+      <c r="J77" t="n">
+        <v>31.31034482758621</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.2455947136563877</v>
+      </c>
+      <c r="L77" t="n">
+        <v>12.62237581649704</v>
+      </c>
+      <c r="M77" t="n">
+        <v>35.89655172413793</v>
+      </c>
+      <c r="N77" t="n">
+        <v>556</v>
+      </c>
+      <c r="O77" t="n">
+        <v>223</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1805</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4.769008662175168</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>blackassign0079</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/impact-of-covid-19-pandemic-on-tourism-aviation-industries/</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Impact of COVID-19 pandemic on Tourism &amp; Aviation industries
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+As the Coronavirus pandemic unfolds, most industries face problems they had never imagined or prepared for. The Aviation and Tourism industries face the highest stress as Coronavirus spreads because not only are they a (usually) a leisure spending but also the nature of the disease directly conflicts with the industries’ innate business models. In this article, we will look at the impact of COVID-19 pandemic on the Tourism and Aviation industries both from the demand side and the supply side.
+The Aviation and Tourism industries has two major customers: tourists and business travellers. Let us base this essay in the India and see what the reaction of the customer segments is expected to be like.
+Almost all touristswill avoid vacationing for the foreseeable future because of:
+Now, let us look at different types of holiday revellers. Tourists can be foreigners or domestic tourists. According to Business Insider “In2019, almost10 millionforeign tourists visited India — spending over₹1,800 billionduring January to November period.”. However, because of the pandemic, almost all this business has been lost.
+Due to the reasons stated above mostforeignerswill not prefer to travel. Those who do dare to venture out, perhaps wooed bydiscounted dealsto places which would have otherwise been out of their budgets, will possibly be warded off by the one of the following factors:
+Moving our focus to domestic tourists, we subdivide our population according to income levels:
+In order to attract well paying customers, the Aviation and Tourism industries will have tospenda considerable amount ofmoneyto becomesanitation compliantwhich will push profit margins even lower. Most Aviation and Tourism activities mademoney not on individual margins but on collective volumes, thus, they are inherently incompatible with the concept of social distancing.
+Because of COVID-19 pandemic, businesses have realized that more and more meetings can be handled over video calls, thus, themovementofbusiness personnelwill berestricted. There will still be some representatives who will fly out to conduct business, but the industry can expect apermanent drop in revenuefrom this sector.
+Moving over to the supply side, the Aviation and Tourism industries face strongdisruptions in their supply chain. Because the industry is a leisure expense,manufacturingof many supporting equipment like the adventure sports gears and even parts of planes themselves hasstopped. Because of thedrop in demand, it is going to be tough to get the supply chain back up again. Furthermore,workersareafraid to show upto their jobs because of the high risk of contracting the virus due to exposure to multiple customers from different geographies.
+Let us now see someexamplesof how the industry has done through March and April.
+The bookings vanished in mid-March. Property owners had bought or leased real estate to list on the app were severely affected. The sharing economy, like Uber, Lyft and DoorDash had taken a hit but Airbnb was worse off because their expenses include cleaning services, interior design (one-time spend), and property maintenance which arefixed costs.
+Thus, because of the pandemic the revenue was gone but the costs exist. They have people who depend on the owner’s rental income which made the problem worse.
+Hosts usually decidecancellationpolicy, but under extreme circumstances, like this one, the company decided to override all existing policies (many of whom weren’t strict) and gave full refund to the guests. The company got $2 billion loan and has helped out the owners, financially by paying 25% for cancelled bookings capping at 5k/host. They have helped some hosts by getting them eligible for small business loans and avoid eviction.
+Thankfully, there are too few properties to cause ahousing crisis, but breakdown could cause strain on lenders and undermine property values (all want to sell to avoid foreclosure or defaulting on loans). AirDNA states that the listing split-up for Airbnb is: 33% list single property, 33% owners list 2-24 properties, 33% hosts have 25+ properties.
+Some state governments in America havebanned short-term rentals. This hurt the Airbnb owners because people looking to quarantine outside their homes or near relatives could’ve generated revenues.
+So, what are hosts doing now?
+Many are discounting units and looking for long-term tenants (12 months). Many are planning to apply for a small-business loan, seek forbearance from banks, find long-term tenants independently of Airbnb and sell property.
+According to the Wall Street Journal, roughly half of all US workers stand to earn more from the Coronavirus rather than their work pay cheques. However, it must be noted that some have not gotten their money due to bureaucratical issues.
+Thiscomplicates reopeningbecause workers don’t want to come back and expose themselves to the virus and earn less. But businesses want workers to come back so that their small business loans can be forgiven, and business can reopen. However, money in the consumer’s pockets means the economy expected to rebound quickly when businesses open. About 40 million Americans are now on unemployment benefits, majorly from restaurant, hospitality, and retail industries.
+Congress chosea flat amount of reliefbecause it was really time-consuming for payments to be calibrated to each worker’s lost wages. Their $600 federal payment corresponds to $15/hours wage, but 21 states follow $7.25/hours.
+Most workers don’t want to sit at home and are anxious to get back to work, but right now staying at home is thesmartest financial decisionfor their families.
+Workers should be ineligible for unemployment benefits if a job is made available to them. Butownersarereluctant to reportworkers to authorities and sever relationships with employees they may need more later in the year when tourism demand is expected to pick up. Without income support, low-wage workers would likely seek out other jobs, including side hustles and gig work, which could expose them and their households to the virus. Thus, according to the government, it was important to give such a large stimulus to the economy.
+Studies of SARs suggested that people sitting close to infectious persons were at large risk. Combined with that, in long journeys, passengers may take off masks. Thus, therisks oftransmissionare large and airlines need to focus on figuring out how to prevent transmission in planes.
+Currently, the airlines plan on using self-cleaning material, long-lasting disinfectant, touchless lavatories, UV light as a disinfectant, antimicrobial coating for frequently touched surfaces, and cleaning between flights.
+However, even after these efforts, only 12% of people are flying (compared to last year, same time) as of 27thMay 2020.
+Aviation and Tourism industries have the curse of being a luxury expense and thus, as the Coronavirus pandemic spread, the entire industry jolted to a halt. They are one of the hardest-hit sectors and have toadapt to a new normalwherein the revenue levels are unlikely to match to pre-COVID levels and margins have also reduced. However, in with a bleak future, this industry is here to stay because people have to travel, and eventually they will vacation as well. Coronavirus has become a “survival of the fittest” test for this industry and the stakeholders will come out of this disaster with strong business processes.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Impact pandemic Tourism Aviation industries Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Coronavirus pandemic unfolds industries face problems imagined prepared Aviation Tourism industries face highest stress Coronavirus spreads leisure spending nature disease directly conflicts industries innate business models article impact pandemic Tourism Aviation industries demand side supply side Aviation Tourism industries customers tourists business travellers base essay reaction customer segments expected touristswill avoid vacationing foreseeable future types revellers Tourists foreigners domestic tourists Business Insider In2019 almost10 millionforeign tourists visited spending billionduring pandemic business lost Due reasons stated mostforeignerswill prefer travel dare venture wooed bydiscounted dealsto places budgets possibly warded factors Moving focus domestic tourists subdivide population income levels order attract paying customers Aviation Tourism industries tospenda considerable amount ofmoneyto becomesanitation compliantwhich push profit margins Aviation Tourism activities mademoney individual margins collective volumes inherently incompatible concept social distancing pandemic businesses realized meetings handled video calls themovementofbusiness personnelwill berestricted representatives fly conduct business industry expect apermanent drop revenuefrom sector Moving supply side Aviation Tourism industries face strongdisruptions supply chain industry leisure expense manufacturingof supporting equipment adventure sports gears parts planes hasstopped thedrop demand tough supply chain workersareafraid show upto jobs risk contracting virus due exposure multiple customers geographies someexamplesof industry bookings vanished Property owners bought leased estate list app severely affected sharing economy Uber Lyft DoorDash hit Airbnb worse expenses include cleaning services interior design spend property maintenance arefixed costs pandemic revenue costs exist people depend owner rental income made problem worse Hosts decidecancellationpolicy extreme circumstances company decided override existing policies strict gave full refund guests company 2 helped owners financially paying 25 cancelled bookings capping helped hosts eligible business loans avoid eviction Thankfully properties ahousing crisis breakdown lenders undermine property values avoid foreclosure defaulting loans AirDNA states listing Airbnb 33 list single property 33 owners list properties 33 hosts properties governments havebanned rentals Airbnb owners people quarantine homes relatives generated revenues hosts discounting units tenants 12 months planning apply seek forbearance find tenants independently Airbnb property Journal roughly half workers stand earn Coronavirus work pay cheques noted due bureaucratical issues Thiscomplicates reopeningbecause workers expose virus earn businesses workers business loans forgiven business reopen consumer pockets economy expected rebound quickly businesses open 40 Americans unemployment benefits majorly restaurant hospitality retail industries Congress chosea flat amount reliefbecause payments calibrated worker lost 600 federal payment corresponds wage 21 states follow workers sit home anxious work staying home thesmartest financial decisionfor families Workers ineligible unemployment benefits job made Butownersarereluctant reportworkers authorities sever relationships employees tourism demand expected pick income support workers seek jobs including side hustles gig work expose households virus government important give stimulus economy Studies SARs suggested people sitting infectious persons risk Combined journeys passengers masks therisks oftransmissionare airlines focus figuring prevent transmission planes airlines plan material disinfectant touchless lavatories UV disinfectant antimicrobial coating frequently touched surfaces cleaning flights efforts 12 people flying compared time 27thMay 2020 Aviation Tourism industries curse luxury expense Coronavirus pandemic spread entire industry jolted halt sectors toadapt normalwherein revenue levels match levels margins reduced bleak future industry stay people travel eventually vacation Coronavirus survival fittest test industry stakeholders disaster business processes provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>22</v>
+      </c>
+      <c r="G78" t="n">
+        <v>26</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-0.08333333159722227</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.0751173707744642</v>
+      </c>
+      <c r="J78" t="n">
+        <v>21.85245901639344</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.2303075768942235</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8.833106637315067</v>
+      </c>
+      <c r="M78" t="n">
+        <v>25.55737704918033</v>
+      </c>
+      <c r="N78" t="n">
+        <v>795</v>
+      </c>
+      <c r="O78" t="n">
+        <v>307</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2534</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4.599871547848426</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>blackassign0080</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/impact-of-covid-19-pandemic-on-sports-events-around-the-world/</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Impact of COVID-19 pandemic on sports events around the world.
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+The COVID-19 pandemic has caused the most significant disruption to the worldwide sporting calender since World war II. Across the world and to varying degrees, sports events have been canceled or postponed. The 2020 Summer Olympics in Tokyo were rescheduled to 2021. Spectators have no games to watch and players no games to play. Only a few countries, such as Turkmenistan Belarus and Nicaragua, have continued professional sporting matches as planned.
+SOCCER
+For an overview of the state of play in Europe’s soccer leagues amid the coronavirus outbreak click here:
+* Major League Soccer players returned to voluntary training on May 6.
+* The 2020 K-League season kicked off on May 8 behind closed doors.
+* Euro 2020 and Copa America were postponed. The two tournaments will now be staged from June 11 to July 11, 2021.
+* The Euro 2021 Women’s Championship has been pushed back to July 6-31, 2022.
+* Asian Champions League: The start of the knockout rounds was moved back to September.
+* The Chinese Football Association (CFA) has drawn up three plans to complete the 2020 Chinese Super League (CSL) season, one of which would see the campaign begin in late June and finish in December.
+* The women’s Bundesliga season will resume from May 29.
+* The Portuguese league approved nine stadiums for the league’s restart.
+* Costa Rica became the first country in the Americas to restart their professional league.
+* The women’s Under-20 World Cup in Costa Rica and Panama, postponed from August-September, has been rescheduled for Jan. 20-Feb. 6, 2021.
+* The National Women’s Soccer League (NWSL) said clubs could begin small group training sessions from May 25. The league is aiming for a late June return with a single city month-long tournament.
+OLYMPICS
+* The postponed Tokyo Olympic Games will now begin on July 23, 2021 and run until Aug. 8.
+* World Athletics has suspended Olympic qualification until December.
+PARALYMPICS
+The postponed Paralympic Games will run from Aug. 24-Sep. 5, 2021.
+WORLD BEACH GAMES
+The 2021 World Beach Games were moved to 2023.
+WORLD GAMES
+* The 2021 World Games have been pushed back by a year to avoid clashing with the Olympics.
+ATHLETICS
+* The World Athletics Championships scheduled for 2021 in Eugene, Oregon have been moved to the summer of 2022 because of the Olympic Games rescheduling.
+* The World Athletics Indoor Championships (Nanjing, March 13-15) were postponed to March 19-21, 2021.
+* Boston Marathon organisers have postponed the race from April 20 to Sept. 14.
+* The London Marathon which was due to take place on April 26 has been postponed to Oct. 4.
+* The Diamond League plans to hold three meetings in August in Monaco, Gateshead and Stockholm followed by September events in Lausanne, Brussels, Paris, Shanghai, and possibly Rome or Naples. Meetings in Eugene, Doha, and China have been scheduled for October.
+* World Athletics released its calendar for the international season beginning with a Continental Tour Gold event in Finland on Aug. 11 and ending with a Diamond League meeting in China.
+* This year’s Biathle/Triathle World Championships in Weiden have been moved to 2021.
+* The World Triathlon Series (WTS) event and Mixed Relay World Championships in Hamburg have been rescheduled for the weekend of Sept. 5-6.
+* The Ironman triathlon has been pushed back to Sept. 6 from its original June 21 start.
+AUSTRALIAN RULES
+* The Australian Football League season will resume on June 11, with four clubs moving to the Gold Coast due to tighter COVID-19 restrictions in their home states.
+BADMINTON
+* The Thomas and Uber Cup will be held from Oct. 3-11.
+* The 2021 World Championships will begin in late November instead of August to avoid clashing with the rescheduled Tokyo Olympics.
+* The BWF announced a new 2020 calendar with the World Tour set to return with the Taipei Open from Sept. 1-6.
+BASEBALL
+* The South Korean league started on May 5 without fans.
+* Taiwan’s baseball season resumed in April behind closed doors. On May 9, fans were allowed in for the first time, with 1,000 spectators watching games in New Taipei and Taichung.
+* Major League Baseball team owners on May 11 agreed a plan to start playing in empty stadiums in early July.
+* Japan’s Nippon Professional Baseball (NPB) league will begin its 2020 season on June 19 with games played in empty stadiums.
+BOXING
+* Dillian Whyte’s heavyweight fight against Alexander Povetkin has been rescheduled for July 4.
+CANOEING
+* Canoe Slalom World Cups in France and Czech Republic have been tentatively rescheduled to October or November.
+* The Canoe Slalom World Cup Final and non-Olympic World Championships in Germany have been moved from September to October.
+* Canoe Polo World Championships in Rome have been pushed back until April 2021.
+CRICKET
+* English cricket’s The Hundred, originally scheduled to begin on July 17, was pushed back to 2021.
+CYCLING
+* Giro d’Italia will begin on Oct. 3, while the Spanish Vuelta will be held from Oct. 20.
+* Milan-Sanremo will be held on Aug. 8, Liege-Bastogne-Liege on Oct. 4, the Tour des Flandres on Oct. 18, Paris-Roubaix on Oct. 25 and the Tour of Lombardy on Oct. 31.
+* The Tour de France that was due to be held from June 27-July 19 has been postponed to Aug. 29-Sept 20.
+* The European Road Cycling Championships, scheduled for Sept. 9-13, have been postponed by a year.
+GOLF
+* Tiger Woods and Peyton Manning defeated Phil Mickelson and Tom Brady in a charity golf match in Florida on May 24 at Medalist Golf Club in Hobe Sound, Florida.
+* The Masters at Augusta National Golf Club has been rescheduled for Nov. 12-15 from April 9-12.
+* The PGA Championships at TPC Harding Park San Francisco, has been rescheduled for Aug. 6-9 from May 14-17.
+* The U.S. Open at Winged Foot Golf Club, Mamaroneck, New York, was rescheduled to Sept. 17-20 from June 8-21.
+* The Ladies Professional Golf Association (LPGA) is hoping to get the 2020 season underway with the Dow Great Lakes Bay Invitational from July 15-18.
+* The Women’s PGA Championship has been postponed from late June to Oct. 8-11.
+* The Australian PGA Championship will take place at the Royal Queensland Golf Club from Dec. 3-6.
+* The first major of the 2020 golf season got underway on May 14 when South Korea hosted the Korea Ladies Professional Golf Association (KLPGA) Championship. Park Hyun-kyung won the title.
+* World number one Ko Jin-young will take on No. 3 Park Sung-hyun in a charity skins match on May 24 at the Sky 72 Golf &amp; Resort in Incheon.
+HORSE RACING
+* Racing in France began without spectators at ParisLongchamp on May 11.
+* Horse racing resumed in Germany on May 7 with a limited number of races in front of empty stands in Hanover. Races were also scheduled for May 8 in Cologne.
+* The Kentucky Derby, the first jewel in North American horse racing’s Triple Crown (May 2) was postponed to Sept. 5.
+* Churchill Downs, the home of the Kentucky Derby, opened for spectator-free racing on May 16.
+* The British Horseracing Authority (BHA) has said it is planning to resume the season on June 1.
+* Horse racing will be allowed to resume in Ireland without spectators on June 8.
+* The shortened Belmont Stakes will be run on June 20 without spectators.
+MOTOR SPORTS
+* The NASCAR season resumed with races at the Darlington Raceway in South Carolina on May 17 and May 20.
+* The Le Mans 24 hours race was postponed from June 13-14 to Sept. 19-20.
+* The Indianapolis 500 has been postponed until Aug. 23.
+* MotoGP intends to start its season with races on July 19 and 26 at the Jerez circuit in southern Spain.
+* IndyCar will open its delayed season on June 6 with the Genesys 300 at Texas Motor Speedway (TMS) without fans in attendance. The race at St. Petersburg, Florida scheduled for March 15 has been pushed back to Oct. 25.
+* Formula One hopes to start the delayed season in Austria in July without spectators before ending in Abu Dhabi in December. Silverstone have agreed terms for two races without spectators at the circuit this season.
+NBA
+The NBA is in talks with The Walt Disney Company about restarting its suspended season at Disney World in Florida in late July.
+NFL
+* The NFL season will begin on Sept. 10 with a game between Super Bowl champions Kansas City Chiefs and Houston Texans.
+NHL
+The National Hockey League has scrapped plans to play regular-season games in the Czech Republic and Finland this year.
+The NHL suspended play in mid-March, but hopes to reopen training facilities in June. The league on May 24 released a set of safety protocols that allow players to return to clubs for small-group workouts.
+RUGBY
+* Australia’s National Rugby League is set for a May 28 restart after players agreed to 20% pay-cuts for the abridged 2020 season.
+* Rugby Australia hopes to get players back in training in June for matches in July.
+* New Zealand’s five Super Rugby teams will play each other in a 10-week domestic competition from June 13.
+* The Mitre 10 Cup, New Zealand’s annual provincial competition, will start with a full 14-team championship from Sept. 11.
+* Rugby Australia are looking at potentially including both the Western Force and Japan’s Sunwolves in a competition with their four Super Rugby sides to start in early July.
+SNOOKER
+* The World Snooker Championship, originally scheduled to begin on April 18, will start on July 31 at the Crucible Theatre in Sheffield.
+* Snooker will resume in the United Kingdom on June 1 with the Championship League event which will be held without fans at the Marshall Arena in Milton Keynes.
+SWIMMING
+* The 2020 European Aquatics Championships scheduled to take place from May 11-24 in Budapest, Hungary, have been postponed to next year.
+* The World Aquatics Championships, scheduled for July 16-Aug. 1, 2021, were pushed back to May 13-29, 2022.
+* The World Swimming Championships in Abu Dhabi, scheduled to take place in December, have been pushed back by a year.
+TENNIS
+* The French Open was postponed until Sept. 20-Oct. 4.
+* The women’s Rogers Cup tournament in Montreal was postponed until 2021.
+* Professional tennis returned with the Tennis Point Exhibition Series event in Germany on May 1.
+* Hubert Hurkacz, Miomir Kecmanovic, Reilly Opelka and Tommy Paul took part in the UTR Pro Match Series in Florida that began on May 8.
+* Patrick Mouratoglou’s tennis academy in France will host a five-week series starting in May.
+* Bianca Andreescu and Sofia Kenin will be among 16 WTA players who will launch the Credit One Bank Invitational in Charleston on June 23.
+* Novak Djokovic is bringing together some of the world’s top tennis players for a series of matches to run from June 13-July 5 in the Balkan region.
+* New Zealand will stage a team-based tennis tournament for local-based men’s players from June 3.
+* World TeamTennis, an innovative mixed-gender professional tennis league, will start from July 5 at the Greenbrier, West Virginia, and up to 500 fans will be allowed to attend matches.
+ULTIMATE FIGHTING CHAMPIONSHIP
+* UFC action returned with three cards on May 9, May 13 and May 16.
+List of sports events that have either been cancelled or postponed due to the outbreak:
+OLYMPIC TRIALS
+* U.S. trials for wrestling (April 4-5) were postponed.
+* U.S. Rowing postponed its team trials.
+* U.S. diving trials (April 3-5) were postponed.
+NORTH AMERICA
+* The MLB has further delayed its 2020 season’s opening day of March 26.
+* The Women’s National Basketball Association postponed the start of its 2020 regular season, originally scheduled to run from May 15-Sept. 20.
+* The 2019-20 American Hockey League (AHL) regular season and the 2020 Calder Cup Playoffs were cancelled. The AHL standings at the time of suspension will be used to determine league awards.
+SOCCER
+* FIFA has agreed to delay the first edition of its revamped Club World Cup due to be held in 2021.
+* UEFA put all club and national team competitions for men and women on hold until further notice.
+* The men’s and women’s Champions League finals and Europa League final originally scheduled for May have been postponed.
+* South America’s two biggest club competitions, the Copa Libertadores and Copa Sudamericana, are suspended.
+* CONCACAF suspended all competitions, including the Champions League and men’s Olympic qualifiers.
+* Asian and South American qualifying matches for 2022 World Cup were postponed.
+* Japan’s J.League will not hold any games in May.
+* Barcelona’s women’s team were declared champions of Spain’s Liga Iberdrola after the national soccer federation’s executive committee agreed to end all non-professional competitions.
+* The Asian Football Confederation on April 14 postponed all matches and competitions scheduled for May-June until further notice.
+* Semi-finals of the CAF Champions league (May 1-3) and CAF Confederation Cup (May 8-10) were postponed.
+* This year’s International Champions Cup, a pre-season tournament featuring Europe’s top clubs, was cancelled.
+* Cameroon cancelled the rest of its league season and declared leaders PWD Bamenda as champions.
+* Wales’ top flight league was called off and Connah’s Quay Nomads were crowned champions.
+* Mexico cancelled the remainder of its men’s and women’s seasons. No champions will be crowned.
+* England’s Women’s Super League and second-tier Women’s Championship seasons were cancelled on May 25.
+ATHLETICS
+* The Diamond League, the elite track and field competition, was forced to cancel its London meeting scheduled for July 4-5. It had previously postponed events in seven cities scheduled between April and June.
+* The Paris and Barcelona marathons were postponed.
+* The 2020 European Athletics Championship due to take place from Aug. 25-30 were cancelled.
+BADMINTON
+* The Badminton World Federation (BWF) cancelled the last five tournaments in the qualification period for the Olympics.
+* The Indonesia Open (June 16-21) was among a host of events that have been cancelled while tournaments over the next three months were also suspended in Australia, Thailand and Russia.
+* The U.S. Open, set to be held from June 23-28 in California, was suspended.
+BASEBALL
+* The final qualification tournament in Taiwan for the Olympics was put back from April to June 17-21, while the March 22-26 qualification event in Arizona was postponed.
+BASKETBALL
+* The International Basketball Federation postponed the men’s Olympic qualifiers, European Championship and the Americas Championship by a year.
+* Turkey cancelled its basketball season on May 11.
+* Europe’s top two club basketball competitions, EuroLeague and EuroCup, have been terminated without naming any winners.
+BOXING
+* Anthony Joshua’s world heavyweight title defence against Bulgarian Kubrat Pulev at Tottenham Hotspur’s stadium on June 20 was postponed.
+CRICKET
+* The Indian Premier League, originally suspended until April 15, has been postponed indefinitely.
+* The last two games of Australia’s three-match one-day international series against New Zealand in Sydney and Hobart were cancelled while the limited-overs tours were postponed.
+* The boards of India and South Africa agreed to reschedule a three-match ODI series to a later date.
+* England’s test series against Sri Lanka and West Indies were postponed. The England and Wales Cricket Board extended the suspension of the professional game in the country until July 1.
+* South Africa’s limited-overs tour of Sri Lanka that was scheduled to take place in June has been postponed.
+* Australia’s proposed test tour of Bangladesh in June has been postponed.
+* Ireland’s home series against New Zealand and Pakistan scheduled for June and July have been postponed.
+CURLING
+* Men’s and women’s world championships in Scotland and Canada respectively were cancelled.
+* World mixed doubles and senior championships in Canada, scheduled from April 18-25 were cancelled.
+CYCLING
+* The final two stages of the UAE Tour were cancelled after two Italian participants tested positive.
+* The Paris-Nice cycling race ended a day early after the eighth stage into Nice was cancelled.
+* The Women’s Tour, scheduled to take place from June 8-13 was cancelled.
+* This year’s Tour of Britain scheduled for September has been cancelled.
+GOLF
+* The British Open Championship was cancelled.
+* The European Tour cancelled the BMW International Open (June 25-28) and the Open de France (July 2-5). The Scottish Open (July 9-12) was postponed. The Tour had postponed or cancelled events scheduled between March and May.
+* The LPGA cancelled Tour qualifying “Q-schools” this year as well as the Meijer LPGA Classic in Michigan.
+HANDBALL
+* The German handball season was cancelled after top clubs voted in favour of abandoning the campaign.
+* The men’s and women’s EHF Cup and Challenge Cup were cancelled.
+* The remaining women’s Euro 2020 qualifiers as well as European playoff matches for the 2021 men’s world championship were cancelled.
+HORSE RACING
+* The Grand National festival (April 2-4) was cancelled.
+* The Dubai World Cup, one of the world’s richest horse races and a premier annual sporting event in the United Arab Emirates, will not go ahead this year.
+* The Guineas Festival at Newmarket in May and June’s Epsom Derby have been postponed while June’s Royal Ascot may be held without spectators.
+* This year’s Shergar Cup, due to take place on Aug. 8, has been cancelled.
+MOTOR SPORTS
+* NASCAR postponed events at Kansas Speedway May 30-31, Michigan International Speedway June 5-7, the NASCAR Xfinity Series race at Mid-Ohio May 30, and the Gander Trucks Series race at Texas Motor Speedway, previously scheduled for June 5.
+* The Bretagne World Rallycross at Loheac, scheduled to take place on Sept. 5-6, has been cancelled.
+* This year’s Silverstone Classic, scheduled for July 31-Aug. 2, has been cancelled.
+NETBALL
+* Netball Superleague fixtures were postponed until at least May 31.
+ROWING
+* The 2020 US Rowing National Championships scheduled for July and the 2020 US Rowing Masters National Championships scheduled for August have been cancelled.
+* British Rowing extended the suspension of all its events to July 31. The British Rowing Offshore Championships &amp; Beach Sprints and British Rowing Junior Championships have been cancelled.
+RUGBY
+* Four Six Nations matches were postponed.
+* France’s rugby federation suspended all its competitions and will not be allowed to return until September.
+* The European rugby season was suspended after European Professional Club Rugby postponed Champions Cup and Challenge Cup quarter-final matches (April 3-5).
+* The semi-final and final of this season’s Champions Cup and Challenge Cup tournaments, which were due to take place in Marseille in May, have been postponed.
+* England’s Rugby Football Union and Wales’ governing body confirmed the end of the 2019-20 season for all league, cup and county rugby, but the English Premiership has been excluded.
+* Super Rugby suspended its season.
+* World Rugby has postponed all test matches scheduled for July.
+* This year’s Rugby League Challenge Cup final, scheduled for July 18 at Wembley Stadium, has been postponed.
+SURFING
+* The World Surfing League extended the postponement of events through June while also announcing a major overhaul for future tours, with details on a post-season surf-off to be announced in July.
+TABLE TENNIS
+* The International Table Tennis Federation (ITTF) scrapped all table tennis competitions until the end of July.
+TENNIS
+* The Wimbledon championships were cancelled for the first time since World War Two.
+* The Fed Cup finals (Budapest; April 14-19) were postponed.
+* The Sept. 25-27 Laver Cup was cancelled to avoid a clash with the re-scheduled French Open.
+* ATP events in Hamburg, Bastad, Newport, Los Cabos, Gstaad, Umag, Atlanta and Kitzbuhel will not go ahead as scheduled while WTA events in Bastad, Lausanne, Bucharest and Jurmala scheduled for July will not be held.
+VOLLEYBALL
+* The international volleyball federation (FIVB) cancelled this year’s Volleyball Nations League, which was scheduled to begin on May 19 for the women’s competition and May 22 for the men’s event.
+* Turkey cancelled its volleyball season on May 11.
+WINTER SPORTS
+* The International Ski Federation cancelled the final races of the men’s Alpine skiing World Cup.
+* The World Cup finals in Cortina were cancelled along with the last three women’s races in Are.
+* The women’s world ice hockey championships in Canada were cancelled.
+* The Ice Hockey World Championship scheduled for Switzerland in May was cancelled.
+* The speed skating world championships in Seoul were postponed until at least October.
+* The March 16-22 world figure skating championships in Montreal were cancelled.
+* The Kontinental Hockey League (KHL) has cancelled the remainder of its season after temporarily suspending its playoffs.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Impact pandemic sports events world Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist pandemic caused significant disruption worldwide sporting calender World war world varying degrees sports events canceled postponed 2020 Olympics rescheduled 2021 Spectators games watch players games play countries Turkmenistan Belarus Nicaragua continued professional sporting matches planned SOCCER overview play soccer leagues amid coronavirus outbreak League Soccer players returned voluntary training 6 2020 kicked 8 closed doors Euro 2020 Copa postponed tournaments staged 11 11 2021 Euro 2021 Women Championship pushed 2022 Asian Champions League start knockout moved Football Association CFA drawn plans complete 2020 Super League CSL campaign begin late finish women Bundesliga resume 29 Portuguese league approved stadiums league restart Americas restart professional league women World Cup Panama postponed rescheduled 6 2021 National Women Soccer League NWSL clubs begin group training 25 league aiming late return single tournament OLYMPICS postponed Olympic Games begin 23 2021 run 8 World Athletics suspended Olympic qualification PARALYMPICS postponed Paralympic Games run 5 2021 WORLD GAMES 2021 World Games moved 2023 WORLD GAMES 2021 World Games pushed avoid clashing Olympics ATHLETICS World Athletics Championships scheduled 2021 moved 2022 Olympic Games rescheduling World Athletics Indoor Championships Nanjing postponed 2021 Marathon organisers postponed 20 14 Marathon due 26 postponed 4 League plans hold meetings Gateshead Stockholm events Lausanne Brussels possibly Naples Meetings Doha scheduled World Athletics released calendar international beginning Continental Tour event 11 ending League meeting World Championships Weiden moved 2021 World Triathlon Series WTS event Mixed Relay World Championships Hamburg rescheduled weekend Ironman triathlon pushed 6 original 21 start AUSTRALIAN RULES Australian Football League resume 11 clubs moving Coast due tighter restrictions home states BADMINTON Uber Cup 2021 World Championships begin late avoid clashing rescheduled Olympics BWF announced 2020 calendar World Tour set return Taipei Open BASEBALL Korean league started 5 fans baseball resumed closed doors 9 fans allowed time spectators watching games Taipei Taichung League Baseball team owners 11 agreed plan start playing empty stadiums Nippon Professional Baseball NPB league begin 2020 19 games played empty stadiums BOXING Dillian heavyweight fight Povetkin rescheduled 4 CANOEING Canoe Slalom World Cups Czech Republic tentatively rescheduled Canoe Slalom World Cup Final World Championships moved Canoe Polo World Championships pushed 2021 CRICKET cricket Hundred originally scheduled begin 17 pushed 2021 CYCLING Giro Italia begin 3 Spanish Vuelta 20 8 4 Tour des Flandres 18 25 Tour Lombardy 31 Tour de due 19 postponed 20 Road Cycling Championships scheduled postponed GOLF Tiger defeated golf match 24 Medalist Golf Club Hobe Sound National Golf Club rescheduled PGA Championships TPC rescheduled Open Winged Foot Golf Club Mamaroneck rescheduled Ladies Professional Golf Association LPGA hoping 2020 underway Great Lakes Invitational Women PGA Championship postponed late Australian PGA Championship Queensland Golf Club 2020 golf underway 14 hosted Ladies Professional Golf Association KLPGA Championship title World number Ko 3 skins match 24 Sky 72 Golf Resort Incheon HORSE RACING Racing began spectators ParisLongchamp 11 Horse racing resumed 7 limited number races front empty stands Hanover Races scheduled 8 Cologne horse racing Triple Crown 2 postponed 5 home opened racing 16 Horseracing Authority BHA planning resume 1 Horse racing allowed resume spectators 8 shortened Belmont Stakes run 20 spectators MOTOR SPORTS NASCAR resumed races Darlington Raceway 17 20 Mans 24 hours postponed 500 postponed 23 MotoGP intends start races 19 26 Jerez circuit IndyCar open delayed 6 Genesys 300 Motor Speedway TMS fans attendance Petersburg scheduled 15 pushed 25 Formula hopes start delayed spectators ending Abu Dhabi Silverstone agreed terms races spectators circuit NBA NBA talks Walt Disney Company restarting suspended Disney World late NFL NFL begin 10 game Super Bowl champions Chiefs Texans NHL National Hockey League scrapped plans play games Czech Republic NHL suspended play hopes reopen training facilities league 24 released set safety protocols players return clubs workouts RUGBY National Rugby League set 28 restart players agreed 20 abridged 2020 Rugby hopes players training matches Super Rugby teams play domestic competition 13 Mitre 10 Cup provincial competition start full championship 11 Rugby potentially including Western Force Sunwolves competition Super Rugby start SNOOKER World Snooker Championship originally scheduled begin 18 start 31 Crucible Theatre Snooker resume United Kingdom 1 Championship League event fans Keynes SWIMMING 2020 Aquatics Championships scheduled Budapest postponed World Aquatics Championships scheduled 1 2021 pushed 2022 World Swimming Championships Abu Dhabi scheduled pushed TENNIS Open postponed 4 women Cup tournament Montreal postponed 2021 Professional tennis returned Tennis Point Exhibition Series event 1 Hurkacz Miomir Kecmanovic Opelka part UTR Pro Match Series began 8 Mouratoglou tennis academy host series starting Andreescu Kenin 16 WTA players launch Credit Bank Invitational Charleston 23 Djokovic bringing world top tennis players series matches run 5 Balkan region stage tennis tournament men players 3 World TeamTennis innovative professional tennis league start 5 Greenbrier 500 fans allowed attend matches ULTIMATE FIGHTING CHAMPIONSHIP UFC action returned cards 9 13 16 List sports events cancelled postponed due outbreak OLYMPIC TRIALS trials wrestling postponed Rowing postponed team trials diving trials postponed MLB delayed 2020 opening 26 Women National Basketball Association postponed start 2020 regular originally scheduled run 20 Hockey League AHL regular 2020 Cup Playoffs cancelled AHL standings time suspension determine league awards SOCCER FIFA agreed delay edition revamped Club World Cup due 2021 UEFA put club national team competitions men women hold notice men women Champions League finals Europa League final originally scheduled postponed biggest club competitions Copa Libertadores Copa Sudamericana suspended CONCACAF suspended competitions including Champions League men Olympic qualifiers Asian qualifying matches 2022 World Cup postponed hold games Barcelona women team declared champions Liga Iberdrola national soccer federation executive committee agreed end competitions Asian Football Confederation 14 postponed matches competitions scheduled notice CAF Champions league CAF Confederation Cup postponed International Champions Cup tournament featuring top clubs cancelled Cameroon cancelled rest league declared leaders PWD Bamenda champions top flight league called Connah Quay Nomads crowned champions cancelled remainder men women seasons champions crowned Women Super League Women Championship seasons cancelled 25 ATHLETICS League elite track competition forced cancel meeting scheduled previously postponed events cities scheduled Barcelona marathons postponed 2020 Athletics Championship due cancelled BADMINTON Badminton World Federation BWF cancelled tournaments qualification period Olympics Open host events cancelled tournaments months suspended Open set suspended BASEBALL final qualification tournament Olympics put qualification event postponed BASKETBALL International Basketball Federation postponed men Olympic qualifiers Championship Americas Championship cancelled basketball 11 top club basketball competitions EuroLeague EuroCup terminated naming winners BOXING world heavyweight title defence Bulgarian Kubrat Pulev Tottenham Hotspur stadium 20 postponed CRICKET Premier League originally suspended 15 postponed indefinitely games international series Hobart cancelled tours postponed boards agreed reschedule ODI series date test series Sri Lanka Indies postponed Cricket extended suspension professional game 1 tour Sri Lanka scheduled postponed proposed test tour postponed home series scheduled postponed CURLING Men women world championships cancelled World mixed doubles senior championships scheduled cancelled CYCLING final stages UAE Tour cancelled participants tested positive cycling ended stage Nice cancelled Women Tour scheduled cancelled Tour Britain scheduled cancelled GOLF Open Championship cancelled Tour cancelled BMW International Open Open de Scottish Open postponed Tour postponed cancelled events scheduled LPGA cancelled Tour qualifying Meijer LPGA Classic HANDBALL handball cancelled top clubs voted favour abandoning campaign men women EHF Cup Challenge Cup cancelled remaining women Euro 2020 qualifiers playoff matches 2021 men world championship cancelled HORSE RACING Grand National festival cancelled Dubai World Cup world richest horse races premier sporting event United Arab Emirates ahead Guineas Festival Newmarket Epsom postponed Ascot spectators Shergar Cup due 8 cancelled MOTOR SPORTS NASCAR postponed events Speedway International Speedway NASCAR Xfinity Series 30 Gander Trucks Series Motor Speedway previously scheduled 5 Bretagne World Rallycross Loheac scheduled cancelled Silverstone Classic scheduled 2 cancelled NETBALL Netball Superleague fixtures postponed 31 ROWING 2020 Rowing National Championships scheduled 2020 Rowing National Championships scheduled cancelled Rowing extended suspension events 31 Rowing Offshore Championships Sprints Rowing Championships cancelled RUGBY matches postponed rugby federation suspended competitions allowed return rugby suspended Professional Club Rugby postponed Champions Cup Challenge Cup matches final Champions Cup Challenge Cup tournaments due Marseille postponed Rugby Football Union governing body confirmed end league cup rugby Premiership excluded Super Rugby suspended World Rugby postponed test matches scheduled Rugby League Challenge Cup final scheduled 18 Wembley Stadium postponed SURFING World Surfing League extended postponement events announcing overhaul future tours details announced TABLE TENNIS International Table Tennis Federation ITTF scrapped table tennis competitions end TENNIS Wimbledon championships cancelled time World War Fed Cup finals Budapest postponed Laver Cup cancelled avoid clash Open ATP events Hamburg Bastad Cabos Gstaad Umag Kitzbuhel ahead scheduled WTA events Bastad Lausanne Bucharest Jurmala scheduled VOLLEYBALL international volleyball federation FIVB cancelled Volleyball League scheduled begin 19 women competition 22 men event cancelled volleyball 11 SPORTS International Ski Federation cancelled final races men Alpine skiing World Cup World Cup finals Cortina cancelled women races women world ice hockey championships cancelled Ice Hockey World Championship scheduled cancelled skating world championships postponed world figure skating championships Montreal cancelled Kontinental Hockey League KHL cancelled remainder temporarily suspending playoffs provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>38</v>
+      </c>
+      <c r="G79" t="n">
+        <v>11</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.5510203969179511</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.03034055725675507</v>
+      </c>
+      <c r="J79" t="n">
+        <v>17.095</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.1512138052062006</v>
+      </c>
+      <c r="L79" t="n">
+        <v>6.89848552208248</v>
+      </c>
+      <c r="M79" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="N79" t="n">
+        <v>2186</v>
+      </c>
+      <c r="O79" t="n">
+        <v>517</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5986</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4.050560457906034</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>blackassign0081</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/changing-landscape-and-emerging-trends-in-the-indian-it-ites-industry/</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Changing landscape and emerging trends in the Indian IT/ITeS Industry.
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+The COVID 19 pandemic has reshaped the fundamental fabric of our world. Initiating in China in late December 2019, the virus has since then spread to every corner of the world, infecting millions in its wake. Countries around the world have responded by shutting down their economies and advocating lockdowns of varying degrees. India has arguably had one of the most stringent lockdowns of all countries, restricting the movement of people, goods and effectively transforming every city into a ghost town.
+Due to such stringent restrictions on movement, the economy has received a fatal blow. The virus arrived in India at a time when the country was already in strife, dealing with a slowing GDP growth rate and an ever-increasing fiscal deficit. The lockdown has simply exacerbated the economic predicament; pushing multiple businesses and industries to a moribund state. Other countries have also faced a similar predicament, particularly in the US and Europe, both being hotspots for virus transmission.
+However, upon taking a closer look at the global economy, there seems to have been an upward mobilization in some of the sectors in the IT domain. These sectors seem to have exorbitantly increased their scale of operations and have overall reaped hefty profits. So what is it that differentiates these areas from the rest and what can we learn from them?
+If we look at the evolving IT/ITeS industry around the world, the domains that have flourished in this strenuous time all have had one key characteristic in common; flexibility. These sectors have adopted a more flexible approach to dealing with the lockdown. Be it flexible working procedures or adopting newer, more advanced ways of working in line with the requirements of our time, they haven’t shied away from changing the rules of the game. Let’s look at some of these areas within the tech domain that have been successful in conquering the lockdown.
+Lockdowns around the globe have confined people inside their homes, with nothing much to do of significance. As a result, social networking sites have reported a gigantic rise in user engagement over the lockdown period. Reportedly, there has been close to a 50% rise in daily text transmissions across messaging platforms such as Facebook, Instagram, and WhatsApp in the hardest-hit economies. Twitter has reported a 23% increase in its user base as compared to last year. The data makes it evident that social media platforms are here to reap the benefits of a lockdown situation.
+Video consumption sites such as YouTube, Instagram, and TikTok are in line to reap massive profits. It’s no wonder that viewership on these platforms has increased manifolds due to lockdowns. These platforms serve to be a distraction from the tragedies of the real world in such stressing times and offer an easy escape. Be it rumors regarding the cure for COVID 19, gossips, or rap battles; these platforms provide viewers with their much-needed dose of distractions. As they say, “ignorance is bliss”.
+The lockdown has proven to be a miracle for data-mining companies. With such an exorbitant increase in the number of hours spent online globally, these firms now have access to significantly larger sets of data than they otherwise could ever have. Widespread implementation of data-mining has been seen recently with most countries opting for Government-regulated surveillance applications that monitor your movement at all times. Moreover, these applications have access to your personal information as well as medical records. Countries such as South Korea and Singapore are at the helm of relying on such means to control the outbreak.
+Although noble, such initiatives do raise a red flag with regards to user privacy. The public has been provided with very little information about how these applications operate and what goes on behind the scenes. This creates an atmosphere of obscurity that is frankly harmful to the premise of a democracy.
+Cloud Computing
+Cloud computing has been on the rise for the last couple of years. However, the pandemic has made it the de facto king in terms of computational services. With an increasing reliance on remote working, the ability to store data in one secure location has turned out to be critical.
+The cloud computing services such as Amazon Web Services, Microsoft Azure, and Google Cloud have reaped hefty profits in the process. The emerging landscape in the tech world seems to suggest an upward trend in reliability on these services as far as large scale data storage and computing is concerned.
+Social distancing measures have made it practically impossible for people to physically go shopping for groceries and other necessities. Moreover, a majority of retail outlets in cities have reported negligible engagement, for the fear of transmission of the virus. E-commerce sites have been the real winners in this predicament of global consumerism.
+With high standards of hygiene and at-home delivery, these sites have provided an easy alternative to retail stores. Other similar businesses include food delivery apps and grocery sites that are also flourishing today amidst the pandemic. Recent weeks have made it evident that E-commerce websites are well on their way to abolish traditional shopping methods.
+Online streaming platforms consist of a relatively newer approach to entertainment; having only been in existence for the past couple of years. They had already, however, established a name for themselves before the lockdowns. Sites such as Netflix and Amazon Prime had been dominating a chunk of the market share and competing heavily with movie theatres for new releases, for a while now. Now with the lockdown practically deleting theatres and cable TV from the collective psyche of the entertainment industry, they are well on their way to becoming the platform of choice as far as entertainment for the masses is concerned.
+This has already become evident, with Zee5 India reporting a whopping 80% increase in subscriptions and a 50% increase in the time spent on their site, within the first couple of weeks of the lockdown itself. Another such platform MUBI reported a 28% rise in its viewership in India only a week after lockdown commenced. These facts are a clear indication of the exponential growth that is in store for these platforms, which is unlikely to change anytime soon.
+The idea of working from home is all set to be the new norm in our professional culture, which requires an easy and effective way to communicate over the internet. Not just audio or text, but video conferencing is the need today. Hence it’s understandable why multiple video conferencing services are set to reap massive profits off of the new norm.
+Arguably the most popular of these, Zoom has reported a 130% increase in its price share since the beginning of 2020. Another such platform known as the Microsoft Teams collaboration suite, operated by Microsoft, has reported a whopping 12 million increase in its user base in the very first week of the lockdown in the US. This data is only likely to have an upwards trajectory considering the increasing pace at which industries are going online.
+The Indian Picture
+The Indian IT landscape has also undergone massive cultural changes. According to Rajesh Gopinathan, chief executive officer and managing director of Tata Consultancy Services Ltd., the “work from home” model of operations is here to stay. He also claimed that the firms only requires a 25% workforce to be physically present for any project at any of the locations.
+Tata Consultancy Services which is one of the major players in the Indian IT landscape has shifted almost 90% of its workforce into a remote borderless workspace model, and other smaller firms have followed suit. What it tells us is that we’re headed in a direction we’re unlikely to return from. Remote working appears to be the modern protocol for operations and is unlikely to change anytime soon.
+However, a major challenge often overlooked in such circumstances is that of an adaptable culture. The culture of workspaces has to be drastically altered and members of the workforce have to dive headfirst into the new way of doing business. This is critical to ensure that the industry can combat the pandemic and recover gloriously.
+The lockdown has presented us with a stark contrast unlike any other we’ve witnessed. Where on the one hand, the industries mentioned above seem to be exhibiting exponential growth with their people thriving and having every possible resource at their disposal, the unorganized sector and the MSMEs (Micro, Small and Medium Enterprises) seem to be at the crux of death.
+The sector that consists of people for whom having guidelines to work from home is irrelevant as that was never really an option; people with no fixed wages or social security to fall back on during this time of crisis. As a result of the lockdown, several of these MSMEs have effectively become inoperable and have resorted to massive layoffs just to survive. This has resulted in thousands of workers losing their jobs with nowhere to go to for refuge. A chunk of these people includes migrant workers who have lost their jobs and are left with little to no avenue to feed themselves. Not receiving significant support from the government, these people have been initiating treks back to their villages. What is witnessed is a massive influx of migrant workers flooding the highways, walking weeks to find shelter and food. Truck drivers responsible for delivering goods have also resigned stating that they have no means to eat because of the closure of every food joint on the highways. Both these realities present a stark contrast and expose a deep crack in our societal framework. One I reckon won’t heal anytime soon.
+The COVID 19 pandemic has restructured our social fabric in a way that is unlikely to change anytime soon. The areas that we’ve discussed are likely to become the flagbearers of the digital revolution of the decade. An upward mobilization with regards to massive scale movement of industries online seems pertinent today being led by these domains in the IT industry. An unfortunate consequence of it is that a majority of the MSMEs may soon cease to exist, having been replaced by some of the other alternatives that we’ve discussed. It seems to be a never-ending circle where the ones who are making a profit out of this situation will continue to do so, while the others will be washed out from our collective memory.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Changing landscape emerging trends Industry Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist COVID 19 pandemic reshaped fundamental fabric world Initiating late 2019 virus spread corner world infecting millions wake Countries world responded shutting economies advocating lockdowns varying degrees arguably stringent lockdowns countries restricting movement people goods effectively transforming ghost town Due stringent restrictions movement economy received fatal virus arrived time strife dealing slowing GDP growth rate fiscal deficit lockdown simply exacerbated economic predicament pushing multiple businesses industries moribund countries faced similar predicament hotspots virus transmission taking closer global economy upward mobilization sectors domain sectors exorbitantly increased scale operations reaped hefty profits differentiates areas rest learn evolving industry world domains flourished strenuous time characteristic common flexibility sectors adopted flexible approach dealing lockdown flexible working procedures adopting newer advanced ways working line requirements time shied changing rules game areas tech domain successful conquering lockdown Lockdowns globe confined people inside homes significance result social networking reported gigantic rise user engagement lockdown period Reportedly 50 rise text transmissions messaging platforms Facebook Instagram WhatsApp economies Twitter reported 23 increase user base compared data makes evident social media platforms reap benefits lockdown situation Video consumption YouTube Instagram TikTok line reap massive profits viewership platforms increased manifolds due lockdowns platforms serve distraction tragedies world stressing times offer easy escape rumors cure COVID 19 gossips rap platforms provide viewers dose distractions ignorance lockdown proven companies exorbitant increase number hours spent online globally firms access significantly larger sets data Widespread implementation recently countries opting surveillance applications monitor movement times applications access personal information medical records Countries relying control outbreak initiatives raise flag user privacy public provided information applications operate scenes creates atmosphere obscurity frankly harmful premise democracy Computing computing rise couple years pandemic made de facto terms computational services increasing reliance remote working ability store data secure location turned critical computing services Amazon Web Services Microsoft Azure Google reaped hefty profits process emerging landscape tech world suggest upward trend reliability services scale data storage computing concerned Social distancing measures made practically impossible people physically shopping groceries necessities majority retail outlets cities reported negligible engagement fear transmission virus winners predicament global consumerism standards hygiene delivery provided easy alternative retail stores similar businesses include food delivery apps grocery flourishing today amidst pandemic Recent made evident websites abolish traditional shopping methods Online streaming platforms consist newer approach entertainment existence past couple years established lockdowns Netflix Amazon Prime dominating chunk market share competing heavily movie theatres releases lockdown practically deleting theatres TV collective psyche entertainment industry platform choice entertainment masses concerned evident Zee5 reporting whopping 80 increase subscriptions 50 increase time spent site couple lockdown platform MUBI reported 28 rise viewership lockdown commenced facts clear indication exponential growth store platforms change anytime idea working home set norm professional culture requires easy effective communicate internet audio text video conferencing today understandable multiple video conferencing services set reap massive profits norm Arguably popular Zoom reported 130 increase share beginning 2020 platform Microsoft Teams collaboration suite operated Microsoft reported whopping 12 increase user base lockdown data upwards trajectory increasing industries online Picture landscape undergone massive cultural Rajesh Gopinathan chief executive officer managing director Tata Consultancy Services work home model operations stay claimed firms requires 25 workforce physically present project locations Tata Consultancy Services players landscape shifted 90 workforce remote borderless workspace model smaller firms suit tells headed direction return Remote working appears modern protocol operations change anytime challenge overlooked circumstances adaptable culture culture workspaces drastically altered members workforce dive headfirst business critical ensure industry combat pandemic recover gloriously lockdown presented contrast unlike witnessed industries mentioned exhibiting exponential growth people thriving resource disposal unorganized sector MSMEs Micro Medium Enterprises crux death sector consists people guidelines work home irrelevant option people fixed social security fall time crisis result lockdown MSMEs effectively inoperable resorted massive layoffs survive resulted thousands workers losing jobs refuge chunk people includes migrant workers lost jobs left avenue feed receiving significant support government people initiating treks villages witnessed massive influx migrant workers flooding highways walking find shelter food Truck drivers responsible delivering goods resigned stating eat closure food joint highways realities present contrast expose deep crack societal framework reckon heal anytime COVID 19 pandemic restructured social fabric change anytime areas discussed flagbearers digital revolution decade upward mobilization massive scale movement industries online pertinent today led domains industry unfortunate consequence majority MSMEs cease exist replaced alternatives discussed circle making profit situation continue washed collective memory provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>39</v>
+      </c>
+      <c r="G80" t="n">
+        <v>43</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-0.04878048720999406</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.09590643263636675</v>
+      </c>
+      <c r="J80" t="n">
+        <v>21.92045454545455</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.2037325038880249</v>
+      </c>
+      <c r="L80" t="n">
+        <v>8.849674819737029</v>
+      </c>
+      <c r="M80" t="n">
+        <v>24.44318181818182</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1051</v>
+      </c>
+      <c r="O80" t="n">
+        <v>393</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3491</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>8</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4.531409958120056</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>blackassign0082</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/online-gaming-adolescent-online-gaming-effects-demotivated-depression-musculoskeletal-and-psychosomatic-symptoms/</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Online gaming: Adolescent online gaming effects demotivated, depression, musculoskeletal, and psychosomatic symptoms.
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+A video game is any software program that can be played on a computing device, such as a personal computer, gaming console, or mobile device. Video games have been in existence since the early 1970s and have become increasingly popular, spanning different mobile (smartphones, tablets) and stationary (computer or console) platforms. Advances, particularly in mobile devices, have given birth to social networks and group gaming
+Although the nature of gaming does not require physical stamina and therefore is not limited by factors such as age, gender, or fitness, it is most popular with adolescents. In 2018, the World Health Organization (WHO) classified gaming disorder in their International Classification of Diseases (ICD-11). The ICD-11 is a list of diseases and medical conditions that aids health professionals in making diagnoses and treatment plans for patients having various disorders. It should be noted that, the inclusion of gaming disorder in the ICD-11 by WHO has generated vigorous and sometimes contentious debate and discussion within the medical and mental health community. Although recognized as an area of clinical interest, the Diagnostic and Statistical Manual of Mental Disorders (DSM-5) published by the American Psychiatric Association suggests that more clinical research is required before Gaming Disorder is formally considered as a psychiatric disorder. Similarly, the WHO notes the inclusion of gaming disorder in ICD-11, to encourage more research into excessive gaming behavior, including its prevention and treatment.
+What is Online gaming disorder?
+2018 WHO draft 11th Revision of the ICD-11 denotes the disorder as a pattern of “digital-gaming” or “video-gaming” behavior characterized by impaired control over gaming activity, increasing priority given to gaming over other activities to the extent that gaming takes precedence over other interests and daily activities, and the continuation or escalation of gaming despite the occurrence of negative consequences.
+Online Gaming disorder has the same similarities with Internet gaming disorder (IGD), which is a condition that the American Psychiatric Association (APA) noted in DSM-5 as an area in need of additional study. The APA does not currently recognize IGD as an official condition. For gaming disorder to be diagnosed, the WHO criteria require that the behavioral pattern of the gamer must be of sufficient severity that major and noticeable impairment and deterioration in personal, family, social, educational, occupational or other important areas of functioning is present for a minimum of 12 months.
+According to the WHO definition, a person with online gaming disorder will demonstrate the following characteristics for at least 12 months; problems controlling control their gaming habits, seeing gaming as more important over other necessities and daily activities or work, continuing to engage in gaming even after its negative health and social problems has been identified or are evident. Further research shows that gaming disorders can also be linked to anxiety, depression, obesity, sleeping disorders, and stress. People who remain physically inactive for long periods because of gaming may also be at higher risk of obesity, sleep disorders, and other health-related issues, according to WHO [1].
+Video game-related health problems can cause continuous strain injuries, skin disorders, and other health issues. Other problems according to Shoja et al. (2007), include a condition that could be termed video game-provoked seizures in patients with pre-existing epilepsy. The following health consequences of video gaming have been reported.
+Video game playing is associated with eye problems. Extensive and fixed staring at a video game screen causes eyestrain because the cornea, pupil, and iris are not biologically equipped for chronic heavy viewing of digital images from electronic devices. The visual system strain from frequent video game use over extended periods may result in headaches, dizziness, and in some cases, nausea and vomiting. Interestingly, there is some research that shows that gamers have an enhancement of spatial distribution of attention, compared with non-gamers. This somewhat predictable practice effect occurs with both peripheral and central visual attention. For sufferers of amblyopia (dimness or blurring of the eyesight due to a fault in transmission from the eye to the brain) video games may be helpful.
+Persistent gamers may also suffer from musculoskeletal problems. A survey of children indicated increased physical complaints associated with video game playing. Such complaints range from pain in the hands and wrists to back and neck. Furthermore, a case report involving a nine-year-old teenager referenced Playstation thumb. Playstation thumb is, characterized by numbness and a blister is caused by friction between the thumb and the controller from rapid and persistent gameplay. Using dermoscopy, dermatologists discovered hemorrhages and onycholysis (the loosening or separation of a fingernail) in a patient who presented with hyperkeratosis. Also, tendon injuries (tendinosis) of the hands and wrists from tendon overuse, is another health problem associated with video game playing. Furthermore, another case report in the New England Journal of Medicine reported a fracture of the base of the fifth metatarsal from people who play Wii video games. This condition has been termed (perhaps sarcastically), a Wii fracture. There are also postural problems associated with the persistent playing of video games, although, ergonomic measures (including chair to monitor position) could potentially improve postural problems associated with video game playing.
+Playing video games consistently has been associated with obesity. This is maybe related to the lack of physical activity in players. Alternatively, it could be that those who are less physically fit because of obesity gravitate towards less physically demanding activities, such as gaming. In either case, several studies have linked television and video games and increased Body Mass Index (BMI). It has been estimated that children in the United States spend 25% of their waking hours watching either television or playing video games. Furthermore, children who watch the most hours of television or play video games have the highest incidence of obesity. If video games are replacing physical activities and young people do not participate in physical recreation or see playing of video games as a form of recreation, this may be part of the link between times spent while playing video games and a rise in BMI in teenagers. Evidence for this potential link gains some support from a German study reporting that boys who spend no more than 1.5 hours per day engaged in television watching or playing video games, were 75.4% less likely to be overweight than those who spend more than 1.5 hours engaged in the same activity.
+In a 2011 study, an association between video game activity and an increase of (mostly junk) food intake was reported. Specifically, single video game sessions caused an increase in food intake, regardless of appetite. It has also been suggested that active video game play using two popular gaming platforms has the opposite effect. Other researchers found no evidence that more active video games would result in a beneficial outcome although the study did demonstrate an increase in the amount of physical activity within the children receiving the active video games.
+Health concernsthat video gamesmay cause epileptic seizures started in the early 1980s. The first medically documented case of a video game-induced seizure was reported in 1981. In 1993, a story in the popular press (Sun newspaper) reported that a boy choked to death on his own vomit during a seizure triggered by playing a video game. Similar but less serious incidents were subsequently reported by news media around the world, ultimately motivating video game console manufacturers to include that epilepsy warnings in the instruction manuals for their gaming products. In 1994 it was reported that video games only cause seizures in people already predisposed to epilepsy and advised that people with a predisposition to epilepsy can greatly reduce the risk of a seizure by staying 10 feet or more away from the TV set and wearing sunglasses while playing video games. This is clearly an area in need of additional research.
+The cost: benefit value of prevention versus treatment of addiction disorders has been known for many years. It is important and beneficial to make use of several types of strategies in combating gaming addictiveness or disorder. Effective strategies include: educating gamers about gaming behaviors and consequences on their mental health; treatment geared towards helping the gamer to control his/her urge for video games, recognizing and dealing with disturbing thoughts and learning how to cope without video games; intrapersonal and interpersonal counseling to help gamers to explore their identity, build self-esteem, and enhance their emotional intelligence outside the fictional world of gaming and learning communication and assertiveness skills needed in social interactions; family involvement, including counseling and discussion family and other relationships; and developing new lifestyles. The latter is particularly important and to paraphrase the well-known mantra of Alcoholics Anonymous, it’s all about, people, places, and things. To prevent the persistent playing of video games, people need to explore new activities, set new goals and metrics of achievements beyond video game scores.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Online gaming Adolescent online gaming effects demotivated depression musculoskeletal psychosomatic symptoms Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist video game software program played computing device personal computer gaming console mobile device Video games existence 1970s increasingly popular spanning mobile smartphones tablets stationary computer console platforms Advances mobile devices birth social networks group gaming nature gaming require physical stamina limited factors age gender fitness popular adolescents 2018 World Health Organization classified gaming disorder International Classification Diseases list diseases medical conditions aids health professionals making diagnoses treatment plans patients disorders noted inclusion gaming disorder generated vigorous contentious debate discussion medical mental health community recognized area clinical interest Diagnostic Statistical Mental Disorders published Psychiatric Association suggests clinical research required Gaming Disorder formally considered psychiatric disorder Similarly notes inclusion gaming disorder encourage research excessive gaming behavior including prevention treatment Online gaming disorder 2018 draft 11th Revision denotes disorder pattern behavior characterized impaired control gaming activity increasing priority gaming activities extent gaming takes precedence interests activities continuation escalation gaming occurrence negative consequences Online Gaming disorder similarities Internet gaming disorder IGD condition Psychiatric Association APA noted area additional study APA recognize IGD official condition gaming disorder diagnosed criteria require behavioral pattern gamer sufficient severity noticeable impairment deterioration personal family social educational occupational important areas functioning present minimum 12 months definition online gaming disorder demonstrate characteristics 12 months problems controlling control gaming habits gaming important necessities activities work continuing engage gaming negative health social problems identified evident research shows gaming disorders linked anxiety depression obesity sleeping disorders stress People remain physically inactive periods gaming higher risk obesity sleep disorders issues 1 Video health problems continuous injuries skin disorders health issues problems Shoja 2007 include condition termed video seizures patients epilepsy health consequences video gaming reported Video game playing eye problems Extensive fixed staring video game screen eyestrain cornea pupil biologically equipped chronic heavy viewing digital images electronic devices visual system frequent video game extended periods result headaches dizziness cases nausea vomiting Interestingly research shows gamers enhancement spatial distribution attention compared predictable practice effect occurs peripheral central visual attention sufferers amblyopia dimness blurring eyesight due fault transmission eye video games helpful Persistent gamers suffer musculoskeletal problems survey children increased physical complaints video game playing complaints pain hands wrists neck report involving teenager referenced Playstation thumb Playstation thumb characterized numbness blister caused friction thumb controller rapid persistent gameplay dermoscopy dermatologists discovered hemorrhages onycholysis loosening separation fingernail patient presented hyperkeratosis tendon injuries tendinosis hands wrists tendon overuse health problem video game playing report Journal Medicine reported fracture base metatarsal people play Wii video games condition termed sarcastically Wii fracture postural problems persistent playing video games ergonomic measures including chair monitor position potentially improve postural problems video game playing Playing video games consistently obesity related lack physical activity players Alternatively physically fit obesity gravitate physically demanding activities gaming studies linked television video games increased Body Mass Index BMI estimated children United States spend 25 waking hours watching television playing video games children watch hours television play video games highest incidence obesity video games replacing physical activities people participate physical recreation playing video games form recreation part times spent playing video games rise BMI teenagers Evidence potential gains support study reporting boys spend hours engaged television watching playing video games overweight spend hours engaged activity 2011 study association video game activity increase junk food intake reported Specifically single video game caused increase food intake appetite suggested active video game play popular gaming platforms opposite effect researchers found evidence active video games result beneficial outcome study demonstrate increase amount physical activity children receiving active video games Health concernsthat video gamesmay epileptic seizures started 1980s medically documented video seizure reported 1981 1993 popular press newspaper reported boy choked death vomit seizure triggered playing video game Similar incidents subsequently reported news media world ultimately motivating video game console manufacturers include epilepsy warnings instruction manuals gaming products 1994 reported video games seizures people predisposed epilepsy advised people predisposition epilepsy greatly reduce risk seizure staying 10 feet TV set wearing sunglasses playing video games area additional research cost benefit prevention versus treatment addiction disorders years important beneficial make types strategies combating gaming addictiveness disorder Effective strategies include educating gamers gaming behaviors consequences mental health treatment geared helping gamer control urge video games recognizing dealing disturbing thoughts learning video games intrapersonal interpersonal counseling gamers explore identity build enhance emotional intelligence fictional world gaming learning communication assertiveness skills needed social interactions family involvement including counseling discussion family relationships developing lifestyles important paraphrase mantra Alcoholics Anonymous people places things prevent persistent playing video games people explore activities set goals metrics achievements video game scores provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>35</v>
+      </c>
+      <c r="G81" t="n">
+        <v>62</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-0.2783505125943246</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.1089887639224845</v>
+      </c>
+      <c r="J81" t="n">
+        <v>25.32307692307692</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2667071688942892</v>
+      </c>
+      <c r="L81" t="n">
+        <v>10.23591363678849</v>
+      </c>
+      <c r="M81" t="n">
+        <v>29.13846153846154</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1034</v>
+      </c>
+      <c r="O81" t="n">
+        <v>439</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3237</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4.830338266384778</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>blackassign0083</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/human-rights-outlook/</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Human Rights Outlook
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Read on to discover what our robot, Athena, has found on the future of this topic and act accordingly for you, your family, and organization in the years ahead. Make notes on issues that could affect you and them as you go.
+If you are new to foresight, we recommend youview this slide presentation firstto get the best out of this report
+Speed read Athena’s high-level take-outs on the left of each slide, or delve deeper into her findings on the right.
+For a more detailed explanation of the graphics used in this presentation please clickhere. All outlooks based on the time period 2020-2070 and what’s likely to be happening in 2025 at a 95% confidence level unless otherwise stated. Please contact us for longer-term outlooks.
+VIDEO SUMMARY
+To read more and for a video summary,click here
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Human Rights Outlook Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist discover robot found future topic act family organization years ahead Make notes issues affect foresight recommend youview slide presentation firstto report left slide delve deeper findings detailed explanation graphics presentation clickhere outlooks based time period happening 2025 95 confidence level stated contact outlooks VIDEO SUMMARY video summary provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>10</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.6666666111111158</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.06557377013347666</v>
+      </c>
+      <c r="J82" t="n">
+        <v>30.18181818181818</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2740963855421687</v>
+      </c>
+      <c r="L82" t="n">
+        <v>12.18236582694414</v>
+      </c>
+      <c r="M82" t="n">
+        <v>35.63636363636363</v>
+      </c>
+      <c r="N82" t="n">
+        <v>214</v>
+      </c>
+      <c r="O82" t="n">
+        <v>91</v>
+      </c>
+      <c r="P82" t="n">
+        <v>684</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4.680306905370844</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>blackassign0084</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/how-voice-search-makes-your-business-a-successful-business/</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>How Voice search makes your business a successful business.
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Finding ways to make using the Internet easier is something most modern consumers are passionate about. Since the rise of AI-infused technology like Amazon’s Alexa or Apple’s Siri, voice search has grown increasingly popular. In fact, nearly 60 percent of people all over the world use voice search at least once a day.
+As this technology grows more popular and complex with each passing day, business owners are starting to take notice of voice search. Capitalizing on this trend is only possible when optimizing the content on your website for voice search. Are you trying to make your website more voice search-friendly? If so, check out the following tips.
+In the past, if you wanted relevant answers from a voice recognition technology, well—good luck with that. But today, machine learning systems can compete with people in terms of accuracy. Google’s voice recognition, Google is now able to understand human language with 95 percent accuracy.These improvements mean that, while you can trust good voice systems to match customers with the right products, services, or information with increasing degrees of nuance, leading businesses already have set customer expectations for delivery. Thanks to machine learning algorithms that can detect speech and respond with meaningful results.
+Because voice search systems are at a point where they actually can perform reliably and meet customer expectations just as well (if not better) than traditional query options, customer trust in them is growing:
+Yet, only 4% of businesses are properly optimized for voice search. What’s with the disconnect? In other words, business leaders are at an ideal intersection where reliable systems are available and there are still many customers who haven’t been reached or who might want more out of the systems they currently use. Bringing those systems and customers together will help companies avoid being left behind.
+When people use voice search, they don’t just want to locate a great pair of shoes or a TV. People want all kinds of other information, such as your store hours, how to connect to support specialists, and when you’re having your next sale. This is partly why some experts have predicted a “totally different internet” within the next five to 10 years, one where voice-activated chatbots have all but replaced the e-commerce channels we’re used to using.
+Shoppers are also after general tips that can take some of the friction out of everyday life—think life hacks and how-tos. In fact, words like “how,” “what,” “best,” and “easy” are among the top voice search queries. This means that when it comes to online marketing, you probably need to change your entire optimization approach, taking elements like grammar and semantics, the structure of your site, and structured data markup that influences Google’s ability to find your content. Of course, optimizing from the start, not as an afterthought, is ideal.
+Voice Search can be used on both desktop and mobile searches. We can see that customers want different types of information from voice systems, they also can use it at many points in the customer journey. For example, about half of shoppers use voice to research products, even “near me” searches results are mostly done by customers. Customers also use voice to:
+These statistics show you should think beyond just having customers find you or your products. Voice search and commands can take your buyers from start to finish, so give your customers as much convenience and satisfaction as possible by integrating voice options into more types of interactions.
+A survey showed that, once a consumer makes a local voice search, their next most common action is to call the business (28%). Customers also are highly likely to visit company websites (27%), show up at the company’s location (19%), and do more research into that business or additional businesses (14% and 12%, respectively). So, in short, while voice services can allow a customer to complete many steps without human interaction, you shouldn’t see it as a total substitute. Many people are going to take further steps after the initial search, and they still will want to hear a human voice respond back once in a while. They are going to have more questions, and they’re willing to physically connect with you and what you offer. Don’t drop the ball in other areas, like making your site aesthetically pleasing and easy to navigate, having enough staff ready to chat, listing an accurate contact number, or keeping your store well-stocked. Voice search already is shifting the way customers engage with brands, but there’s still time for companies of any size to get involved with voice systems in ways that can benefit both the customer and the business’s bottom line. The next step is to find voice search solutions. However, as with other technologies, these are not necessarily one size fits all, meaning it’s critical to shop around and be specific about your goals. If you can customize and update your options in a scalable way, they’ll be even more effective for your business.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Voice search makes business successful business Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Finding ways make Internet easier modern consumers passionate rise technology Amazon Siri voice search grown increasingly popular fact 60 percent people world voice search technology grows popular complex passing business owners starting notice voice search Capitalizing trend optimizing content website voice search make website voice check tips past wanted relevant answers voice recognition technology today machine learning systems compete people terms accuracy Google voice recognition Google understand human language 95 percent improvements trust voice systems match customers products services information increasing degrees nuance leading businesses set customer expectations delivery machine learning algorithms detect speech respond meaningful results voice search systems point perform reliably meet customer expectations traditional query options customer trust growing 4 businesses properly optimized voice search disconnect words business leaders ideal intersection reliable systems customers reached systems Bringing systems customers companies avoid left people voice search locate great pair shoes TV People kinds information store hours connect support specialists partly experts predicted totally internet 10 years chatbots replaced channels Shoppers general tips friction everyday life hacks fact words easy top voice search queries online marketing change entire optimization approach taking elements grammar semantics structure site structured data markup influences Google ability find content optimizing start afterthought ideal Voice Search desktop mobile searches customers types information voice systems points customer journey half shoppers voice research products searches results customers Customers voice statistics show customers find products Voice search commands buyers start finish give customers convenience satisfaction integrating voice options types interactions survey showed consumer makes local voice search common action business 28 Customers highly visit company websites 27 show company location 19 research business additional businesses 14 12 voice services customer complete steps human interaction total substitute people steps initial search hear human voice respond questions physically connect offer drop areas making site aesthetically pleasing easy navigate staff chat listing accurate contact number keeping store Voice search shifting customers engage brands time companies size involved voice systems ways benefit customer business bottom line step find voice search solutions technologies necessarily size fits meaning critical shop specific goals customize update options scalable effective business provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>33</v>
+      </c>
+      <c r="G83" t="n">
+        <v>5</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.7368420858725767</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.07867494807727754</v>
+      </c>
+      <c r="J83" t="n">
+        <v>24.18604651162791</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.2009615384615385</v>
+      </c>
+      <c r="L83" t="n">
+        <v>9.754803220035779</v>
+      </c>
+      <c r="M83" t="n">
+        <v>28.55813953488372</v>
+      </c>
+      <c r="N83" t="n">
+        <v>604</v>
+      </c>
+      <c r="O83" t="n">
+        <v>209</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1928</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4.294213528932356</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>blackassign0085</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/how-the-covid-19-crisis-is-redefining-jobs-and-services/</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>How the COVID-19 crisis is redefining jobs and services?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+The pandemic has shaken the world in the way one had hardly imagined. The impact of it on Jobs and Services is going to be long-lasting and it will be the foundation stone of revolution in these sectors. With the work from home and social distancing norms is altering the way of work, the way we interact, what work we will do, how the work will be done, and whatnot. To just give an example, in the middle of the first lockdown, FMCG major Hindustan Unilever (HUL) went ahead with its merger. It took place online entirely. Yes, it took place online. Who could have ever imagined the merger can take place online?
+Change is inevitable. But some changes are temporary and some are permanent. The pandemic is bringing changes that are going to be permanent. In fact, these changes were due for a long time and we’re coming at a slow pace. What the pandemic has done is, it has become the catalyst for these changes and raised the ante for change. So, what exactly the changes will be? Let’s look at them one by one.
+The first change is going to be the extensive use of digital communication from now onwards. The Zoom, Jio Meet, Google Meet, and some derivatives like these are going to be the forever meeting rooms where the important discussions will be held. This may be bad news for the employees who are older than 40 years. They would not have pictured themselves doing such transformation at this part of life. Experts believe that the new normal in the offices are going to be hierarchy-less. The older employees would have to work with the younger ones. There would be no geographical boundaries and where the communication and software adaptability among employees is going to be crucial. The symbol of power will be less visible and the decentralization of power in the office will be prominent. There will be more egalitarianism in companies. The corporates will think much more about office space. Rather than expending too much on physical infrastructure, the online infrastructure will always be in their hindsight. The impact would be more prudent in small and mid-sized businesses. The physical offices itself might disappear from such businesses. But it’s not going to be easy for companies. The security and confidentiality of the authentic information going out of the offices’ building are going to be the largest concern in the new normal world. There would be no surprise if a lot of start-ups will bloom in the near future providing software for security for the data and information of the companies. Also, travel is going to be reduced. So, the major component of CTC where the companies fooling the employees must find the other way.
+The second change is going to be struck down on employees. Already many of the companies and start-ups are reducing the workforce. It is expected that new normal offices would work with an 80% workforce of that of the current workforce. Automation is on the verge. Due to safety reasons, the companies are going to be more and more leaned towards automation with a minimal touch of human possible. This might result in a loss of jobs in some sectors, but it will also create new jobs in the automation sector. It was evident from before pandemic too but now the velocity for the same would be increased. In the new normal tech-enabled world, the job which would be at stake dominantly would be managers’ managers. The IT firms have started firing the vice presidents and assistant vice presidents who draw hefty salaries but don’t really drive the business. In the designation-less set up in the near future accelerated by Pandemic, they automatically become redundant. For the first time, the employees might be given jobs that would require more than the standard jobs. Also, when the workforce in the company would be less in the company, the employees might be given the option of working for extra time or working on the weekends and would be incentivized for the same rather than employing more staff and paying them full salary. It is a win-win situation for both employees and companies. Employees can earn more than what they usually earn and will get to learn new which would be out of their primary domain. The companies would be able to keep their costs low through this. The assessment of employees might change too. Rather than going for an annual performance review, the employees might be evaluated based on the tasks they perform. Creativity and innovation are going to be swords for the employees in the new normal world rather than designations in the office.
+The other change might be in the services sector. The services like which involves maximum human touch will be the one which will be affected most adversely. The safety concerns and confidence of people over the system are going to be the issue for at least the next few years. It also opens the opportunity for something very new. The products which could replace the need for visiting such services centers are going to create a boom in the market. According to McKinsey, the sales for such products are multiplying rapidly.
+There are speculations that the economies will tend to become Minimalist economies. Let’s dig deep into this. Minimalist economies are the economies where people tend to refrain from purchasing luxurious items and focuses on purchasing necessities more and more.  Well, this is the position we are in right now during the pandemic. People are expensing only necessary items like groceries and the demand for luxurious items is way below average. But it would be hard to stay the same as this. The minimalist economy will result in the deterioration of the economy in the short term. It is true that in the minimalist economy the demand might be low, but it would be wrong to assume the demand will be zero. The high-quality products will gather the attention of the purchasers. It is evident from past experiences that the economy always finds its way to come back from the mode of minimalist economy. Though this time may take some time, it will surely return on track.
+But every trouble comes with an opportunity. This is the time for the companies to act now and grab the opportunities the pandemic has brought with him. But for that companies are required to follow plans, formulate strategies to suit their needs, and pay more attention to the innovation. The companies must form plans for the five stages from here. These stages are 5Rs: Resolve, Resilience, Return, Reimagination, and Reform.
+Resolve:In the resolve phase companies need to formulate a nerve center to combat Corvid itself. The tendency of the company should not be like that, they will return only after everything becomes normal. In most parts of the country, permission is granted to the companies for their operations. If they wait for normalcy, then bankruptcy might catch them before the normalcy.
+Resilience:The resilience phase includes maintaining liquidity, addressing solvency, and grow for sustainability. All businesses should know when their cash crunch is coming. Addressing these cash crunches will be crucial for the companies. Businesses must take aggressive options to remain solvent. For example, the businesses might have cash in their hand but might be poor in operational efficiency then it requires the attention of the company. Organizations solving issues of liquidity and solvency will be in a better position to grow with sustainability.
+Return:In the third phase of return the companies will have to plan for the time when everything will be back on track. Given the possibility of subsequent waves of coronavirus the companies need new ways of working to prevent, identify, report, and contain future flareups. Many industries will face this problem of returning. Staying prepared for resurgence scenarios should include a multi-scenario modeling exercise. Reverting to non-COVID-19 care will require extensive planning and market testing.
+Reimagine:The phase of reimagining will include the learnings from the pandemic. A small virus and the whole economy at the toss. The businesses will have to introspect them and must look for advancements in technologies such that this kind of pandemic in the future will not disturb their efficiency too much. The pandemic has taught us that the decision which took weeks and months in the normal world can be accelerated and can be taken in some days. This should become a permanent feature. Cross organizational collaboration has become much easier. This should stay in the long run.
+Reform:The last phase is the reform. In this phase, the companies should look at their bottlenecks and try to fix them. Also, the companies will have to reconsider their relationship with their customers. The confidence in their brands, they must regain it.
+There are three ways to shift work, talent, and skills to where and when they are needed most, thereby building the organizational resilience and agility necessary to navigate uncertain times and rebound with strength when the economy recovers.
+In this dismal situation it is more important than ever most of the staff should be in the critical tasks. The tasks could be like the customer complaints redressal. We know that the customers are the ones who make the businesses successful. Thus, retaining their confidence is the utmost priority. The organizations can convert some of the staff to address the queries and concerns of customers. The organizations require to create virtual offices. There should not be the geographical boundaries within the organization. The employees from all over the world from the organization should come together and take the organization back to pre-corvid state. By breaking out of rigid job constraints, the right talent and work can be matched to solve evolving business challenges in real-time.
+This was happening before the pandemic too. But accelerating it with pace has now become the need of the hour. The perception that automation is a job-killer is totally wrong and in fact, it is the mandatory capability to deal with the crisis. Organizations can increase automation in call centers. This will reduce the response time.
+Temporarily moving employees from some industries like airlines, restaurants, hospitality can be moved to those organizations which have maximum work at this time like healthcare and logistics.
+To conclude, the companies should understand “Lives come first, but livelihood matters”. The pandemic will have some adverse effects on jobs and services, but this is not the end. The pandemic has brought many opportunities with him and if they are grabbed then the organizations would be in much better position even compared to pre-corvid situations. The companies need to understand the pandemic is not going to be forever. The last concluding sentence will be corona will bring changes but there will not be a revolution in jobs and services.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>crisis redefining jobs services Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist pandemic shaken world imagined impact Jobs Services foundation revolution sectors work home social distancing norms altering work interact work work whatnot give middle lockdown FMCG Hindustan Unilever HUL ahead merger online online imagined merger online Change inevitable temporary permanent pandemic bringing permanent fact due time coming slow pandemic catalyst raised ante change change extensive digital communication onwards Zoom Jio Meet Google Meet derivatives forever meeting rooms important discussions bad news employees older 40 years pictured transformation part life Experts normal offices older employees work geographical boundaries communication software adaptability employees crucial symbol visible decentralization office prominent egalitarianism companies corporates office space expending physical infrastructure online infrastructure hindsight impact prudent businesses physical offices disappear businesses easy companies security confidentiality authentic information offices building largest concern normal world surprise lot future providing software security data information companies travel reduced component CTC companies fooling employees find change employees companies reducing workforce expected normal offices work 80 workforce current workforce Automation verge Due safety reasons companies leaned automation minimal touch human result loss jobs sectors create jobs automation sector evident pandemic velocity increased normal world job stake dominantly managers managers firms started firing presidents assistant presidents draw hefty salaries drive business set future accelerated Pandemic automatically redundant time employees jobs require standard jobs workforce company company employees option working extra time working weekends incentivized employing staff paying full salary situation employees companies Employees earn earn learn primary domain companies costs assessment employees change performance review employees evaluated based tasks perform Creativity innovation swords employees normal world designations office change services sector services involves maximum human touch affected adversely safety concerns confidence people system issue years opens opportunity products replace visiting services centers create boom market McKinsey products multiplying rapidly speculations economies tend Minimalist economies dig deep Minimalist economies economies people tend refrain purchasing luxurious items focuses purchasing necessities position pandemic People expensing items groceries demand luxurious items average hard stay minimalist economy result deterioration economy term minimalist economy demand wrong assume demand products gather attention purchasers evident past experiences economy finds mode minimalist economy time time surely return track trouble opportunity time companies act grab opportunities pandemic brought companies required follow plans formulate strategies suit pay attention innovation companies form plans stages stages 5Rs Resolve Resilience Return Reimagination Reform Resolve resolve phase companies formulate nerve center combat Corvid tendency company return normal parts permission granted companies operations wait normalcy bankruptcy catch normalcy Resilience resilience phase includes maintaining liquidity addressing solvency sustainability businesses crunch coming Addressing crunches crucial companies Businesses aggressive options remain solvent businesses poor operational efficiency requires attention company Organizations solving issues liquidity solvency position sustainability Return phase return companies plan time track possibility subsequent waves coronavirus companies ways working prevent identify report future flareups industries face problem returning Staying prepared resurgence scenarios include modeling exercise Reverting care require extensive planning market testing Reimagine phase reimagining include learnings pandemic virus economy toss businesses introspect advancements technologies kind pandemic future disturb efficiency pandemic taught decision months normal world accelerated days permanent feature organizational collaboration easier stay run Reform phase reform phase companies bottlenecks companies reconsider relationship customers confidence brands regain ways shift work talent skills needed building organizational resilience agility navigate uncertain times rebound strength economy recovers dismal situation important staff critical tasks tasks customer complaints redressal customers make businesses successful retaining confidence utmost priority organizations convert staff address queries concerns customers organizations require create virtual offices geographical boundaries organization employees world organization organization breaking rigid job constraints talent work matched solve evolving business challenges happening pandemic accelerating hour perception automation totally wrong fact mandatory capability crisis Organizations increase automation centers reduce response time Temporarily moving employees industries airlines restaurants hospitality moved organizations maximum work time healthcare logistics conclude companies understand Lives livelihood matters pandemic adverse effects jobs services end pandemic brought opportunities grabbed organizations position compared situations companies understand pandemic forever concluding sentence bring revolution jobs services provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>41</v>
+      </c>
+      <c r="G84" t="n">
+        <v>32</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.1232876695440045</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.09346991025163905</v>
+      </c>
+      <c r="J84" t="n">
+        <v>16.016</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.1938061938061938</v>
+      </c>
+      <c r="L84" t="n">
+        <v>6.483922477522476</v>
+      </c>
+      <c r="M84" t="n">
+        <v>18.024</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1039</v>
+      </c>
+      <c r="O84" t="n">
+        <v>388</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3482</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>6</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4.41829484902309</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>blackassign0086</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/how-to-increase-social-media-engagement-for-marketers/</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>How to increase social media engagement for marketers?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Social media is such a staple of our evolving digital culture that it’s almost hard to imagine a time without updates, likes, comments, and shares. People are more concerned about how their food looks than about how it tastes. Thus, it has become necessary for any brand to have a social media presence. The phrase “Out of sight, out of mind” has never been so apt than in today’s time. Social media is as much about engagement with other people as it is about sharing content. It’s why we call it “social” media.
+Social media engagement simply is the interaction between the customer and the brand on social media platforms. Where else are you going to find a huge database of your target demographic who are already in the mind frame to read, click on, and share your message?
+In practicality it is not about a one-off communication but more about the construction of a long-term relationship with your target customers. Hence, when we talk about such a relationship it is imperative to consider the positive actions of users as a reaction of any brand’s engagement tactics.
+A fundamental customer journey can be envisaged in the form of customer funnel. The touchpoints available at every step can be shown as:
+To understand the reach of social media by the use of numbers
+Most popular social networks worldwide as of July 2020, ranked by number of active users(in millions)
+How many retweets on Twitter? How many reactions to the post on Facebook? How many likes on Instagram? How many shares on Linked In? This seems to be the new age Resume.
+Thus, a good question or mystery for any brand is how to measure their social media engagement. As with most online actions, it’s often difficult to measure offline benefits. More often than not the online campaigns do not drive any conversions on the same day/week, but a user may see those posts and become more familiar with the brand. That familiarity, later on, might result in him choosing that brand over an unknown competitor. Social media engagement as a result helps businesses in developing their brand’s personality, improves visibility, and becomes its voice.
+Customers exhibit dynamic behavior based on the type of product. It could range from picking and variety-seeking to high involvement processes comprising extensive information search. Top of the mind recall rules due to this purchasing behavior implies that targeted advertising and marketing is extremely important. No one engagement strategy can be applied across brands. Each brand’s strategy must differ based on what the brand is trying to sell, its target customers, and the beliefs of the brand.
+Some of the key aspects of marketing strategy that we have influenced as vital cogs in the digital marketing wheel are:
+Influencer Marketing
+Influencer marketing involves a brand collaborating with an online influencer to market one of its products or services. Here the audience doesn’t care much about your brand but the opinions of the influencers.
+An influencer as being someone who has:
+2017 saw Chanel being named as the most influential luxury brand on social media. Since then, it has continued to grow and diversify its portfolio, while providing constant engagement to its plethora of followers, especially on Instagram.
+Cross-Channel Marketing
+Cross-channel marketing or multi-channel marketing is the practice of using multiple channels to reach an audience. Because not everyone uses every single platform, it’s a good idea to have a presence on a few, and share some of the same content across the different networks. What makes a difference in this marketing strategy is the choice of platforms. Apart from using basics like Facebook, Instagram, and Twitter a clever use of Spotify, YouTube, or IGTV to showcase the brand can make a real difference.
+The luxury vehicle brand, Land Rover’s cross-channel marketing includes the Google Display Network, homepage masthead and Masthead in Lightbox ads on YouTube, and visibility through mobile, search, and Google+. The brand’s digital campaign included four different influencers who created visual content for their blogs by taking trips to places like Glacier National Park and the Appalachian Mountains and Land Rover’s microsite. Their cross-channel efforts resulted in 100 million impressions from YouTube, and a 10% increase in search ad CTR. Further results found that online leads from its digital channel efforts now account for 15% of the brand’s total sales.
+Informative
+The content created on social media must add some value addition to the customers. The brand must constantly keep informing the customers about their existing products, new products, achievements of the brands, or even casual content. There should be “Wow, I didn’t know this” factor. Only then will they become regular followers of the brand.
+An example of this would be a cosmetic brand posting make-up tutorials. Fenty Beauty is one such prime example, which has built up to 1.4m followers within just 4 days of its launch, eventually garnering close to 10m followers, with Rihanna being one of their icons.
+Involving customers &amp; engaging them:
+“Customer is King” is a known concept. It is the foundation of traditional marketing. So while we shift to Social platforms brands must not forget them. Understanding their needs, addressing them, inviting them to respond and take part in the brand’s online activities while keeping it interesting and entertaining for the customer is the key.
+Founder and CEO of Glossier, Emily Weiss, described the brand as, “the first socially-driven beauty brand.” Glossier was certainly the pioneer in the term ‘Instagram brands’ – using the platform not only to build awareness but also to have focused conversation with the customer. Glossier often crowdsources product development, asking its Instagram followers what they’d like to see next.
+Dynamic
+The content creation must be dynamic and suitable for the current season, festival, or event that is happening. People must be able to relate to the posts and they must get excited after seeing it.
+Starbucks does a marvelous job when it comes to being dynamic. Their one-off recipes and continuous hype around seasonal events and related drinks have won them a silver IPA Effectiveness award for its social strategy in 2018. The launch of its now iconic ‘Unicorn Frappuccino’, spurred on the trend of brands deliberately creating ‘Instagrammable’ food and drink. As a result, there are now 557,232 posts using the hashtag #PumpkinSpiceLatte.
+Product focussed
+Now of course the real motive behind any marketing activity is to eventually sell the product. So it becomes extremely important to not lose the essence of the product while marketing. In simple terms, the content or strategy must not leave the customer confused about what the brand actually does or what it is trying to sell.
+To support the product-centric statement, Oreo is the best example. Oreo’s social media strategy has never diverged from its original formula. Completely product-focused and yet always creative, the brand continuously finds ways to put its cookies center stage. The ‘Daily Twist’ campaign to mark its 100th birthday, saw the brand turn its Oreo cookie into something of cultural relevance for 100 days, including Elvis Presley, a baseball, and a rainbow flag in support of Pride.
+Visuals
+“A picture is worth 1,000 words”. This adage has never been more apt than in the age of social media.  This is why visuals are so important in any marketing strategy. You can talk about a product all day, but until you’re able to put it in front of someone’s eyes, it’s not going to have nearly the same effect. Visual content marketing is a great way to make this happen and can be broken down into six basic types- comics, memes, infographics, photos, videos and visual note-taking.
+Coca-Cola has been a leader and trendsetter in the visual content marketing space for years. The 2020 initiative video paved the way for multiway communication, as opposed to the single way process that was prevalent.
+Product demonstration:
+The barrier for electronic platforms has always been the loss of touch. Customers often complain that till they don’t touch, try or test the product they are not convinced if they want to purchase it. This can also be true for products that are new and the customers need to be educated about its use. Hence it becomes important for brands to bridge this gap as far as possible through their online medium.
+Product demonstrations are considered one of the most promising and upcoming applications of AR technology, giving brands a way to provide an immersive experience to consumers. Gucci partnered with Snapchat for the first global branded AR shoe try on the lens, hugely increasing fanfare!
+Social message
+Corporate Social Responsibility should not be missed when it comes to social media engagement. If a brand has the reach to spread awareness then they must use it. Creating content to spread social awareness adds an emotional touch too. If a customer connects with a brand on an emotional level its hard for competitors to break it.
+Dove’s steady and impactful social message still stands out as marketing that’s more than just marketing. The ‘Real Beauty’ campaign has been refreshed multiple times since it first launched in 2004. Dove’s latest campaign once again highlighted the core message, going far beyond surface aesthetic to focus on the beauty of real human values. The ‘Courage is Beautiful’ campaign successfully honored the healthcare workers who have been working selflessly throughout the 2020 pandemic.
+The fact remains that the share of mind and voice are key elements to being the dominant force in the world today. Social media marketing has leveraged all the elements and made its presence felt in every customer engagement. Finding unique ways to really stand out among the competition is key to a successful digital marketing strategy. Newer and more customized tools to feel the pulse of the market come up every single day, to meet the ever-changing needs of marketing heads. At the end of the day, ‘customer is indeed king’. And companies would do well to remember it!
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>increase social media engagement marketers Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Social media staple evolving digital culture hard imagine time updates likes comments shares People concerned food tastes social media presence phrase sight mind apt today time Social media engagement people sharing content social media Social media engagement simply interaction customer social media platforms find huge database target demographic mind share message practicality communication construction relationship target customers talk relationship imperative positive actions users reaction engagement tactics fundamental customer journey envisaged form customer funnel touchpoints step shown understand reach social media popular social networks worldwide 2020 ranked number active users millions retweets Twitter reactions Facebook likes Instagram shares Linked age Resume question mystery measure social media engagement online actions difficult measure offline benefits online campaigns drive conversions user posts familiar familiarity result choosing unknown competitor Social media engagement result helps businesses developing personality improves visibility voice Customers exhibit dynamic behavior based type product picking involvement processes comprising extensive information search Top mind recall rules due purchasing behavior implies targeted advertising marketing extremely important engagement strategy applied brands strategy differ based target customers beliefs aspects marketing strategy influenced vital cogs digital marketing wheel Influencer Marketing Influencer marketing involves collaborating online influencer market products services audience care opinions influencers influencer 2017 named influential luxury social media continued diversify portfolio providing engagement plethora followers Instagram Marketing marketing marketing practice multiple channels reach audience single platform idea presence share content networks makes difference marketing strategy choice platforms basics Facebook Instagram Twitter clever Spotify YouTube IGTV showcase make difference luxury vehicle Rover marketing includes Google Display Network homepage masthead Masthead Lightbox ads YouTube visibility mobile search digital campaign included influencers created visual content blogs taking trips places Glacier National Appalachian Mountains Rover microsite efforts resulted 100 impressions YouTube 10 increase search ad CTR results found online leads digital channel efforts account 15 total Informative content created social media add addition customers constantly informing customers existing products products achievements brands casual content Wow factor regular followers cosmetic posting tutorials Fenty Beauty prime built followers 4 days launch eventually garnering 10m followers Rihanna icons Involving customers engaging Customer concept foundation traditional marketing shift Social platforms brands forget Understanding addressing inviting respond part online activities keeping interesting entertaining customer Founder CEO Glossier beauty Glossier pioneer term Instagram brands platform build awareness focused conversation customer Glossier crowdsources product development Instagram followers Dynamic content creation dynamic suitable current festival event happening People relate posts excited Starbucks marvelous job dynamic recipes continuous hype seasonal events related drinks IPA Effectiveness award social strategy 2018 launch iconic Unicorn Frappuccino spurred trend brands deliberately creating Instagrammable food drink result posts hashtag PumpkinSpiceLatte Product focussed motive marketing activity eventually product extremely important lose essence product marketing simple terms content strategy leave customer confused support statement Oreo Oreo social media strategy diverged original formula Completely creative continuously finds ways put cookies center stage Twist campaign 100th birthday turn Oreo cookie cultural relevance 100 days including baseball rainbow flag support Visuals picture words adage apt age social media visuals important marketing strategy talk product put front eyes effect Visual content marketing great make happen broken basic comics memes infographics photos videos visual leader trendsetter visual content marketing space years 2020 initiative video paved multiway communication opposed single process prevalent Product demonstration electronic platforms loss touch Customers complain till touch test product convinced purchase products customers educated important brands gap online medium Product demonstrations considered promising upcoming applications AR technology giving brands provide immersive experience consumers Gucci partnered Snapchat global branded AR shoe lens hugely increasing fanfare Social message Corporate Social Responsibility missed social media engagement reach spread awareness Creating content spread social awareness adds emotional touch customer connects emotional level hard competitors break steady impactful social message stands marketing marketing Beauty campaign refreshed multiple times launched 2004 latest campaign highlighted message aesthetic focus beauty human values Courage Beautiful campaign successfully honored healthcare workers working selflessly 2020 pandemic fact remains share mind voice elements dominant force world today Social media marketing leveraged elements made presence felt customer engagement Finding unique ways stand competition successful digital marketing strategy Newer customized tools feel pulse market single meet marketing heads end customer companies remember provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>55</v>
+      </c>
+      <c r="G85" t="n">
+        <v>16</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.5492957669113272</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.08658536574806663</v>
+      </c>
+      <c r="J85" t="n">
+        <v>19.38541666666667</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.2106394411606663</v>
+      </c>
+      <c r="L85" t="n">
+        <v>7.838422443130934</v>
+      </c>
+      <c r="M85" t="n">
+        <v>22.36458333333333</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1057</v>
+      </c>
+      <c r="O85" t="n">
+        <v>392</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3373</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4.336287313432836</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>blackassign0087</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/impacts-of-covid-19-on-streets-sides-food-stalls/</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Impacts of COVID 19 on Streets Sides Food Stalls
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Petty Entrepreneurs like Streetside Food Stalls form an essential part of an economy that plays a significant role in balancing the development of a nation’s economy. The importance of street food vendors not only helps in increasing the country’s per capita income but also helps to make a living for the unemployed in society with a limited investment. Most of them are the sole breadwinners for their families. So, with the Covid-19 wreaking havoc, the uncertainty of the lockdown policies increased the concern of people over hygiene and the lack of investment to upgrade their businesses to provide better hygiene facilities that can take away food from their mouths.
+Various states have provided relief packages and support but, in a country, as populous as ours, it has hardly been appropriately implemented. Delhi, for instance, recently announced a rupee 500 million stimulus package to nearly 500,000 rupees, recognizing the severe consequences of the loss of livelihoods. The seller’s intended remedy is a credit loan that provides all sellers with an initial working capital of Rs 10,000, but this is not enough. Instead of loans, the government should consider converting them directly into income benefits, cash subsidies to secure a livelihood in order to initiate income-generating activities on a regular basis. Sellers need income support to get back to work, and if they can’t, they will never be able to repay the loan amount. In an ever-changing crisis, organizations need to take a step forward and ensure that providers are provided with the resources they need to make a living. Pandemics have had a vast economic impact on every sector, but the most vulnerable sectors, such as street vendors, suffer the most. Decreased income can affect most necessities, such as payments to family and yourself. Due to a lack of fixed salaries, stalls cannot quit their jobs. If possible, it might be only a few days, unlike regular employees. For them, the risk of infection is far less frightening than hunger.
+Unlike many of the businesses, most of these food vendors lack the infrastructure to go online and sell products through platforms like Swiggy or Zomato.
+“Regret not going digital before,”says Dilip Das, a Street side food stall owner at Sector V, Kolkata. Dilip Das used to run a small streetside food stall that provided meals to all the employees around the area which is filled with multinational companies. It was a booming business till the arrival of Covid. Then with the lockdown arriving, almost all the companies opted for Work from Home policies. Dilip tried to start deliveries, but with a lack of support and fear of infection, that business ended before it even started.
+Citing similar reasons, Swapan Mondal, who runs a south Indian food stall at Park Street said that he did know how to operate a smartphone. And since sales were good, he did not care about learning either. But with the implementation of lockdown which took place within 4 hours, people like Swapan barely had time to cope with the changes.
+Furthermore, the Covid 19 pandemic made people realize how important trains are in our life. With most of the train network suspended, the entire supply chain was disrupted. Hundreds of quintals of food products rotted away, awaiting the logistical issues to fix. Many businesses could not afford to run without proper supplies as well.
+To handle such issues, vendors organizations may consider the following solutions:
+Promotion of livelihood for all vendors, including sellers of non-essential goods
+The impact of COVID19 was extremely severe for informal workers who ran out of capital and income and to try to feed themselves during this long embargo. Sellers need to be able to resume sales in order to survive, and governments need to take steps to reopen the market and bring sellers back to the business.
+Reopening of Markets keeping in mind social distancing and hygiene
+India has different types of traditionally crowded markets, even weekly markets (fresh food, cooked food, and essentials) and daily roadside markets. These markets have to reopen with the need for social distance in mind, and the government needs to publish guidelines for that. In the future, sales areas will also need to be designed with social distance and the need for adequate sanitation (running water, wash areas, toilets) in mind. Authorities need to work with the Town Bending Commission (TVC).
+Provision of direct support that is devoid of existing registration requirements
+Once the restrictions are lifted and the impact of Covid 19 is somewhat manageable, sellers who have been at home for months will need direct income benefits to help them to return to work. The government initiative is a welcome move, but not in terms of the type of bailout and eligibility is enough. In addition, there are very few registered providers in India, so government relief and support must be separated from the very strict registration requirements. In Delhi alone,  of the approximately 300,000 street vendors, only approximately 13100 have some sort of professional ID. If all types of cash grants or livelihood support standards relate to job identification by the state,  the government must also accept registration with workers’ organizations/unions on behalf of government-issued sales badges.
+Ensuring social distancing and proper sanitation and hygiene at sites of businesses
+The government and municipal corporations need to take the initiative and running water, and soap/sanitizers need to be provided for street vendors at their place of work. Moreover, the streetside food vendors should work with food safety authorities in the country to train themselves in different ways to maintain hygiene whilst working.
+Taking steps to spread awareness of different government initiatives and reliefs
+Many small businessmen and food vendors do not even know their rights and the benefits they can claim. If they did, many still have no idea about how to claim them. Proper awareness camps need to be set up to help these small-time food vendors to know how they can get assistance and help from the government and return back to the business.
+When Covid was an unknown word, these shopkeepers and vendors brought the taste to our mouth, gave us memories to live for, filled our bellies, and quenched our thirst when we needed them. It’s time to provide them with a hand now when they need it.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Impacts COVID 19 Streets Food Stalls Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Entrepreneurs Streetside Food Stalls form essential part economy plays significant role balancing development economy importance food vendors helps increasing capita income helps make living unemployed society limited investment sole breadwinners families wreaking havoc uncertainty lockdown policies increased concern people hygiene lack investment upgrade businesses provide hygiene facilities food mouths states provided relief packages support populous appropriately implemented instance recently announced rupee 500 stimulus package rupees recognizing severe consequences loss livelihoods seller intended remedy credit initial working capital Rs loans government converting directly income benefits subsidies secure livelihood order initiate activities regular basis income support work repay amount crisis organizations step forward ensure providers provided resources make living Pandemics vast economic impact sector vulnerable sectors vendors suffer Decreased income affect necessities payments family Due lack fixed salaries stalls quit jobs days unlike regular employees risk infection frightening hunger Unlike businesses food vendors lack infrastructure online products platforms Swiggy Zomato Regret digital Dilip Das side food stall owner Sector Kolkata Dilip Das run streetside food stall provided meals employees area filled multinational companies booming business till arrival Covid lockdown arriving companies opted Work Home policies Dilip start deliveries lack support fear infection business ended started Citing similar reasons Swapan Mondal runs food stall operate smartphone care learning implementation lockdown 4 hours people Swapan barely time Covid 19 pandemic made people realize important trains life train network suspended entire supply chain disrupted Hundreds quintals food products rotted awaiting logistical issues businesses afford run proper supplies handle issues vendors organizations solutions Promotion livelihood vendors including goods impact COVID19 extremely severe informal workers ran capital income feed embargo resume order survive governments steps reopen market bring business Reopening Markets keeping mind social distancing hygiene types traditionally crowded markets markets fresh food cooked food essentials roadside markets markets reopen social distance mind government publish guidelines future areas designed social distance adequate sanitation running water wash areas toilets mind Authorities work Town Bending Commission TVC Provision direct support devoid existing registration requirements restrictions lifted impact Covid 19 manageable home months direct income benefits return work government initiative move terms type bailout eligibility addition registered providers government relief support separated strict registration requirements approximately vendors approximately 13100 sort professional ID types grants livelihood support standards relate job identification government accept registration workers behalf badges Ensuring social distancing proper sanitation hygiene businesses government municipal corporations initiative running water provided vendors work streetside food vendors work food safety authorities train ways maintain hygiene whilst working Taking steps spread awareness government initiatives reliefs businessmen food vendors rights benefits claim idea claim Proper awareness camps set food vendors assistance government return business Covid unknown shopkeepers vendors brought taste mouth gave memories live filled bellies quenched thirst needed time provide provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>36</v>
+      </c>
+      <c r="G86" t="n">
+        <v>34</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.02857142816326531</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.1194539247108295</v>
+      </c>
+      <c r="J86" t="n">
+        <v>24.45098039215686</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.2076984763432237</v>
+      </c>
+      <c r="L86" t="n">
+        <v>9.863471547400035</v>
+      </c>
+      <c r="M86" t="n">
+        <v>27.82352941176471</v>
+      </c>
+      <c r="N86" t="n">
+        <v>741</v>
+      </c>
+      <c r="O86" t="n">
+        <v>259</v>
+      </c>
+      <c r="P86" t="n">
+        <v>2241</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4.494358251057828</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>blackassign0088</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/coronavirus-impact-on-energy-markets-2/</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Coronavirus impact on energy markets
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+The coronavirus, also known as COVID-19, is not only a global public health emergency but also a source of significant regional and increasingly global economic disruption. This impacts the energy and climate world in many ways. The economic downturn puts pressure on global oil prices leading the Organization of Petroleum Exporting Countries (OPEC) to consider further cuts to production. It hurts the demand for natural gas during a time of extremely low prices. It changes the economic, energy, and climate policymaking environment in China, one of the most consequential energy consumers and sources of greenhouse gas emissions. And it has temporarily disrupted supply chains throughout the energy industry, including renewable energy, at a time when supply chain connections with China were being revaluated due to ongoing tariff and trade disputes. How consequential or transformative any of these changes are for the energy sector or for climate efforts will depend upon the ultimate trajectory of the virus outbreak itself
+—Sarah Ladislaw, Senior Vice President and Director, Energy Security and Climate Change Program
+The energy sector has already felt the impacts of the coronavirus. The outbreak has contributed to a dampened demand for oil, resulting in plummeting oil prices and production declines. As we move forward, then, the energy sector expects to face two headwinds: managing the issues of the health emergency all sectors face, and simultaneously coping with a low oil-price scenario, lower demand and the need to shore up revenue and manage debt obligations.
+IMPACT OF COVID-19 ON INDIAN ENERGY MARKETS
+In India, distribution utilities have a lower tariff for domestic and agricultural consumers, sometimes even below the average cost of supply, as compared to that for commercial and industrial consumers. Table 1 provides the electricity tariff rates in Delhi for selected consumer categories to highlight these differences. Thus, for several distribution companies, the lower tariff-paying consumers are cross-subsidized by commercial and industrial consumers.
+The COVID-19 lockdown has led to shut down of all but essential commercial activities across the country. Approximately 1.3 billion citizens are obliged to remain within the confines of their homes and, in many cases, only allowed to work from home. Consequently, the electricity demand from industrial and, commercial customers has reduced significantly while the residential demand is expected to have increased. According to the Power System Operation Corporation of India (POSOCO), The energy met on March 16th, 2020 – which can be considered as a business-as-usual scenario – was 3494 MU as compared to 3113 MU on March 23rd, 2020 a day of voluntary curfew. It further reduced to a range between 2600-2800MU between March 25thto March 31st, 2020. This trend is illustrated in the below Figure 1.
+Thus, firstly, a key risk from the COVID-19 pandemic for the already struggling distribution companies in India arises from the loss of revenues due to the reduction of demand from the commercial and industrial customers as well as the inability to cover the cross-subsidies provided to the lower-tariff paying consumer. Secondly, the utilities would also have to account for the expense to comply with any ‘must buy’ commitments that they have with generators with long-term power purchase agreements. The true and full extent of this risk would only be known once a quantitative analysis is conducted when this crisis situation is contained. Thirdly, at an operational level, distribution companies would have to account for deviation in demand and supply patterns at a temporal and locational level. Finally, during this period, critical infrastructure such as electricity networks would have to be run with minimum employees.
+As seen in Figure 1, the trade on the wholesale power market comprises just 4.3 percent of the total electricity transactions. However, the transactions through the power exchanges have grown over the last decade. The Indian Energy Exchange (IEX) has seen a growth from 2616 MU in FY 2009 to 52,241 in FY 2019.
+Until now, the trade in the wholesale market is in four market segments:
+1) Day-Ahead Market
+2) Term Ahead Market
+3) Renewable Energy Certificates
+4) Energy-saving certificates.
+Recently, the Central Electricity Regulatory Commission (CERC) finalized the regulations for implementing real-time markets. This half-hourly market will enable the intra-day trade of electricity, allowing adjustment of generation and consumption profile during the day. Before the COVID-19 pandemic, it was announced by CERC that the real-time market would be operational from April 1st, 2020. However, the starting date has now been delayed by two months to June 1st, 2020. According to media reports, due to the COVID-19 pandemic, some required trials could not be completed. This delay in the real-time market implementation is likely to have a serious, adverse impact on the Indian power market.
+Another impact of the COVID-19 pandemic on the power markets is in terms of the market dynamic. It can be observed that there is a dip in the clearing volume and the market-clearing price, which coincides with the gradually increasing shutdown measures taken by the government as a response to COVID-19 (See Figure 2). Thus, the reduction in demand due to the lockdown is reflected in the volumes traded on the electricity market and the clearing price.
+Another point of reference is the price and clearing volume in 2019. On March 22nd, 2020, the day of voluntary lockdown, the clearing volume was 97.05 GWh, and the clearing price was 2195.48 ₹ /MWh. In comparison, on the same day in 2019, the clearing volume was 107.98 GWh, and the clearing price was 2816.18 ₹ /MWh. From the start of the lockdown, from March 25nd to April 1st 2020, the average clearing volume was 104.27 GWh compared to 130.24 GWh in 2019 during the same period. Similarly, the average market clearing price was 2155.93 ₹ /MWh in 2020 as compared to 3371.025 ₹ /MWh in 2019 for the same period.
+VIEWS OF THE SHAREHOLDERS IN INDIA
+The lockdown has resulted in a shutdown of the industrial and commercial establishments and the stoppage of passenger railway services. This has adversely impacted the all India electricity demand, given that these segments constitute about 40% of the all India electricity demand, a statement issued by the rating firm said.
+Further, these segments account for an even greater percentage of the Discoms sales revenues given that they are the subsidizing segments. This apart, with the focus of state governments being on healthcare and relief measures, the likelihood of subsidy support to the Discoms getting deferred cannot be ruled out, it added.
+ICRA Ratings Group Head and Senior Vice President – Corporate ratings Sabyasachi Majumdar said, “The lockdown imposed by the government is likely to adversely impact the all India electricity demand, with demand expected to decline by about 20-25% on a year-on-year basis during the period of lockdown. This would in turn adversely impact the revenues and cash collections for distribution utilities in the near term, especially given the consumption decline from the high tariff paying industrial and commercial consumers and likely delays in cash collections from other consumer segments. The revenue deficit for the Discoms is estimated to be about Rs. 130 billion per month, on an all India basis. This would in turn adversely impact the liquidity profile of the Discoms, increase their subsidy requirement, and lead to delays in payments to the power generation and transmission companies.”The power ministry on Friday issued directors to the Central Electricity Regulatory Commission to provide a moratorium of three months to Discoms on payments to power generation and transmission companies.
+The power ministry on Friday issued directors to the Central Electricity Regulatory Commission to provide a moratorium of three months to Discoms on payments to power generation and transmission companies and requested state governments to issue similar directions to state electricity regulators.
+The power generation companies are already suffering delays in payments by Discoms across the majority of states, with payment due of more than Rs 85000 crore as of November 2019 at all India level as per the data on PRAAPTI portal.
+With COVID-19 lockdown accentuating the delays in payments, the availability of adequate liquidity buffer in the form of debt service reserve and undrawn working capital limits remains important from a credit perspective.
+However, it said that relief measures such as a moratorium on debt servicing over a 3-month period as notified by Reserve Bank of India and expected moderation in the interest rate cycle would be a source of comfort in the near term. The timely approval of the moratorium by the boards of the banks and financial institutions remains crucial.
+The revenues for power generation companies having long-term power purchase agreements (PPAs) with the state distribution utilities (Discoms) will be protected by the provision for capacity charges linked to plant availability in case of thermal and large hydropower projects and “must-run” status in case of nuclear and renewable power projects.Average monthly thermal PLF would further dip to 50-52% against 63% in the corresponding period of the previous year, due to a considerable drop in demand and consequently, power generation companies especially those without any long-term PPAs would be adversely impacted given the weakening of the power tariffs in the short-term / power exchange market, said ICRA Ratings Sector Head &amp; Vice President GirishkumarKadam.The under-construction renewable power projects as well as EPC and manufacturing companies in the solar segment are likely to face execution delays because of disruption in the supply chain in India and labor availability, following the lockdown. Given the import dependency on China for sourcing PV modules, the execution timelines for the ongoing solar projects are likely to be affected by delays in the delivery of PV modules following the outbreak of COVID 19 in China.
+This delay in turn would increase the pre-operative expenses and the overall project cost, which in turn would have an impact on the expected returns.
+In this context, the MNRE has notified that time extension can be provided for all renewable energy projects, which are impacted by the supply chain disruption due to the COVID outbreak, under the force majeure clause.
+“Given the execution headwinds amid COVID 19 affecting Q1 of FY2020-21 and assuming the normalcy thereafter, the capacity addition in the wind and solar segments together is likely to degrow by about 25%, thus estimated at about 8 GW against earlier estimates of 11 GW in FY2020-21,” said Kadam.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Coronavirus impact energy markets Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist coronavirus global public health emergency source significant regional increasingly global economic disruption impacts energy climate world ways economic downturn puts pressure global oil prices leading Organization Petroleum Exporting Countries OPEC cuts production hurts demand natural gas time extremely prices economic energy climate policymaking environment consequential energy consumers sources greenhouse gas emissions temporarily disrupted supply chains energy industry including renewable energy time supply chain connections revaluated due ongoing tariff trade disputes consequential transformative energy sector climate efforts depend ultimate trajectory virus outbreak Ladislaw Senior President Director Energy Security Climate Change Program energy sector felt impacts coronavirus outbreak contributed dampened demand oil resulting plummeting oil prices production declines move forward energy sector expects face headwinds managing issues health emergency sectors face simultaneously coping scenario demand revenue manage debt obligations IMPACT ENERGY MARKETS distribution utilities tariff domestic agricultural consumers average cost supply compared commercial industrial consumers Table 1 electricity tariff rates selected consumer categories highlight differences distribution companies consumers commercial industrial consumers lockdown led shut essential commercial activities Approximately citizens obliged remain confines homes cases allowed work home electricity demand industrial commercial customers reduced significantly residential demand expected increased System Operation Corporation POSOCO energy met 16th 2020 considered scenario 3494 MU compared 3113 MU 23rd 2020 voluntary curfew reduced 25thto 31st 2020 trend illustrated Figure 1 firstly risk pandemic struggling distribution companies arises loss revenues due reduction demand commercial industrial customers inability provided paying consumer utilities account expense comply buy commitments generators purchase agreements full extent risk quantitative analysis conducted crisis situation contained Thirdly operational level distribution companies account deviation demand supply patterns temporal locational level Finally period critical infrastructure electricity networks run minimum employees Figure 1 trade wholesale market comprises percent total electricity transactions transactions exchanges grown decade Energy Exchange IEX growth 2616 MU FY 2009 FY 2019 trade wholesale market market segments 1 Market 2 Term Ahead Market 3 Renewable Energy Certificates 4 certificates Recently Central Electricity Regulatory Commission CERC finalized regulations implementing markets market enable trade electricity allowing adjustment generation consumption profile pandemic announced CERC market operational 1st 2020 starting date delayed months 1st 2020 media reports due pandemic required trials completed delay market implementation adverse impact market impact pandemic markets terms market dynamic observed dip clearing volume coincides gradually increasing shutdown measures government response Figure 2 reduction demand due lockdown reflected volumes traded electricity market clearing point reference clearing volume 2019 22nd 2020 voluntary lockdown clearing volume GWh clearing comparison 2019 clearing volume GWh clearing start lockdown 25nd 1st 2020 average clearing volume GWh compared GWh 2019 period Similarly average market clearing 2020 compared 2019 period VIEWS SHAREHOLDERS lockdown resulted shutdown industrial commercial establishments stoppage passenger railway services adversely impacted electricity demand segments constitute 40 electricity demand statement issued rating firm segments account greater percentage Discoms revenues subsidizing segments focus governments healthcare relief measures likelihood subsidy support Discoms deferred ruled added ICRA Ratings Group Senior President Corporate ratings Sabyasachi Majumdar lockdown imposed government adversely impact electricity demand demand expected decline basis period lockdown turn adversely impact revenues collections distribution utilities term consumption decline tariff paying industrial commercial consumers delays collections consumer segments revenue deficit Discoms estimated Rs 130 basis turn adversely impact liquidity profile Discoms increase subsidy requirement lead delays payments generation transmission ministry issued directors Central Electricity Regulatory Commission provide moratorium months Discoms payments generation transmission companies ministry issued directors Central Electricity Regulatory Commission provide moratorium months Discoms payments generation transmission companies requested governments issue similar directions electricity regulators generation companies suffering delays payments Discoms majority states payment due Rs 85000 crore 2019 level data PRAAPTI portal lockdown accentuating delays payments availability adequate liquidity buffer form debt service reserve undrawn working capital limits remains important credit perspective relief measures moratorium debt servicing period notified Reserve Bank expected moderation interest rate cycle source comfort term timely approval moratorium boards financial institutions remains crucial revenues generation companies purchase agreements PPAs distribution utilities Discoms protected provision capacity charges linked availability thermal hydropower projects status nuclear renewable thermal PLF dip 63 period previous due considerable drop demand generation companies PPAs adversely impacted weakening tariffs exchange market ICRA Ratings Sector President renewable projects EPC manufacturing companies solar segment face execution delays disruption supply chain labor availability lockdown import dependency sourcing PV modules execution timelines ongoing solar projects affected delays delivery PV modules outbreak COVID 19 delay turn increase expenses project cost turn impact expected returns context MNRE notified time extension provided renewable energy projects impacted supply chain disruption due COVID outbreak force majeure clause execution headwinds amid COVID 19 affecting Q1 assuming normalcy capacity addition wind solar segments degrow 25 estimated 8 GW earlier estimates 11 GW Kadam provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>22</v>
+      </c>
+      <c r="G87" t="n">
+        <v>42</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-0.3124999951171876</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.070953436728433</v>
+      </c>
+      <c r="J87" t="n">
+        <v>28.35384615384615</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2349430276722735</v>
+      </c>
+      <c r="L87" t="n">
+        <v>11.43551567260737</v>
+      </c>
+      <c r="M87" t="n">
+        <v>32.70769230769231</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1098</v>
+      </c>
+      <c r="O87" t="n">
+        <v>433</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3570</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4.573383671543181</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>blackassign0089</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/coronavirus-impact-on-the-hospitality-industry-5/</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>COVID-19 Impact on Hospitality Industry
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+In December 2019, a novel coronavirus strain (SARS-CoV-2) emerged in the city of Wuhan, China. The disease called Covid-19 spread to almost every nation in the world creating widespread havoc and disruption in routine life. WHO recognized it as a pandemic on March 10, 2020. As of April 19, 2020, worldwide around 24 lakh people have been infected and more than 1.6 lakh people have succumbed to Covid-19.
+Though a vaccine hasn’t been developed yet, the spread of coronavirus can be stopped by washing hands frequently, covering one’s mouth while coughing, and practicing social distancing from other people. Countries across the world are using lockdowns as an effective way to stop the spread.
+29 kb of RNA has brought the world down to its knees. One-third of the global population has been in lockdown. Schools, colleges,businesses, servicesthat are considered non-essential have been put on hold for an indefinite period. Even after lifting restrictions, a global recession even worse than the one in 2008 is going to be expected.
+Now arriving at the main field of discussion, i.e. Hospitality Industry. How COVID-19 Impact Hospitality?
+Propulsion was building for 2020 to be a year of focal collective action on sustainability. The Covid-19 outbreak has emphasized more than ever, the importance of future-proofing business for growth and resilience.
+The hospitality industry includes various services likelodging, food and beverage,events, tourism, transportation, theme parks, etc. Before COVID – 19 prevailed, we all know that this industry was in much demand and was also one of the major sources of the rising economy. During vacation and festive periods, these were always full of people worldwide. As of now, due to the havoc created and ongoing lockdown they are bearing many losses and is one of the main reason for the decreasing economy.
+Have you ever thought of hotels been converted into hospitals, quarantine centers,and isolation centers?  Yes, my dear people! Amidst this outbreak, many of the hospitality industry properties, be it tiny or enormous have come forward to help the nation fight this life-menacing virus.
+Taj hotel in Mumbaiis attentively aware of its responsibility towards the community and has opened its doors for the major frontline workers, i.e.medical fraternitiesto stay at their place while they combat the spread of this treacherous virus.
+Also, many of the government bodies have been transformed to provide shelter to the homeless. Recently, inVadodara – Gujaratthe building which was built for the employees aiming to work for the majorMumbai-Ahmedabad bullet train projecthas been come forward to make it an isolation center for doctors and nurses.
+“Railways – the lifeline of citizens.”As railways have started their service years ago, from that period they are being considered as the lifeline of citizens in many metropolitan cities. Today at the time of the global pandemic, railways haven’t backed off from the position of the lifeline. Yes, my dear friends, you have heard it right! Railway coaches in India have been turning into the hospital and isolation centers, marking their presence by helping the government to increase the number of isolation beds. Also, many special parcel express trains are running in the entire nation to fulfill the needs of people by transporting essential commodities and goods.
+Hospitality has been one of the most innovative industries in the crisis so far. Connections have been rapidly formed to donate food and beverages to local charities from various hotels. Many of the hospitality bodies are standing in solidarity with the communities affected by this threatening disease by lighting their windows in the shape of a heart, seen in hotels across the world.
+With this outbreak, there is a sharp drop in tourists worldwide as the aviation, railways and public transport buses have come to a standstill due to severe government restrictions.
+Today it is clear that hospitality industries must be prepared for various situations like a pandemic, climate change, etc. as of now they are facing devastating and disastrous Covid-19 impact on its various sectors.
+The debt being the normal capital intensive component has to be serviced by payment of interest on debt and repayment of debt. Hotels being labor-intensive, have lots of fixed costs such as wage bills, besides paying government levies, minimum load charges, etc. The earlier Indian hospitality industry was on average witnessing 65 to 70% of occupancy till the end of February. The first few days of March were fine, once things started accelerating, the occupancy has gone down to a severe minimum. Also as soon as the pandemic ends by God’s grace, the hospitality industry will still face some loss as the tourists will be much lesser in the beginning months.
+As soon as the crisis gets over, the hospitality industry will have a very crucial role to play in rehabilitating lives within their local communities. Millions of people will be unemployed leaving them at high risk of poverty and exploitation. As the industry starts to recover, hospitality will be one of the sources to increase employment to the needy ones taking the poverty level to a minimum.
+Within India, after the crisis over, people should travel to the less known and highly economically affected destinations to help the hospitality industry overcome the loss they bore due to Covid-19.
+Hence, the hospitality industry suffered and is suffering a lot due to this pandemic and despite that, it is also helping the nation to win against this dangerous disease. thus COVID-19 Impact on Hospitality
+“Let’s be grateful to all the frontline workers saving the entire nation and also be thankful to all the various sectors of the hospitality industry who have come forward to help and serve the nation.”
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Impact Hospitality Industry Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist 2019 coronavirus emerged Wuhan disease called spread world creating widespread havoc disruption routine life recognized pandemic 10 2020 19 2020 worldwide 24 lakh people infected lakh people succumbed vaccine developed spread coronavirus stopped washing hands frequently covering mouth coughing practicing social distancing people Countries world lockdowns effective stop spread 29 kb RNA brought world knees global population lockdown Schools colleges businesses servicesthat considered put hold indefinite period lifting restrictions global recession worse 2008 expected arriving discussion Hospitality Industry Impact Hospitality Propulsion building 2020 focal collective action sustainability outbreak emphasized importance business growth resilience hospitality industry includes services likelodging food beverage events tourism transportation theme COVID 19 prevailed industry demand sources rising economy vacation festive periods full people worldwide due havoc created ongoing lockdown bearing losses reason decreasing economy thought hotels converted hospitals quarantine centers isolation centers people Amidst outbreak hospitality industry properties enormous forward fight virus Taj hotel Mumbaiis attentively aware responsibility community opened doors frontline workers fraternitiesto stay combat spread treacherous virus government bodies transformed provide shelter homeless Recently inVadodara Gujaratthe building built employees aiming work bullet train projecthas forward make isolation center doctors nurses Railways lifeline railways started service years ago period considered lifeline citizens metropolitan cities Today time global pandemic railways backed position lifeline friends Railway coaches turning hospital isolation centers marking presence helping government increase number isolation beds special parcel express trains running entire fulfill people transporting essential commodities goods Hospitality innovative industries crisis Connections rapidly formed donate food beverages local charities hotels hospitality bodies standing solidarity communities affected threatening disease lighting windows shape heart hotels world outbreak drop tourists worldwide aviation railways public transport buses standstill due severe government restrictions Today clear hospitality industries prepared situations pandemic climate change facing devastating disastrous impact sectors debt normal capital intensive component serviced payment interest debt repayment debt Hotels lots fixed costs wage paying government levies minimum load charges earlier hospitality industry average witnessing 65 70 occupancy till end days things started accelerating occupancy severe minimum pandemic ends God hospitality industry face loss tourists lesser beginning months crisis hospitality industry crucial role play rehabilitating lives local communities Millions people unemployed leaving risk poverty exploitation industry starts recover hospitality sources increase employment needy taking poverty level minimum crisis people travel highly economically affected destinations hospitality industry overcome loss bore due hospitality industry suffered suffering lot due pandemic helping win dangerous disease Impact Hospitality grateful frontline workers saving entire thankful sectors hospitality industry forward serve provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>20</v>
+      </c>
+      <c r="G88" t="n">
+        <v>42</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-0.3548387039542145</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.114602587588535</v>
+      </c>
+      <c r="J88" t="n">
+        <v>21.94117647058824</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2171581769436997</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.863333859012775</v>
+      </c>
+      <c r="M88" t="n">
+        <v>25.3921568627451</v>
+      </c>
+      <c r="N88" t="n">
+        <v>660</v>
+      </c>
+      <c r="O88" t="n">
+        <v>243</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2131</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4.502706883217324</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>blackassign0090</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/lessons-from-the-past-some-key-learnings-relevant-to-the-coronavirus-crisis-4/</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Lessons from the past: Some key learnings relevant to the coronavirus crisis
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+As a race, we are not ready for any kind of crisis. We have fire extinguishers in buildings, but barely any knowledge of how to use it. We convince ourselves that we are prepared but in the face of adversity we stand dumbfounded and give the simplest excuse, that of being in ‘unprecedented times’. The same thing has happened with the coronavirus crisis. If we look back, we can see that this crisis was not avoidable. There was a lot we could have done, but because we underestimated it so much, the situation has now blown out of proportion and cost us thousands of lives, millions of jobs and a massive hit to the world economy. We may be in a unique condition but there is still a lot that we can apply from past experiences and previous calamities.
+First, let’s look at this in a reflective mode. What are the things we could have done to avoid this crisis in the first place? Controlling the origin of a virus is difficult but preventing it from spreading is not. One of the biggest contributors to this unforgiving crisis is the lack of communication or even worse, the propagation of fake news. Take India for example. Clear communication about the virus was only initiated after a few cases had been identified. We were aware of the hazards of this virus since before and should have acted sooner. The spread of accurate and timely information is a must. If we had spread awareness earlier, we could have controlled the number of cases better, like New Zealand and Ireland have done. Secondly, in a situation of crisis, the first thing to spread is fake news. It is imperative that the government, social media agencies and people themselves act more responsibly. Since there is no accurate and transparent information, a lot of uncertainty exists in the society. This impacts the confidence of consumers and investors in the market, which in turn leads to an economic slowdown. Past experiences with financial breakdowns and recessions have shown us that retain market trust can only occur with transparency and accuracy of information. Organisations should have acted earlier and communicated more effectively with their employees.
+Moreover, we must also understand that specific sectors take the hardest hit during lockdowns. As we have witnessed in earlier lockdowns, curfews, national emergencies and pandemics, the first segment of society to take a hit is the daily wagers and labourers. Not only do the prices of goods increase but their income also takes a decline in such a crisis. In such situations, they can’t even afford basic amenities. India witnessed a mass exodus recently, with thousands of people trying to return to their villages on foot. This only leads to more chaos and a decline in containment of the disease. The government should have accounted for such factors before announcing a lockdown with a four hour notice. They could have made better arrangements for food and water in the metro cities itself or giving them safer means to travel home. This is something that they can still include in their relief programs.
+Government intervention is a must right now. This can be done in two ways. First, is to create more employment opportunities. Governments used this strategy in the SARS and Ebola Virus emergency. Health, water, sanitation and hygiene are the most services in the times of health emergencies. Intense investment for these services and infrastructure can provide immediate jobs. Secondly, if governments use fiscal and monetary policy to fuel demand and maintain current living standards, it can decrease the propensity of a huge fall in economic growth.A fiscal stimulus by the governmentcan make all the difference. Having better avenues for cash transfers, easier loans and more exchange will automatically help. A fall in the growth rate is unavoidable as lots of sectors have no choice but to pause all work. However,industries that can provide high returnseven now must be encouraged. For example, IT sector, health, food and agriculture, etc.
+Moreover, governments and businesses should use the most important tool in their hand, the internet! Even in the times of physical social distancing, we are still connected to people across the world and are socialising at our normal rates. Governments should use these mediums to maintain public spirit, communicate policy strategies and inform people. Businesses should use these means to continue working and maintain employee morale. To have balanced crisis management and to prevent panic in the masses, social dialogue and engagement at every level is imperative. Use these mediums to educate people about the importance of social distancing, hygiene and steps to be followed.
+All diseases are different and the scientific approach to tackle them varies. However, with most epidemics and pandemics some common steps can be followed. Our past experience with fast spreading diseases has shown that the easiest and most effective way to curb it is social distancing. Countries have taken impressive steps to ensure social distancing and must keep this up for even a few weeks after curbing the disease. Maintaining sanitary habits and hygiene can protect us from infections and increase our immunity. While governments and medical agencies look for ways to tackle the virus at a macro level, we must continue to follow all measures on an individual level too.
+We must also pay a lot of attention to mental and physical well-being now. In the past, when economies took a hit due to the 2008 recession or calamities, the first thing to break was people’s self-esteem. Suicide rates, amount of domestic abuse and cases of depression increased manifold. We have to take effort and ensure that we try and live as much of a balanced life as possible. We should stay connected to our friends and not be ashamed of reaching out to others for help. Social distancing is not easy and can take a toll on many. Lots of special helplines have been set up for the same and people must use them if needed. Governments have also given code words for victims of domestic abuse to report crimes in countries like France and Spain. We must remember to stay mentally healthy and calm during a crisis as that is the most important thing.
+I don’t believe that every crisis is the same. Of course, there are a lot of unique things about the coronavirus pandemic that we had not expected to ever see. Even though these are different times, there are still lots of things we can apply from our past experiences. We cannot find a cure for the virus but we can find ways to maintain the economy, our mental peace, and prevent the spread of the virus. The past has a lot to offer if we ponder. We must learn to understand the mistakes of the past and better them in the future. Our past experiences with the different crises have taught us that fiscal stimuli work, maintaining employee morale is important and that social. Engagement is imperative. If we use these tools efficiently, we can ensure that people only have to fight the virus and not worry about the multitude of repercussions that come with it.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Lessons past learnings relevant coronavirus crisis Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist kind crisis fire extinguishers buildings barely knowledge convince prepared face adversity stand dumbfounded give simplest excuse unprecedented times thing happened coronavirus crisis crisis avoidable lot underestimated situation blown proportion cost thousands lives millions jobs massive hit world economy unique condition lot apply past experiences previous calamities reflective mode things avoid crisis Controlling origin virus difficult preventing spreading biggest contributors unforgiving crisis lack communication worse propagation fake news Clear communication virus initiated cases identified aware hazards virus acted sooner spread accurate timely information spread awareness earlier controlled number cases situation crisis thing spread fake news imperative government social media agencies people act responsibly accurate transparent information lot uncertainty exists society impacts confidence consumers investors market turn leads economic slowdown Past experiences financial breakdowns recessions shown retain market trust occur transparency accuracy information Organisations acted earlier communicated effectively employees understand specific sectors hardest hit lockdowns witnessed earlier lockdowns curfews national emergencies pandemics segment society hit wagers labourers prices goods increase income takes decline crisis situations afford basic amenities witnessed mass exodus recently thousands people return villages foot leads chaos decline containment disease government accounted factors announcing lockdown hour notice made arrangements food water metro cities giving safer travel home include relief programs Government intervention ways create employment opportunities Governments strategy SARS Ebola Virus emergency Health water sanitation hygiene services times health emergencies Intense investment services infrastructure provide jobs governments fiscal monetary policy fuel demand maintain current living standards decrease propensity huge fall economic fiscal stimulus governmentcan make difference avenues transfers easier loans exchange automatically fall growth rate unavoidable lots sectors choice pause work industries provide returnseven encouraged sector health food agriculture governments businesses important tool internet times physical social distancing connected people world socialising normal rates Governments mediums maintain public spirit communicate policy strategies inform people Businesses continue working maintain employee morale balanced crisis management prevent panic masses social dialogue engagement level imperative mediums educate people importance social distancing hygiene steps diseases scientific approach tackle varies epidemics pandemics common steps past experience spreading diseases shown easiest effective curb social distancing Countries impressive steps ensure social distancing curbing disease Maintaining sanitary habits hygiene protect infections increase immunity governments medical agencies ways tackle virus macro level continue follow measures individual level pay lot attention mental physical past economies hit due 2008 recession calamities thing break people Suicide rates amount domestic abuse cases depression increased manifold effort ensure live balanced life stay connected friends ashamed reaching Social distancing easy toll Lots special helplines set people needed Governments code words victims domestic abuse report crimes countries remember stay mentally healthy calm crisis important thing crisis lot unique things coronavirus pandemic expected times lots things apply past experiences find cure virus find ways maintain economy mental prevent spread virus past lot offer learn understand mistakes past future past experiences crises taught fiscal stimuli work maintaining employee morale important social Engagement imperative tools efficiently ensure people fight virus worry multitude repercussions provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>39</v>
+      </c>
+      <c r="G89" t="n">
+        <v>49</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-0.1136363623450413</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.1414790994509982</v>
+      </c>
+      <c r="J89" t="n">
+        <v>18.23376623376623</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.1994301994301994</v>
+      </c>
+      <c r="L89" t="n">
+        <v>7.373278573278573</v>
+      </c>
+      <c r="M89" t="n">
+        <v>20.46753246753247</v>
+      </c>
+      <c r="N89" t="n">
+        <v>766</v>
+      </c>
+      <c r="O89" t="n">
+        <v>280</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2490</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>33</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4.452063492063492</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>blackassign0091</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/estimating-the-impact-of-covid-19-on-the-world-of-work-2/</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Estimating the impact of COVID-19 on the world of work
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+COVID-19 an unprecedented pandemic for us but a “Can-be” possibility for great leaders such as bill gates came into action since the rising of the year 2020. The corollary of this pandemic is so prodigious that the analysis by the UN Department of Economic and Social Affairs (DESA) stated that the COVID-19 pandemic is disrupting global supply chains and international trade which in turn could shrink the global economy by up to 1 percent in 2020, a reversal from the previous forecast of 2.5 percent growth. More than 6.6 million Americans filed unemployment claims and the economic downturn is expected to be the worst recession since the Great Depression as stated by the IMF. India is facing its biggest crisis in decades, with a three-week lockdown initially, but extending further in a nation of 1.3 billion people likely to result in an economic recession, millions of job losses and possible starvation among the poor. It can be said that economic contagion is now spreading as fast as the disease itself. On the contrary nature has pressed the reset button, the environment is having a noticeable benefit from this scenario. Water is getting clearer, the air is turning breathable and various such news and pictures can be easily heard and seen on newspapers, telly, and social media platforms on day to day basis. But this is the storyline of the present, what about the future? Are the predictions made by financial institutions and thought leaders going to be true? Or something unexpected is going to happen that will make us think of our human capabilities again?
+After this storm of COVID-19, it would not be a surprise to see how digitally every business will grow to provide better digital infrastructure and customer experience along with advancement in technology which we are lacking in this present scenario. The touch screens that we are using already will find its vast applications and would be seen in most of the places including hotels, hostels, and shopping malls. All those processes which are interdependent will take an agile turn resulting in better productivity of goods, having a systematic backup giving a better experience to the consumer even in hard situations. The major focus would be making contactless systems hence Artificial intelligence and machine learning will become the most rapid and in-demand fields. Not only this, but the medical infrastructure and services will also take a boost in the race of developing the systems to handle any situation afterward. The human to machine interaction will increase facilitating fast production, delivery and surveillance inculcating many more. In each and every area the COVID will leave its mark may it be retail sector or may it be the banking sector making them modify or fully change their architectures.
+Even the existing systems would be gifted with some modifications, ensuring them to work in a hard environment even with or without human intervention. The Companies will rethink their policies shaping themselves accordingly to manage the resources ensuring safety, agility, and work to be a top priority. The work from home idea will also provide a base for bigger companies ensuring to develop a better infrastructure for their resources and probably giving birth to a new concept of work culture. Various existing industries related to either delivery or travel may adopt the new idea of collaboration with other industries which will result in more options for consumers on their old routine Apps.
+New businesses will root out from the existing ventures resulting in head to head competition in the business world but turning into a brownie point for consumer experience and bandwidth of choices. Start-up culture will go hand in hand and expected to take a stupendous growth in the race of providing us a legitimate opportunity to use and feel the real digital world. The various innovations will now take a pace in each field and maybe we will hear some new jargons related to tech in upcoming years. Since the global economy has fumbled, countries will now try to take a different turn to vamoose out of this phase. They will try to make new connections by nurturing a give and take relationship and several business relationships would take an unexpected move making the position of several countries sliding up and down on indexes. Even rival countries may join their hands in this hard time rather than being dismissed totally under predator countries. It would be surprising to see how these scenarios will be handled by the emperor of minds and how their opponents are going to take it as an agenda for the next elections.
+Unfortunately, the nature that is at its best will start to face the ill effects after the chart of development and economy will take a pace for exponential growth. It is unfortunate that the inverse relationship between economic growth and environmental destruction exists since carbon emission increases with economic development. As shown by the graph below whenever recession took place the carbon emission decreases along with other harmful gases, turning out as a gift for nature but doom for the financial markets.
+But there is a possibility that several start-ups now emerge with the idea of environment conservation collaborating with NGOs innovating and using the best of their capability to reduce the ill effect from the present origin point.
+In the culmination we can say this pandemic is like “Blessing in disguise ” producing a massive impact not only on macro but also on micro-economy. The novel virus not only brought some unexpected results but also uncovered some of our loopholes and unlatched new opportunities for growth, forcing us to define ourselves in several new spheres. Quite a while ago we all were chit-chatting about the digital Era, how this is benefiting us, COVID-19 revealed making us realize this was just the beginning of digital Era and a lot is needed to happen in future. It is obvious that not only the Indian economy but the global economy is facing and going to face the aftereffects however similar to a virus, the economy will also rise from deep grounds to a green candlestick with individual collaboration!
+The businesses will soon rise again, people will get back to their jobs, vendors will start getting profits and everything will fall into its places but now a megalithic competitive environment will rise which will grow till decades until nature again shows it’s color and we as a human abide with its outcomes, learning some new lessons and keeping this cycle of fall and growth running.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Estimating impact world work Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist unprecedented pandemic possibility great leaders action rising 2020 corollary pandemic prodigious analysis Department Economic Social Affairs DESA stated pandemic disrupting global supply chains international trade turn shrink global economy 1 percent 2020 reversal previous forecast percent growth Americans filed unemployment claims economic downturn expected worst recession Great Depression stated IMF facing biggest crisis decades lockdown initially extending people result economic recession millions job losses starvation poor economic contagion spreading disease contrary nature pressed reset environment noticeable benefit scenario Water clearer air turning breathable news pictures easily newspapers telly social media platforms basis storyline present future predictions made financial institutions thought leaders unexpected happen make human capabilities surprise digitally business provide digital infrastructure customer experience advancement technology lacking present scenario touch screens find vast applications places including hotels hostels shopping malls processes interdependent agile turn resulting productivity goods systematic backup giving experience consumer hard situations focus making contactless systems Artificial intelligence machine learning rapid medical infrastructure services boost developing systems handle situation afterward human machine interaction increase facilitating production delivery surveillance inculcating area COVID leave retail sector banking sector making modify fully change architectures existing systems gifted modifications ensuring work hard environment human intervention Companies rethink policies shaping manage resources ensuring safety agility work top priority work home idea provide base bigger companies ensuring develop infrastructure resources giving birth concept work culture existing industries related delivery travel adopt idea collaboration industries result options consumers routine Apps businesses existing ventures resulting competition business world turning brownie point consumer experience bandwidth choices culture expected stupendous growth providing legitimate opportunity feel digital world innovations hear jargons related tech upcoming years global economy fumbled countries turn vamoose phase make connections nurturing give relationship business relationships unexpected move making position countries sliding indexes rival countries join hands hard time dismissed totally predator countries surprising scenarios handled emperor minds opponents agenda elections nature start face ill effects chart development economy exponential growth unfortunate inverse relationship economic growth environmental destruction exists carbon emission increases economic development shown graph recession carbon emission decreases harmful gases turning gift nature doom financial markets possibility emerge idea environment conservation collaborating NGOs innovating capability reduce ill effect present origin point culmination pandemic disguise producing massive impact macro virus brought unexpected results uncovered loopholes unlatched opportunities growth forcing define spheres ago digital benefiting revealed making realize beginning digital lot needed happen future obvious economy global economy facing face aftereffects similar virus economy rise deep grounds candlestick individual collaboration businesses rise people jobs vendors start profits fall places megalithic competitive environment rise till decades nature shows color human abide outcomes learning lessons keeping cycle fall growth running provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>28</v>
+      </c>
+      <c r="G90" t="n">
+        <v>28</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.0984182775071735</v>
+      </c>
+      <c r="J90" t="n">
+        <v>30.42857142857143</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.2206572769953052</v>
+      </c>
+      <c r="L90" t="n">
+        <v>12.25969148222669</v>
+      </c>
+      <c r="M90" t="n">
+        <v>33.45238095238095</v>
+      </c>
+      <c r="N90" t="n">
+        <v>728</v>
+      </c>
+      <c r="O90" t="n">
+        <v>282</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2363</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>7</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4.670705630791161</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>blackassign0092</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/estimating-the-impact-of-covid-19-on-the-world-of-work-3/</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Estimating the impact of COVID-19 on the world of work
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Will COVID19 END Globalization?
+Globalization:
+Globalization envisages a borderless world or seeks the world as a global village • It is attributed to the accelerated flow of goods, people, capital, information, and energy across borders, often enabled by technological developments.
+Globalization Trends:
+Starting from 1990s globalization dominated world’s economic order.
+Anti-Globalization Wave:
+Globalization had already begun to stagnate since the 2008-09 Global Financial Crisis.
+Slowing Down of Trade:
+Trade as a percentage of global GDP increased from 39% in 1991 to 61% in 2008 but has stagnated over the past decade.
+Countries Policies Reflecting the Reverse Globalization:
+The following polices and steps of various countries shows the protactinium
+1.USA
+We reject Globalism, President trump took ‘American First to the United States – Trump
+2. Brexit
+Brexit is a rejection of globalization-Larry Elliott
+Slowing Movement of People:
+Though number of tourists increased in the last decade.
+1.Indian IT’s H-1B Visa woes could worsen in 2020
+The above article reveals that Under the Trump administration, Indian IT services companies have seen rejection rates jump from 6% in 2015 to 24% in 2019.
+2.Racism study finds one in three school students are victims of discrimination
+Trade Wars and Halting of WTO Talks: Retreat of Globalization:
+1.Chinese-US trade war threatens globalization
+2.Protectionists put brakes on trade liberalization
+Due to These Factors, International Media Is Referring to The Process of Globalization By The Term‘SLOWBALISATION’
+The ongoing phase of globalization has not fully recovered, and the recent coronavirus has pushed forward the trends of reverse globalization
+Globalization Is Responsible for The Spread Of Coronavirus:
+Corona Virus Has Halted The Movement Of People, Goods, Service, And Capital.
+More than a fifth of the world’s population has been under lockdown in the global fight against coronavirus with early sign of success.
+Due to Supply Chain Break Down In China because of Coronavirus
+Countries Providing Incentives To Shift Production To Their Native Country
+Amid Covid-19 World Trade Has Halted, Investors Are Pulling Out Money from The Market
+Other Side Of The Coin!!
+Corona Virus Won’t End Globalization, But Change It Hugely for The A Better
+An unregulated world can be blamed for its spread, but collective action based on evidence could be the best way to stop it.
+Trade During Coronavirus:
+1.India Readies list of 13 countries to send hydroxychloroquine.
+2.China Sends doctors and masks overseas domestic coronavirus infection drop.
+Movement of Ideas
+Countries are converging virtually to share best practice to fight pandemic
+International meeting such as G-20, SAARC summit organized virtually
+Living apart, we must stand together’ to battle coronavirus pandemic-UN Rights chief.
+China’s BRI Project after COVID-19
+BRI Project:
+The Belt and Road Initiative is a global development strategy adopted by the Chinese government in 2013 involving infrastructure development and investments in nearly 70 countries and international organizations in Asia, Europe, and Africa.
+Curtailed Connectivity after Covid19:
+A devastating economic collapse of potentially historic proportions after Covid19, leading to social and political turmoil in a number of countries, and curtailed connectivity. Interestingly, the pandemic has exposed the risks and weaknesses of global interconnectedness, which will affect China’s BRI.
+Funding Shortfall for BRI
+So far, BRI has been powered primarily by China, whose growth rates were decreasing even before the outbreak. Exports Hit: With the United States and Europe reeling from the pandemic, Chinese exports will take a big hit.
+China confronts major Risk of debt on belt and road due to pandemic
+China’s growth hit a near 30-year low of 6.1%
+Roughly 5 Million people in china lost their jobs in the first 2 months of 2020.
+Last February, China’s official urban unemployment jumped to an unprecedented 6.2 percent. Unemployed Number may go up to 9 million by the end of 2020.
+China will have to choose out of two competing priorities:
+So, not only may BRI be short of cash, but it will also be hard to sell at home
+All Economies along BRI routes affected
+Pakistan, host to the biggest BRI megaproject in the world, is poised to sustain a $8.2 billion loss, according to ADB. The respective figure for Bangladesh is $3 billion. Thailand is now bracing up for a recession. Africa is equally vulnerable, as China is the continent’s largest market.
+Covid19 hit Chinese companies executing BRI contracts can rely on support from the CDB in the form of low-cost financing. Yet, Chinese policy banks will be increasingly picky and inclined to stay away from new projects that may turn out to be loss-makers.
+China Development Bank to support Belt and road companies hit by coronavirus -Xinhua
+The Coronavirus and Xi Jinping’s Worldview
+Priority list:
+No. 1 preserving the CCP’s power
+No. 2 maintaining national unity
+No. 3 the expansion of the economy No. 4 environmental sustainability
+No. 5 modernize the Chinese military
+No. 6 China’s 14 neighboring states
+No. 7 weaken America’s longstanding security alliances No. 8 terrestrial Silk Road Economic Belt No. 9 Maritime Silk Road
+No 10 reshape the global order
+Under extreme circumstances, Beijing will not consider the BRI as important.
+Is the BRI Finished then?Short Term: Yes, BRI will Face Trouble
+In particular, the summer of 2020 may be a period of hibernation for several BRI projects.
+The outbreak has brought Chinese labor supplies and equipment imports along BRI routes down to a trickle
+Not Exactly!!! In fact, the initiative’s fuzzy content is being further enriched with the “Health Silk Road” add-on narrative and “mask diplomacy” in a major soft-power push.
+Long Term: A Changed BRI will Emerge
+The BRI is bound to change. Strategies will change.
+It might even be Defined Properly
+Seven years after this ambitious initiative was announced it remains a blurred vision in need of a comprehensive conceptual framework, international standards, and a coherent implementation strategy.
+This is one of the reasons why the BRI has become controversial and has caused a backlash in many countries.
+A Shift away from Roads and Bridges
+BRI expenditure up to 2019 stood at $545 billion. (WB Estimate) About two-thirds of spending on BRI projects has gone into the energy sector and transport
+However, developing countries in need of infrastructure will be terribly cash-strapped, there may be a shift away from roads, bridges, and coalfired power plants funded through Chinese loans.
+New BRI projects will probably be more strategically chosen.
+Beijing has been investing in the creation of a globe-spanning network of economic corridors, logistics zones, and financial centers, with stress laid on seaports and adjacent areas. Egypt’s Suez Canal Economic Zone and Sri Lanka’s Colombo Port City clearly show this trend.
+In addition, projects are likely to focus on more sophisticated forms of connectivity, such as 5G networks or, in the wake of the pandemic, disaster management, public health-related high-tech, and even remote surgery. China will surely use the BRI for the projection of its soft power, an increasingly important battlefield in international relations.
+The world has become aware of the risks of overwhelming reliance on China.
+Amid of Coronavirus outbreak we can see the major economies are strengthening their authorities with their major concern
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Estimating impact world work Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist COVID19 END Globalization Globalization Globalization envisages borderless world seeks world global village attributed accelerated flow goods people capital information energy enabled technological developments Globalization Trends Starting 1990s globalization dominated world economic order Wave Globalization begun stagnate Global Financial Crisis Slowing Trade Trade percentage global GDP increased 39 1991 61 2008 stagnated past decade Countries Policies Reflecting Reverse Globalization polices steps countries shows protactinium reject Globalism President trump United States Trump 2 Brexit Brexit rejection Slowing Movement People number tourists increased decade Visa woes worsen 2020 article reveals Trump administration services companies rejection rates jump 6 2015 24 2019 study finds school students victims discrimination Trade Wars Halting WTO Talks Retreat Globalization trade war threatens globalization put brakes trade liberalization Due Factors International Media Referring Process Globalization Term SLOWBALISATION ongoing phase globalization fully recovered recent coronavirus pushed forward trends reverse globalization Globalization Responsible Spread Coronavirus Virus Halted Movement People Goods Service Capital world population lockdown global fight coronavirus sign success Due Supply Chain Break Coronavirus Countries Providing Incentives Shift Production Native Amid World Trade Halted Investors Pulling Market Side Coin Virus End Globalization Change Hugely unregulated world blamed spread collective action based evidence stop Trade Coronavirus Readies list 13 countries send hydroxychloroquine Sends doctors masks overseas domestic coronavirus infection drop Movement Ideas Countries converging virtually share practice fight pandemic International meeting SAARC summit organized virtually Living stand coronavirus Rights chief BRI Project BRI Project Road Initiative global development strategy adopted government 2013 involving infrastructure development investments 70 countries international organizations Curtailed Connectivity Covid19 devastating economic collapse potentially historic proportions Covid19 leading social political turmoil number countries curtailed connectivity Interestingly pandemic exposed risks weaknesses global interconnectedness affect BRI Funding Shortfall BRI BRI powered primarily growth rates decreasing outbreak Exports Hit United States reeling pandemic exports big hit confronts Risk debt road due pandemic growth hit Roughly 5 people lost jobs 2 months 2020 official unemployment jumped unprecedented percent Unemployed Number 9 end 2020 choose competing priorities BRI hard home Economies BRI routes affected host biggest BRI megaproject world poised sustain loss ADB respective figure 3 bracing recession equally vulnerable continent largest market Covid19 hit companies executing BRI contracts rely support CDB form financing policy increasingly picky inclined stay projects turn Development Bank support road companies hit coronavirus Coronavirus Jinping Worldview Priority list 1 preserving CCP 2 maintaining national unity 3 expansion economy 4 environmental sustainability 5 modernize military 6 14 neighboring states 7 weaken longstanding security alliances 8 terrestrial Silk Road Economic 9 Maritime Silk Road 10 reshape global order extreme circumstances BRI important BRI Finished Term BRI Face Trouble 2020 period hibernation BRI projects outbreak brought labor supplies equipment imports BRI routes trickle fact initiative fuzzy content enriched Health Silk Road narrative diplomacy push Term Changed BRI Emerge BRI bound change Strategies change Defined Properly years ambitious initiative announced remains blurred vision comprehensive conceptual framework international standards coherent implementation strategy reasons BRI controversial caused backlash countries Shift Roads BRI expenditure 2019 stood 545 WB Estimate spending BRI projects energy sector transport developing countries infrastructure terribly shift roads coalfired plants funded loans BRI projects strategically chosen investing creation network economic corridors logistics zones financial centers stress laid seaports adjacent areas Egypt Suez Canal Economic Zone Sri Lanka Colombo Port show trend addition projects focus sophisticated forms connectivity 5G networks wake pandemic disaster management public remote surgery surely BRI projection soft increasingly important battlefield international relations world aware risks overwhelming reliance Amid Coronavirus outbreak economies strengthening authorities concern provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>27</v>
+      </c>
+      <c r="G91" t="n">
+        <v>41</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-0.2058823499134949</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.09550561784339098</v>
+      </c>
+      <c r="J91" t="n">
+        <v>23.01694915254237</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.2312223858615611</v>
+      </c>
+      <c r="L91" t="n">
+        <v>9.299268615361575</v>
+      </c>
+      <c r="M91" t="n">
+        <v>27</v>
+      </c>
+      <c r="N91" t="n">
+        <v>862</v>
+      </c>
+      <c r="O91" t="n">
+        <v>314</v>
+      </c>
+      <c r="P91" t="n">
+        <v>2613</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4.503461296412838</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>blackassign0093</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/travel-and-tourism-outlook/</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Travel and Tourism Outlook
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+The UN projects a 20-30% decline in international tourist arrivals in 2020. This could put up to 50 million jobs at risk, with Asia likely to be the most affected continent. But will the good old days of tourism and travel return next year?
+Read on to discover what our robot, Athena, has found on the future of this topic and act accordingly for you, your family and organization in the years ahead. Make notes on issues that could affect you and them as you go.
+If you are new to foresight, we recommend youview this slide presentation firstto get the best out of this report
+Speed read Athena’s high-level take-outs on the left of each slide, or delve deeper into her findings on the right.
+For a more detailed explanation of the graphics used in this presentation please clickhere. All outlooks based on the time period 2020-2070 and what’s likely to be happening in 2025 at a 95% confidence level unless otherwise stated. Please contact us for longer-term outlooks.
+To read more and for a video summary,click here
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Travel Tourism Outlook Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist projects decline international tourist arrivals 2020 put 50 jobs risk affected continent days tourism travel return discover robot found future topic act family organization years ahead Make notes issues affect foresight recommend youview slide presentation firstto report left slide delve deeper findings detailed explanation graphics presentation clickhere outlooks based time period happening 2025 95 confidence level stated contact outlooks video summary provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>10</v>
+      </c>
+      <c r="G92" t="n">
+        <v>4</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.4285713979591859</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.07106598948697468</v>
+      </c>
+      <c r="J92" t="n">
+        <v>26.71428571428572</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.2540106951871658</v>
+      </c>
+      <c r="L92" t="n">
+        <v>10.78731856378915</v>
+      </c>
+      <c r="M92" t="n">
+        <v>31.35714285714286</v>
+      </c>
+      <c r="N92" t="n">
+        <v>236</v>
+      </c>
+      <c r="O92" t="n">
+        <v>95</v>
+      </c>
+      <c r="P92" t="n">
+        <v>745</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4.590389016018307</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>blackassign0094</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/gaming-disorder-and-effects-of-gaming-on-health/</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Gaming Disorder and Effects of Gaming on Health.
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Perhaps the virtual illusion has become today’s “New Reality”.
+Inquisitive about the conclusion? Let’s attempt to vindicate as the outline story unfolds itself.
+Ever since the concept of gaming floated back in the 1970s a new dimension was put before human beings, intangible in nature, and paradoxically engulfed us since then. It laid an impact on multiple generations in different ways. The last decade witnessed a boom in this industry &amp; with the advancement of technologies in Virtual and Augmented reality, the gaming world has become an integral part of our day to day experiences. With the intent of being regarded as a leisure activity, it has now percolated over various strata and has managed to gather the attention of teenagers and adolescents on a comprehensive scale.
+As we explored the fabric of our Engineering batch mates, we came across this peculiar guy holding excellent academics with accolades of his names, seemed to be a nerd at a glance and street smart by nature. Concomitance happened to be the reason for experiencing the lifestyle of other personalities that included SAM as well.
+SAM was not only fascinated by the games but used to spend tirelessly hours and hours in front of the white screen engrossed completely leaving the track of time. As our academics advanced, the intensity of involvement in gaming grew deeper and steadily it turned into addiction in no time. We realized the gravity as we were exposed to his change of behavior and shift of priorities due to his unprecedented absence during our lectures and practical. He was modestly reluctant to share about his whereabouts with his peers. The situation turned grim when he wasn’t able to cope up with the subjects and was socially disturbed while interacting. He was compelled towards the fantasy world and was trapped in the vicious cycle of a never-ending backlog of games. As time progressed his performance turned from bad to worse. He was struggling. It was clear as ice that he had something hidden behind that visage.
+As sophomores, we were also involved in gaming but soon realized that it does more harm than good. A close cluster of friends decided to lend a helping hand to SAM and as they learned about him, the ground beneath their feet slipped away and froze their brain. He had completely lost the circadian rhythm of his sleep, ran into financial losses, aggression draped him, his relations were tarnished due to the habitual routine, and signs of depression were visible on the upfront.
+Poker was the tartar that he had caught. The game of cards as most of us would perceive it, rather proved to be the fulcrum of SAM’s near future. In the quest of pleasure through online games, he entered the tunnel of gambling at a very tender age ignoring the risks involved in terms of financial verticals. He was suffering from Internet Gaming Disorder (IGD) &amp; his condition deteriorated as days passed by. Apparently, from a healthy individual to a drained skinny one, it took a toll on his physical health. Mental disturbance sucked him and he grew insensitive towards his academics. The psychological negative consequences were due to the combination of online gaming and gambling platforms. During that phase, the peer group (gaming group) gained more influence than parental control.
+Days arrived when he ran short of money and went ahead to ask his friends in college for the funds. Since a large amount of money is involved in gambling, a situation exacerbated when SAM had his ethical values on the line and breached his boundaries to satisfy his hunger of gaming and leaped towards illegal means to fund his gambling.
+The practical project was a crucial part of our Engineering curriculum, under which a team of four members was to be established and is expected to remain intact for a year. SAM was by no means in anyone’s good books. No one in the batch was ready to risk with SAM even though he possessed a brilliant acumen. He was abandoned. We were three friends already and were scouting for the fourth. With mutual consensus, we decided to go ahead with SAM. Initially, we worked together and collaboration seemed to be perfect. Unfortunately, he wasn’t able to clear his backlog exams and had to drop out. At present he plays Poker on a professional level, keeping aside his Engineering career and battling with his conscience that we may not be aware of.
+Earlier generations used to spend their time or rather invest their time into activities building up their passion, in some cases they pushed their cognition to such an extreme and contributed to a level that humanity as a whole is in-depth to date. Can we imagine our present without the existence of Sir Edison, Sir Newton, Sir Tesla, Sir Einstein, and many more that were engrossed in their domain and served the necessary impetus for our generation? No one knows that SAM could have been our generation scientist, hadn’t he chose that path.
+Not Everyone is SAM but perhaps we could miss our Einstein or Tesla! Maybe our Newton is waiting for the new upgraded version of the game instead of sitting under the tree. Our Mendeleev might be involved in arcade games!
+Feels so numb.
+Millions of teenagers are involved in online gaming platforms and the community is growing at a rapid rate every year. Presently the prevalence of IGD among the adolescent group was between 1.3% to 19.9% and males reported more prevalence than females. In the fiscal year 2019, there were 300 million online gamers in India. This number was estimated to go up to 440 million gamers by the fiscal year 2022. Overall, India ranked the highest in terms of the growth in online game downloads on app stores with a growth rate of 165 percent between 2016 to 2018. 75% of young people use a mobile phone to play different games, 21% use PC/Laptop. Games like PUBG that promote virtual violence calls for the stern attention of the responsible demographics. As per a study, online games are directly affecting the neurons, leading to chemical imbalance thus causing severe depression and anxiety attacks.
+As per the World Health Organization, depression is interrelated to physical and mental health and the word ‘depression’ that didn’t exist decades back has become prevalent among the youth, leading to more stress and dysfunction and worsening the affected person’s life situation.
+Anything in excess is poison. So are games. So bear in mind all the risks and do not lose track of time while playing online games. A safe and comfortable gaming experience is guaranteed at Slotogate. Just checklion slots review, weigh all the pros and cons, and start an amazing gaming adventure unlike any other.
+In deed the virtual illusion has become today’s “New Reality”.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Gaming Disorder Effects Gaming Health Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist virtual illusion today Reality Inquisitive conclusion attempt vindicate outline unfolds concept gaming floated 1970s dimension put human beings intangible nature paradoxically engulfed laid impact multiple generations ways decade witnessed boom industry advancement technologies Virtual Augmented reality gaming world integral part experiences intent regarded leisure activity percolated strata managed gather attention teenagers adolescents comprehensive scale explored fabric Engineering batch mates peculiar holding excellent academics accolades names nerd glance nature Concomitance happened reason experiencing lifestyle personalities included fascinated games spend tirelessly hours hours front screen engrossed completely leaving track time academics advanced intensity involvement gaming grew deeper steadily turned addiction time realized gravity exposed change behavior shift priorities due unprecedented absence lectures practical modestly reluctant share whereabouts peers situation turned subjects socially disturbed interacting compelled fantasy world trapped vicious cycle backlog games time progressed performance turned bad worse struggling clear ice hidden visage sophomores involved gaming realized harm cluster friends decided lend helping learned ground beneath feet slipped froze completely lost circadian rhythm sleep ran financial losses aggression draped relations tarnished due habitual routine signs depression visible upfront Poker tartar caught game cards perceive proved fulcrum future quest pleasure online games entered tunnel gambling tender age ignoring risks involved terms financial verticals suffering Internet Gaming Disorder IGD condition deteriorated days passed Apparently healthy individual drained skinny toll physical health Mental disturbance sucked grew insensitive academics psychological negative consequences due combination online gaming gambling platforms phase peer group gaming group gained influence parental control Days arrived ran ahead friends college funds amount involved gambling situation exacerbated ethical values line breached boundaries satisfy hunger gaming leaped illegal fund gambling practical project crucial part Engineering curriculum team members established expected remain intact books batch risk possessed brilliant acumen abandoned friends scouting mutual consensus decided ahead Initially worked collaboration perfect clear backlog exams drop present plays Poker professional level keeping Engineering career battling conscience aware Earlier generations spend time invest time activities building passion cases pushed cognition extreme contributed level humanity date imagine present existence Sir Sir Sir Tesla Sir Einstein engrossed domain served impetus generation generation scientist chose path Einstein Tesla waiting upgraded version game sitting tree Mendeleev involved arcade games Feels numb Millions teenagers involved online gaming platforms community growing rapid rate Presently prevalence IGD adolescent group males reported prevalence females fiscal 2019 300 online gamers number estimated 440 gamers fiscal 2022 ranked highest terms growth online game downloads app stores growth rate 165 percent 2016 2018 75 people mobile phone play games 21 Games PUBG promote virtual violence calls attention responsible demographics study online games directly affecting neurons leading chemical imbalance causing severe depression anxiety attacks World Health Organization depression interrelated physical mental health depression exist decades prevalent youth leading stress dysfunction worsening affected life situation excess poison games mind risks lose track time playing online games safe comfortable gaming experience guaranteed Slotogate checklion slots review weigh pros cons start amazing gaming adventure unlike deed virtual illusion today Reality provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>35</v>
+      </c>
+      <c r="G93" t="n">
+        <v>47</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-0.1463414616299822</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.131410256199663</v>
+      </c>
+      <c r="J93" t="n">
+        <v>19.73529411764706</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.19150521609538</v>
+      </c>
+      <c r="L93" t="n">
+        <v>7.970719733496975</v>
+      </c>
+      <c r="M93" t="n">
+        <v>22.27941176470588</v>
+      </c>
+      <c r="N93" t="n">
+        <v>766</v>
+      </c>
+      <c r="O93" t="n">
+        <v>257</v>
+      </c>
+      <c r="P93" t="n">
+        <v>2348</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>12</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4.403833443489756</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>blackassign0095</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/what-is-the-repercussion-of-the-environment-due-to-the-covid-19-pandemic-situation/</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>What is the repercussion of the environment due to the COVID-19 pandemic situation?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+What is COVID 19 pandemic?
+On 31st December 2019, a novel coronavirus was identified in Wuhan, China. It spread like wildfire in the world. On 11th March 2020, WHO declared COVID 19 as a pandemic and issued guidelines like Sanitizing hands regularly, wearing masks, and social distancing as viable methods for prevention against this virus.
+What is social distancing and how is it helpful?
+Social distancing means staying away from other people. So, to limit human interaction various governments all over the world chose life before the economy and ordered complete lockdown in their countries. All schools, colleges, offices, factories, public places, etc. were shutdown from immediate effect.
+As of 7th June 2020, COVID 19 confirmed cases worldwide are 69,94,605 with 4,02,453 deaths and 34,20,048 recovered.
+The USA didn’t impose lockdown in the early stages due to which it has nearly 19,88,545 confirmed cases with a death rate of 5.6% (as of 7th June 2020) whereas in India lockdown was imposed at the first stage, and so we have 2,47,000 confirmed cases with a death rate of 2.8%.
+Impact on Environment
+Rights reserved to Statista
+As we know it is us, Humans, who keep exploiting nature which has nurtured us and turn a blind eye to the havoc of our misdeeds. Current environmental concerns like depletion of the ozone layer, climate change, soil erosion, air pollution, water pollution, soil pollution, acid rain, noise pollution, loss of biodiversity, and many more are a result of our selfish and never-ending desires for development at the cost of the environment.
+But when the lockdown was imposed worldwide, our lives just stopped. Air traffic (due to flights) dropped by 95% (Cntraveller). Since no one was allowed to leave homes, Carbon footprint per person dropped significantly. The Hindu newspaper reported a 17% decline in carbon pollution during the pandemic peak. According to an article in Economic Times onMay 14th,2020,Global air quality has improvedthis year due to lockdown.
+Economic Times posted an article on 8th April2020 titled “COVID 19: All world’s now a zoo, only this time with animals on outside and humans on inside”.
+This sounds like lock down is good for Environment . Right?
+Humans are getting what they deserved, animals are safe and the environment is healing due to a reduction in pollution levels.
+But, NO.
+All this is just the tip of the iceberg .
+The reality is that humans, despite being under threat due to COVID 19, cyclones, earthquakes, and locusts attacks are still damaging the environment.
+According to Voicesofyouth.org:”There has also been an increase in medical waste– much of the personal protective equipment that healthcare professionals are using can only be worn once before being disposed of. Hospitals in Wuhan, for example,produced over 200tons of waste per dayduring the peak of their outbreak, compared to anaverage of fewer than 50 tons prior. “
+According to Mongabay News: “Despite COVID,Amazon Deforestation is racing higher. The new figures come amid rising fears thatillegal loggers and speculatorsare using the COVID-19 crisis as an opportunityto invade indigenous lands and protected areasin Brazil”.
+According to an article in Conservation International , an expert said ” In Africa, there has been an alarmingincrease in bush meat harvest and wildlife traffickingthat is directly linked to COVID-19-related lockdowns,decreased food availabilityanddamagedeconomiesas a result of tourism collapses”
+Apart from the above-mentioned media channels, various other news articles have reported such incidents from various locations around the world.
+Now, what do you think :
+COVID 19 has helped the environment for good or just deteriorated it further? Check for yourself.
+Follow social distancing guidelines . Stay Safe .
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>repercussion environment due pandemic situation Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist COVID 19 pandemic 31st 2019 coronavirus identified Wuhan spread wildfire world 11th 2020 declared COVID 19 pandemic issued guidelines Sanitizing hands regularly wearing masks social distancing viable methods prevention virus social distancing helpful Social distancing staying people limit human interaction governments world chose life economy ordered complete lockdown countries schools colleges offices factories public places shutdown effect 7th 2020 COVID 19 confirmed cases worldwide deaths recovered impose lockdown stages due confirmed cases death rate 7th 2020 lockdown imposed stage confirmed cases death rate Impact Environment Rights reserved Statista Humans exploiting nature nurtured turn blind eye havoc misdeeds Current environmental concerns depletion ozone layer climate change soil erosion air pollution water pollution soil pollution acid rain noise pollution loss biodiversity result selfish desires development cost environment lockdown imposed worldwide lives stopped Air traffic due flights dropped 95 Cntraveller allowed leave homes Carbon footprint dropped significantly Hindu newspaper reported 17 decline carbon pollution pandemic article Economic Times onMay Global air quality improvedthis due lockdown Economic Times posted article 8th April2020 titled COVID 19 world zoo time animals humans inside sounds Environment Humans deserved animals safe environment healing due reduction pollution levels tip iceberg reality humans threat due COVID 19 cyclones earthquakes locusts attacks damaging environment increase medical personal protective equipment healthcare professionals worn disposed Hospitals Wuhan produced 200tons waste dayduring outbreak compared anaverage fewer 50 tons Mongabay News COVID Amazon Deforestation racing higher figures amid rising thatillegal loggers speculatorsare crisis opportunityto invade indigenous lands protected areasin article Conservation International expert alarmingincrease meat harvest wildlife traffickingthat directly linked lockdowns decreased food availabilityanddamagedeconomiesas result tourism collapses media channels news articles reported incidents locations world COVID 19 helped environment deteriorated Check Follow social distancing guidelines Stay Safe provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>12</v>
+      </c>
+      <c r="G94" t="n">
+        <v>21</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-0.2727272644628102</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.07857142838435374</v>
+      </c>
+      <c r="J94" t="n">
+        <v>19.675</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.2312579415501906</v>
+      </c>
+      <c r="L94" t="n">
+        <v>7.962503176620077</v>
+      </c>
+      <c r="M94" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="N94" t="n">
+        <v>495</v>
+      </c>
+      <c r="O94" t="n">
+        <v>182</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1528</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4.489925768822905</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>blackassign0096</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/what-is-the-repercussion-of-the-environment-due-to-the-covid-19-pandemic-situation-2/</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Due to the COVID-19 the repercussion of the environment
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Epidemics, in general, have both direct and indirect costs associated with direct and indirect measures adopted to counter (control) the epidemic which generally have both short-run and long-run economic and social consequences. The 2019 Coronavirus (COVID-19) outbreak globally lead a significant setback to the entire globe. The first case was detected on 26thDecember 2019 in China.  The World Health Organization (WHO) prepared the first diagnostic kit on 14thJanuary 2020.
+As the global coronavirus or Covid-19 pandemic continues to take hold every economy is feeling it’s effect with a high degree of uncertainty taking a toll in all the manufacturing sectors. Supply chain management is an important area with many opportunities for our community to contribute in various forms.  According to the data produced by Supply Management’s Report on Business show that PMI (Purchasing Manager’s Index) has declined 1% in the month of February. Mainly there has been a huge contraction in the Petroleum, Transportation and Textile Industries. Although there has been a fall in the inventory but is expected to grow due to supply chain disruptions leading to inefficiencies in material conversion and continued advanced stocking to protect production schedules. A analysis by trading platform Forex claimed that heavily 75% of all companies had already reported supply chain disruptions with more than 80% believing that at some point they would experience impacts as a result of Covid-19 disruptions. The effective shutdown of industrial activity i.e. China, ground zero for the virus presented particularly difficult problems for manufacturing firms worldwide. Imported goods invested by investors set a significant setback.
+Several experiments were carried out by different governments across the globe to restrict the spread of this pandemic. Boris Johnson introduced the herd immunity plan in the United Kingdom which was a failure followed by a mitigate model which India also tried initially to stop the spread of the Covid-19 virus. The last and the ultimate model that most of the countries are applying is the Hammer and the Dance Model i.e. the Lockdown Model which is estimated to bring down the caseload by 25-30%. The Lockdown model basically means buying time to prepare the vaccine to kill the virus.
+However, the lockdown has certain critical economic consequences which add to the burden of global distress. This can be explained using the standard macroeconomic Keynesian model. The lockdown and the spread of the disease have a direct negative shock on aggregate consumption levels and exports. This leads to a contraction in aggregate demand which leads to a fall in the market rate of interest and aggregate equilibrium output. The secondary effect on the commodity market is via investment demand function which can either increase owing to a fall in the market rate of interest, or fall owing to the contraction in aggregate demand. Clearly, the contraction of the Aggregate Demand-side generates an economic slowdown. On the other hand, restriction of workers gathering in the workplace owing to lockdown hurts the production in those sectors which need the presence of physical workers. Note that software or financial service-producing sectors are exempted from such negative supply shock at least in the short-run to medium-run since those works could be easily carried out based on “work from home” anthem. However, reverse migration of workers is an indication of a sharp cut down in production activities. This Aggregate supply shock leads to the situation of stagflation. In recent announcements by the Reserve Bank of India (RBI) to ease liquidity in the system may prove to be counterproductive provided the aggregate supply shock, since the escalation of demand specifically for non-traded products without an adequate increase in production (supply) would only result in inflation. In other words, supply-side management must go hand in hand with demand-side policies. Even if policies are undertaken at the national level by the government, however, conditions may not improve much due to shocks in the external sector through trade in commodities. Most imports are banned which will increase the economic cost of production of import substitutes within the domestic territory based on the theory of comparative advantage in a Ricardian sense. At the same time, exports are hurt due to lower demand from the developed economies. This shows that unemployment and inflation are inevitable in the near future.
+Corona Virus has mainly affected raw material export-driven countries. With the Covid-19 virus in the backdrop there will be a decline in new orders, production, and employment with ease in supplier deliveries as demand will be less with a mild decline in the inventories. There has been a huge revenue impact. Long stretches of empty supermarket shelves and shortage of essential commodities are only the visible impacts to consumers of the global chain disruption caused by the Covid-19 pandemic. The uncertainties ahead swing between extremes. As the shortages worsen before they get resolved prices of many commodities could go up for consumers even if laws exist against price gouging. At the same time we should keep in mind that constrained supplies could cause a decline in demand which in turn may end up weakening prices. Risk Management process is not robust enough to cope with the fallout of the coronavirus pandemic. The seemingly relentless forces of globalization and technology with coronavirus in the backdrop will present us with new supply chain challenges and opportunities for further progress in the near future. There is a glimmer of good news as countries globally haven taken preventive measures but the recovery may be fragile.
+The crisis due to the global pandemic is likely to be more serious for developing economies compared to the global financial crisis of 2008. This is due to the fact that the global financial crisis leads to lower demand for exports from the developing economies by the developed nations which further lead to contraction of export-based industries and other sectors in the developing nations due to inter-sectoral backward and forward linkage effect, however, the burden of retrenchments in the formal sector was absorbed in the informal sector. In the present situation, the problem of vanishing informal sector is evident since informal sector workers are more vulnerable to the spread of the disease due to the absence of non-regulatory authority and out of direct government control. Moreover, lockdown lead to massive close down of this informal units, thus the informal sector in this present set up is vanishing due to which the shock absorption capacity of developing economy like India is becoming weaker. The global economy is drowning towards deep cycles of economic depression and the aftershocks seem to be long-lasting. The only way of this global shock seems to be international policy coordination in line with the needs of the domestic economies
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Due repercussion environment Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Epidemics general direct indirect costs direct indirect measures adopted counter control epidemic generally economic social consequences 2019 Coronavirus outbreak globally lead significant setback entire globe detected 26thDecember 2019 World Health Organization prepared diagnostic 14thJanuary 2020 global coronavirus pandemic continues hold economy feeling effect degree uncertainty taking toll manufacturing sectors Supply chain management important area opportunities community contribute forms data produced Supply Management Report Business show PMI Purchasing Manager Index declined 1 huge contraction Petroleum Transportation Textile Industries fall inventory expected due supply chain disruptions leading inefficiencies material conversion continued advanced stocking protect production schedules analysis trading platform Forex claimed heavily 75 companies reported supply chain disruptions 80 believing point experience impacts result disruptions effective shutdown industrial activity ground virus presented difficult problems manufacturing firms worldwide Imported goods invested investors set significant setback experiments carried governments globe restrict spread pandemic introduced immunity plan United Kingdom failure mitigate model initially stop spread virus ultimate model countries applying Dance Model Lockdown Model estimated bring caseload Lockdown model basically buying time prepare vaccine kill virus lockdown critical economic consequences add global distress explained standard macroeconomic Keynesian model lockdown spread disease direct negative shock aggregate consumption levels exports leads contraction aggregate demand leads fall market rate interest aggregate equilibrium output secondary effect commodity market investment demand function increase owing fall market rate interest fall owing contraction aggregate demand contraction Aggregate generates economic slowdown restriction workers gathering workplace owing lockdown hurts production sectors presence physical workers Note software financial sectors exempted negative supply shock works easily carried based work home anthem reverse migration workers indication cut production activities Aggregate supply shock leads situation stagflation recent announcements Reserve Bank RBI ease liquidity system prove counterproductive provided aggregate supply shock escalation demand specifically products adequate increase production supply result inflation words management policies policies undertaken national level government conditions improve due shocks external sector trade commodities imports banned increase economic cost production import substitutes domestic territory based theory comparative advantage Ricardian sense time exports due demand developed economies shows unemployment inflation inevitable future Virus affected raw material countries virus backdrop decline orders production employment ease supplier deliveries demand mild decline inventories huge revenue impact stretches empty supermarket shelves shortage essential commodities visible impacts consumers global chain disruption caused pandemic uncertainties ahead swing extremes shortages worsen resolved prices commodities consumers exist gouging time mind constrained supplies decline demand turn end weakening prices Risk Management process robust fallout coronavirus pandemic seemingly relentless forces globalization technology coronavirus backdrop present supply chain challenges opportunities progress future glimmer news countries globally preventive measures recovery fragile crisis due global pandemic developing economies compared global financial crisis 2008 due fact global financial crisis leads demand exports developing economies developed lead contraction industries sectors developing due backward forward linkage effect retrenchments formal sector absorbed informal sector present situation problem vanishing informal sector evident informal sector workers vulnerable spread disease due absence authority direct government control lockdown lead massive informal units informal sector present set vanishing due shock absorption capacity developing economy weaker global economy drowning deep cycles economic depression aftershocks global shock international policy coordination line domestic economies provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>32</v>
+      </c>
+      <c r="G95" t="n">
+        <v>55</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-0.2643678130532435</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.134259259052069</v>
+      </c>
+      <c r="J95" t="n">
+        <v>23.88888888888889</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.2465116279069768</v>
+      </c>
+      <c r="L95" t="n">
+        <v>9.654160206718347</v>
+      </c>
+      <c r="M95" t="n">
+        <v>26.75925925925926</v>
+      </c>
+      <c r="N95" t="n">
+        <v>765</v>
+      </c>
+      <c r="O95" t="n">
+        <v>318</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2480</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>2</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4.771844660194175</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>blackassign0097</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/impact-of-covid-19-pandemic-on-office-space-and-co-working-industries/</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Impact of COVID-19 pandemic on office space and co-working industries.
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+COVID 19 has bought the world to its knees. With businesses being shut, travel being banned, schools, and colleges being closed, we have observed an impeccable amount of sorrow and despise along with a great amount of mental torture and destruction. Though situations are improving now, and the lockdowns are being lifted, it is a fact that it cannot be shunned that this virus will have a long term impact on people, and the effects will not only be felt economically and physically but also mentally.
+We’ve been reading articles regarding the impact of COVID 19 on the economy, education, mental health, and every other possible aspect. But one topic which has not been talked about much is the impact of COVID 19 on office space and co-working industries. Well, it is quite obvious that offices will start functioning now, but, the COVID period hasn’t ended. This means that social distancing will also have to be followed in offices; where it will be a problem to do so because of the lack of adequate infrastructure and space. The same will be the condition in co-working industries, wherein employees of different companies come and work together under the same roof.
+However, these problems are quite obvious (though people haven’t thought about them much), but the fact which people fail to notice and understand is that the meaning of space is not only limited to infrastructural space which is measured in square foot or square meters; but it also extends to metal space, or for that fact, space in the minds of people for others and their thoughts as well as opinions.
+Coronavirus has left a big scratch in our country; just the way a car needs repair after an accident, our country will also need repair after the control of this virus. But, unlike a car, our country will require a large amount of time to get restored and to stand straight without any support.
+Needless to say, the economic stability of our country will definitely be hit because of this reason. But the problem is since the earnings of the employers will reduce, it will subsequently lead to a drop in the salary of the employees. While some employees might be preferred by their bosses and may receive a raise regularly, others might be subjected to unfair treatment and made to do the same amount of work for a lower salary.
+People tend to overlook the thin line which exists between cooperation and competition. The problem doesn’t arise when such a situation happens wherein an employee is getting paid more than the other, but instead, it arises when people start to compare their earnings as well as benefits to that of others. And in today’s world, where people keep money at the top of their priority list, comparisons will play a very important role in the performance of employees and their company.
+Since there will exist inequalities and partialities in companies, there will also exist a sense of hatred and competition among the employees of the same company; who will compete to get a better position or a raise in their salary. This may seem beneficial to some as it might compel the employees to work harder and better, but however, will bring huge losses in the long run. The fact is; employees might end up doing unethical acts which will help them to make a better impression in their boss’s eyes.
+Moreover, since there will be comparisons among the employees, it might happen that the ‘Employee of the Month’ ends up being hated by all other employees in the company. Another situation that might arise is that of bluffing and pretending; wherein employees tend to show that they work very hard but they don’t. This might be practiced by showing the boss that they are working when he is on around, and then chilling the rest of the time when the boss goes home or sits in his office. In fact, employees might also lose interest in working if they sense repeated partialities and inequalities; which they might show by quitting the jobs or not performing to their best.
+Such situations will definitely arise in companies and offices; wherein employees will compete for attention and resources; which will have a great impact on the company and its functioning. And all this will happen because of only one thing; lack of office mental space i.e. space in the minds of people working together in a particular office for cooperation and teamwork, along with ignorance of the fact that things will get better and eventually the same after some time.
+Another kind of industry and companies that will be affected due to the long-lasting impact of COVID 19 is the co-working industry and offices. This is because, there will be a shortage of resources and the income of people, but the maintenance cost to be born for the infrastructure, as well the rent will remain the same. Because of this, employees will be told by the company owners to exploit the resources present in the offices and use them to the fullest; to compensate for the losses being born and to make better use of the money being used. However, the number of resources will be the same, and so, there will be a case of competition between employees of different companies to use resources and take benefits of the same.
+If the above two situations happen to occur at the same time (which they most likely will), we will observe a scene of intra-company as well as inter-company competition. Also, our personal relations with other employees in the company might also be affected due to this comparison and competition; which itself will be a result of limited mental space.
+COVID 19 will have severe impacts on the office (mental) space of companies and people.  People’s thoughts, how they treat others, along with accepting defeat and rejection will be an important aspect of everyone’s lives. Moreover, we might also observe a shoot in the intensity and frequency of office people going to psychologists; because of repeated rejection and unfair treatment. However, we need to cope with this thing and realize that it is indeed very important for us to start preparing to expand our mental space and that this competition and comparison will not stay for long and should not affect our personal relations and life at any cost.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Impact pandemic office space industries Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist COVID 19 bought world knees businesses shut travel banned schools colleges closed observed impeccable amount sorrow despise great amount mental torture destruction situations improving lockdowns lifted fact shunned virus term impact people effects felt economically physically mentally reading articles impact COVID 19 economy education mental health aspect topic talked impact COVID 19 office space industries obvious offices start functioning COVID period ended social distancing offices problem lack adequate infrastructure space condition industries employees companies work problems obvious people thought fact people fail notice understand meaning space limited infrastructural space measured square foot square meters extends metal space fact space minds people thoughts opinions Coronavirus left big scratch car repair accident repair control virus unlike car require amount time restored stand support Needless economic stability hit reason problem earnings employers reduce subsequently lead drop salary employees employees preferred bosses receive raise regularly subjected unfair treatment made amount work salary People tend overlook thin line exists cooperation competition problem arise situation employee paid arises people start compare earnings benefits today world people top priority list comparisons play important role performance employees company exist inequalities partialities companies exist sense hatred competition employees company compete position raise salary beneficial compel employees work bring huge losses run fact employees end unethical acts make impression eyes comparisons employees happen Employee ends hated employees company situation arise bluffing pretending employees tend show work hard practiced showing working chilling rest time home sits office fact employees lose interest working sense repeated partialities inequalities show quitting jobs performing situations arise companies offices employees compete attention resources great impact company functioning happen thing lack office mental space space minds people working office cooperation teamwork ignorance fact things eventually time kind industry companies affected due impact COVID 19 industry offices shortage resources income people maintenance cost infrastructure rent remain employees told company owners exploit resources present offices fullest compensate losses make number resources competition employees companies resources benefits situations happen occur time observe scene competition personal relations employees company affected due comparison competition result limited mental space COVID 19 severe impacts office mental space companies people People thoughts accepting defeat rejection important aspect lives observe shoot intensity frequency office people psychologists repeated rejection unfair treatment thing realize important start preparing expand mental space competition comparison stay affect personal relations life cost provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>28</v>
+      </c>
+      <c r="G96" t="n">
+        <v>36</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-0.124999998046875</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.1235521233136059</v>
+      </c>
+      <c r="J96" t="n">
+        <v>29.58139534883721</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.1713836477987421</v>
+      </c>
+      <c r="L96" t="n">
+        <v>11.90111159865438</v>
+      </c>
+      <c r="M96" t="n">
+        <v>33.44186046511628</v>
+      </c>
+      <c r="N96" t="n">
+        <v>657</v>
+      </c>
+      <c r="O96" t="n">
+        <v>218</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2180</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>6</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4.308977035490606</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>blackassign0098</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/contribution-of-handicrafts-visual-arts-literature-in-the-indian-economy/</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Contribution of handicrafts (Visual Arts &amp; Literature) in the Indian economy
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+Handicrafts is an art of making crafts by hand in India is called Indian handicrafts, in ancient India people lived in colonies called tribals and they were used to make utility items for their daily needs, that art of making the crafts called handicrafts, and the items called handicrafts goods.
+Few of the Indian handicrafts are as follows
+The visual arts are art forms such as painting, drawing, printmaking, sculpture, ceramics, photography, video, filmmaking, design, crafts, and architecture. Many artistic disciplines such as performing arts, conceptual art, textile arts also involve aspects of visual arts as well as arts of other types. Also included within the visual arts are the applied arts such as industrial design, graphic design, fashion design, interior design, and decorative art.
+Roles of handicrafts in Indian economy
+Some key facts of Indian handicrafts industry
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Contribution handicrafts Visual Arts Literature economy Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist Handicrafts making crafts called handicrafts ancient people lived colonies called tribals make utility items making crafts called handicrafts items called handicrafts goods handicrafts visual arts forms painting drawing printmaking sculpture ceramics photography video filmmaking design crafts architecture artistic disciplines performing arts conceptual textile arts involve aspects visual arts arts types included visual arts applied arts industrial design graphic design fashion design interior design decorative Roles handicrafts economy facts handicrafts industry provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>8</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.7777776913580343</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.04306220075089856</v>
+      </c>
+      <c r="J97" t="n">
+        <v>37.88888888888889</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.2873900293255132</v>
+      </c>
+      <c r="L97" t="n">
+        <v>15.27051156728576</v>
+      </c>
+      <c r="M97" t="n">
+        <v>45.22222222222222</v>
+      </c>
+      <c r="N97" t="n">
+        <v>242</v>
+      </c>
+      <c r="O97" t="n">
+        <v>98</v>
+      </c>
+      <c r="P97" t="n">
+        <v>715</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4.923645320197044</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>blackassign0099</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/how-covid-19-is-impacting-payment-preferences/</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>How COVID-19 is impacting payment preferences?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+I would rather pay cash – Before COVID-19.
+I would rather make online payment – After lockdown.
+During this lockdown, one can observe a number of small positive changes in our surroundings. One such positive change is using online mode of payment even if they are small in amount as it counts as a big step towards DIGITAL INDIA and self-development as well.
+According to Economic Times, 42% of Indians say that they have started using online mode of payment. Some small tasks like mobile phone recharge, bill payments, buying groceries, etc., are some essential tasks that cannot be ignored, and making an online payment is way too convenient for them. Also, multiple schemes have been initiated by the government to promote online payments like Lucky Grahak Yojana and Digi Dhan Vyapari Yojana. The details of the same are as follows:
+LUCKY GARHAK YOJANA
+DIGI DHAN VYAPARI
+The frequently used apps by the consumers and the market share of apps are as follows:
+Paytm- 33%
+Google Pay- 14%
+PhonePe- 4%
+Amazon Pay- 10%
+BHIM- 6%
+Other Apps- 33%
+Not only the sellers but also the buyers have taken a step forward in making online payments and have been exploring the various offers and discounts. The sellers have started their own online shops and made online payment mandatory in highly contaminated zones. The buyer has also taken advantage of home deliveries to follow social distancing. To add to the advantage of buyers and sellers KYC is no more a necessity to make money transfers.
+There has been an increase in the services provided by banking sectors as well. The FM Nirmala Sitharaman has provided the directions to not charge for cash withdrawals from ATM’s. Various services like sending and receiving money, blocking cards, credit card payments, credit card pins, etc., are being provided online.
+E-payment options like Paytm, etc., have been open up for investing money online in stocks, insurance, etc. Even online shopping apps like Amazon have come up with various offers for their in-built wallets.
+Emerging technologies and high competition among online payment apps are providing benefits to buyers and sellers as well. Sellers have been able to increase their reach with online shops and online payment stands as a guarantee for them. Buyers have been in the most advantageous position ever after the digital payment has come into the market. They are being provided with a number of choices to choose from as well as make instant payments for offers. This all sums up the likeliness of digital payment in the market. So yes, we can say, YOU (DIGITAL PAYMENT) HAVE A BRILLANT FUTURE, CHILD!
+We all have heard this statement “Precaution is better than cure” and here is the time to follow the same. It has been proven as a fact that the coronavirus can persist on paper for four or five days. That means the coronavirus can persist on the paper currency for four or five days. Thus, it is important to avoid the usage of paper currency.
+A revolution will take place only when the below poverty population of India will start using the online mode of payment and will be literate enough to not get caught in any scam.
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>impacting payment preferences Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist pay make online payment lockdown lockdown observe number positive surroundings positive change online mode payment amount big step DIGITAL Economic Times 42 Indians started online mode payment tasks mobile phone recharge payments buying groceries essential tasks making online payment convenient multiple schemes initiated government promote online payments Grahak Yojana Digi Dhan Vyapari Yojana details GARHAK YOJANA DIGI DHAN VYAPARI frequently apps consumers market share apps 33 Google 14 4 Amazon 10 6 33 buyers step forward making online payments exploring offers discounts started online shops made online payment mandatory highly contaminated zones buyer advantage home deliveries follow social distancing add advantage buyers KYC necessity make transfers increase services provided banking sectors FM Nirmala Sitharaman provided directions charge withdrawals ATM services sending receiving blocking cards credit payments credit pins provided online options Paytm open investing online insurance online shopping apps Amazon offers wallets Emerging technologies competition online payment apps providing benefits buyers increase reach online shops online payment stands guarantee Buyers advantageous position digital payment market provided number choices choose make instant payments offers sums likeliness digital payment market DIGITAL PAYMENT BRILLANT FUTURE statement Precaution cure time follow proven fact coronavirus persist paper days coronavirus persist paper currency days important avoid usage paper currency revolution poverty population start online mode payment literate caught scam provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>18</v>
+      </c>
+      <c r="G98" t="n">
+        <v>4</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.6363636074380178</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.06303724910304513</v>
+      </c>
+      <c r="J98" t="n">
+        <v>21.81818181818182</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.2166666666666667</v>
+      </c>
+      <c r="L98" t="n">
+        <v>8.813939393939393</v>
+      </c>
+      <c r="M98" t="n">
+        <v>25.42424242424243</v>
+      </c>
+      <c r="N98" t="n">
+        <v>440</v>
+      </c>
+      <c r="O98" t="n">
+        <v>156</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1367</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4.406921241050119</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>blackassign0100</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/how-will-covid-19-affect-the-world-of-work-2/</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>How will COVID-19 affect the world of work?
+Efficient Supply Chain Assessment: Overcoming Technical Hurdles for Web Application Development
+Streamlined Integration: Interactive Brokers API with Python for Desktop Trading Application
+Efficient Data Integration and User-Friendly Interface Development: Navigating Challenges in Web Application Deployment
+Effective Management of Social Media Data Extraction: Strategies for Authentication, Security, and Reliability
+AI Bot Audio to audio
+Methodology for ETL Discovery Tool using LLMA, OpenAI, Langchain
+Methodology for database discovery tool using openai, LLMA, Langchain
+Chatbot using VoiceFlow
+Rising IT cities and its impact on the economy, environment, infrastructure, and city life by the year 2040.
+Rising IT Cities and Their Impact on the Economy, Environment, Infrastructure, and City Life in Future
+Internet Demand’s Evolution, Communication Impact, and 2035’s Alternative Pathways
+Rise of Cybercrime and its Effect in upcoming Future
+AI/ML and Predictive Modeling
+Solution for Contact Centre Problems
+How to Setup Custom Domain for Google App Engine Application?
+Code Review Checklist
+As business close to help prevent transmission of COVID-19, financial concerns and job losses are one of the first human impacts of the virus;
+COVID-19 is in decline in China. There are now more new cases every day in Europe than there were in China at the epidemic’s peak and Italy has surpassed it as the country with the most deaths from the virus It took 67 days to reach the first 100,000 confirmed cases worldwide, 11 days for this to increase to 200,000and just four to reach 300,000 confirmed cases – a figure now exceeded.
+In recent weeks, we have seen the significant economic impact of the coronavirus on financial markets and vulnerable industries such as manufacturing, tourism, hospitality and travel. Travel and tourism account for 10% of the global GDP and 50 million jobs are at risk worldwide.
+Global tourism, travel and hospitality companies closing down affects SMEs globally. This, in turn, affects many people, typically the least well-paid and those self-employed or working in informal environments in the gig economy or in part-time work with zero-hours contracts. Some governments have announced economic measures to safeguard jobs, guarantee wages and support the self-employed, but there is a lack of clarity in many countries about how these measures will be implemented and how people will manage a loss of income in the short-term.
+Behind these statistics lie the human costs of the pandemic, from the deaths of friends and family to the physical effects of infection and the mental trauma and fear faced by almost everyone. Not knowing how this pandemic will play out affects our economic, physical and mental well-being against a backdrop of a world that, for many, is increasingly anxious, unhappy and lonely.
+Fear of the unknown can often lead to feelings of panic, for example when people feel they are being denied life-saving protection or treatment or that they may run out of necessities, which can lead to panic buying.Psychological stress is often related to a sense of a lack of control in the face of uncertainty.
+In all cases, lack of information or the wrong information, either provided inadvertently or maliciously, can amplify the effects. There is a huge amount of misleading information circulating online about COVID-19, from fake medical information to speculation about government responses. People are susceptible to social media posts from an apparently trustworthy source, often referred to as an “Uncle with a Masters”-post, possibly amplified and spread by “copypasta” posts, which share information by copying and pasting and make each new post look like an original source, as opposed to posts that are “liked” or “shared” or “retweeted”.
+Sadly, criminals and hackers are also exploiting this situation and there has been a significant rise in Coronavirus-themed malicious websites, with more than 16,000 new coronavirus-related domains registered since January 2020. Hackers are selling malware and hacking tools through COVID-19 discount codes on the darknet,many of which are aimed at accessing corporate data from home-workers’ laptops, which may not be as secure as outside an office environment.
+Social distancing and lockdowns have also prompted altruistic behaviors, in part because of the sense that “we’re all in this together”. Many people report being bored or concerned about putting on weight; others have discovered a slower pace of life and by not going out and socializing have found more time for family, others, and even their pets.
+The downside of self-isolation or social lockdown are symptoms of traumatic stress, confusion and anger, all of which are exacerbated by fear of infection, having limited access to supplies of necessities, inadequate information or the experience of economic loss or stigma. This stress and anxiety can lead to increased alcohol consumption, as well as an increase in domestic and family violence.In Jingzhou, a town near Wuhan in Hubei province, reports of domestic violence during the lockdown in February 2020 were more than triple the number reported in February 2019.
+Health measures must be the first priority for governments, business and society. It is important for businesses to show solidarity and work together to protect staff, local communities and customers, as well as keeping supply chains, manufacturing and logistics working.According to research, “my employer” is more trusted than the government or media. Daily updates on a company website with input from scientists and experts are recommended to counter politicized messages in the media and from governments. This is particularly true for large companies that have the capacity to do this.
+Messages about what businesses are doing for their employees and in their communities is also important. Some companies are helping schoolchildren from vulnerable families who can no longer get a school meal; others are providing public health messages about effective handwashing. Even CEOs can show they are working from home and self-isolating, while still being effective in their leadership.
+Following WHO advice, there is a need for the business community to move from general support to specific actions and focus on countries’ access to critical supplies, including a “Community Package of Critical Items” (a list of 46 items that all countries need). Of these items, 20 are either not available locally or available stocks are too limited. These missing items fall into four categories:
+The call for action is for more money, to work with manufacturers to create capacity and to organize purchasing so there is guaranteed access, especially for poorer countries with less resilient public health systems. The concept is to create a global security stockpile of supplies and equipment, an effort that needs:
+We provide intelligence, accelerate innovation and implement technology with extraordinary breadth and depth global insights into the big data,data-driven dashboards, applications development, and information management for organizations through combining unique, specialist services and high-lvel human expertise.
+Contact us:hello@blackcoffer.com
+© All Right Reserved, Blackcoffer(OPC) Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>affect world work Efficient Supply Chain Assessment Overcoming Technical Hurdles Web Application Development Streamlined Integration Interactive Brokers API Python Desktop Trading Application Efficient Data Integration Interface Development Navigating Challenges Web Application Deployment Effective Management Social Media Data Extraction Strategies Authentication Security Reliability Bot Audio audio Methodology ETL Discovery Tool LLMA OpenAI Langchain Methodology database discovery tool openai LLMA Langchain Chatbot VoiceFlow Rising cities impact economy environment infrastructure life 2040 Rising Cities Impact Economy Environment Infrastructure Life Future Internet Demand Evolution Communication Impact 2035 Alternative Pathways Rise Cybercrime Effect upcoming Future Predictive Modeling Solution Contact Centre Problems Setup Custom Domain Google App Engine Application Code Review Checklist business prevent transmission financial concerns job losses human impacts virus decline cases epidemic surpassed deaths virus 67 days reach confirmed cases worldwide 11 days increase reach confirmed cases figure exceeded recent significant economic impact coronavirus financial markets vulnerable industries manufacturing tourism hospitality travel Travel tourism account 10 global GDP 50 jobs risk worldwide Global tourism travel hospitality companies closing affects SMEs globally turn affects people typically working informal environments gig economy work contracts governments announced economic measures safeguard jobs guarantee support lack clarity countries measures implemented people manage loss income statistics lie human costs pandemic deaths friends family physical effects infection mental trauma fear faced knowing pandemic play affects economic physical mental backdrop world increasingly anxious unhappy lonely Fear unknown lead feelings panic people feel denied protection treatment run necessities lead panic stress related sense lack control face uncertainty cases lack information wrong information provided inadvertently maliciously amplify effects huge amount misleading information circulating online fake medical information speculation government responses People susceptible social media posts apparently trustworthy source referred Uncle possibly amplified spread copypasta posts share information copying pasting make original source opposed posts shared retweeted Sadly criminals hackers exploiting situation significant rise malicious websites domains registered 2020 Hackers selling malware hacking tools discount codes darknet aimed accessing corporate data laptops secure office environment Social distancing lockdowns prompted altruistic behaviors part sense people report bored concerned putting weight discovered slower life socializing found time family pets downside social lockdown symptoms traumatic stress confusion anger exacerbated fear infection limited access supplies necessities inadequate information experience economic loss stigma stress anxiety lead increased alcohol consumption increase domestic family Jingzhou town Wuhan Hubei province reports domestic violence lockdown 2020 triple number reported 2019 Health measures priority governments business society important businesses show solidarity work protect staff local communities customers keeping supply chains manufacturing logistics research employer trusted government media updates company website input scientists experts recommended counter politicized messages media governments companies capacity Messages businesses employees communities important companies helping schoolchildren vulnerable families longer school meal providing public health messages effective handwashing CEOs show working home effective leadership advice business community move general support specific actions focus countries access critical supplies including Community Package Critical Items list 46 items countries items 20 locally limited missing items fall categories action work manufacturers create capacity organize purchasing guaranteed access poorer countries resilient public health systems concept create global security stockpile supplies equipment effort provide intelligence accelerate innovation implement technology extraordinary breadth depth global insights big data dashboards applications development information management organizations combining unique specialist services human expertise Contact Reserved Blackcoffer OPC Pvt</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>35</v>
+      </c>
+      <c r="G99" t="n">
+        <v>56</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-0.2307692282333052</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.1700934576259935</v>
+      </c>
+      <c r="J99" t="n">
+        <v>31.28571428571428</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.2246575342465753</v>
+      </c>
+      <c r="L99" t="n">
+        <v>12.60414872798435</v>
+      </c>
+      <c r="M99" t="n">
+        <v>36.34285714285714</v>
+      </c>
+      <c r="N99" t="n">
+        <v>627</v>
+      </c>
+      <c r="O99" t="n">
+        <v>246</v>
+      </c>
+      <c r="P99" t="n">
+        <v>2101</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4.507486209613869</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
